--- a/Quiz 3/bin/Debug/net9.0/Quiz3.xlsx
+++ b/Quiz 3/bin/Debug/net9.0/Quiz3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\Quiz 3\Quiz 3\bin\Debug\net9.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEC8AE9-8F48-4371-BC9F-4E7978CD161E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E81D1F9-0F03-49FA-94A6-D0C96006041B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A52166B1-4494-480B-A027-66F199F0B402}"/>
   </bookViews>
@@ -1915,9 +1915,6 @@
     <t>Что такое OpenAPI?</t>
   </si>
   <si>
-    <t>это стандартная спецификация (ранее Swagger) для описания RESTful API в машинно-читаемом формате (YAML/JSON).</t>
-  </si>
-  <si>
     <t>Swagger — это экосистема инструментов, а OpenAPI — стандарт, который эти инструменты поддерживают.</t>
   </si>
   <si>
@@ -2768,6 +2765,9 @@
 4. Ошибки формата данных
 5. Ошибки "Not Supported"/"Not Implemented"     
 6. Ошибки лимитов</t>
+  </si>
+  <si>
+    <t>это стандартная спецификация для описания RESTful API в  формате (YAML/JSON).</t>
   </si>
 </sst>
 </file>
@@ -3169,8 +3169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C34F926-ACF9-49CF-9B6A-0D737BBB828A}">
   <dimension ref="A1:D344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A299" workbookViewId="0">
-      <selection activeCell="C303" sqref="C303"/>
+    <sheetView tabSelected="1" topLeftCell="A308" workbookViewId="0">
+      <selection activeCell="C311" sqref="C311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3369,7 +3369,7 @@
         <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -3453,7 +3453,7 @@
         <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
@@ -3579,7 +3579,7 @@
         <v>51</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
@@ -3705,7 +3705,7 @@
         <v>68</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D38" s="1">
         <v>2</v>
@@ -3747,7 +3747,7 @@
         <v>75</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D41" s="1">
         <v>2</v>
@@ -3761,7 +3761,7 @@
         <v>76</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D42" s="1">
         <v>2</v>
@@ -3901,7 +3901,7 @@
         <v>95</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>100</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
@@ -4041,7 +4041,7 @@
         <v>120</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D62" s="1">
         <v>2</v>
@@ -4153,7 +4153,7 @@
         <v>126</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D70" s="1">
         <v>2</v>
@@ -4265,7 +4265,7 @@
         <v>141</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D78" s="1">
         <v>2</v>
@@ -4307,7 +4307,7 @@
         <v>145</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D81" s="1">
         <v>2</v>
@@ -4335,7 +4335,7 @@
         <v>148</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D83" s="1">
         <v>2</v>
@@ -4405,7 +4405,7 @@
         <v>159</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D88" s="1">
         <v>2</v>
@@ -4419,7 +4419,7 @@
         <v>160</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D89" s="1">
         <v>2</v>
@@ -4475,7 +4475,7 @@
         <v>167</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D93" s="1">
         <v>0</v>
@@ -4489,7 +4489,7 @@
         <v>171</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D94" s="1">
         <v>2</v>
@@ -4503,7 +4503,7 @@
         <v>172</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D95" s="1">
         <v>2</v>
@@ -4545,7 +4545,7 @@
         <v>176</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D98" s="1">
         <v>2</v>
@@ -4559,7 +4559,7 @@
         <v>177</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D99" s="1">
         <v>2</v>
@@ -4573,7 +4573,7 @@
         <v>179</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D100" s="1">
         <v>0</v>
@@ -4615,7 +4615,7 @@
         <v>184</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D103" s="1">
         <v>0</v>
@@ -4643,7 +4643,7 @@
         <v>187</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D105" s="1">
         <v>2</v>
@@ -4769,7 +4769,7 @@
         <v>204</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D114" s="1">
         <v>0</v>
@@ -4783,7 +4783,7 @@
         <v>205</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D115" s="1">
         <v>2</v>
@@ -4797,7 +4797,7 @@
         <v>206</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D116" s="1">
         <v>2</v>
@@ -4811,7 +4811,7 @@
         <v>207</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D117" s="1">
         <v>2</v>
@@ -4825,7 +4825,7 @@
         <v>208</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D118" s="1">
         <v>2</v>
@@ -4881,7 +4881,7 @@
         <v>215</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D122" s="1">
         <v>2</v>
@@ -4937,7 +4937,7 @@
         <v>222</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D126" s="1">
         <v>2</v>
@@ -4965,7 +4965,7 @@
         <v>225</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D128" s="1">
         <v>2</v>
@@ -4979,7 +4979,7 @@
         <v>226</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D129" s="1">
         <v>2</v>
@@ -5021,7 +5021,7 @@
         <v>231</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D132" s="1">
         <v>2</v>
@@ -5035,7 +5035,7 @@
         <v>232</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D133" s="1">
         <v>2</v>
@@ -5105,7 +5105,7 @@
         <v>241</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D138" s="1">
         <v>2</v>
@@ -5119,7 +5119,7 @@
         <v>242</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D139" s="1">
         <v>2</v>
@@ -5133,7 +5133,7 @@
         <v>243</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D140" s="1">
         <v>2</v>
@@ -5147,7 +5147,7 @@
         <v>244</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D141" s="1">
         <v>2</v>
@@ -5161,7 +5161,7 @@
         <v>245</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D142" s="1">
         <v>2</v>
@@ -5175,7 +5175,7 @@
         <v>247</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D143" s="1">
         <v>2</v>
@@ -5231,7 +5231,7 @@
         <v>254</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D147" s="1">
         <v>1</v>
@@ -5259,7 +5259,7 @@
         <v>257</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D149" s="1">
         <v>2</v>
@@ -5315,7 +5315,7 @@
         <v>264</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D153" s="1">
         <v>0</v>
@@ -5329,7 +5329,7 @@
         <v>265</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D154" s="1">
         <v>0</v>
@@ -5343,7 +5343,7 @@
         <v>266</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D155" s="1">
         <v>0</v>
@@ -5357,7 +5357,7 @@
         <v>267</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D156" s="1">
         <v>2</v>
@@ -5455,7 +5455,7 @@
         <v>280</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D163" s="1">
         <v>1</v>
@@ -5483,7 +5483,7 @@
         <v>283</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D165" s="1">
         <v>1</v>
@@ -5497,7 +5497,7 @@
         <v>284</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D166" s="1">
         <v>1</v>
@@ -5525,7 +5525,7 @@
         <v>287</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D168" s="1">
         <v>0</v>
@@ -5651,7 +5651,7 @@
         <v>304</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D177" s="1">
         <v>0</v>
@@ -5693,7 +5693,7 @@
         <v>309</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D180" s="1">
         <v>2</v>
@@ -5707,7 +5707,7 @@
         <v>310</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D181" s="1">
         <v>2</v>
@@ -5805,7 +5805,7 @@
         <v>323</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D188" s="1">
         <v>2</v>
@@ -5847,7 +5847,7 @@
         <v>328</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D191" s="1">
         <v>1</v>
@@ -5861,7 +5861,7 @@
         <v>329</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D192" s="1">
         <v>0</v>
@@ -5889,7 +5889,7 @@
         <v>332</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D194" s="1">
         <v>1</v>
@@ -5903,7 +5903,7 @@
         <v>333</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D195" s="1">
         <v>1</v>
@@ -5917,7 +5917,7 @@
         <v>334</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D196" s="1">
         <v>2</v>
@@ -5959,7 +5959,7 @@
         <v>339</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D199" s="1">
         <v>1</v>
@@ -6001,7 +6001,7 @@
         <v>344</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D202" s="1">
         <v>2</v>
@@ -6015,7 +6015,7 @@
         <v>345</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D203" s="1">
         <v>1</v>
@@ -6029,7 +6029,7 @@
         <v>346</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D204" s="1">
         <v>2</v>
@@ -6043,7 +6043,7 @@
         <v>347</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D205" s="1">
         <v>1</v>
@@ -6099,7 +6099,7 @@
         <v>354</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D209" s="1">
         <v>1</v>
@@ -6113,7 +6113,7 @@
         <v>355</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D210" s="1">
         <v>1</v>
@@ -6124,10 +6124,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D211" s="1">
         <v>0</v>
@@ -6141,7 +6141,7 @@
         <v>356</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D212" s="1">
         <v>1</v>
@@ -6180,7 +6180,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>361</v>
@@ -6197,7 +6197,7 @@
         <v>362</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D216" s="1">
         <v>1</v>
@@ -6211,7 +6211,7 @@
         <v>363</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D217" s="1">
         <v>1</v>
@@ -6239,7 +6239,7 @@
         <v>366</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D219" s="1">
         <v>1</v>
@@ -6253,7 +6253,7 @@
         <v>367</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D220" s="1">
         <v>0</v>
@@ -6281,7 +6281,7 @@
         <v>370</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D222" s="1">
         <v>1</v>
@@ -6295,7 +6295,7 @@
         <v>371</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D223" s="1">
         <v>2</v>
@@ -6309,7 +6309,7 @@
         <v>372</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D224" s="1">
         <v>1</v>
@@ -6323,7 +6323,7 @@
         <v>373</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D225" s="1">
         <v>1</v>
@@ -6351,7 +6351,7 @@
         <v>376</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D227" s="1">
         <v>2</v>
@@ -6365,7 +6365,7 @@
         <v>377</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D228" s="1">
         <v>2</v>
@@ -6379,7 +6379,7 @@
         <v>378</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D229" s="1">
         <v>2</v>
@@ -6393,7 +6393,7 @@
         <v>379</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D230" s="1">
         <v>0</v>
@@ -6435,7 +6435,7 @@
         <v>384</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D233" s="1">
         <v>1</v>
@@ -6449,7 +6449,7 @@
         <v>385</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D234" s="1">
         <v>1</v>
@@ -6463,7 +6463,7 @@
         <v>386</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D235" s="1">
         <v>1</v>
@@ -6477,7 +6477,7 @@
         <v>387</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D236" s="1">
         <v>1</v>
@@ -6491,7 +6491,7 @@
         <v>388</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D237" s="1">
         <v>0</v>
@@ -6505,7 +6505,7 @@
         <v>389</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D238" s="1">
         <v>0</v>
@@ -6533,7 +6533,7 @@
         <v>392</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D240" s="1">
         <v>2</v>
@@ -6561,7 +6561,7 @@
         <v>395</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D242" s="1">
         <v>2</v>
@@ -6575,7 +6575,7 @@
         <v>396</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D243" s="1">
         <v>1</v>
@@ -6603,7 +6603,7 @@
         <v>399</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D245" s="1">
         <v>0</v>
@@ -6631,7 +6631,7 @@
         <v>402</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D247" s="1">
         <v>1</v>
@@ -6687,7 +6687,7 @@
         <v>409</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D251" s="1">
         <v>1</v>
@@ -6701,7 +6701,7 @@
         <v>410</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D252" s="1">
         <v>1</v>
@@ -6715,7 +6715,7 @@
         <v>411</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D253" s="1">
         <v>1</v>
@@ -6729,7 +6729,7 @@
         <v>412</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D254" s="1">
         <v>1</v>
@@ -6743,7 +6743,7 @@
         <v>413</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D255" s="1">
         <v>2</v>
@@ -6785,7 +6785,7 @@
         <v>418</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D258" s="1">
         <v>1</v>
@@ -6827,7 +6827,7 @@
         <v>423</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D261" s="1">
         <v>1</v>
@@ -6897,7 +6897,7 @@
         <v>432</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D266" s="1">
         <v>1</v>
@@ -6925,7 +6925,7 @@
         <v>435</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D268" s="1">
         <v>2</v>
@@ -6939,7 +6939,7 @@
         <v>436</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D269" s="1">
         <v>0</v>
@@ -6967,7 +6967,7 @@
         <v>439</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D271" s="1">
         <v>0</v>
@@ -6981,7 +6981,7 @@
         <v>440</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D272" s="1">
         <v>0</v>
@@ -6995,7 +6995,7 @@
         <v>441</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D273" s="1">
         <v>0</v>
@@ -7009,7 +7009,7 @@
         <v>442</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D274" s="1">
         <v>0</v>
@@ -7023,7 +7023,7 @@
         <v>443</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D275" s="1">
         <v>0</v>
@@ -7079,7 +7079,7 @@
         <v>450</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D279" s="1">
         <v>0</v>
@@ -7093,7 +7093,7 @@
         <v>451</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D280" s="1">
         <v>0</v>
@@ -7149,7 +7149,7 @@
         <v>458</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D284" s="1">
         <v>0</v>
@@ -7177,7 +7177,7 @@
         <v>461</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D286" s="1">
         <v>0</v>
@@ -7191,7 +7191,7 @@
         <v>462</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D287" s="1">
         <v>0</v>
@@ -7219,7 +7219,7 @@
         <v>465</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D289" s="1">
         <v>0</v>
@@ -7233,7 +7233,7 @@
         <v>466</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D290" s="1">
         <v>0</v>
@@ -7261,7 +7261,7 @@
         <v>469</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D292" s="1">
         <v>0</v>
@@ -7289,7 +7289,7 @@
         <v>472</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D294" s="1">
         <v>0</v>
@@ -7303,7 +7303,7 @@
         <v>473</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D295" s="1">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>476</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D297" s="1">
         <v>0</v>
@@ -7345,7 +7345,7 @@
         <v>477</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D298" s="1">
         <v>0</v>
@@ -7359,7 +7359,7 @@
         <v>478</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D299" s="1">
         <v>0</v>
@@ -7373,7 +7373,7 @@
         <v>479</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D300" s="1">
         <v>0</v>
@@ -7387,7 +7387,7 @@
         <v>480</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D301" s="1">
         <v>0</v>
@@ -7401,7 +7401,7 @@
         <v>481</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D302" s="1">
         <v>0</v>
@@ -7415,7 +7415,7 @@
         <v>482</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D303" s="1">
         <v>0</v>
@@ -7429,7 +7429,7 @@
         <v>483</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D304" s="1">
         <v>0</v>
@@ -7443,7 +7443,7 @@
         <v>484</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D305" s="1">
         <v>0</v>
@@ -7499,7 +7499,7 @@
         <v>491</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D309" s="1">
         <v>2</v>
@@ -7527,7 +7527,7 @@
         <v>494</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>495</v>
+        <v>663</v>
       </c>
       <c r="D311" s="1">
         <v>1</v>
@@ -7538,10 +7538,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D312" s="1">
         <v>1</v>
@@ -7552,10 +7552,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D313" s="1">
         <v>1</v>
@@ -7566,10 +7566,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D314" s="1">
         <v>1</v>
@@ -7580,10 +7580,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D315" s="1">
         <v>0</v>
@@ -7594,10 +7594,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D316" s="1">
         <v>2</v>
@@ -7608,10 +7608,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D317" s="1">
         <v>1</v>
@@ -7622,10 +7622,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D318" s="1">
         <v>0</v>
@@ -7636,10 +7636,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D319" s="1">
         <v>1</v>
@@ -7650,10 +7650,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C320" s="1" t="s">
         <v>506</v>
-      </c>
-      <c r="C320" s="1" t="s">
-        <v>507</v>
       </c>
       <c r="D320" s="1">
         <v>0</v>
@@ -7664,10 +7664,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D321" s="1">
         <v>0</v>
@@ -7678,10 +7678,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D322" s="1">
         <v>0</v>
@@ -7692,10 +7692,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D323" s="1">
         <v>0</v>
@@ -7706,10 +7706,10 @@
         <v>323</v>
       </c>
       <c r="B324" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C324" s="1" t="s">
         <v>512</v>
-      </c>
-      <c r="C324" s="1" t="s">
-        <v>513</v>
       </c>
       <c r="D324" s="1">
         <v>0</v>
@@ -7720,10 +7720,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D325" s="1">
         <v>2</v>
@@ -7734,10 +7734,10 @@
         <v>325</v>
       </c>
       <c r="B326" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C326" s="2" t="s">
         <v>515</v>
-      </c>
-      <c r="C326" s="2" t="s">
-        <v>516</v>
       </c>
       <c r="D326" s="1">
         <v>1</v>
@@ -7748,10 +7748,10 @@
         <v>326</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D327" s="1">
         <v>1</v>
@@ -7762,10 +7762,10 @@
         <v>327</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D328" s="1"/>
     </row>
@@ -7774,10 +7774,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D329" s="1"/>
     </row>
@@ -7786,10 +7786,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C330" s="2" t="s">
         <v>599</v>
-      </c>
-      <c r="C330" s="2" t="s">
-        <v>600</v>
       </c>
       <c r="D330" s="1"/>
     </row>
@@ -7798,10 +7798,10 @@
         <v>330</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D331" s="1"/>
     </row>

--- a/Quiz 3/bin/Debug/net9.0/Quiz3.xlsx
+++ b/Quiz 3/bin/Debug/net9.0/Quiz3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\Quiz 3\Quiz 3\bin\Debug\net9.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E81D1F9-0F03-49FA-94A6-D0C96006041B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2D9D95-994B-48D5-8F14-6F208CFEAD50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A52166B1-4494-480B-A027-66F199F0B402}"/>
   </bookViews>
@@ -2406,9 +2406,6 @@
 На уровне домена надо обрабатывать бизнес-сбои:</t>
   </si>
   <si>
-    <t>Корректное сравнение по значению, Потокобезопасность, при работе с  ссылками нет побочных эффектов, Предсказуемость и безопасность</t>
-  </si>
-  <si>
     <t>1. Каждый микросервис решает одну бизнес-задачу и делает это хорошо.
 2. Можно обновить один сервис, не трогая остальные.
 3.Проблемы в одном сервисе не должны "убивать" всю систему.
@@ -2768,6 +2765,9 @@
   </si>
   <si>
     <t>это стандартная спецификация для описания RESTful API в  формате (YAML/JSON).</t>
+  </si>
+  <si>
+    <t>Корректное сравнение по значению, Потокобезопасность, при работе с  ссылками нет побочных эффектов</t>
   </si>
 </sst>
 </file>
@@ -3169,8 +3169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C34F926-ACF9-49CF-9B6A-0D737BBB828A}">
   <dimension ref="A1:D344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A308" workbookViewId="0">
-      <selection activeCell="C311" sqref="C311"/>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="C188" sqref="C188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3369,7 +3369,7 @@
         <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -3705,7 +3705,7 @@
         <v>68</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D38" s="1">
         <v>2</v>
@@ -3747,7 +3747,7 @@
         <v>75</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D41" s="1">
         <v>2</v>
@@ -3761,7 +3761,7 @@
         <v>76</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D42" s="1">
         <v>2</v>
@@ -3901,7 +3901,7 @@
         <v>95</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>100</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
@@ -4041,7 +4041,7 @@
         <v>120</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D62" s="1">
         <v>2</v>
@@ -4153,7 +4153,7 @@
         <v>126</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D70" s="1">
         <v>2</v>
@@ -4307,7 +4307,7 @@
         <v>145</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D81" s="1">
         <v>2</v>
@@ -4335,7 +4335,7 @@
         <v>148</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D83" s="1">
         <v>2</v>
@@ -4405,7 +4405,7 @@
         <v>159</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D88" s="1">
         <v>2</v>
@@ -4475,7 +4475,7 @@
         <v>167</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D93" s="1">
         <v>0</v>
@@ -4545,7 +4545,7 @@
         <v>176</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D98" s="1">
         <v>2</v>
@@ -4559,7 +4559,7 @@
         <v>177</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D99" s="1">
         <v>2</v>
@@ -4769,7 +4769,7 @@
         <v>204</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D114" s="1">
         <v>0</v>
@@ -4797,7 +4797,7 @@
         <v>206</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D116" s="1">
         <v>2</v>
@@ -4811,7 +4811,7 @@
         <v>207</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D117" s="1">
         <v>2</v>
@@ -4825,7 +4825,7 @@
         <v>208</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D118" s="1">
         <v>2</v>
@@ -4881,7 +4881,7 @@
         <v>215</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D122" s="1">
         <v>2</v>
@@ -4937,7 +4937,7 @@
         <v>222</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D126" s="1">
         <v>2</v>
@@ -4979,7 +4979,7 @@
         <v>226</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D129" s="1">
         <v>2</v>
@@ -5119,7 +5119,7 @@
         <v>242</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D139" s="1">
         <v>2</v>
@@ -5147,7 +5147,7 @@
         <v>244</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D141" s="1">
         <v>2</v>
@@ -5161,7 +5161,7 @@
         <v>245</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D142" s="1">
         <v>2</v>
@@ -5175,7 +5175,7 @@
         <v>247</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D143" s="1">
         <v>2</v>
@@ -5343,7 +5343,7 @@
         <v>266</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D155" s="1">
         <v>0</v>
@@ -5357,7 +5357,7 @@
         <v>267</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D156" s="1">
         <v>2</v>
@@ -5455,7 +5455,7 @@
         <v>280</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D163" s="1">
         <v>1</v>
@@ -5483,7 +5483,7 @@
         <v>283</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D165" s="1">
         <v>1</v>
@@ -5497,7 +5497,7 @@
         <v>284</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D166" s="1">
         <v>1</v>
@@ -5651,7 +5651,7 @@
         <v>304</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D177" s="1">
         <v>0</v>
@@ -5693,7 +5693,7 @@
         <v>309</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D180" s="1">
         <v>2</v>
@@ -5805,7 +5805,7 @@
         <v>323</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>587</v>
+        <v>663</v>
       </c>
       <c r="D188" s="1">
         <v>2</v>
@@ -5861,7 +5861,7 @@
         <v>329</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D192" s="1">
         <v>0</v>
@@ -6001,7 +6001,7 @@
         <v>344</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D202" s="1">
         <v>2</v>
@@ -6015,7 +6015,7 @@
         <v>345</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D203" s="1">
         <v>1</v>
@@ -6113,7 +6113,7 @@
         <v>355</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D210" s="1">
         <v>1</v>
@@ -6124,10 +6124,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D211" s="1">
         <v>0</v>
@@ -6141,7 +6141,7 @@
         <v>356</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D212" s="1">
         <v>1</v>
@@ -6180,7 +6180,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>361</v>
@@ -6239,7 +6239,7 @@
         <v>366</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D219" s="1">
         <v>1</v>
@@ -6253,7 +6253,7 @@
         <v>367</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D220" s="1">
         <v>0</v>
@@ -6295,7 +6295,7 @@
         <v>371</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D223" s="1">
         <v>2</v>
@@ -6309,7 +6309,7 @@
         <v>372</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D224" s="1">
         <v>1</v>
@@ -6323,7 +6323,7 @@
         <v>373</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D225" s="1">
         <v>1</v>
@@ -6351,7 +6351,7 @@
         <v>376</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D227" s="1">
         <v>2</v>
@@ -6463,7 +6463,7 @@
         <v>386</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D235" s="1">
         <v>1</v>
@@ -6491,7 +6491,7 @@
         <v>388</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D237" s="1">
         <v>0</v>
@@ -6505,7 +6505,7 @@
         <v>389</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D238" s="1">
         <v>0</v>
@@ -6561,7 +6561,7 @@
         <v>395</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D242" s="1">
         <v>2</v>
@@ -6687,7 +6687,7 @@
         <v>409</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D251" s="1">
         <v>1</v>
@@ -6715,7 +6715,7 @@
         <v>411</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D253" s="1">
         <v>1</v>
@@ -6729,7 +6729,7 @@
         <v>412</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D254" s="1">
         <v>1</v>
@@ -6785,7 +6785,7 @@
         <v>418</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D258" s="1">
         <v>1</v>
@@ -6897,7 +6897,7 @@
         <v>432</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D266" s="1">
         <v>1</v>
@@ -6925,7 +6925,7 @@
         <v>435</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D268" s="1">
         <v>2</v>
@@ -6939,7 +6939,7 @@
         <v>436</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D269" s="1">
         <v>0</v>
@@ -7079,7 +7079,7 @@
         <v>450</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D279" s="1">
         <v>0</v>
@@ -7177,7 +7177,7 @@
         <v>461</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D286" s="1">
         <v>0</v>
@@ -7191,7 +7191,7 @@
         <v>462</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D287" s="1">
         <v>0</v>
@@ -7261,7 +7261,7 @@
         <v>469</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D292" s="1">
         <v>0</v>
@@ -7345,7 +7345,7 @@
         <v>477</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D298" s="1">
         <v>0</v>
@@ -7387,7 +7387,7 @@
         <v>480</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D301" s="1">
         <v>0</v>
@@ -7415,7 +7415,7 @@
         <v>482</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D303" s="1">
         <v>0</v>
@@ -7429,7 +7429,7 @@
         <v>483</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D304" s="1">
         <v>0</v>
@@ -7499,7 +7499,7 @@
         <v>491</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D309" s="1">
         <v>2</v>
@@ -7527,7 +7527,7 @@
         <v>494</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D311" s="1">
         <v>1</v>
@@ -7555,7 +7555,7 @@
         <v>497</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D313" s="1">
         <v>1</v>
@@ -7583,7 +7583,7 @@
         <v>499</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D315" s="1">
         <v>0</v>
@@ -7751,7 +7751,7 @@
         <v>516</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D327" s="1">
         <v>1</v>
@@ -7774,10 +7774,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D329" s="1"/>
     </row>
@@ -7786,10 +7786,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C330" s="2" t="s">
         <v>598</v>
-      </c>
-      <c r="C330" s="2" t="s">
-        <v>599</v>
       </c>
       <c r="D330" s="1"/>
     </row>
@@ -7798,10 +7798,10 @@
         <v>330</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D331" s="1"/>
     </row>

--- a/Quiz 3/bin/Debug/net9.0/Quiz3.xlsx
+++ b/Quiz 3/bin/Debug/net9.0/Quiz3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\Quiz 3\Quiz 3\bin\Debug\net9.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2D9D95-994B-48D5-8F14-6F208CFEAD50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C0D4E1-8770-46C3-980A-C05E2ACE31F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A52166B1-4494-480B-A027-66F199F0B402}"/>
   </bookViews>
@@ -1385,10 +1385,6 @@
     <t>Где хранить доменные сервисы?</t>
   </si>
   <si>
-    <t>1. Рядом с агрегатами, которые они обслуживают
-2. Общие доменные сервисы в отдельной папке</t>
-  </si>
-  <si>
     <t>Пример Domain Event?</t>
   </si>
   <si>
@@ -2768,6 +2764,9 @@
   </si>
   <si>
     <t>Корректное сравнение по значению, Потокобезопасность, при работе с  ссылками нет побочных эффектов</t>
+  </si>
+  <si>
+    <t>Специфичные - рядом с агрегатами, общие - в Domain/Services. Главное - сохранять их в доменном слое.</t>
   </si>
 </sst>
 </file>
@@ -3169,8 +3168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C34F926-ACF9-49CF-9B6A-0D737BBB828A}">
   <dimension ref="A1:D344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="C188" sqref="C188"/>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="C200" sqref="C200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3369,7 +3368,7 @@
         <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -3453,7 +3452,7 @@
         <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
@@ -3579,7 +3578,7 @@
         <v>51</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
@@ -3705,7 +3704,7 @@
         <v>68</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D38" s="1">
         <v>2</v>
@@ -3747,7 +3746,7 @@
         <v>75</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D41" s="1">
         <v>2</v>
@@ -3761,7 +3760,7 @@
         <v>76</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D42" s="1">
         <v>2</v>
@@ -3901,7 +3900,7 @@
         <v>95</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
@@ -3943,7 +3942,7 @@
         <v>100</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
@@ -4041,7 +4040,7 @@
         <v>120</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D62" s="1">
         <v>2</v>
@@ -4153,7 +4152,7 @@
         <v>126</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D70" s="1">
         <v>2</v>
@@ -4265,7 +4264,7 @@
         <v>141</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D78" s="1">
         <v>2</v>
@@ -4307,7 +4306,7 @@
         <v>145</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D81" s="1">
         <v>2</v>
@@ -4335,7 +4334,7 @@
         <v>148</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D83" s="1">
         <v>2</v>
@@ -4405,7 +4404,7 @@
         <v>159</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D88" s="1">
         <v>2</v>
@@ -4419,7 +4418,7 @@
         <v>160</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D89" s="1">
         <v>2</v>
@@ -4475,7 +4474,7 @@
         <v>167</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D93" s="1">
         <v>0</v>
@@ -4489,7 +4488,7 @@
         <v>171</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D94" s="1">
         <v>2</v>
@@ -4503,7 +4502,7 @@
         <v>172</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D95" s="1">
         <v>2</v>
@@ -4545,7 +4544,7 @@
         <v>176</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D98" s="1">
         <v>2</v>
@@ -4559,7 +4558,7 @@
         <v>177</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D99" s="1">
         <v>2</v>
@@ -4573,7 +4572,7 @@
         <v>179</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D100" s="1">
         <v>0</v>
@@ -4615,7 +4614,7 @@
         <v>184</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D103" s="1">
         <v>0</v>
@@ -4643,7 +4642,7 @@
         <v>187</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D105" s="1">
         <v>2</v>
@@ -4769,7 +4768,7 @@
         <v>204</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D114" s="1">
         <v>0</v>
@@ -4783,7 +4782,7 @@
         <v>205</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D115" s="1">
         <v>2</v>
@@ -4797,7 +4796,7 @@
         <v>206</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D116" s="1">
         <v>2</v>
@@ -4811,7 +4810,7 @@
         <v>207</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D117" s="1">
         <v>2</v>
@@ -4825,7 +4824,7 @@
         <v>208</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D118" s="1">
         <v>2</v>
@@ -4881,7 +4880,7 @@
         <v>215</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D122" s="1">
         <v>2</v>
@@ -4937,7 +4936,7 @@
         <v>222</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D126" s="1">
         <v>2</v>
@@ -4965,7 +4964,7 @@
         <v>225</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D128" s="1">
         <v>2</v>
@@ -4979,7 +4978,7 @@
         <v>226</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D129" s="1">
         <v>2</v>
@@ -5021,7 +5020,7 @@
         <v>231</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D132" s="1">
         <v>2</v>
@@ -5035,7 +5034,7 @@
         <v>232</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D133" s="1">
         <v>2</v>
@@ -5105,7 +5104,7 @@
         <v>241</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D138" s="1">
         <v>2</v>
@@ -5119,7 +5118,7 @@
         <v>242</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D139" s="1">
         <v>2</v>
@@ -5133,7 +5132,7 @@
         <v>243</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D140" s="1">
         <v>2</v>
@@ -5147,7 +5146,7 @@
         <v>244</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D141" s="1">
         <v>2</v>
@@ -5161,7 +5160,7 @@
         <v>245</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D142" s="1">
         <v>2</v>
@@ -5175,7 +5174,7 @@
         <v>247</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D143" s="1">
         <v>2</v>
@@ -5231,7 +5230,7 @@
         <v>254</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D147" s="1">
         <v>1</v>
@@ -5259,7 +5258,7 @@
         <v>257</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D149" s="1">
         <v>2</v>
@@ -5315,7 +5314,7 @@
         <v>264</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D153" s="1">
         <v>0</v>
@@ -5329,7 +5328,7 @@
         <v>265</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D154" s="1">
         <v>0</v>
@@ -5343,7 +5342,7 @@
         <v>266</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D155" s="1">
         <v>0</v>
@@ -5357,7 +5356,7 @@
         <v>267</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D156" s="1">
         <v>2</v>
@@ -5455,7 +5454,7 @@
         <v>280</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D163" s="1">
         <v>1</v>
@@ -5483,7 +5482,7 @@
         <v>283</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D165" s="1">
         <v>1</v>
@@ -5497,7 +5496,7 @@
         <v>284</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D166" s="1">
         <v>1</v>
@@ -5525,7 +5524,7 @@
         <v>287</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D168" s="1">
         <v>0</v>
@@ -5651,7 +5650,7 @@
         <v>304</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D177" s="1">
         <v>0</v>
@@ -5693,7 +5692,7 @@
         <v>309</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D180" s="1">
         <v>2</v>
@@ -5707,7 +5706,7 @@
         <v>310</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D181" s="1">
         <v>2</v>
@@ -5805,7 +5804,7 @@
         <v>323</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D188" s="1">
         <v>2</v>
@@ -5847,7 +5846,7 @@
         <v>328</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D191" s="1">
         <v>1</v>
@@ -5861,7 +5860,7 @@
         <v>329</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D192" s="1">
         <v>0</v>
@@ -5889,7 +5888,7 @@
         <v>332</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D194" s="1">
         <v>1</v>
@@ -5903,7 +5902,7 @@
         <v>333</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D195" s="1">
         <v>1</v>
@@ -5917,7 +5916,7 @@
         <v>334</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D196" s="1">
         <v>2</v>
@@ -5959,13 +5958,13 @@
         <v>339</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D199" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -5973,7 +5972,7 @@
         <v>340</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>341</v>
+        <v>663</v>
       </c>
       <c r="D200" s="1">
         <v>0</v>
@@ -5984,10 +5983,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C201" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="D201" s="1">
         <v>0</v>
@@ -5998,10 +5997,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D202" s="1">
         <v>2</v>
@@ -6012,10 +6011,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D203" s="1">
         <v>1</v>
@@ -6026,10 +6025,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D204" s="1">
         <v>2</v>
@@ -6040,10 +6039,10 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D205" s="1">
         <v>1</v>
@@ -6054,10 +6053,10 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D206" s="1">
         <v>0</v>
@@ -6068,10 +6067,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D207" s="1">
         <v>0</v>
@@ -6082,10 +6081,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C208" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>353</v>
       </c>
       <c r="D208" s="1">
         <v>1</v>
@@ -6096,10 +6095,10 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D209" s="1">
         <v>1</v>
@@ -6110,10 +6109,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D210" s="1">
         <v>1</v>
@@ -6124,10 +6123,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D211" s="1">
         <v>0</v>
@@ -6138,10 +6137,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D212" s="1">
         <v>1</v>
@@ -6152,10 +6151,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C213" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>358</v>
       </c>
       <c r="D213" s="1">
         <v>1</v>
@@ -6166,10 +6165,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C214" s="2" t="s">
         <v>359</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>360</v>
       </c>
       <c r="D214" s="1">
         <v>0</v>
@@ -6180,10 +6179,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D215" s="1">
         <v>1</v>
@@ -6194,10 +6193,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D216" s="1">
         <v>1</v>
@@ -6208,10 +6207,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D217" s="1">
         <v>1</v>
@@ -6222,10 +6221,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C218" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="D218" s="1">
         <v>2</v>
@@ -6236,10 +6235,10 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D219" s="1">
         <v>1</v>
@@ -6250,10 +6249,10 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D220" s="1">
         <v>0</v>
@@ -6264,10 +6263,10 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D221" s="1">
         <v>1</v>
@@ -6278,10 +6277,10 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D222" s="1">
         <v>1</v>
@@ -6292,10 +6291,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D223" s="1">
         <v>2</v>
@@ -6306,10 +6305,10 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D224" s="1">
         <v>1</v>
@@ -6320,10 +6319,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D225" s="1">
         <v>1</v>
@@ -6334,10 +6333,10 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D226" s="1">
         <v>1</v>
@@ -6348,10 +6347,10 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D227" s="1">
         <v>2</v>
@@ -6362,10 +6361,10 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D228" s="1">
         <v>2</v>
@@ -6376,10 +6375,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D229" s="1">
         <v>2</v>
@@ -6390,10 +6389,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D230" s="1">
         <v>0</v>
@@ -6404,10 +6403,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C231" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="D231" s="1">
         <v>0</v>
@@ -6418,10 +6417,10 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C232" s="2" t="s">
         <v>382</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>383</v>
       </c>
       <c r="D232" s="1">
         <v>1</v>
@@ -6432,10 +6431,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D233" s="1">
         <v>1</v>
@@ -6446,10 +6445,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D234" s="1">
         <v>1</v>
@@ -6460,10 +6459,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D235" s="1">
         <v>1</v>
@@ -6474,10 +6473,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D236" s="1">
         <v>1</v>
@@ -6488,10 +6487,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D237" s="1">
         <v>0</v>
@@ -6502,10 +6501,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D238" s="1">
         <v>0</v>
@@ -6516,10 +6515,10 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D239" s="1">
         <v>2</v>
@@ -6530,10 +6529,10 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D240" s="1">
         <v>2</v>
@@ -6544,10 +6543,10 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D241" s="1">
         <v>2</v>
@@ -6558,10 +6557,10 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D242" s="1">
         <v>2</v>
@@ -6572,10 +6571,10 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D243" s="1">
         <v>1</v>
@@ -6586,10 +6585,10 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C244" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>398</v>
       </c>
       <c r="D244" s="1">
         <v>1</v>
@@ -6600,10 +6599,10 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D245" s="1">
         <v>0</v>
@@ -6614,10 +6613,10 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C246" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="D246" s="1">
         <v>2</v>
@@ -6628,10 +6627,10 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D247" s="1">
         <v>1</v>
@@ -6642,10 +6641,10 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D248" s="1">
         <v>1</v>
@@ -6656,10 +6655,10 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C249" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>406</v>
       </c>
       <c r="D249" s="1">
         <v>0</v>
@@ -6670,10 +6669,10 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C250" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>408</v>
       </c>
       <c r="D250" s="1">
         <v>1</v>
@@ -6684,10 +6683,10 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D251" s="1">
         <v>1</v>
@@ -6698,10 +6697,10 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D252" s="1">
         <v>1</v>
@@ -6712,10 +6711,10 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D253" s="1">
         <v>1</v>
@@ -6726,10 +6725,10 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D254" s="1">
         <v>1</v>
@@ -6740,10 +6739,10 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D255" s="1">
         <v>2</v>
@@ -6754,10 +6753,10 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D256" s="1">
         <v>1</v>
@@ -6768,10 +6767,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C257" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>417</v>
       </c>
       <c r="D257" s="1">
         <v>1</v>
@@ -6782,10 +6781,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D258" s="1">
         <v>1</v>
@@ -6796,10 +6795,10 @@
         <v>258</v>
       </c>
       <c r="B259" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C259" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>420</v>
       </c>
       <c r="D259" s="1">
         <v>1</v>
@@ -6810,10 +6809,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C260" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>422</v>
       </c>
       <c r="D260" s="1">
         <v>1</v>
@@ -6824,10 +6823,10 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D261" s="1">
         <v>1</v>
@@ -6838,10 +6837,10 @@
         <v>261</v>
       </c>
       <c r="B262" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C262" s="1" t="s">
         <v>424</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>425</v>
       </c>
       <c r="D262" s="1">
         <v>1</v>
@@ -6852,10 +6851,10 @@
         <v>262</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D263" s="1">
         <v>0</v>
@@ -6866,10 +6865,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D264" s="1">
         <v>0</v>
@@ -6880,10 +6879,10 @@
         <v>264</v>
       </c>
       <c r="B265" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C265" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>431</v>
       </c>
       <c r="D265" s="1">
         <v>1</v>
@@ -6894,10 +6893,10 @@
         <v>265</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D266" s="1">
         <v>1</v>
@@ -6908,10 +6907,10 @@
         <v>266</v>
       </c>
       <c r="B267" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C267" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>434</v>
       </c>
       <c r="D267" s="1">
         <v>0</v>
@@ -6922,10 +6921,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D268" s="1">
         <v>2</v>
@@ -6936,10 +6935,10 @@
         <v>268</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D269" s="1">
         <v>0</v>
@@ -6950,10 +6949,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D270" s="1">
         <v>0</v>
@@ -6964,10 +6963,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D271" s="1">
         <v>0</v>
@@ -6978,10 +6977,10 @@
         <v>271</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D272" s="1">
         <v>0</v>
@@ -6992,10 +6991,10 @@
         <v>272</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D273" s="1">
         <v>0</v>
@@ -7006,10 +7005,10 @@
         <v>273</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D274" s="1">
         <v>0</v>
@@ -7020,10 +7019,10 @@
         <v>274</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D275" s="1">
         <v>0</v>
@@ -7034,10 +7033,10 @@
         <v>275</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D276" s="1">
         <v>0</v>
@@ -7048,10 +7047,10 @@
         <v>276</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D277" s="1">
         <v>0</v>
@@ -7062,10 +7061,10 @@
         <v>277</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D278" s="1">
         <v>0</v>
@@ -7076,10 +7075,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D279" s="1">
         <v>0</v>
@@ -7090,10 +7089,10 @@
         <v>279</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D280" s="1">
         <v>0</v>
@@ -7104,10 +7103,10 @@
         <v>280</v>
       </c>
       <c r="B281" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C281" s="2" t="s">
         <v>452</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>453</v>
       </c>
       <c r="D281" s="1">
         <v>0</v>
@@ -7118,10 +7117,10 @@
         <v>281</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D282" s="1">
         <v>0</v>
@@ -7132,10 +7131,10 @@
         <v>282</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D283" s="1">
         <v>0</v>
@@ -7146,10 +7145,10 @@
         <v>283</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D284" s="1">
         <v>0</v>
@@ -7160,10 +7159,10 @@
         <v>284</v>
       </c>
       <c r="B285" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C285" s="2" t="s">
         <v>459</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>460</v>
       </c>
       <c r="D285" s="1">
         <v>0</v>
@@ -7174,10 +7173,10 @@
         <v>285</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D286" s="1">
         <v>0</v>
@@ -7188,10 +7187,10 @@
         <v>286</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D287" s="1">
         <v>0</v>
@@ -7202,10 +7201,10 @@
         <v>287</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D288" s="1">
         <v>1</v>
@@ -7216,10 +7215,10 @@
         <v>288</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D289" s="1">
         <v>0</v>
@@ -7230,10 +7229,10 @@
         <v>289</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D290" s="1">
         <v>0</v>
@@ -7244,10 +7243,10 @@
         <v>290</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D291" s="1">
         <v>0</v>
@@ -7258,10 +7257,10 @@
         <v>291</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D292" s="1">
         <v>0</v>
@@ -7272,10 +7271,10 @@
         <v>292</v>
       </c>
       <c r="B293" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C293" s="1" t="s">
         <v>470</v>
-      </c>
-      <c r="C293" s="1" t="s">
-        <v>471</v>
       </c>
       <c r="D293" s="1">
         <v>0</v>
@@ -7286,10 +7285,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D294" s="1">
         <v>0</v>
@@ -7300,10 +7299,10 @@
         <v>294</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D295" s="1">
         <v>0</v>
@@ -7314,10 +7313,10 @@
         <v>295</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D296" s="1">
         <v>0</v>
@@ -7328,10 +7327,10 @@
         <v>296</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D297" s="1">
         <v>0</v>
@@ -7342,10 +7341,10 @@
         <v>297</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D298" s="1">
         <v>0</v>
@@ -7356,10 +7355,10 @@
         <v>298</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D299" s="1">
         <v>0</v>
@@ -7370,10 +7369,10 @@
         <v>299</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D300" s="1">
         <v>0</v>
@@ -7384,10 +7383,10 @@
         <v>300</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D301" s="1">
         <v>0</v>
@@ -7398,10 +7397,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D302" s="1">
         <v>0</v>
@@ -7412,10 +7411,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D303" s="1">
         <v>0</v>
@@ -7426,10 +7425,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D304" s="1">
         <v>0</v>
@@ -7440,10 +7439,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D305" s="1">
         <v>0</v>
@@ -7454,10 +7453,10 @@
         <v>305</v>
       </c>
       <c r="B306" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C306" s="2" t="s">
         <v>485</v>
-      </c>
-      <c r="C306" s="2" t="s">
-        <v>486</v>
       </c>
       <c r="D306" s="1">
         <v>2</v>
@@ -7468,10 +7467,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C307" s="2" t="s">
         <v>487</v>
-      </c>
-      <c r="C307" s="2" t="s">
-        <v>488</v>
       </c>
       <c r="D307" s="1">
         <v>0</v>
@@ -7482,10 +7481,10 @@
         <v>307</v>
       </c>
       <c r="B308" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C308" s="2" t="s">
         <v>489</v>
-      </c>
-      <c r="C308" s="2" t="s">
-        <v>490</v>
       </c>
       <c r="D308" s="1">
         <v>1</v>
@@ -7496,10 +7495,10 @@
         <v>308</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D309" s="1">
         <v>2</v>
@@ -7510,10 +7509,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C310" s="1" t="s">
         <v>492</v>
-      </c>
-      <c r="C310" s="1" t="s">
-        <v>493</v>
       </c>
       <c r="D310" s="1">
         <v>1</v>
@@ -7524,10 +7523,10 @@
         <v>310</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D311" s="1">
         <v>1</v>
@@ -7538,10 +7537,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D312" s="1">
         <v>1</v>
@@ -7552,10 +7551,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D313" s="1">
         <v>1</v>
@@ -7566,10 +7565,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D314" s="1">
         <v>1</v>
@@ -7580,10 +7579,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D315" s="1">
         <v>0</v>
@@ -7594,10 +7593,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D316" s="1">
         <v>2</v>
@@ -7608,10 +7607,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D317" s="1">
         <v>1</v>
@@ -7622,10 +7621,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D318" s="1">
         <v>0</v>
@@ -7636,10 +7635,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D319" s="1">
         <v>1</v>
@@ -7650,10 +7649,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C320" s="1" t="s">
         <v>505</v>
-      </c>
-      <c r="C320" s="1" t="s">
-        <v>506</v>
       </c>
       <c r="D320" s="1">
         <v>0</v>
@@ -7664,10 +7663,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D321" s="1">
         <v>0</v>
@@ -7678,10 +7677,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D322" s="1">
         <v>0</v>
@@ -7692,10 +7691,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D323" s="1">
         <v>0</v>
@@ -7706,10 +7705,10 @@
         <v>323</v>
       </c>
       <c r="B324" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C324" s="1" t="s">
         <v>511</v>
-      </c>
-      <c r="C324" s="1" t="s">
-        <v>512</v>
       </c>
       <c r="D324" s="1">
         <v>0</v>
@@ -7720,10 +7719,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D325" s="1">
         <v>2</v>
@@ -7734,10 +7733,10 @@
         <v>325</v>
       </c>
       <c r="B326" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C326" s="2" t="s">
         <v>514</v>
-      </c>
-      <c r="C326" s="2" t="s">
-        <v>515</v>
       </c>
       <c r="D326" s="1">
         <v>1</v>
@@ -7748,10 +7747,10 @@
         <v>326</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D327" s="1">
         <v>1</v>
@@ -7762,10 +7761,10 @@
         <v>327</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D328" s="1"/>
     </row>
@@ -7774,10 +7773,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D329" s="1"/>
     </row>
@@ -7786,10 +7785,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C330" s="2" t="s">
         <v>597</v>
-      </c>
-      <c r="C330" s="2" t="s">
-        <v>598</v>
       </c>
       <c r="D330" s="1"/>
     </row>
@@ -7798,10 +7797,10 @@
         <v>330</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D331" s="1"/>
     </row>

--- a/Quiz 3/bin/Debug/net9.0/Quiz3.xlsx
+++ b/Quiz 3/bin/Debug/net9.0/Quiz3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\Quiz 3\Quiz 3\bin\Debug\net9.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C0D4E1-8770-46C3-980A-C05E2ACE31F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CA9AD8-3852-45A9-8E42-D06A3C84789F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A52166B1-4494-480B-A027-66F199F0B402}"/>
   </bookViews>
@@ -2508,14 +2508,6 @@
 Упрощают бизнес-логику — сущности работают уже с гарантированно корректными данными</t>
   </si>
   <si>
-    <t>Command Handler тестируется на нескольких уровнях с фокусом на изоляцию бизнес-логики и проверку взаимодействий.
-1. Unit-тесты: Основной метод. Handler тестируется изолированно с использованием mock-объектов для всех зависимостей (репозиториев, сервисов).
-2. Проверка вызовов: Ключевая проверка — убедиться, что хендлер корректно вызывает методы репозитория (Save, Update) с ожидаемыми данными.
-3. Тестирование доменных событий: Проверка, что в результате выполнения команды генерируются и публикуются корректные доменные события.
-4. Валидация бизнес-правил: Тестирование инвариантов агрегата и обработки бизнес-ошибок.
-5. Интеграционные тесты: Дополнительная проверка полного цикла работы с реальной базой данных для критических сценариев.</t>
-  </si>
-  <si>
     <t>1. При сохранении одного агрегата - чтобы гарантировать его целостность
 2. В паттерне Outbox - когда в одной транзакции сохраняем и агрегат, и его события
 3. Для  операций в рамках одного контекста, где нужно изменить 2-3 агрегата атомарно</t>
@@ -2767,6 +2759,13 @@
   </si>
   <si>
     <t>Специфичные - рядом с агрегатами, общие - в Domain/Services. Главное - сохранять их в доменном слое.</t>
+  </si>
+  <si>
+    <t>Command Handler тестируется на нескольких уровнях с фокусом на изоляцию бизнес-логики и проверку взаимодействий.
+1. Unit-тесты
+2. Тестирование доменных событий
+3. Валидация бизнес-правил
+4. Интеграционные тесты</t>
   </si>
 </sst>
 </file>
@@ -3168,8 +3167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C34F926-ACF9-49CF-9B6A-0D737BBB828A}">
   <dimension ref="A1:D344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="C200" sqref="C200"/>
+    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
+      <selection activeCell="C235" sqref="C235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3368,7 +3367,7 @@
         <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -3704,7 +3703,7 @@
         <v>68</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D38" s="1">
         <v>2</v>
@@ -3900,7 +3899,7 @@
         <v>95</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
@@ -3942,7 +3941,7 @@
         <v>100</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
@@ -4040,7 +4039,7 @@
         <v>120</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D62" s="1">
         <v>2</v>
@@ -4152,7 +4151,7 @@
         <v>126</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D70" s="1">
         <v>2</v>
@@ -4306,7 +4305,7 @@
         <v>145</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D81" s="1">
         <v>2</v>
@@ -4334,7 +4333,7 @@
         <v>148</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D83" s="1">
         <v>2</v>
@@ -4404,7 +4403,7 @@
         <v>159</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D88" s="1">
         <v>2</v>
@@ -4474,7 +4473,7 @@
         <v>167</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D93" s="1">
         <v>0</v>
@@ -4558,7 +4557,7 @@
         <v>177</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D99" s="1">
         <v>2</v>
@@ -4810,7 +4809,7 @@
         <v>207</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D117" s="1">
         <v>2</v>
@@ -4824,7 +4823,7 @@
         <v>208</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D118" s="1">
         <v>2</v>
@@ -4880,7 +4879,7 @@
         <v>215</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D122" s="1">
         <v>2</v>
@@ -4936,7 +4935,7 @@
         <v>222</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D126" s="1">
         <v>2</v>
@@ -4978,7 +4977,7 @@
         <v>226</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D129" s="1">
         <v>2</v>
@@ -5118,7 +5117,7 @@
         <v>242</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D139" s="1">
         <v>2</v>
@@ -5146,7 +5145,7 @@
         <v>244</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D141" s="1">
         <v>2</v>
@@ -5174,7 +5173,7 @@
         <v>247</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D143" s="1">
         <v>2</v>
@@ -5342,7 +5341,7 @@
         <v>266</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D155" s="1">
         <v>0</v>
@@ -5356,7 +5355,7 @@
         <v>267</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D156" s="1">
         <v>2</v>
@@ -5454,7 +5453,7 @@
         <v>280</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D163" s="1">
         <v>1</v>
@@ -5482,7 +5481,7 @@
         <v>283</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D165" s="1">
         <v>1</v>
@@ -5496,7 +5495,7 @@
         <v>284</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D166" s="1">
         <v>1</v>
@@ -5650,7 +5649,7 @@
         <v>304</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D177" s="1">
         <v>0</v>
@@ -5804,7 +5803,7 @@
         <v>323</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D188" s="1">
         <v>2</v>
@@ -5972,7 +5971,7 @@
         <v>340</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D200" s="1">
         <v>0</v>
@@ -6000,7 +5999,7 @@
         <v>343</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D202" s="1">
         <v>2</v>
@@ -6014,7 +6013,7 @@
         <v>344</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D203" s="1">
         <v>1</v>
@@ -6112,7 +6111,7 @@
         <v>354</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D210" s="1">
         <v>1</v>
@@ -6123,10 +6122,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D211" s="1">
         <v>0</v>
@@ -6140,7 +6139,7 @@
         <v>355</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D212" s="1">
         <v>1</v>
@@ -6179,7 +6178,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>360</v>
@@ -6238,7 +6237,7 @@
         <v>365</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D219" s="1">
         <v>1</v>
@@ -6294,7 +6293,7 @@
         <v>370</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D223" s="1">
         <v>2</v>
@@ -6308,7 +6307,7 @@
         <v>371</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D224" s="1">
         <v>1</v>
@@ -6454,7 +6453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -6462,7 +6461,7 @@
         <v>385</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>607</v>
+        <v>663</v>
       </c>
       <c r="D235" s="1">
         <v>1</v>
@@ -6490,7 +6489,7 @@
         <v>387</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D237" s="1">
         <v>0</v>
@@ -6504,7 +6503,7 @@
         <v>388</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D238" s="1">
         <v>0</v>
@@ -6560,7 +6559,7 @@
         <v>394</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D242" s="1">
         <v>2</v>
@@ -6714,7 +6713,7 @@
         <v>410</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D253" s="1">
         <v>1</v>
@@ -6728,7 +6727,7 @@
         <v>411</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D254" s="1">
         <v>1</v>
@@ -6896,7 +6895,7 @@
         <v>431</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D266" s="1">
         <v>1</v>
@@ -7176,7 +7175,7 @@
         <v>460</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D286" s="1">
         <v>0</v>
@@ -7190,7 +7189,7 @@
         <v>461</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D287" s="1">
         <v>0</v>
@@ -7344,7 +7343,7 @@
         <v>476</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D298" s="1">
         <v>0</v>
@@ -7386,7 +7385,7 @@
         <v>479</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D301" s="1">
         <v>0</v>
@@ -7414,7 +7413,7 @@
         <v>481</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D303" s="1">
         <v>0</v>
@@ -7428,7 +7427,7 @@
         <v>482</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D304" s="1">
         <v>0</v>
@@ -7498,7 +7497,7 @@
         <v>490</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D309" s="1">
         <v>2</v>
@@ -7526,7 +7525,7 @@
         <v>493</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D311" s="1">
         <v>1</v>
@@ -7554,7 +7553,7 @@
         <v>496</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D313" s="1">
         <v>1</v>
@@ -7582,7 +7581,7 @@
         <v>498</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D315" s="1">
         <v>0</v>
@@ -7750,7 +7749,7 @@
         <v>515</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D327" s="1">
         <v>1</v>
@@ -7776,7 +7775,7 @@
         <v>590</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D329" s="1"/>
     </row>
@@ -7800,7 +7799,7 @@
         <v>604</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D331" s="1"/>
     </row>

--- a/Quiz 3/bin/Debug/net9.0/Quiz3.xlsx
+++ b/Quiz 3/bin/Debug/net9.0/Quiz3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\Quiz 3\Quiz 3\bin\Debug\net9.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CA9AD8-3852-45A9-8E42-D06A3C84789F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09B5DF8-162B-41AA-9813-078175291ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A52166B1-4494-480B-A027-66F199F0B402}"/>
   </bookViews>
@@ -2048,9 +2048,6 @@
     <t>это контракт между доменным слоем и инфраструктурой, который делает доменную логику независимой от способа хранения данных.</t>
   </si>
   <si>
-    <t>Так как тонкая сага содержит только бизнес логику то  переносимость саги между брокерами возможна без изменений её кода.</t>
-  </si>
-  <si>
     <t>Для вызова команды через MediatR используется интерфейс IRequest или IRequest&lt;TResponse&gt;</t>
   </si>
   <si>
@@ -2766,6 +2763,9 @@
 2. Тестирование доменных событий
 3. Валидация бизнес-правил
 4. Интеграционные тесты</t>
+  </si>
+  <si>
+    <t>Так как тонкая сага не содержит  бизнес логику то  переносимость саги между брокерами возможна без изменений её кода.</t>
   </si>
 </sst>
 </file>
@@ -3167,8 +3167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C34F926-ACF9-49CF-9B6A-0D737BBB828A}">
   <dimension ref="A1:D344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
-      <selection activeCell="C235" sqref="C235"/>
+    <sheetView tabSelected="1" topLeftCell="A278" workbookViewId="0">
+      <selection activeCell="C290" sqref="C290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3367,7 +3367,7 @@
         <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -3703,7 +3703,7 @@
         <v>68</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D38" s="1">
         <v>2</v>
@@ -3745,7 +3745,7 @@
         <v>75</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D41" s="1">
         <v>2</v>
@@ -3759,7 +3759,7 @@
         <v>76</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D42" s="1">
         <v>2</v>
@@ -3899,7 +3899,7 @@
         <v>95</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
@@ -3941,7 +3941,7 @@
         <v>100</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
@@ -4039,7 +4039,7 @@
         <v>120</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D62" s="1">
         <v>2</v>
@@ -4151,7 +4151,7 @@
         <v>126</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D70" s="1">
         <v>2</v>
@@ -4305,7 +4305,7 @@
         <v>145</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D81" s="1">
         <v>2</v>
@@ -4333,7 +4333,7 @@
         <v>148</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D83" s="1">
         <v>2</v>
@@ -4403,7 +4403,7 @@
         <v>159</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D88" s="1">
         <v>2</v>
@@ -4417,7 +4417,7 @@
         <v>160</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D89" s="1">
         <v>2</v>
@@ -4473,7 +4473,7 @@
         <v>167</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D93" s="1">
         <v>0</v>
@@ -4543,7 +4543,7 @@
         <v>176</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D98" s="1">
         <v>2</v>
@@ -4557,7 +4557,7 @@
         <v>177</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D99" s="1">
         <v>2</v>
@@ -4641,7 +4641,7 @@
         <v>187</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D105" s="1">
         <v>2</v>
@@ -4767,7 +4767,7 @@
         <v>204</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D114" s="1">
         <v>0</v>
@@ -4781,7 +4781,7 @@
         <v>205</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D115" s="1">
         <v>2</v>
@@ -4795,7 +4795,7 @@
         <v>206</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D116" s="1">
         <v>2</v>
@@ -4809,7 +4809,7 @@
         <v>207</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D117" s="1">
         <v>2</v>
@@ -4823,7 +4823,7 @@
         <v>208</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D118" s="1">
         <v>2</v>
@@ -4879,7 +4879,7 @@
         <v>215</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D122" s="1">
         <v>2</v>
@@ -4935,7 +4935,7 @@
         <v>222</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D126" s="1">
         <v>2</v>
@@ -4963,7 +4963,7 @@
         <v>225</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D128" s="1">
         <v>2</v>
@@ -4977,7 +4977,7 @@
         <v>226</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D129" s="1">
         <v>2</v>
@@ -5019,7 +5019,7 @@
         <v>231</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D132" s="1">
         <v>2</v>
@@ -5033,7 +5033,7 @@
         <v>232</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D133" s="1">
         <v>2</v>
@@ -5103,7 +5103,7 @@
         <v>241</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D138" s="1">
         <v>2</v>
@@ -5117,7 +5117,7 @@
         <v>242</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D139" s="1">
         <v>2</v>
@@ -5145,7 +5145,7 @@
         <v>244</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D141" s="1">
         <v>2</v>
@@ -5159,7 +5159,7 @@
         <v>245</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D142" s="1">
         <v>2</v>
@@ -5173,7 +5173,7 @@
         <v>247</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D143" s="1">
         <v>2</v>
@@ -5229,7 +5229,7 @@
         <v>254</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D147" s="1">
         <v>1</v>
@@ -5257,7 +5257,7 @@
         <v>257</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D149" s="1">
         <v>2</v>
@@ -5313,7 +5313,7 @@
         <v>264</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D153" s="1">
         <v>0</v>
@@ -5327,7 +5327,7 @@
         <v>265</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D154" s="1">
         <v>0</v>
@@ -5341,7 +5341,7 @@
         <v>266</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D155" s="1">
         <v>0</v>
@@ -5355,7 +5355,7 @@
         <v>267</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D156" s="1">
         <v>2</v>
@@ -5453,7 +5453,7 @@
         <v>280</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D163" s="1">
         <v>1</v>
@@ -5481,7 +5481,7 @@
         <v>283</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D165" s="1">
         <v>1</v>
@@ -5495,7 +5495,7 @@
         <v>284</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D166" s="1">
         <v>1</v>
@@ -5523,7 +5523,7 @@
         <v>287</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D168" s="1">
         <v>0</v>
@@ -5649,7 +5649,7 @@
         <v>304</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D177" s="1">
         <v>0</v>
@@ -5691,7 +5691,7 @@
         <v>309</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D180" s="1">
         <v>2</v>
@@ -5705,7 +5705,7 @@
         <v>310</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D181" s="1">
         <v>2</v>
@@ -5803,7 +5803,7 @@
         <v>323</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D188" s="1">
         <v>2</v>
@@ -5845,7 +5845,7 @@
         <v>328</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D191" s="1">
         <v>1</v>
@@ -5859,7 +5859,7 @@
         <v>329</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D192" s="1">
         <v>0</v>
@@ -5887,7 +5887,7 @@
         <v>332</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D194" s="1">
         <v>1</v>
@@ -5901,7 +5901,7 @@
         <v>333</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D195" s="1">
         <v>1</v>
@@ -5957,7 +5957,7 @@
         <v>339</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D199" s="1">
         <v>1</v>
@@ -5971,7 +5971,7 @@
         <v>340</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D200" s="1">
         <v>0</v>
@@ -5999,7 +5999,7 @@
         <v>343</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D202" s="1">
         <v>2</v>
@@ -6013,7 +6013,7 @@
         <v>344</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D203" s="1">
         <v>1</v>
@@ -6027,7 +6027,7 @@
         <v>345</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D204" s="1">
         <v>2</v>
@@ -6041,7 +6041,7 @@
         <v>346</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D205" s="1">
         <v>1</v>
@@ -6097,7 +6097,7 @@
         <v>353</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D209" s="1">
         <v>1</v>
@@ -6111,7 +6111,7 @@
         <v>354</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D210" s="1">
         <v>1</v>
@@ -6122,10 +6122,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D211" s="1">
         <v>0</v>
@@ -6139,7 +6139,7 @@
         <v>355</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D212" s="1">
         <v>1</v>
@@ -6178,7 +6178,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>360</v>
@@ -6195,7 +6195,7 @@
         <v>361</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D216" s="1">
         <v>1</v>
@@ -6209,7 +6209,7 @@
         <v>362</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D217" s="1">
         <v>1</v>
@@ -6237,7 +6237,7 @@
         <v>365</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D219" s="1">
         <v>1</v>
@@ -6251,7 +6251,7 @@
         <v>366</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D220" s="1">
         <v>0</v>
@@ -6279,7 +6279,7 @@
         <v>369</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D222" s="1">
         <v>1</v>
@@ -6293,7 +6293,7 @@
         <v>370</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D223" s="1">
         <v>2</v>
@@ -6307,7 +6307,7 @@
         <v>371</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D224" s="1">
         <v>1</v>
@@ -6321,7 +6321,7 @@
         <v>372</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D225" s="1">
         <v>1</v>
@@ -6349,7 +6349,7 @@
         <v>375</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D227" s="1">
         <v>2</v>
@@ -6363,7 +6363,7 @@
         <v>376</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D228" s="1">
         <v>2</v>
@@ -6377,7 +6377,7 @@
         <v>377</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D229" s="1">
         <v>2</v>
@@ -6391,7 +6391,7 @@
         <v>378</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D230" s="1">
         <v>0</v>
@@ -6433,7 +6433,7 @@
         <v>383</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D233" s="1">
         <v>1</v>
@@ -6447,7 +6447,7 @@
         <v>384</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D234" s="1">
         <v>1</v>
@@ -6461,7 +6461,7 @@
         <v>385</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D235" s="1">
         <v>1</v>
@@ -6475,7 +6475,7 @@
         <v>386</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D236" s="1">
         <v>1</v>
@@ -6489,7 +6489,7 @@
         <v>387</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D237" s="1">
         <v>0</v>
@@ -6503,7 +6503,7 @@
         <v>388</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D238" s="1">
         <v>0</v>
@@ -6531,7 +6531,7 @@
         <v>391</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D240" s="1">
         <v>2</v>
@@ -6559,7 +6559,7 @@
         <v>394</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D242" s="1">
         <v>2</v>
@@ -6573,7 +6573,7 @@
         <v>395</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D243" s="1">
         <v>1</v>
@@ -6601,7 +6601,7 @@
         <v>398</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D245" s="1">
         <v>0</v>
@@ -6629,7 +6629,7 @@
         <v>401</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D247" s="1">
         <v>1</v>
@@ -6685,7 +6685,7 @@
         <v>408</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D251" s="1">
         <v>1</v>
@@ -6699,7 +6699,7 @@
         <v>409</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D252" s="1">
         <v>1</v>
@@ -6713,7 +6713,7 @@
         <v>410</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D253" s="1">
         <v>1</v>
@@ -6727,7 +6727,7 @@
         <v>411</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D254" s="1">
         <v>1</v>
@@ -6741,7 +6741,7 @@
         <v>412</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D255" s="1">
         <v>2</v>
@@ -6783,7 +6783,7 @@
         <v>417</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D258" s="1">
         <v>1</v>
@@ -6895,7 +6895,7 @@
         <v>431</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D266" s="1">
         <v>1</v>
@@ -6923,7 +6923,7 @@
         <v>434</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D268" s="1">
         <v>2</v>
@@ -6937,7 +6937,7 @@
         <v>435</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D269" s="1">
         <v>0</v>
@@ -6965,7 +6965,7 @@
         <v>438</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D271" s="1">
         <v>0</v>
@@ -6979,7 +6979,7 @@
         <v>439</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D272" s="1">
         <v>0</v>
@@ -6993,7 +6993,7 @@
         <v>440</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D273" s="1">
         <v>0</v>
@@ -7007,7 +7007,7 @@
         <v>441</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D274" s="1">
         <v>0</v>
@@ -7021,7 +7021,7 @@
         <v>442</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D275" s="1">
         <v>0</v>
@@ -7077,7 +7077,7 @@
         <v>449</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D279" s="1">
         <v>0</v>
@@ -7091,7 +7091,7 @@
         <v>450</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D280" s="1">
         <v>0</v>
@@ -7147,7 +7147,7 @@
         <v>457</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D284" s="1">
         <v>0</v>
@@ -7175,7 +7175,7 @@
         <v>460</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D286" s="1">
         <v>0</v>
@@ -7189,7 +7189,7 @@
         <v>461</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D287" s="1">
         <v>0</v>
@@ -7217,7 +7217,7 @@
         <v>464</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D289" s="1">
         <v>0</v>
@@ -7231,7 +7231,7 @@
         <v>465</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>529</v>
+        <v>663</v>
       </c>
       <c r="D290" s="1">
         <v>0</v>
@@ -7259,7 +7259,7 @@
         <v>468</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D292" s="1">
         <v>0</v>
@@ -7287,7 +7287,7 @@
         <v>471</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D294" s="1">
         <v>0</v>
@@ -7301,7 +7301,7 @@
         <v>472</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D295" s="1">
         <v>0</v>
@@ -7329,7 +7329,7 @@
         <v>475</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D297" s="1">
         <v>0</v>
@@ -7343,7 +7343,7 @@
         <v>476</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D298" s="1">
         <v>0</v>
@@ -7357,7 +7357,7 @@
         <v>477</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D299" s="1">
         <v>0</v>
@@ -7371,7 +7371,7 @@
         <v>478</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D300" s="1">
         <v>0</v>
@@ -7385,7 +7385,7 @@
         <v>479</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D301" s="1">
         <v>0</v>
@@ -7413,7 +7413,7 @@
         <v>481</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D303" s="1">
         <v>0</v>
@@ -7427,7 +7427,7 @@
         <v>482</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D304" s="1">
         <v>0</v>
@@ -7441,7 +7441,7 @@
         <v>483</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D305" s="1">
         <v>0</v>
@@ -7497,7 +7497,7 @@
         <v>490</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D309" s="1">
         <v>2</v>
@@ -7525,7 +7525,7 @@
         <v>493</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D311" s="1">
         <v>1</v>
@@ -7553,7 +7553,7 @@
         <v>496</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D313" s="1">
         <v>1</v>
@@ -7567,7 +7567,7 @@
         <v>497</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D314" s="1">
         <v>1</v>
@@ -7581,7 +7581,7 @@
         <v>498</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D315" s="1">
         <v>0</v>
@@ -7595,7 +7595,7 @@
         <v>499</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D316" s="1">
         <v>2</v>
@@ -7609,7 +7609,7 @@
         <v>500</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D317" s="1">
         <v>1</v>
@@ -7623,7 +7623,7 @@
         <v>501</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D318" s="1">
         <v>0</v>
@@ -7665,7 +7665,7 @@
         <v>506</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D321" s="1">
         <v>0</v>
@@ -7679,7 +7679,7 @@
         <v>507</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D322" s="1">
         <v>0</v>
@@ -7749,7 +7749,7 @@
         <v>515</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D327" s="1">
         <v>1</v>
@@ -7763,7 +7763,7 @@
         <v>516</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D328" s="1"/>
     </row>
@@ -7772,10 +7772,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D329" s="1"/>
     </row>
@@ -7784,10 +7784,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="C330" s="2" t="s">
         <v>596</v>
-      </c>
-      <c r="C330" s="2" t="s">
-        <v>597</v>
       </c>
       <c r="D330" s="1"/>
     </row>
@@ -7796,10 +7796,10 @@
         <v>330</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D331" s="1"/>
     </row>

--- a/Quiz 3/bin/Debug/net9.0/Quiz3.xlsx
+++ b/Quiz 3/bin/Debug/net9.0/Quiz3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\Quiz 3\Quiz 3\bin\Debug\net9.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09B5DF8-162B-41AA-9813-078175291ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27708EEA-60F0-4AF3-B526-74CEDB57DB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A52166B1-4494-480B-A027-66F199F0B402}"/>
   </bookViews>
@@ -2367,16 +2367,6 @@
  Игнорирует routing key и смотрит на заголовки сообщения. Привязка указывает, какие заголовки и с какими значениями должны совпасть.</t>
   </si>
   <si>
-    <t xml:space="preserve">Централизованное управление позволяет полный контроль над процессом
-Простота отслеживания  так как оркестратор логирует все шаги
- проще управлять откатами явная бизнес-логика
-Минусы оркестрации:
- выход из строя оркестратора ломает весь процесс
- сервисы зависят от оркестратора
-Сложность масштабирования 
-</t>
-  </si>
-  <si>
     <t>Keep-Alive только переиспользует соединение, а мультиплексирование позволяет настоящую параллельную обработку.</t>
   </si>
   <si>
@@ -2766,6 +2756,17 @@
   </si>
   <si>
     <t>Так как тонкая сага не содержит  бизнес логику то  переносимость саги между брокерами возможна без изменений её кода.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Централизованное управление позволяет полный контроль над процессом
+Простота отслеживания  так как оркестратор логирует все шаги
+ проще управлять откатами
+ явная бизнес-логика
+Минусы оркестрации:
+ выход из строя оркестратора ломает весь процесс
+ сервисы зависят от оркестратора
+Сложность масштабирования 
+</t>
   </si>
 </sst>
 </file>
@@ -3167,8 +3168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C34F926-ACF9-49CF-9B6A-0D737BBB828A}">
   <dimension ref="A1:D344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A278" workbookViewId="0">
-      <selection activeCell="C290" sqref="C290"/>
+    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
+      <selection activeCell="C247" sqref="C247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3367,7 +3368,7 @@
         <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -3703,7 +3704,7 @@
         <v>68</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D38" s="1">
         <v>2</v>
@@ -3745,7 +3746,7 @@
         <v>75</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D41" s="1">
         <v>2</v>
@@ -3759,7 +3760,7 @@
         <v>76</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D42" s="1">
         <v>2</v>
@@ -3899,7 +3900,7 @@
         <v>95</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
@@ -3941,7 +3942,7 @@
         <v>100</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
@@ -4039,7 +4040,7 @@
         <v>120</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D62" s="1">
         <v>2</v>
@@ -4151,7 +4152,7 @@
         <v>126</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D70" s="1">
         <v>2</v>
@@ -4305,7 +4306,7 @@
         <v>145</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D81" s="1">
         <v>2</v>
@@ -4333,7 +4334,7 @@
         <v>148</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D83" s="1">
         <v>2</v>
@@ -4403,7 +4404,7 @@
         <v>159</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D88" s="1">
         <v>2</v>
@@ -4473,7 +4474,7 @@
         <v>167</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D93" s="1">
         <v>0</v>
@@ -4543,7 +4544,7 @@
         <v>176</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D98" s="1">
         <v>2</v>
@@ -4557,7 +4558,7 @@
         <v>177</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D99" s="1">
         <v>2</v>
@@ -4767,7 +4768,7 @@
         <v>204</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D114" s="1">
         <v>0</v>
@@ -4795,7 +4796,7 @@
         <v>206</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D116" s="1">
         <v>2</v>
@@ -4809,7 +4810,7 @@
         <v>207</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D117" s="1">
         <v>2</v>
@@ -4823,7 +4824,7 @@
         <v>208</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D118" s="1">
         <v>2</v>
@@ -4879,7 +4880,7 @@
         <v>215</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D122" s="1">
         <v>2</v>
@@ -4935,7 +4936,7 @@
         <v>222</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D126" s="1">
         <v>2</v>
@@ -4977,7 +4978,7 @@
         <v>226</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D129" s="1">
         <v>2</v>
@@ -5117,7 +5118,7 @@
         <v>242</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D139" s="1">
         <v>2</v>
@@ -5145,7 +5146,7 @@
         <v>244</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D141" s="1">
         <v>2</v>
@@ -5159,7 +5160,7 @@
         <v>245</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D142" s="1">
         <v>2</v>
@@ -5173,7 +5174,7 @@
         <v>247</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D143" s="1">
         <v>2</v>
@@ -5341,7 +5342,7 @@
         <v>266</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D155" s="1">
         <v>0</v>
@@ -5355,7 +5356,7 @@
         <v>267</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D156" s="1">
         <v>2</v>
@@ -5453,7 +5454,7 @@
         <v>280</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D163" s="1">
         <v>1</v>
@@ -5481,7 +5482,7 @@
         <v>283</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D165" s="1">
         <v>1</v>
@@ -5495,7 +5496,7 @@
         <v>284</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D166" s="1">
         <v>1</v>
@@ -5523,7 +5524,7 @@
         <v>287</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D168" s="1">
         <v>0</v>
@@ -5649,7 +5650,7 @@
         <v>304</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D177" s="1">
         <v>0</v>
@@ -5691,7 +5692,7 @@
         <v>309</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D180" s="1">
         <v>2</v>
@@ -5803,7 +5804,7 @@
         <v>323</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D188" s="1">
         <v>2</v>
@@ -5845,7 +5846,7 @@
         <v>328</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D191" s="1">
         <v>1</v>
@@ -5859,7 +5860,7 @@
         <v>329</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D192" s="1">
         <v>0</v>
@@ -5971,7 +5972,7 @@
         <v>340</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D200" s="1">
         <v>0</v>
@@ -5999,7 +6000,7 @@
         <v>343</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D202" s="1">
         <v>2</v>
@@ -6013,7 +6014,7 @@
         <v>344</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D203" s="1">
         <v>1</v>
@@ -6111,7 +6112,7 @@
         <v>354</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D210" s="1">
         <v>1</v>
@@ -6122,10 +6123,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D211" s="1">
         <v>0</v>
@@ -6139,7 +6140,7 @@
         <v>355</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D212" s="1">
         <v>1</v>
@@ -6178,7 +6179,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>360</v>
@@ -6237,7 +6238,7 @@
         <v>365</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D219" s="1">
         <v>1</v>
@@ -6251,7 +6252,7 @@
         <v>366</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D220" s="1">
         <v>0</v>
@@ -6293,7 +6294,7 @@
         <v>370</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D223" s="1">
         <v>2</v>
@@ -6307,7 +6308,7 @@
         <v>371</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D224" s="1">
         <v>1</v>
@@ -6321,7 +6322,7 @@
         <v>372</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D225" s="1">
         <v>1</v>
@@ -6349,7 +6350,7 @@
         <v>375</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D227" s="1">
         <v>2</v>
@@ -6461,7 +6462,7 @@
         <v>385</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D235" s="1">
         <v>1</v>
@@ -6489,7 +6490,7 @@
         <v>387</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D237" s="1">
         <v>0</v>
@@ -6503,7 +6504,7 @@
         <v>388</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D238" s="1">
         <v>0</v>
@@ -6559,7 +6560,7 @@
         <v>394</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D242" s="1">
         <v>2</v>
@@ -6621,7 +6622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -6629,7 +6630,7 @@
         <v>401</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>579</v>
+        <v>663</v>
       </c>
       <c r="D247" s="1">
         <v>1</v>
@@ -6685,7 +6686,7 @@
         <v>408</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D251" s="1">
         <v>1</v>
@@ -6713,7 +6714,7 @@
         <v>410</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D253" s="1">
         <v>1</v>
@@ -6727,7 +6728,7 @@
         <v>411</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D254" s="1">
         <v>1</v>
@@ -6783,7 +6784,7 @@
         <v>417</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D258" s="1">
         <v>1</v>
@@ -6895,7 +6896,7 @@
         <v>431</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D266" s="1">
         <v>1</v>
@@ -6923,7 +6924,7 @@
         <v>434</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D268" s="1">
         <v>2</v>
@@ -6937,7 +6938,7 @@
         <v>435</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D269" s="1">
         <v>0</v>
@@ -7077,7 +7078,7 @@
         <v>449</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D279" s="1">
         <v>0</v>
@@ -7175,7 +7176,7 @@
         <v>460</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D286" s="1">
         <v>0</v>
@@ -7189,7 +7190,7 @@
         <v>461</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D287" s="1">
         <v>0</v>
@@ -7231,7 +7232,7 @@
         <v>465</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D290" s="1">
         <v>0</v>
@@ -7259,7 +7260,7 @@
         <v>468</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D292" s="1">
         <v>0</v>
@@ -7343,7 +7344,7 @@
         <v>476</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D298" s="1">
         <v>0</v>
@@ -7357,7 +7358,7 @@
         <v>477</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D299" s="1">
         <v>0</v>
@@ -7385,7 +7386,7 @@
         <v>479</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D301" s="1">
         <v>0</v>
@@ -7413,7 +7414,7 @@
         <v>481</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D303" s="1">
         <v>0</v>
@@ -7427,7 +7428,7 @@
         <v>482</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D304" s="1">
         <v>0</v>
@@ -7497,7 +7498,7 @@
         <v>490</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D309" s="1">
         <v>2</v>
@@ -7525,7 +7526,7 @@
         <v>493</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D311" s="1">
         <v>1</v>
@@ -7553,7 +7554,7 @@
         <v>496</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D313" s="1">
         <v>1</v>
@@ -7581,7 +7582,7 @@
         <v>498</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D315" s="1">
         <v>0</v>
@@ -7623,7 +7624,7 @@
         <v>501</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D318" s="1">
         <v>0</v>
@@ -7665,7 +7666,7 @@
         <v>506</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D321" s="1">
         <v>0</v>
@@ -7749,7 +7750,7 @@
         <v>515</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D327" s="1">
         <v>1</v>
@@ -7772,10 +7773,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D329" s="1"/>
     </row>
@@ -7784,10 +7785,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C330" s="2" t="s">
         <v>595</v>
-      </c>
-      <c r="C330" s="2" t="s">
-        <v>596</v>
       </c>
       <c r="D330" s="1"/>
     </row>
@@ -7796,10 +7797,10 @@
         <v>330</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D331" s="1"/>
     </row>

--- a/Quiz 3/bin/Debug/net9.0/Quiz3.xlsx
+++ b/Quiz 3/bin/Debug/net9.0/Quiz3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\Quiz 3\Quiz 3\bin\Debug\net9.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27708EEA-60F0-4AF3-B526-74CEDB57DB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EC60C2-BAFD-46D1-9FEC-933E4C5D4FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A52166B1-4494-480B-A027-66F199F0B402}"/>
   </bookViews>
@@ -1091,11 +1091,6 @@
     <t xml:space="preserve">GraphQL </t>
   </si>
   <si>
-    <t xml:space="preserve">это язык запросов для API, разработанный Facebook. Это позволяет клиенту запрашивать именно те данные, которые ему нужны с сервера.  
-Таким образом, вы можете создать только одну конечную точку на сервере, которая будет чрезвычайно гибкой
- и будет возвращать только те данные, которые нужны клиенту. </t>
-  </si>
-  <si>
     <t xml:space="preserve">TcpClient и TcpListener </t>
   </si>
   <si>
@@ -2531,9 +2526,6 @@
     <t xml:space="preserve">Это подход для построения фронтенда в микросервисной архитектуре, где каждый микросервис отвечает за свой независимый фрагмент UI на странице. Эти фрагменты (виджеты, компоненты) собираются и управляются прямо в браузере, что позволяет им развиваться и развертываться автономно. </t>
   </si>
   <si>
-    <t>Это не модель данных для базы. Это модель бизнес-логики. Её задача — не просто хранить данные, а реализовывать операции и правила предметной области.</t>
-  </si>
-  <si>
     <t>Ok-200
 Created - 201
 Accepted -202
@@ -2767,6 +2759,14 @@
  сервисы зависят от оркестратора
 Сложность масштабирования 
 </t>
+  </si>
+  <si>
+    <t>Это не просто модель данных для базы. Это модель бизнес-логики. Её задача — не просто хранить данные, а реализовывать операции и правила предметной области.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">это язык запросов для API, разработанный Facebook. Он позволяет клиенту запрашивать именно те данные, которые ему нужны с сервера.  
+Таким образом, вы можете создать только одну конечную точку на сервере, которая будет чрезвычайно гибкой
+ и будет возвращать только те данные, которые нужны клиенту. </t>
   </si>
 </sst>
 </file>
@@ -3168,8 +3168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C34F926-ACF9-49CF-9B6A-0D737BBB828A}">
   <dimension ref="A1:D344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
-      <selection activeCell="C247" sqref="C247"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="C152" sqref="C152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3368,7 +3368,7 @@
         <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -3452,7 +3452,7 @@
         <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
@@ -3578,7 +3578,7 @@
         <v>51</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
@@ -3704,7 +3704,7 @@
         <v>68</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D38" s="1">
         <v>2</v>
@@ -3746,7 +3746,7 @@
         <v>75</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D41" s="1">
         <v>2</v>
@@ -3760,7 +3760,7 @@
         <v>76</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D42" s="1">
         <v>2</v>
@@ -3900,7 +3900,7 @@
         <v>95</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
@@ -3942,7 +3942,7 @@
         <v>100</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
@@ -4040,7 +4040,7 @@
         <v>120</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D62" s="1">
         <v>2</v>
@@ -4152,7 +4152,7 @@
         <v>126</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D70" s="1">
         <v>2</v>
@@ -4264,7 +4264,7 @@
         <v>141</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D78" s="1">
         <v>2</v>
@@ -4306,7 +4306,7 @@
         <v>145</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D81" s="1">
         <v>2</v>
@@ -4334,7 +4334,7 @@
         <v>148</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D83" s="1">
         <v>2</v>
@@ -4404,7 +4404,7 @@
         <v>159</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>610</v>
+        <v>662</v>
       </c>
       <c r="D88" s="1">
         <v>2</v>
@@ -4418,7 +4418,7 @@
         <v>160</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D89" s="1">
         <v>2</v>
@@ -4474,7 +4474,7 @@
         <v>167</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D93" s="1">
         <v>0</v>
@@ -4488,7 +4488,7 @@
         <v>171</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D94" s="1">
         <v>2</v>
@@ -4502,7 +4502,7 @@
         <v>172</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D95" s="1">
         <v>2</v>
@@ -4544,7 +4544,7 @@
         <v>176</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D98" s="1">
         <v>2</v>
@@ -4558,7 +4558,7 @@
         <v>177</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D99" s="1">
         <v>2</v>
@@ -4572,7 +4572,7 @@
         <v>179</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D100" s="1">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>184</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D103" s="1">
         <v>0</v>
@@ -4642,7 +4642,7 @@
         <v>187</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D105" s="1">
         <v>2</v>
@@ -4768,7 +4768,7 @@
         <v>204</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D114" s="1">
         <v>0</v>
@@ -4782,7 +4782,7 @@
         <v>205</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D115" s="1">
         <v>2</v>
@@ -4796,7 +4796,7 @@
         <v>206</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D116" s="1">
         <v>2</v>
@@ -4810,7 +4810,7 @@
         <v>207</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D117" s="1">
         <v>2</v>
@@ -4824,7 +4824,7 @@
         <v>208</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D118" s="1">
         <v>2</v>
@@ -4880,7 +4880,7 @@
         <v>215</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D122" s="1">
         <v>2</v>
@@ -4936,7 +4936,7 @@
         <v>222</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D126" s="1">
         <v>2</v>
@@ -4964,7 +4964,7 @@
         <v>225</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D128" s="1">
         <v>2</v>
@@ -4978,7 +4978,7 @@
         <v>226</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D129" s="1">
         <v>2</v>
@@ -5020,7 +5020,7 @@
         <v>231</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D132" s="1">
         <v>2</v>
@@ -5034,7 +5034,7 @@
         <v>232</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D133" s="1">
         <v>2</v>
@@ -5104,7 +5104,7 @@
         <v>241</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D138" s="1">
         <v>2</v>
@@ -5118,7 +5118,7 @@
         <v>242</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D139" s="1">
         <v>2</v>
@@ -5132,7 +5132,7 @@
         <v>243</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D140" s="1">
         <v>2</v>
@@ -5146,7 +5146,7 @@
         <v>244</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D141" s="1">
         <v>2</v>
@@ -5160,7 +5160,7 @@
         <v>245</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D142" s="1">
         <v>2</v>
@@ -5174,7 +5174,7 @@
         <v>247</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D143" s="1">
         <v>2</v>
@@ -5230,7 +5230,7 @@
         <v>254</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D147" s="1">
         <v>1</v>
@@ -5258,7 +5258,7 @@
         <v>257</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D149" s="1">
         <v>2</v>
@@ -5300,7 +5300,7 @@
         <v>262</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>263</v>
+        <v>663</v>
       </c>
       <c r="D152" s="1">
         <v>2</v>
@@ -5311,10 +5311,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D153" s="1">
         <v>0</v>
@@ -5325,10 +5325,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D154" s="1">
         <v>0</v>
@@ -5339,10 +5339,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D155" s="1">
         <v>0</v>
@@ -5353,10 +5353,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D156" s="1">
         <v>2</v>
@@ -5367,10 +5367,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C157" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>269</v>
       </c>
       <c r="D157" s="1">
         <v>2</v>
@@ -5381,10 +5381,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C158" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>271</v>
       </c>
       <c r="D158" s="1">
         <v>2</v>
@@ -5395,10 +5395,10 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C159" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="D159" s="1">
         <v>2</v>
@@ -5409,10 +5409,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="D160" s="1">
         <v>1</v>
@@ -5423,10 +5423,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="D161" s="1">
         <v>0</v>
@@ -5437,10 +5437,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D162" s="1">
         <v>0</v>
@@ -5451,10 +5451,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D163" s="1">
         <v>1</v>
@@ -5465,10 +5465,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D164" s="1">
         <v>0</v>
@@ -5479,10 +5479,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D165" s="1">
         <v>1</v>
@@ -5493,10 +5493,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D166" s="1">
         <v>1</v>
@@ -5507,10 +5507,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C167" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="D167" s="1">
         <v>1</v>
@@ -5521,10 +5521,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D168" s="1">
         <v>0</v>
@@ -5535,10 +5535,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D169" s="1">
         <v>0</v>
@@ -5549,10 +5549,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C170" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>291</v>
       </c>
       <c r="D170" s="1">
         <v>1</v>
@@ -5563,10 +5563,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C171" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>293</v>
       </c>
       <c r="D171" s="1">
         <v>1</v>
@@ -5577,10 +5577,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D172" s="1">
         <v>1</v>
@@ -5591,10 +5591,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C173" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="D173" s="1">
         <v>0</v>
@@ -5605,10 +5605,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D174" s="1">
         <v>0</v>
@@ -5619,10 +5619,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D175" s="1">
         <v>0</v>
@@ -5633,10 +5633,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C176" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>303</v>
       </c>
       <c r="D176" s="1">
         <v>2</v>
@@ -5647,10 +5647,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D177" s="1">
         <v>0</v>
@@ -5661,10 +5661,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C178" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>306</v>
       </c>
       <c r="D178" s="1">
         <v>0</v>
@@ -5675,10 +5675,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D179" s="1">
         <v>0</v>
@@ -5689,10 +5689,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D180" s="1">
         <v>2</v>
@@ -5703,10 +5703,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D181" s="1">
         <v>2</v>
@@ -5717,10 +5717,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C182" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>312</v>
       </c>
       <c r="D182" s="1">
         <v>2</v>
@@ -5731,10 +5731,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D183" s="1">
         <v>1</v>
@@ -5745,10 +5745,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D184" s="1">
         <v>0</v>
@@ -5759,10 +5759,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D185" s="1">
         <v>2</v>
@@ -5773,10 +5773,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C186" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="D186" s="1">
         <v>0</v>
@@ -5787,10 +5787,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C187" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="D187" s="1">
         <v>2</v>
@@ -5801,10 +5801,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D188" s="1">
         <v>2</v>
@@ -5815,10 +5815,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C189" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>325</v>
       </c>
       <c r="D189" s="1">
         <v>0</v>
@@ -5829,10 +5829,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C190" s="2" t="s">
         <v>326</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>327</v>
       </c>
       <c r="D190" s="1">
         <v>1</v>
@@ -5843,10 +5843,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D191" s="1">
         <v>1</v>
@@ -5857,10 +5857,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D192" s="1">
         <v>0</v>
@@ -5871,10 +5871,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C193" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>331</v>
       </c>
       <c r="D193" s="1">
         <v>2</v>
@@ -5885,10 +5885,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D194" s="1">
         <v>1</v>
@@ -5899,10 +5899,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D195" s="1">
         <v>1</v>
@@ -5913,10 +5913,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D196" s="1">
         <v>2</v>
@@ -5927,10 +5927,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C197" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>336</v>
       </c>
       <c r="D197" s="1">
         <v>0</v>
@@ -5941,10 +5941,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C198" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>338</v>
       </c>
       <c r="D198" s="1">
         <v>2</v>
@@ -5955,10 +5955,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D199" s="1">
         <v>1</v>
@@ -5969,10 +5969,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D200" s="1">
         <v>0</v>
@@ -5983,10 +5983,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C201" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>342</v>
       </c>
       <c r="D201" s="1">
         <v>0</v>
@@ -5997,10 +5997,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D202" s="1">
         <v>2</v>
@@ -6011,10 +6011,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D203" s="1">
         <v>1</v>
@@ -6025,10 +6025,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D204" s="1">
         <v>2</v>
@@ -6039,10 +6039,10 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D205" s="1">
         <v>1</v>
@@ -6053,10 +6053,10 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D206" s="1">
         <v>0</v>
@@ -6067,10 +6067,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D207" s="1">
         <v>0</v>
@@ -6081,10 +6081,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C208" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>352</v>
       </c>
       <c r="D208" s="1">
         <v>1</v>
@@ -6095,10 +6095,10 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D209" s="1">
         <v>1</v>
@@ -6109,10 +6109,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D210" s="1">
         <v>1</v>
@@ -6123,10 +6123,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D211" s="1">
         <v>0</v>
@@ -6137,10 +6137,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D212" s="1">
         <v>1</v>
@@ -6151,10 +6151,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C213" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>357</v>
       </c>
       <c r="D213" s="1">
         <v>1</v>
@@ -6165,10 +6165,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C214" s="2" t="s">
         <v>358</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>359</v>
       </c>
       <c r="D214" s="1">
         <v>0</v>
@@ -6179,10 +6179,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D215" s="1">
         <v>1</v>
@@ -6193,10 +6193,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D216" s="1">
         <v>1</v>
@@ -6207,10 +6207,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D217" s="1">
         <v>1</v>
@@ -6221,10 +6221,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C218" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>364</v>
       </c>
       <c r="D218" s="1">
         <v>2</v>
@@ -6235,10 +6235,10 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D219" s="1">
         <v>1</v>
@@ -6249,10 +6249,10 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D220" s="1">
         <v>0</v>
@@ -6263,10 +6263,10 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D221" s="1">
         <v>1</v>
@@ -6277,10 +6277,10 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D222" s="1">
         <v>1</v>
@@ -6291,10 +6291,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D223" s="1">
         <v>2</v>
@@ -6305,10 +6305,10 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D224" s="1">
         <v>1</v>
@@ -6319,10 +6319,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D225" s="1">
         <v>1</v>
@@ -6333,10 +6333,10 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D226" s="1">
         <v>1</v>
@@ -6347,10 +6347,10 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D227" s="1">
         <v>2</v>
@@ -6361,10 +6361,10 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D228" s="1">
         <v>2</v>
@@ -6375,10 +6375,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D229" s="1">
         <v>2</v>
@@ -6389,10 +6389,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D230" s="1">
         <v>0</v>
@@ -6403,10 +6403,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C231" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="D231" s="1">
         <v>0</v>
@@ -6417,10 +6417,10 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C232" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>382</v>
       </c>
       <c r="D232" s="1">
         <v>1</v>
@@ -6431,10 +6431,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D233" s="1">
         <v>1</v>
@@ -6445,10 +6445,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D234" s="1">
         <v>1</v>
@@ -6459,10 +6459,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D235" s="1">
         <v>1</v>
@@ -6473,10 +6473,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D236" s="1">
         <v>1</v>
@@ -6487,10 +6487,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D237" s="1">
         <v>0</v>
@@ -6501,10 +6501,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D238" s="1">
         <v>0</v>
@@ -6515,10 +6515,10 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D239" s="1">
         <v>2</v>
@@ -6529,10 +6529,10 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D240" s="1">
         <v>2</v>
@@ -6543,10 +6543,10 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D241" s="1">
         <v>2</v>
@@ -6557,10 +6557,10 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D242" s="1">
         <v>2</v>
@@ -6571,10 +6571,10 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D243" s="1">
         <v>1</v>
@@ -6585,10 +6585,10 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C244" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="D244" s="1">
         <v>1</v>
@@ -6599,10 +6599,10 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D245" s="1">
         <v>0</v>
@@ -6613,10 +6613,10 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C246" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>400</v>
       </c>
       <c r="D246" s="1">
         <v>2</v>
@@ -6627,10 +6627,10 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D247" s="1">
         <v>1</v>
@@ -6641,10 +6641,10 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D248" s="1">
         <v>1</v>
@@ -6655,10 +6655,10 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C249" s="2" t="s">
         <v>404</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>405</v>
       </c>
       <c r="D249" s="1">
         <v>0</v>
@@ -6669,10 +6669,10 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C250" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>407</v>
       </c>
       <c r="D250" s="1">
         <v>1</v>
@@ -6683,10 +6683,10 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D251" s="1">
         <v>1</v>
@@ -6697,10 +6697,10 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D252" s="1">
         <v>1</v>
@@ -6711,10 +6711,10 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D253" s="1">
         <v>1</v>
@@ -6725,10 +6725,10 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D254" s="1">
         <v>1</v>
@@ -6739,10 +6739,10 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D255" s="1">
         <v>2</v>
@@ -6753,10 +6753,10 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D256" s="1">
         <v>1</v>
@@ -6767,10 +6767,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C257" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>416</v>
       </c>
       <c r="D257" s="1">
         <v>1</v>
@@ -6781,10 +6781,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D258" s="1">
         <v>1</v>
@@ -6795,10 +6795,10 @@
         <v>258</v>
       </c>
       <c r="B259" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C259" s="2" t="s">
         <v>418</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>419</v>
       </c>
       <c r="D259" s="1">
         <v>1</v>
@@ -6809,10 +6809,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C260" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>421</v>
       </c>
       <c r="D260" s="1">
         <v>1</v>
@@ -6823,10 +6823,10 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D261" s="1">
         <v>1</v>
@@ -6837,10 +6837,10 @@
         <v>261</v>
       </c>
       <c r="B262" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C262" s="1" t="s">
         <v>423</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>424</v>
       </c>
       <c r="D262" s="1">
         <v>1</v>
@@ -6851,10 +6851,10 @@
         <v>262</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D263" s="1">
         <v>0</v>
@@ -6865,10 +6865,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D264" s="1">
         <v>0</v>
@@ -6879,10 +6879,10 @@
         <v>264</v>
       </c>
       <c r="B265" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C265" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>430</v>
       </c>
       <c r="D265" s="1">
         <v>1</v>
@@ -6893,10 +6893,10 @@
         <v>265</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D266" s="1">
         <v>1</v>
@@ -6907,10 +6907,10 @@
         <v>266</v>
       </c>
       <c r="B267" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C267" s="2" t="s">
         <v>432</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>433</v>
       </c>
       <c r="D267" s="1">
         <v>0</v>
@@ -6921,10 +6921,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D268" s="1">
         <v>2</v>
@@ -6935,10 +6935,10 @@
         <v>268</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D269" s="1">
         <v>0</v>
@@ -6949,10 +6949,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D270" s="1">
         <v>0</v>
@@ -6963,10 +6963,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D271" s="1">
         <v>0</v>
@@ -6977,10 +6977,10 @@
         <v>271</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D272" s="1">
         <v>0</v>
@@ -6991,10 +6991,10 @@
         <v>272</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D273" s="1">
         <v>0</v>
@@ -7005,10 +7005,10 @@
         <v>273</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D274" s="1">
         <v>0</v>
@@ -7019,10 +7019,10 @@
         <v>274</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D275" s="1">
         <v>0</v>
@@ -7033,10 +7033,10 @@
         <v>275</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D276" s="1">
         <v>0</v>
@@ -7047,10 +7047,10 @@
         <v>276</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D277" s="1">
         <v>0</v>
@@ -7061,10 +7061,10 @@
         <v>277</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D278" s="1">
         <v>0</v>
@@ -7075,10 +7075,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D279" s="1">
         <v>0</v>
@@ -7089,10 +7089,10 @@
         <v>279</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D280" s="1">
         <v>0</v>
@@ -7103,10 +7103,10 @@
         <v>280</v>
       </c>
       <c r="B281" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C281" s="2" t="s">
         <v>451</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>452</v>
       </c>
       <c r="D281" s="1">
         <v>0</v>
@@ -7117,10 +7117,10 @@
         <v>281</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D282" s="1">
         <v>0</v>
@@ -7131,10 +7131,10 @@
         <v>282</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D283" s="1">
         <v>0</v>
@@ -7145,10 +7145,10 @@
         <v>283</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D284" s="1">
         <v>0</v>
@@ -7159,10 +7159,10 @@
         <v>284</v>
       </c>
       <c r="B285" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C285" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>459</v>
       </c>
       <c r="D285" s="1">
         <v>0</v>
@@ -7173,10 +7173,10 @@
         <v>285</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D286" s="1">
         <v>0</v>
@@ -7187,10 +7187,10 @@
         <v>286</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D287" s="1">
         <v>0</v>
@@ -7201,10 +7201,10 @@
         <v>287</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D288" s="1">
         <v>1</v>
@@ -7215,10 +7215,10 @@
         <v>288</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D289" s="1">
         <v>0</v>
@@ -7229,10 +7229,10 @@
         <v>289</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D290" s="1">
         <v>0</v>
@@ -7243,10 +7243,10 @@
         <v>290</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D291" s="1">
         <v>0</v>
@@ -7257,10 +7257,10 @@
         <v>291</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D292" s="1">
         <v>0</v>
@@ -7271,10 +7271,10 @@
         <v>292</v>
       </c>
       <c r="B293" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C293" s="1" t="s">
         <v>469</v>
-      </c>
-      <c r="C293" s="1" t="s">
-        <v>470</v>
       </c>
       <c r="D293" s="1">
         <v>0</v>
@@ -7285,10 +7285,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D294" s="1">
         <v>0</v>
@@ -7299,10 +7299,10 @@
         <v>294</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D295" s="1">
         <v>0</v>
@@ -7313,10 +7313,10 @@
         <v>295</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D296" s="1">
         <v>0</v>
@@ -7327,10 +7327,10 @@
         <v>296</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D297" s="1">
         <v>0</v>
@@ -7341,10 +7341,10 @@
         <v>297</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D298" s="1">
         <v>0</v>
@@ -7355,10 +7355,10 @@
         <v>298</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D299" s="1">
         <v>0</v>
@@ -7369,10 +7369,10 @@
         <v>299</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D300" s="1">
         <v>0</v>
@@ -7383,10 +7383,10 @@
         <v>300</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D301" s="1">
         <v>0</v>
@@ -7397,10 +7397,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D302" s="1">
         <v>0</v>
@@ -7411,10 +7411,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D303" s="1">
         <v>0</v>
@@ -7425,10 +7425,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D304" s="1">
         <v>0</v>
@@ -7439,10 +7439,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D305" s="1">
         <v>0</v>
@@ -7453,10 +7453,10 @@
         <v>305</v>
       </c>
       <c r="B306" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C306" s="2" t="s">
         <v>484</v>
-      </c>
-      <c r="C306" s="2" t="s">
-        <v>485</v>
       </c>
       <c r="D306" s="1">
         <v>2</v>
@@ -7467,10 +7467,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C307" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="C307" s="2" t="s">
-        <v>487</v>
       </c>
       <c r="D307" s="1">
         <v>0</v>
@@ -7481,10 +7481,10 @@
         <v>307</v>
       </c>
       <c r="B308" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C308" s="2" t="s">
         <v>488</v>
-      </c>
-      <c r="C308" s="2" t="s">
-        <v>489</v>
       </c>
       <c r="D308" s="1">
         <v>1</v>
@@ -7495,10 +7495,10 @@
         <v>308</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D309" s="1">
         <v>2</v>
@@ -7509,10 +7509,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C310" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="C310" s="1" t="s">
-        <v>492</v>
       </c>
       <c r="D310" s="1">
         <v>1</v>
@@ -7523,10 +7523,10 @@
         <v>310</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D311" s="1">
         <v>1</v>
@@ -7537,10 +7537,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D312" s="1">
         <v>1</v>
@@ -7551,10 +7551,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D313" s="1">
         <v>1</v>
@@ -7565,10 +7565,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D314" s="1">
         <v>1</v>
@@ -7579,10 +7579,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D315" s="1">
         <v>0</v>
@@ -7593,10 +7593,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D316" s="1">
         <v>2</v>
@@ -7607,10 +7607,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D317" s="1">
         <v>1</v>
@@ -7621,10 +7621,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D318" s="1">
         <v>0</v>
@@ -7635,10 +7635,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D319" s="1">
         <v>1</v>
@@ -7649,10 +7649,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C320" s="1" t="s">
         <v>504</v>
-      </c>
-      <c r="C320" s="1" t="s">
-        <v>505</v>
       </c>
       <c r="D320" s="1">
         <v>0</v>
@@ -7663,10 +7663,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D321" s="1">
         <v>0</v>
@@ -7677,10 +7677,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D322" s="1">
         <v>0</v>
@@ -7691,10 +7691,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D323" s="1">
         <v>0</v>
@@ -7705,10 +7705,10 @@
         <v>323</v>
       </c>
       <c r="B324" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C324" s="1" t="s">
         <v>510</v>
-      </c>
-      <c r="C324" s="1" t="s">
-        <v>511</v>
       </c>
       <c r="D324" s="1">
         <v>0</v>
@@ -7719,10 +7719,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D325" s="1">
         <v>2</v>
@@ -7733,10 +7733,10 @@
         <v>325</v>
       </c>
       <c r="B326" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C326" s="2" t="s">
         <v>513</v>
-      </c>
-      <c r="C326" s="2" t="s">
-        <v>514</v>
       </c>
       <c r="D326" s="1">
         <v>1</v>
@@ -7747,10 +7747,10 @@
         <v>326</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D327" s="1">
         <v>1</v>
@@ -7761,10 +7761,10 @@
         <v>327</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D328" s="1"/>
     </row>
@@ -7773,10 +7773,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D329" s="1"/>
     </row>
@@ -7785,10 +7785,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C330" s="2" t="s">
         <v>594</v>
-      </c>
-      <c r="C330" s="2" t="s">
-        <v>595</v>
       </c>
       <c r="D330" s="1"/>
     </row>
@@ -7797,10 +7797,10 @@
         <v>330</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D331" s="1"/>
     </row>

--- a/Quiz 3/bin/Debug/net9.0/Quiz3.xlsx
+++ b/Quiz 3/bin/Debug/net9.0/Quiz3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\Quiz 3\Quiz 3\bin\Debug\net9.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EC60C2-BAFD-46D1-9FEC-933E4C5D4FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B12C647-5DBE-484A-B36C-9B379B88D920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A52166B1-4494-480B-A027-66F199F0B402}"/>
   </bookViews>
@@ -1520,10 +1520,6 @@
     <t>Чем отличается маппинг между моделями и ORM-маппингом?</t>
   </si>
   <si>
-    <t>Маппинг между моделями (DTO/VO): Преобразование между слоями приложения Domain Model ↔ DTO ↔ View Model
-ORM-маппинг: Преобразование объектов ↔ таблиц БД</t>
-  </si>
-  <si>
     <t>Чем опасен автоматический маппинг?</t>
   </si>
   <si>
@@ -2767,6 +2763,10 @@
     <t xml:space="preserve">это язык запросов для API, разработанный Facebook. Он позволяет клиенту запрашивать именно те данные, которые ему нужны с сервера.  
 Таким образом, вы можете создать только одну конечную точку на сервере, которая будет чрезвычайно гибкой
  и будет возвращать только те данные, которые нужны клиенту. </t>
+  </si>
+  <si>
+    <t>ORM-маппинг — это преобразование между объектами в коде и данными в реляционной БД .
+Маппинг между моделями — это преобразование между разными представлениями данных внутри приложения</t>
   </si>
 </sst>
 </file>
@@ -3168,8 +3168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C34F926-ACF9-49CF-9B6A-0D737BBB828A}">
   <dimension ref="A1:D344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="C152" sqref="C152"/>
+    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
+      <selection activeCell="C232" sqref="C232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3368,7 +3368,7 @@
         <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -3452,7 +3452,7 @@
         <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
@@ -3578,7 +3578,7 @@
         <v>51</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
@@ -3704,7 +3704,7 @@
         <v>68</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D38" s="1">
         <v>2</v>
@@ -3746,7 +3746,7 @@
         <v>75</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D41" s="1">
         <v>2</v>
@@ -3760,7 +3760,7 @@
         <v>76</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D42" s="1">
         <v>2</v>
@@ -3900,7 +3900,7 @@
         <v>95</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
@@ -3942,7 +3942,7 @@
         <v>100</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
@@ -4040,7 +4040,7 @@
         <v>120</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D62" s="1">
         <v>2</v>
@@ -4152,7 +4152,7 @@
         <v>126</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D70" s="1">
         <v>2</v>
@@ -4264,7 +4264,7 @@
         <v>141</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D78" s="1">
         <v>2</v>
@@ -4306,7 +4306,7 @@
         <v>145</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D81" s="1">
         <v>2</v>
@@ -4334,7 +4334,7 @@
         <v>148</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D83" s="1">
         <v>2</v>
@@ -4404,7 +4404,7 @@
         <v>159</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D88" s="1">
         <v>2</v>
@@ -4418,7 +4418,7 @@
         <v>160</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D89" s="1">
         <v>2</v>
@@ -4474,7 +4474,7 @@
         <v>167</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D93" s="1">
         <v>0</v>
@@ -4488,7 +4488,7 @@
         <v>171</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D94" s="1">
         <v>2</v>
@@ -4502,7 +4502,7 @@
         <v>172</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D95" s="1">
         <v>2</v>
@@ -4544,7 +4544,7 @@
         <v>176</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D98" s="1">
         <v>2</v>
@@ -4558,7 +4558,7 @@
         <v>177</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D99" s="1">
         <v>2</v>
@@ -4572,7 +4572,7 @@
         <v>179</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D100" s="1">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>184</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D103" s="1">
         <v>0</v>
@@ -4642,7 +4642,7 @@
         <v>187</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D105" s="1">
         <v>2</v>
@@ -4768,7 +4768,7 @@
         <v>204</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D114" s="1">
         <v>0</v>
@@ -4782,7 +4782,7 @@
         <v>205</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D115" s="1">
         <v>2</v>
@@ -4796,7 +4796,7 @@
         <v>206</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D116" s="1">
         <v>2</v>
@@ -4810,7 +4810,7 @@
         <v>207</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D117" s="1">
         <v>2</v>
@@ -4824,7 +4824,7 @@
         <v>208</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D118" s="1">
         <v>2</v>
@@ -4880,7 +4880,7 @@
         <v>215</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D122" s="1">
         <v>2</v>
@@ -4936,7 +4936,7 @@
         <v>222</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D126" s="1">
         <v>2</v>
@@ -4964,7 +4964,7 @@
         <v>225</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D128" s="1">
         <v>2</v>
@@ -4978,7 +4978,7 @@
         <v>226</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D129" s="1">
         <v>2</v>
@@ -5020,7 +5020,7 @@
         <v>231</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D132" s="1">
         <v>2</v>
@@ -5034,7 +5034,7 @@
         <v>232</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D133" s="1">
         <v>2</v>
@@ -5104,7 +5104,7 @@
         <v>241</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D138" s="1">
         <v>2</v>
@@ -5118,7 +5118,7 @@
         <v>242</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D139" s="1">
         <v>2</v>
@@ -5132,7 +5132,7 @@
         <v>243</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D140" s="1">
         <v>2</v>
@@ -5146,7 +5146,7 @@
         <v>244</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D141" s="1">
         <v>2</v>
@@ -5160,7 +5160,7 @@
         <v>245</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D142" s="1">
         <v>2</v>
@@ -5174,7 +5174,7 @@
         <v>247</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D143" s="1">
         <v>2</v>
@@ -5230,7 +5230,7 @@
         <v>254</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D147" s="1">
         <v>1</v>
@@ -5258,7 +5258,7 @@
         <v>257</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D149" s="1">
         <v>2</v>
@@ -5300,7 +5300,7 @@
         <v>262</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D152" s="1">
         <v>2</v>
@@ -5314,7 +5314,7 @@
         <v>263</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D153" s="1">
         <v>0</v>
@@ -5328,7 +5328,7 @@
         <v>264</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D154" s="1">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>265</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D155" s="1">
         <v>0</v>
@@ -5356,7 +5356,7 @@
         <v>266</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D156" s="1">
         <v>2</v>
@@ -5454,7 +5454,7 @@
         <v>279</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D163" s="1">
         <v>1</v>
@@ -5482,7 +5482,7 @@
         <v>282</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D165" s="1">
         <v>1</v>
@@ -5496,7 +5496,7 @@
         <v>283</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D166" s="1">
         <v>1</v>
@@ -5524,7 +5524,7 @@
         <v>286</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D168" s="1">
         <v>0</v>
@@ -5650,7 +5650,7 @@
         <v>303</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D177" s="1">
         <v>0</v>
@@ -5692,7 +5692,7 @@
         <v>308</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D180" s="1">
         <v>2</v>
@@ -5706,7 +5706,7 @@
         <v>309</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D181" s="1">
         <v>2</v>
@@ -5804,7 +5804,7 @@
         <v>322</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D188" s="1">
         <v>2</v>
@@ -5846,7 +5846,7 @@
         <v>327</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D191" s="1">
         <v>1</v>
@@ -5860,7 +5860,7 @@
         <v>328</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D192" s="1">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>331</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D194" s="1">
         <v>1</v>
@@ -5902,7 +5902,7 @@
         <v>332</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D195" s="1">
         <v>1</v>
@@ -5916,7 +5916,7 @@
         <v>333</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D196" s="1">
         <v>2</v>
@@ -5958,7 +5958,7 @@
         <v>338</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D199" s="1">
         <v>1</v>
@@ -5972,7 +5972,7 @@
         <v>339</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D200" s="1">
         <v>0</v>
@@ -6000,7 +6000,7 @@
         <v>342</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D202" s="1">
         <v>2</v>
@@ -6014,7 +6014,7 @@
         <v>343</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D203" s="1">
         <v>1</v>
@@ -6028,7 +6028,7 @@
         <v>344</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D204" s="1">
         <v>2</v>
@@ -6042,7 +6042,7 @@
         <v>345</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D205" s="1">
         <v>1</v>
@@ -6098,7 +6098,7 @@
         <v>352</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D209" s="1">
         <v>1</v>
@@ -6112,7 +6112,7 @@
         <v>353</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D210" s="1">
         <v>1</v>
@@ -6123,10 +6123,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D211" s="1">
         <v>0</v>
@@ -6140,7 +6140,7 @@
         <v>354</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D212" s="1">
         <v>1</v>
@@ -6179,7 +6179,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>359</v>
@@ -6196,7 +6196,7 @@
         <v>360</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D216" s="1">
         <v>1</v>
@@ -6210,7 +6210,7 @@
         <v>361</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D217" s="1">
         <v>1</v>
@@ -6238,7 +6238,7 @@
         <v>364</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D219" s="1">
         <v>1</v>
@@ -6252,7 +6252,7 @@
         <v>365</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D220" s="1">
         <v>0</v>
@@ -6280,7 +6280,7 @@
         <v>368</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D222" s="1">
         <v>1</v>
@@ -6294,7 +6294,7 @@
         <v>369</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D223" s="1">
         <v>2</v>
@@ -6308,7 +6308,7 @@
         <v>370</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D224" s="1">
         <v>1</v>
@@ -6322,7 +6322,7 @@
         <v>371</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D225" s="1">
         <v>1</v>
@@ -6350,7 +6350,7 @@
         <v>374</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D227" s="1">
         <v>2</v>
@@ -6364,7 +6364,7 @@
         <v>375</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D228" s="1">
         <v>2</v>
@@ -6378,7 +6378,7 @@
         <v>376</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D229" s="1">
         <v>2</v>
@@ -6392,7 +6392,7 @@
         <v>377</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D230" s="1">
         <v>0</v>
@@ -6420,7 +6420,7 @@
         <v>380</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>381</v>
+        <v>663</v>
       </c>
       <c r="D232" s="1">
         <v>1</v>
@@ -6431,10 +6431,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D233" s="1">
         <v>1</v>
@@ -6445,10 +6445,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D234" s="1">
         <v>1</v>
@@ -6459,10 +6459,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D235" s="1">
         <v>1</v>
@@ -6473,10 +6473,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D236" s="1">
         <v>1</v>
@@ -6487,10 +6487,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D237" s="1">
         <v>0</v>
@@ -6501,10 +6501,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D238" s="1">
         <v>0</v>
@@ -6515,10 +6515,10 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D239" s="1">
         <v>2</v>
@@ -6529,10 +6529,10 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D240" s="1">
         <v>2</v>
@@ -6543,10 +6543,10 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D241" s="1">
         <v>2</v>
@@ -6557,10 +6557,10 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D242" s="1">
         <v>2</v>
@@ -6571,10 +6571,10 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D243" s="1">
         <v>1</v>
@@ -6585,10 +6585,10 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C244" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="D244" s="1">
         <v>1</v>
@@ -6599,10 +6599,10 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D245" s="1">
         <v>0</v>
@@ -6613,10 +6613,10 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C246" s="2" t="s">
         <v>398</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>399</v>
       </c>
       <c r="D246" s="1">
         <v>2</v>
@@ -6627,10 +6627,10 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D247" s="1">
         <v>1</v>
@@ -6641,10 +6641,10 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D248" s="1">
         <v>1</v>
@@ -6655,10 +6655,10 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C249" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="D249" s="1">
         <v>0</v>
@@ -6669,10 +6669,10 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C250" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>406</v>
       </c>
       <c r="D250" s="1">
         <v>1</v>
@@ -6683,10 +6683,10 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D251" s="1">
         <v>1</v>
@@ -6697,10 +6697,10 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D252" s="1">
         <v>1</v>
@@ -6711,10 +6711,10 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D253" s="1">
         <v>1</v>
@@ -6725,10 +6725,10 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D254" s="1">
         <v>1</v>
@@ -6739,10 +6739,10 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D255" s="1">
         <v>2</v>
@@ -6753,10 +6753,10 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D256" s="1">
         <v>1</v>
@@ -6767,10 +6767,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C257" s="1" t="s">
         <v>414</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>415</v>
       </c>
       <c r="D257" s="1">
         <v>1</v>
@@ -6781,10 +6781,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D258" s="1">
         <v>1</v>
@@ -6795,10 +6795,10 @@
         <v>258</v>
       </c>
       <c r="B259" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C259" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>418</v>
       </c>
       <c r="D259" s="1">
         <v>1</v>
@@ -6809,10 +6809,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C260" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>420</v>
       </c>
       <c r="D260" s="1">
         <v>1</v>
@@ -6823,10 +6823,10 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D261" s="1">
         <v>1</v>
@@ -6837,10 +6837,10 @@
         <v>261</v>
       </c>
       <c r="B262" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C262" s="1" t="s">
         <v>422</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>423</v>
       </c>
       <c r="D262" s="1">
         <v>1</v>
@@ -6851,10 +6851,10 @@
         <v>262</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D263" s="1">
         <v>0</v>
@@ -6865,10 +6865,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D264" s="1">
         <v>0</v>
@@ -6879,10 +6879,10 @@
         <v>264</v>
       </c>
       <c r="B265" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C265" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>429</v>
       </c>
       <c r="D265" s="1">
         <v>1</v>
@@ -6893,10 +6893,10 @@
         <v>265</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D266" s="1">
         <v>1</v>
@@ -6907,10 +6907,10 @@
         <v>266</v>
       </c>
       <c r="B267" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C267" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>432</v>
       </c>
       <c r="D267" s="1">
         <v>0</v>
@@ -6921,10 +6921,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D268" s="1">
         <v>2</v>
@@ -6935,10 +6935,10 @@
         <v>268</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D269" s="1">
         <v>0</v>
@@ -6949,10 +6949,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D270" s="1">
         <v>0</v>
@@ -6963,10 +6963,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D271" s="1">
         <v>0</v>
@@ -6977,10 +6977,10 @@
         <v>271</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D272" s="1">
         <v>0</v>
@@ -6991,10 +6991,10 @@
         <v>272</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D273" s="1">
         <v>0</v>
@@ -7005,10 +7005,10 @@
         <v>273</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D274" s="1">
         <v>0</v>
@@ -7019,10 +7019,10 @@
         <v>274</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D275" s="1">
         <v>0</v>
@@ -7033,10 +7033,10 @@
         <v>275</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D276" s="1">
         <v>0</v>
@@ -7047,10 +7047,10 @@
         <v>276</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D277" s="1">
         <v>0</v>
@@ -7061,10 +7061,10 @@
         <v>277</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D278" s="1">
         <v>0</v>
@@ -7075,10 +7075,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D279" s="1">
         <v>0</v>
@@ -7089,10 +7089,10 @@
         <v>279</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D280" s="1">
         <v>0</v>
@@ -7103,10 +7103,10 @@
         <v>280</v>
       </c>
       <c r="B281" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C281" s="2" t="s">
         <v>450</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>451</v>
       </c>
       <c r="D281" s="1">
         <v>0</v>
@@ -7117,10 +7117,10 @@
         <v>281</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D282" s="1">
         <v>0</v>
@@ -7131,10 +7131,10 @@
         <v>282</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D283" s="1">
         <v>0</v>
@@ -7145,10 +7145,10 @@
         <v>283</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D284" s="1">
         <v>0</v>
@@ -7159,10 +7159,10 @@
         <v>284</v>
       </c>
       <c r="B285" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C285" s="2" t="s">
         <v>457</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>458</v>
       </c>
       <c r="D285" s="1">
         <v>0</v>
@@ -7173,10 +7173,10 @@
         <v>285</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D286" s="1">
         <v>0</v>
@@ -7187,10 +7187,10 @@
         <v>286</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D287" s="1">
         <v>0</v>
@@ -7201,10 +7201,10 @@
         <v>287</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D288" s="1">
         <v>1</v>
@@ -7215,10 +7215,10 @@
         <v>288</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D289" s="1">
         <v>0</v>
@@ -7229,10 +7229,10 @@
         <v>289</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D290" s="1">
         <v>0</v>
@@ -7243,10 +7243,10 @@
         <v>290</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D291" s="1">
         <v>0</v>
@@ -7257,10 +7257,10 @@
         <v>291</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D292" s="1">
         <v>0</v>
@@ -7271,10 +7271,10 @@
         <v>292</v>
       </c>
       <c r="B293" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C293" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="C293" s="1" t="s">
-        <v>469</v>
       </c>
       <c r="D293" s="1">
         <v>0</v>
@@ -7285,10 +7285,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D294" s="1">
         <v>0</v>
@@ -7299,10 +7299,10 @@
         <v>294</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D295" s="1">
         <v>0</v>
@@ -7313,10 +7313,10 @@
         <v>295</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D296" s="1">
         <v>0</v>
@@ -7327,10 +7327,10 @@
         <v>296</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D297" s="1">
         <v>0</v>
@@ -7341,10 +7341,10 @@
         <v>297</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D298" s="1">
         <v>0</v>
@@ -7355,10 +7355,10 @@
         <v>298</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D299" s="1">
         <v>0</v>
@@ -7369,10 +7369,10 @@
         <v>299</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D300" s="1">
         <v>0</v>
@@ -7383,10 +7383,10 @@
         <v>300</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D301" s="1">
         <v>0</v>
@@ -7397,10 +7397,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D302" s="1">
         <v>0</v>
@@ -7411,10 +7411,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D303" s="1">
         <v>0</v>
@@ -7425,10 +7425,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D304" s="1">
         <v>0</v>
@@ -7439,10 +7439,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D305" s="1">
         <v>0</v>
@@ -7453,10 +7453,10 @@
         <v>305</v>
       </c>
       <c r="B306" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C306" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="C306" s="2" t="s">
-        <v>484</v>
       </c>
       <c r="D306" s="1">
         <v>2</v>
@@ -7467,10 +7467,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C307" s="2" t="s">
         <v>485</v>
-      </c>
-      <c r="C307" s="2" t="s">
-        <v>486</v>
       </c>
       <c r="D307" s="1">
         <v>0</v>
@@ -7481,10 +7481,10 @@
         <v>307</v>
       </c>
       <c r="B308" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C308" s="2" t="s">
         <v>487</v>
-      </c>
-      <c r="C308" s="2" t="s">
-        <v>488</v>
       </c>
       <c r="D308" s="1">
         <v>1</v>
@@ -7495,10 +7495,10 @@
         <v>308</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D309" s="1">
         <v>2</v>
@@ -7509,10 +7509,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C310" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="C310" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="D310" s="1">
         <v>1</v>
@@ -7523,10 +7523,10 @@
         <v>310</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D311" s="1">
         <v>1</v>
@@ -7537,10 +7537,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D312" s="1">
         <v>1</v>
@@ -7551,10 +7551,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D313" s="1">
         <v>1</v>
@@ -7565,10 +7565,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D314" s="1">
         <v>1</v>
@@ -7579,10 +7579,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D315" s="1">
         <v>0</v>
@@ -7593,10 +7593,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D316" s="1">
         <v>2</v>
@@ -7607,10 +7607,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D317" s="1">
         <v>1</v>
@@ -7621,10 +7621,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D318" s="1">
         <v>0</v>
@@ -7635,10 +7635,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D319" s="1">
         <v>1</v>
@@ -7649,10 +7649,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C320" s="1" t="s">
         <v>503</v>
-      </c>
-      <c r="C320" s="1" t="s">
-        <v>504</v>
       </c>
       <c r="D320" s="1">
         <v>0</v>
@@ -7663,10 +7663,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D321" s="1">
         <v>0</v>
@@ -7677,10 +7677,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D322" s="1">
         <v>0</v>
@@ -7691,10 +7691,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D323" s="1">
         <v>0</v>
@@ -7705,10 +7705,10 @@
         <v>323</v>
       </c>
       <c r="B324" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C324" s="1" t="s">
         <v>509</v>
-      </c>
-      <c r="C324" s="1" t="s">
-        <v>510</v>
       </c>
       <c r="D324" s="1">
         <v>0</v>
@@ -7719,10 +7719,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D325" s="1">
         <v>2</v>
@@ -7733,10 +7733,10 @@
         <v>325</v>
       </c>
       <c r="B326" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C326" s="2" t="s">
         <v>512</v>
-      </c>
-      <c r="C326" s="2" t="s">
-        <v>513</v>
       </c>
       <c r="D326" s="1">
         <v>1</v>
@@ -7747,10 +7747,10 @@
         <v>326</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D327" s="1">
         <v>1</v>
@@ -7761,10 +7761,10 @@
         <v>327</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D328" s="1"/>
     </row>
@@ -7773,10 +7773,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D329" s="1"/>
     </row>
@@ -7785,10 +7785,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C330" s="2" t="s">
         <v>593</v>
-      </c>
-      <c r="C330" s="2" t="s">
-        <v>594</v>
       </c>
       <c r="D330" s="1"/>
     </row>
@@ -7797,10 +7797,10 @@
         <v>330</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D331" s="1"/>
     </row>

--- a/Quiz 3/bin/Debug/net9.0/Quiz3.xlsx
+++ b/Quiz 3/bin/Debug/net9.0/Quiz3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\Quiz 3\Quiz 3\bin\Debug\net9.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B12C647-5DBE-484A-B36C-9B379B88D920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9403508-270C-4FB9-AADA-CAF7A55C0860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A52166B1-4494-480B-A027-66F199F0B402}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="666">
   <si>
     <t>Id</t>
   </si>
@@ -2767,6 +2767,13 @@
   <si>
     <t>ORM-маппинг — это преобразование между объектами в коде и данными в реляционной БД .
 Маппинг между моделями — это преобразование между разными представлениями данных внутри приложения</t>
+  </si>
+  <si>
+    <t>builder.Services.AddSingleton()</t>
+  </si>
+  <si>
+    <t>это метод регистрации сервиса в DI-контейнере ASP.NET Core с Singleton временем жизни.
+Singleton означает, что ОДИН экземпляр сервиса создается на ВСЕ время работы приложения и используется для всех запросов и всех потребителей</t>
   </si>
 </sst>
 </file>
@@ -3168,8 +3175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C34F926-ACF9-49CF-9B6A-0D737BBB828A}">
   <dimension ref="A1:D344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
-      <selection activeCell="C232" sqref="C232"/>
+    <sheetView tabSelected="1" topLeftCell="A326" workbookViewId="0">
+      <selection activeCell="B333" sqref="B333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7804,12 +7811,16 @@
       </c>
       <c r="D331" s="1"/>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>331</v>
       </c>
-      <c r="B332" s="1"/>
-      <c r="C332" s="1"/>
+      <c r="B332" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>665</v>
+      </c>
       <c r="D332" s="1"/>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">

--- a/Quiz 3/bin/Debug/net9.0/Quiz3.xlsx
+++ b/Quiz 3/bin/Debug/net9.0/Quiz3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\Quiz 3\Quiz 3\bin\Debug\net9.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9403508-270C-4FB9-AADA-CAF7A55C0860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AD67EF-12C2-4D02-A454-F707E8B02152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A52166B1-4494-480B-A027-66F199F0B402}"/>
   </bookViews>
@@ -416,9 +416,6 @@
     <t>это интерфейс в ASP.NET Core для построения маршрутов (endpoints) в приложении.</t>
   </si>
   <si>
-    <t>app.MapMethods()</t>
-  </si>
-  <si>
     <t xml:space="preserve"> это метод в ASP.NET Core для создания endpoint'ов, которые обрабатывают несколько конкретных HTTP-методов для одного URL.</t>
   </si>
   <si>
@@ -2774,6 +2771,9 @@
   <si>
     <t>это метод регистрации сервиса в DI-контейнере ASP.NET Core с Singleton временем жизни.
 Singleton означает, что ОДИН экземпляр сервиса создается на ВСЕ время работы приложения и используется для всех запросов и всех потребителей</t>
+  </si>
+  <si>
+    <t>app.MapMethods("/api/orders", new[] { "GET", "POST" }, async context =&gt;)</t>
   </si>
 </sst>
 </file>
@@ -3175,8 +3175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C34F926-ACF9-49CF-9B6A-0D737BBB828A}">
   <dimension ref="A1:D344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A326" workbookViewId="0">
-      <selection activeCell="B333" sqref="B333"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3375,7 +3375,7 @@
         <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -3459,7 +3459,7 @@
         <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
@@ -3515,7 +3515,7 @@
         <v>44</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D24" s="1">
         <v>2</v>
@@ -3557,7 +3557,7 @@
         <v>48</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
@@ -3585,7 +3585,7 @@
         <v>51</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
@@ -3697,7 +3697,7 @@
         <v>67</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>68</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D38" s="1">
         <v>2</v>
@@ -3753,7 +3753,7 @@
         <v>75</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D41" s="1">
         <v>2</v>
@@ -3767,7 +3767,7 @@
         <v>76</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D42" s="1">
         <v>2</v>
@@ -3792,10 +3792,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
@@ -3806,10 +3806,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
@@ -3820,10 +3820,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
@@ -3834,10 +3834,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="D47" s="1">
         <v>2</v>
@@ -3848,10 +3848,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
@@ -3862,10 +3862,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D49" s="1">
         <v>2</v>
@@ -3876,10 +3876,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="D50" s="1">
         <v>2</v>
@@ -3890,10 +3890,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="D51" s="1">
         <v>0</v>
@@ -3904,10 +3904,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
@@ -3918,10 +3918,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="D53" s="1">
         <v>0</v>
@@ -3932,10 +3932,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D54" s="1">
         <v>1</v>
@@ -3946,10 +3946,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
@@ -3960,10 +3960,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="D56" s="1">
         <v>1</v>
@@ -3974,10 +3974,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D57" s="1">
         <v>1</v>
@@ -3988,10 +3988,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="D58" s="1">
         <v>1</v>
@@ -4002,10 +4002,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
@@ -4016,10 +4016,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="D60" s="1">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
@@ -4044,10 +4044,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D62" s="1">
         <v>2</v>
@@ -4058,10 +4058,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D63" s="1">
         <v>2</v>
@@ -4072,10 +4072,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D64" s="1">
         <v>1</v>
@@ -4086,10 +4086,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="D65" s="1">
         <v>2</v>
@@ -4100,10 +4100,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>
@@ -4114,10 +4114,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="D67" s="1">
         <v>0</v>
@@ -4128,10 +4128,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D68" s="1">
         <v>2</v>
@@ -4142,10 +4142,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="D69" s="1">
         <v>2</v>
@@ -4156,10 +4156,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D70" s="1">
         <v>2</v>
@@ -4170,10 +4170,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="D71" s="1">
         <v>1</v>
@@ -4184,10 +4184,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D72" s="1">
         <v>2</v>
@@ -4198,10 +4198,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D73" s="1">
         <v>1</v>
@@ -4212,10 +4212,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D74" s="1">
         <v>2</v>
@@ -4226,10 +4226,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D75" s="1">
         <v>1</v>
@@ -4240,10 +4240,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="D76" s="1">
         <v>2</v>
@@ -4254,10 +4254,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D77" s="1">
         <v>1</v>
@@ -4268,10 +4268,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D78" s="1">
         <v>2</v>
@@ -4282,10 +4282,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D79" s="1">
         <v>1</v>
@@ -4296,10 +4296,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D80" s="1">
         <v>2</v>
@@ -4310,10 +4310,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D81" s="1">
         <v>2</v>
@@ -4324,10 +4324,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="D82" s="1">
         <v>1</v>
@@ -4338,10 +4338,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D83" s="1">
         <v>2</v>
@@ -4352,10 +4352,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="D84" s="1">
         <v>0</v>
@@ -4366,10 +4366,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="D85" s="1">
         <v>2</v>
@@ -4380,10 +4380,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D86" s="1">
         <v>2</v>
@@ -4394,10 +4394,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="D87" s="1">
         <v>2</v>
@@ -4408,10 +4408,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D88" s="1">
         <v>2</v>
@@ -4422,10 +4422,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D89" s="1">
         <v>2</v>
@@ -4436,10 +4436,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="D90" s="1">
         <v>1</v>
@@ -4450,10 +4450,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="D91" s="1">
         <v>0</v>
@@ -4464,10 +4464,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="D92" s="1">
         <v>1</v>
@@ -4478,10 +4478,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D93" s="1">
         <v>0</v>
@@ -4492,10 +4492,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D94" s="1">
         <v>2</v>
@@ -4506,10 +4506,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D95" s="1">
         <v>2</v>
@@ -4520,10 +4520,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D96" s="1">
         <v>2</v>
@@ -4534,10 +4534,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D97" s="1">
         <v>1</v>
@@ -4548,10 +4548,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D98" s="1">
         <v>2</v>
@@ -4562,10 +4562,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D99" s="1">
         <v>2</v>
@@ -4576,10 +4576,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D100" s="1">
         <v>0</v>
@@ -4590,10 +4590,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="D101" s="1">
         <v>2</v>
@@ -4604,10 +4604,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="D102" s="1">
         <v>0</v>
@@ -4618,10 +4618,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D103" s="1">
         <v>0</v>
@@ -4632,10 +4632,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="D104" s="1">
         <v>2</v>
@@ -4646,10 +4646,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D105" s="1">
         <v>2</v>
@@ -4660,10 +4660,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="D106" s="1">
         <v>0</v>
@@ -4674,10 +4674,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="D107" s="1">
         <v>0</v>
@@ -4688,10 +4688,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D108" s="1">
         <v>0</v>
@@ -4702,10 +4702,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="D109" s="1">
         <v>0</v>
@@ -4716,10 +4716,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D110" s="1">
         <v>0</v>
@@ -4730,10 +4730,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D111" s="1">
         <v>0</v>
@@ -4744,10 +4744,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="D112" s="1">
         <v>0</v>
@@ -4758,10 +4758,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="D113" s="1">
         <v>2</v>
@@ -4772,10 +4772,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D114" s="1">
         <v>0</v>
@@ -4786,10 +4786,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D115" s="1">
         <v>2</v>
@@ -4800,10 +4800,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D116" s="1">
         <v>2</v>
@@ -4814,10 +4814,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D117" s="1">
         <v>2</v>
@@ -4828,10 +4828,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D118" s="1">
         <v>2</v>
@@ -4842,10 +4842,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="D119" s="1">
         <v>2</v>
@@ -4856,10 +4856,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D120" s="1">
         <v>2</v>
@@ -4870,10 +4870,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>214</v>
       </c>
       <c r="D121" s="1">
         <v>2</v>
@@ -4884,10 +4884,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D122" s="1">
         <v>2</v>
@@ -4898,10 +4898,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D123" s="1">
         <v>2</v>
@@ -4912,10 +4912,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C124" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="D124" s="1">
         <v>2</v>
@@ -4926,10 +4926,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C125" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="D125" s="1">
         <v>2</v>
@@ -4940,10 +4940,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D126" s="1">
         <v>2</v>
@@ -4954,10 +4954,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C127" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="D127" s="1">
         <v>2</v>
@@ -4968,10 +4968,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D128" s="1">
         <v>2</v>
@@ -4982,10 +4982,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D129" s="1">
         <v>2</v>
@@ -4996,10 +4996,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D130" s="1">
         <v>2</v>
@@ -5010,10 +5010,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C131" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>230</v>
       </c>
       <c r="D131" s="1">
         <v>2</v>
@@ -5024,10 +5024,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D132" s="1">
         <v>2</v>
@@ -5038,10 +5038,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D133" s="1">
         <v>2</v>
@@ -5052,10 +5052,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="D134" s="1">
         <v>2</v>
@@ -5066,10 +5066,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C135" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>236</v>
       </c>
       <c r="D135" s="1">
         <v>2</v>
@@ -5080,10 +5080,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D136" s="1">
         <v>2</v>
@@ -5094,10 +5094,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D137" s="1">
         <v>2</v>
@@ -5108,10 +5108,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D138" s="1">
         <v>2</v>
@@ -5122,10 +5122,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D139" s="1">
         <v>2</v>
@@ -5136,10 +5136,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D140" s="1">
         <v>2</v>
@@ -5150,10 +5150,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D141" s="1">
         <v>2</v>
@@ -5164,10 +5164,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D142" s="1">
         <v>2</v>
@@ -5178,10 +5178,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D143" s="1">
         <v>2</v>
@@ -5192,10 +5192,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="D144" s="1">
         <v>0</v>
@@ -5206,10 +5206,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="D145" s="1">
         <v>2</v>
@@ -5220,10 +5220,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C146" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>253</v>
       </c>
       <c r="D146" s="1">
         <v>1</v>
@@ -5234,10 +5234,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D147" s="1">
         <v>1</v>
@@ -5248,10 +5248,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="D148" s="1">
         <v>1</v>
@@ -5262,10 +5262,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D149" s="1">
         <v>2</v>
@@ -5276,10 +5276,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="D150" s="1">
         <v>0</v>
@@ -5290,10 +5290,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C151" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>261</v>
       </c>
       <c r="D151" s="1">
         <v>1</v>
@@ -5304,10 +5304,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D152" s="1">
         <v>2</v>
@@ -5318,10 +5318,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D153" s="1">
         <v>0</v>
@@ -5332,10 +5332,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D154" s="1">
         <v>0</v>
@@ -5346,10 +5346,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D155" s="1">
         <v>0</v>
@@ -5360,10 +5360,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D156" s="1">
         <v>2</v>
@@ -5374,10 +5374,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C157" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="D157" s="1">
         <v>2</v>
@@ -5388,10 +5388,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C158" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="D158" s="1">
         <v>2</v>
@@ -5402,10 +5402,10 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C159" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="D159" s="1">
         <v>2</v>
@@ -5416,10 +5416,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="D160" s="1">
         <v>1</v>
@@ -5430,10 +5430,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="D161" s="1">
         <v>0</v>
@@ -5444,10 +5444,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D162" s="1">
         <v>0</v>
@@ -5458,10 +5458,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D163" s="1">
         <v>1</v>
@@ -5472,10 +5472,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D164" s="1">
         <v>0</v>
@@ -5486,10 +5486,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D165" s="1">
         <v>1</v>
@@ -5500,10 +5500,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D166" s="1">
         <v>1</v>
@@ -5514,10 +5514,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C167" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>285</v>
       </c>
       <c r="D167" s="1">
         <v>1</v>
@@ -5528,10 +5528,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D168" s="1">
         <v>0</v>
@@ -5542,10 +5542,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D169" s="1">
         <v>0</v>
@@ -5556,10 +5556,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C170" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>290</v>
       </c>
       <c r="D170" s="1">
         <v>1</v>
@@ -5570,10 +5570,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C171" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>292</v>
       </c>
       <c r="D171" s="1">
         <v>1</v>
@@ -5584,10 +5584,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D172" s="1">
         <v>1</v>
@@ -5598,10 +5598,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C173" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>296</v>
       </c>
       <c r="D173" s="1">
         <v>0</v>
@@ -5612,10 +5612,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D174" s="1">
         <v>0</v>
@@ -5626,10 +5626,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D175" s="1">
         <v>0</v>
@@ -5640,10 +5640,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C176" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="D176" s="1">
         <v>2</v>
@@ -5654,10 +5654,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D177" s="1">
         <v>0</v>
@@ -5668,10 +5668,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C178" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>305</v>
       </c>
       <c r="D178" s="1">
         <v>0</v>
@@ -5682,10 +5682,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D179" s="1">
         <v>0</v>
@@ -5696,10 +5696,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D180" s="1">
         <v>2</v>
@@ -5710,10 +5710,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D181" s="1">
         <v>2</v>
@@ -5724,10 +5724,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C182" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>311</v>
       </c>
       <c r="D182" s="1">
         <v>2</v>
@@ -5738,10 +5738,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D183" s="1">
         <v>1</v>
@@ -5752,10 +5752,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D184" s="1">
         <v>0</v>
@@ -5766,10 +5766,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D185" s="1">
         <v>2</v>
@@ -5780,10 +5780,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C186" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>319</v>
       </c>
       <c r="D186" s="1">
         <v>0</v>
@@ -5794,10 +5794,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C187" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>321</v>
       </c>
       <c r="D187" s="1">
         <v>2</v>
@@ -5808,10 +5808,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D188" s="1">
         <v>2</v>
@@ -5822,10 +5822,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C189" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="D189" s="1">
         <v>0</v>
@@ -5836,10 +5836,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C190" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="D190" s="1">
         <v>1</v>
@@ -5850,10 +5850,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D191" s="1">
         <v>1</v>
@@ -5864,10 +5864,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D192" s="1">
         <v>0</v>
@@ -5878,10 +5878,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C193" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>330</v>
       </c>
       <c r="D193" s="1">
         <v>2</v>
@@ -5892,10 +5892,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D194" s="1">
         <v>1</v>
@@ -5906,10 +5906,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D195" s="1">
         <v>1</v>
@@ -5920,10 +5920,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D196" s="1">
         <v>2</v>
@@ -5934,10 +5934,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C197" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="D197" s="1">
         <v>0</v>
@@ -5948,10 +5948,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C198" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>337</v>
       </c>
       <c r="D198" s="1">
         <v>2</v>
@@ -5962,10 +5962,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D199" s="1">
         <v>1</v>
@@ -5976,10 +5976,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D200" s="1">
         <v>0</v>
@@ -5990,10 +5990,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C201" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="D201" s="1">
         <v>0</v>
@@ -6004,10 +6004,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D202" s="1">
         <v>2</v>
@@ -6018,10 +6018,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D203" s="1">
         <v>1</v>
@@ -6032,10 +6032,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D204" s="1">
         <v>2</v>
@@ -6046,10 +6046,10 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D205" s="1">
         <v>1</v>
@@ -6060,10 +6060,10 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D206" s="1">
         <v>0</v>
@@ -6074,10 +6074,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D207" s="1">
         <v>0</v>
@@ -6088,10 +6088,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C208" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>351</v>
       </c>
       <c r="D208" s="1">
         <v>1</v>
@@ -6102,10 +6102,10 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D209" s="1">
         <v>1</v>
@@ -6116,10 +6116,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D210" s="1">
         <v>1</v>
@@ -6130,10 +6130,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D211" s="1">
         <v>0</v>
@@ -6144,10 +6144,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D212" s="1">
         <v>1</v>
@@ -6158,10 +6158,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C213" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="D213" s="1">
         <v>1</v>
@@ -6172,10 +6172,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C214" s="2" t="s">
         <v>357</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>358</v>
       </c>
       <c r="D214" s="1">
         <v>0</v>
@@ -6186,10 +6186,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D215" s="1">
         <v>1</v>
@@ -6200,10 +6200,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D216" s="1">
         <v>1</v>
@@ -6214,10 +6214,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D217" s="1">
         <v>1</v>
@@ -6228,10 +6228,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C218" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>363</v>
       </c>
       <c r="D218" s="1">
         <v>2</v>
@@ -6242,10 +6242,10 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D219" s="1">
         <v>1</v>
@@ -6256,10 +6256,10 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D220" s="1">
         <v>0</v>
@@ -6270,10 +6270,10 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D221" s="1">
         <v>1</v>
@@ -6284,10 +6284,10 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D222" s="1">
         <v>1</v>
@@ -6298,10 +6298,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D223" s="1">
         <v>2</v>
@@ -6312,10 +6312,10 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D224" s="1">
         <v>1</v>
@@ -6326,10 +6326,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D225" s="1">
         <v>1</v>
@@ -6340,10 +6340,10 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D226" s="1">
         <v>1</v>
@@ -6354,10 +6354,10 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D227" s="1">
         <v>2</v>
@@ -6368,10 +6368,10 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D228" s="1">
         <v>2</v>
@@ -6382,10 +6382,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D229" s="1">
         <v>2</v>
@@ -6396,10 +6396,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D230" s="1">
         <v>0</v>
@@ -6410,10 +6410,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C231" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="D231" s="1">
         <v>0</v>
@@ -6424,10 +6424,10 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D232" s="1">
         <v>1</v>
@@ -6438,10 +6438,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D233" s="1">
         <v>1</v>
@@ -6452,10 +6452,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D234" s="1">
         <v>1</v>
@@ -6466,10 +6466,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D235" s="1">
         <v>1</v>
@@ -6480,10 +6480,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D236" s="1">
         <v>1</v>
@@ -6494,10 +6494,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D237" s="1">
         <v>0</v>
@@ -6508,10 +6508,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D238" s="1">
         <v>0</v>
@@ -6522,10 +6522,10 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D239" s="1">
         <v>2</v>
@@ -6536,10 +6536,10 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D240" s="1">
         <v>2</v>
@@ -6550,10 +6550,10 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D241" s="1">
         <v>2</v>
@@ -6564,10 +6564,10 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D242" s="1">
         <v>2</v>
@@ -6578,10 +6578,10 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D243" s="1">
         <v>1</v>
@@ -6592,10 +6592,10 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C244" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>395</v>
       </c>
       <c r="D244" s="1">
         <v>1</v>
@@ -6606,10 +6606,10 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D245" s="1">
         <v>0</v>
@@ -6620,10 +6620,10 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C246" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>398</v>
       </c>
       <c r="D246" s="1">
         <v>2</v>
@@ -6634,10 +6634,10 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D247" s="1">
         <v>1</v>
@@ -6648,10 +6648,10 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D248" s="1">
         <v>1</v>
@@ -6662,10 +6662,10 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C249" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>403</v>
       </c>
       <c r="D249" s="1">
         <v>0</v>
@@ -6676,10 +6676,10 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C250" s="2" t="s">
         <v>404</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>405</v>
       </c>
       <c r="D250" s="1">
         <v>1</v>
@@ -6690,10 +6690,10 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D251" s="1">
         <v>1</v>
@@ -6704,10 +6704,10 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D252" s="1">
         <v>1</v>
@@ -6718,10 +6718,10 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D253" s="1">
         <v>1</v>
@@ -6732,10 +6732,10 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D254" s="1">
         <v>1</v>
@@ -6746,10 +6746,10 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D255" s="1">
         <v>2</v>
@@ -6760,10 +6760,10 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D256" s="1">
         <v>1</v>
@@ -6774,10 +6774,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C257" s="1" t="s">
         <v>413</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>414</v>
       </c>
       <c r="D257" s="1">
         <v>1</v>
@@ -6788,10 +6788,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D258" s="1">
         <v>1</v>
@@ -6802,10 +6802,10 @@
         <v>258</v>
       </c>
       <c r="B259" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C259" s="2" t="s">
         <v>416</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>417</v>
       </c>
       <c r="D259" s="1">
         <v>1</v>
@@ -6816,10 +6816,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C260" s="2" t="s">
         <v>418</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>419</v>
       </c>
       <c r="D260" s="1">
         <v>1</v>
@@ -6830,10 +6830,10 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D261" s="1">
         <v>1</v>
@@ -6844,10 +6844,10 @@
         <v>261</v>
       </c>
       <c r="B262" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C262" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>422</v>
       </c>
       <c r="D262" s="1">
         <v>1</v>
@@ -6858,10 +6858,10 @@
         <v>262</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D263" s="1">
         <v>0</v>
@@ -6872,10 +6872,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D264" s="1">
         <v>0</v>
@@ -6886,10 +6886,10 @@
         <v>264</v>
       </c>
       <c r="B265" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C265" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>428</v>
       </c>
       <c r="D265" s="1">
         <v>1</v>
@@ -6900,10 +6900,10 @@
         <v>265</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D266" s="1">
         <v>1</v>
@@ -6914,10 +6914,10 @@
         <v>266</v>
       </c>
       <c r="B267" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C267" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>431</v>
       </c>
       <c r="D267" s="1">
         <v>0</v>
@@ -6928,10 +6928,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D268" s="1">
         <v>2</v>
@@ -6942,10 +6942,10 @@
         <v>268</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D269" s="1">
         <v>0</v>
@@ -6956,10 +6956,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D270" s="1">
         <v>0</v>
@@ -6970,10 +6970,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D271" s="1">
         <v>0</v>
@@ -6984,10 +6984,10 @@
         <v>271</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D272" s="1">
         <v>0</v>
@@ -6998,10 +6998,10 @@
         <v>272</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D273" s="1">
         <v>0</v>
@@ -7012,10 +7012,10 @@
         <v>273</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D274" s="1">
         <v>0</v>
@@ -7026,10 +7026,10 @@
         <v>274</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D275" s="1">
         <v>0</v>
@@ -7040,10 +7040,10 @@
         <v>275</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D276" s="1">
         <v>0</v>
@@ -7054,10 +7054,10 @@
         <v>276</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D277" s="1">
         <v>0</v>
@@ -7068,10 +7068,10 @@
         <v>277</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D278" s="1">
         <v>0</v>
@@ -7082,10 +7082,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D279" s="1">
         <v>0</v>
@@ -7096,10 +7096,10 @@
         <v>279</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D280" s="1">
         <v>0</v>
@@ -7110,10 +7110,10 @@
         <v>280</v>
       </c>
       <c r="B281" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C281" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>450</v>
       </c>
       <c r="D281" s="1">
         <v>0</v>
@@ -7124,10 +7124,10 @@
         <v>281</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D282" s="1">
         <v>0</v>
@@ -7138,10 +7138,10 @@
         <v>282</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D283" s="1">
         <v>0</v>
@@ -7152,10 +7152,10 @@
         <v>283</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D284" s="1">
         <v>0</v>
@@ -7166,10 +7166,10 @@
         <v>284</v>
       </c>
       <c r="B285" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C285" s="2" t="s">
         <v>456</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>457</v>
       </c>
       <c r="D285" s="1">
         <v>0</v>
@@ -7180,10 +7180,10 @@
         <v>285</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D286" s="1">
         <v>0</v>
@@ -7194,10 +7194,10 @@
         <v>286</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D287" s="1">
         <v>0</v>
@@ -7208,10 +7208,10 @@
         <v>287</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D288" s="1">
         <v>1</v>
@@ -7222,10 +7222,10 @@
         <v>288</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D289" s="1">
         <v>0</v>
@@ -7236,10 +7236,10 @@
         <v>289</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D290" s="1">
         <v>0</v>
@@ -7250,10 +7250,10 @@
         <v>290</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D291" s="1">
         <v>0</v>
@@ -7264,10 +7264,10 @@
         <v>291</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D292" s="1">
         <v>0</v>
@@ -7278,10 +7278,10 @@
         <v>292</v>
       </c>
       <c r="B293" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C293" s="1" t="s">
         <v>467</v>
-      </c>
-      <c r="C293" s="1" t="s">
-        <v>468</v>
       </c>
       <c r="D293" s="1">
         <v>0</v>
@@ -7292,10 +7292,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D294" s="1">
         <v>0</v>
@@ -7306,10 +7306,10 @@
         <v>294</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D295" s="1">
         <v>0</v>
@@ -7320,10 +7320,10 @@
         <v>295</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D296" s="1">
         <v>0</v>
@@ -7334,10 +7334,10 @@
         <v>296</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D297" s="1">
         <v>0</v>
@@ -7348,10 +7348,10 @@
         <v>297</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D298" s="1">
         <v>0</v>
@@ -7362,10 +7362,10 @@
         <v>298</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D299" s="1">
         <v>0</v>
@@ -7376,10 +7376,10 @@
         <v>299</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D300" s="1">
         <v>0</v>
@@ -7390,10 +7390,10 @@
         <v>300</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D301" s="1">
         <v>0</v>
@@ -7404,10 +7404,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D302" s="1">
         <v>0</v>
@@ -7418,10 +7418,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D303" s="1">
         <v>0</v>
@@ -7432,10 +7432,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D304" s="1">
         <v>0</v>
@@ -7446,10 +7446,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D305" s="1">
         <v>0</v>
@@ -7460,10 +7460,10 @@
         <v>305</v>
       </c>
       <c r="B306" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C306" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="C306" s="2" t="s">
-        <v>483</v>
       </c>
       <c r="D306" s="1">
         <v>2</v>
@@ -7474,10 +7474,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C307" s="2" t="s">
         <v>484</v>
-      </c>
-      <c r="C307" s="2" t="s">
-        <v>485</v>
       </c>
       <c r="D307" s="1">
         <v>0</v>
@@ -7488,10 +7488,10 @@
         <v>307</v>
       </c>
       <c r="B308" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C308" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="C308" s="2" t="s">
-        <v>487</v>
       </c>
       <c r="D308" s="1">
         <v>1</v>
@@ -7502,10 +7502,10 @@
         <v>308</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D309" s="1">
         <v>2</v>
@@ -7516,10 +7516,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C310" s="1" t="s">
         <v>489</v>
-      </c>
-      <c r="C310" s="1" t="s">
-        <v>490</v>
       </c>
       <c r="D310" s="1">
         <v>1</v>
@@ -7530,10 +7530,10 @@
         <v>310</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D311" s="1">
         <v>1</v>
@@ -7544,10 +7544,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D312" s="1">
         <v>1</v>
@@ -7558,10 +7558,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D313" s="1">
         <v>1</v>
@@ -7572,10 +7572,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D314" s="1">
         <v>1</v>
@@ -7586,10 +7586,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D315" s="1">
         <v>0</v>
@@ -7600,10 +7600,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D316" s="1">
         <v>2</v>
@@ -7614,10 +7614,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D317" s="1">
         <v>1</v>
@@ -7628,10 +7628,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D318" s="1">
         <v>0</v>
@@ -7642,10 +7642,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D319" s="1">
         <v>1</v>
@@ -7656,10 +7656,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C320" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="C320" s="1" t="s">
-        <v>503</v>
       </c>
       <c r="D320" s="1">
         <v>0</v>
@@ -7670,10 +7670,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D321" s="1">
         <v>0</v>
@@ -7684,10 +7684,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D322" s="1">
         <v>0</v>
@@ -7698,10 +7698,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D323" s="1">
         <v>0</v>
@@ -7712,10 +7712,10 @@
         <v>323</v>
       </c>
       <c r="B324" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C324" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="C324" s="1" t="s">
-        <v>509</v>
       </c>
       <c r="D324" s="1">
         <v>0</v>
@@ -7726,10 +7726,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D325" s="1">
         <v>2</v>
@@ -7740,10 +7740,10 @@
         <v>325</v>
       </c>
       <c r="B326" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C326" s="2" t="s">
         <v>511</v>
-      </c>
-      <c r="C326" s="2" t="s">
-        <v>512</v>
       </c>
       <c r="D326" s="1">
         <v>1</v>
@@ -7754,10 +7754,10 @@
         <v>326</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D327" s="1">
         <v>1</v>
@@ -7768,10 +7768,10 @@
         <v>327</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D328" s="1"/>
     </row>
@@ -7780,10 +7780,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D329" s="1"/>
     </row>
@@ -7792,10 +7792,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C330" s="2" t="s">
         <v>592</v>
-      </c>
-      <c r="C330" s="2" t="s">
-        <v>593</v>
       </c>
       <c r="D330" s="1"/>
     </row>
@@ -7804,10 +7804,10 @@
         <v>330</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D331" s="1"/>
     </row>
@@ -7816,10 +7816,10 @@
         <v>331</v>
       </c>
       <c r="B332" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="C332" s="2" t="s">
         <v>664</v>
-      </c>
-      <c r="C332" s="2" t="s">
-        <v>665</v>
       </c>
       <c r="D332" s="1"/>
     </row>

--- a/Quiz 3/bin/Debug/net9.0/Quiz3.xlsx
+++ b/Quiz 3/bin/Debug/net9.0/Quiz3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\Quiz 3\Quiz 3\bin\Debug\net9.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AD67EF-12C2-4D02-A454-F707E8B02152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EB06D5-6D53-4BEE-BC86-8E2195ADC691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A52166B1-4494-480B-A027-66F199F0B402}"/>
   </bookViews>
@@ -2203,12 +2203,6 @@
 4.  Хранение истории выполненных операций</t>
   </si>
   <si>
-    <t>1. Устойчивости к временным сбоям 
-2. Сглаживания пиковых нагрузок — автоматическое откладывание повторных запросов
-3.  система восстанавливается без вмешательства человека
-4.  повторы с задержкой избегают лавинообразного роста запросов</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Во-первых, он значительно усложняет архитектуру - появляются дополнительные таблицы в БД, нужны фоновые воркеры для обработки сообщений, что увеличивает сложность системы.
   Во-вторых, возникает задержка доставки событий - сообщения отправляются не мгновенно, а обрабатываются фоново, что может быть критично для систем реального времени.
   В-третьих, сохраняется риск дублирования сообщений при сбоях во время отправки, что требует дополнительных механизмов дедупликации.
@@ -2774,6 +2768,12 @@
   </si>
   <si>
     <t>app.MapMethods("/api/orders", new[] { "GET", "POST" }, async context =&gt;)</t>
+  </si>
+  <si>
+    <t>1. Устойчивость к временным сбоям 
+2. Сглаживания пиковых нагрузок 
+3.  система может автоматически восстановиться без ручного вмешательства
+4. позволяют избегать лавинообразного роста запросов</t>
   </si>
 </sst>
 </file>
@@ -3175,8 +3175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C34F926-ACF9-49CF-9B6A-0D737BBB828A}">
   <dimension ref="A1:D344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A267" workbookViewId="0">
+      <selection activeCell="C274" sqref="C274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3375,7 +3375,7 @@
         <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -3711,7 +3711,7 @@
         <v>68</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D38" s="1">
         <v>2</v>
@@ -3753,7 +3753,7 @@
         <v>75</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D41" s="1">
         <v>2</v>
@@ -3767,7 +3767,7 @@
         <v>76</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D42" s="1">
         <v>2</v>
@@ -3792,7 +3792,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>79</v>
@@ -3907,7 +3907,7 @@
         <v>94</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>99</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
@@ -4047,7 +4047,7 @@
         <v>119</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D62" s="1">
         <v>2</v>
@@ -4159,7 +4159,7 @@
         <v>125</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D70" s="1">
         <v>2</v>
@@ -4313,7 +4313,7 @@
         <v>144</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D81" s="1">
         <v>2</v>
@@ -4341,7 +4341,7 @@
         <v>147</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D83" s="1">
         <v>2</v>
@@ -4411,7 +4411,7 @@
         <v>158</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D88" s="1">
         <v>2</v>
@@ -4425,7 +4425,7 @@
         <v>159</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D89" s="1">
         <v>2</v>
@@ -4481,7 +4481,7 @@
         <v>166</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D93" s="1">
         <v>0</v>
@@ -4551,7 +4551,7 @@
         <v>175</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D98" s="1">
         <v>2</v>
@@ -4565,7 +4565,7 @@
         <v>176</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D99" s="1">
         <v>2</v>
@@ -4775,7 +4775,7 @@
         <v>203</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D114" s="1">
         <v>0</v>
@@ -4803,7 +4803,7 @@
         <v>205</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D116" s="1">
         <v>2</v>
@@ -4817,7 +4817,7 @@
         <v>206</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D117" s="1">
         <v>2</v>
@@ -4831,7 +4831,7 @@
         <v>207</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D118" s="1">
         <v>2</v>
@@ -4887,7 +4887,7 @@
         <v>214</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D122" s="1">
         <v>2</v>
@@ -4943,7 +4943,7 @@
         <v>221</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D126" s="1">
         <v>2</v>
@@ -4985,7 +4985,7 @@
         <v>225</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D129" s="1">
         <v>2</v>
@@ -5027,7 +5027,7 @@
         <v>230</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D132" s="1">
         <v>2</v>
@@ -5125,7 +5125,7 @@
         <v>241</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D139" s="1">
         <v>2</v>
@@ -5153,7 +5153,7 @@
         <v>243</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D141" s="1">
         <v>2</v>
@@ -5167,7 +5167,7 @@
         <v>244</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D142" s="1">
         <v>2</v>
@@ -5181,7 +5181,7 @@
         <v>246</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D143" s="1">
         <v>2</v>
@@ -5237,7 +5237,7 @@
         <v>253</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D147" s="1">
         <v>1</v>
@@ -5265,7 +5265,7 @@
         <v>256</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D149" s="1">
         <v>2</v>
@@ -5307,7 +5307,7 @@
         <v>261</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D152" s="1">
         <v>2</v>
@@ -5321,7 +5321,7 @@
         <v>262</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D153" s="1">
         <v>0</v>
@@ -5335,7 +5335,7 @@
         <v>263</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D154" s="1">
         <v>0</v>
@@ -5349,7 +5349,7 @@
         <v>264</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D155" s="1">
         <v>0</v>
@@ -5363,7 +5363,7 @@
         <v>265</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D156" s="1">
         <v>2</v>
@@ -5461,7 +5461,7 @@
         <v>278</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D163" s="1">
         <v>1</v>
@@ -5489,7 +5489,7 @@
         <v>281</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D165" s="1">
         <v>1</v>
@@ -5503,7 +5503,7 @@
         <v>282</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D166" s="1">
         <v>1</v>
@@ -5531,7 +5531,7 @@
         <v>285</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D168" s="1">
         <v>0</v>
@@ -5657,7 +5657,7 @@
         <v>302</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D177" s="1">
         <v>0</v>
@@ -5699,7 +5699,7 @@
         <v>307</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D180" s="1">
         <v>2</v>
@@ -5713,7 +5713,7 @@
         <v>308</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D181" s="1">
         <v>2</v>
@@ -5811,7 +5811,7 @@
         <v>321</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D188" s="1">
         <v>2</v>
@@ -5853,7 +5853,7 @@
         <v>326</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D191" s="1">
         <v>1</v>
@@ -5867,7 +5867,7 @@
         <v>327</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D192" s="1">
         <v>0</v>
@@ -5965,7 +5965,7 @@
         <v>337</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D199" s="1">
         <v>1</v>
@@ -5979,7 +5979,7 @@
         <v>338</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D200" s="1">
         <v>0</v>
@@ -6007,7 +6007,7 @@
         <v>341</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D202" s="1">
         <v>2</v>
@@ -6021,7 +6021,7 @@
         <v>342</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D203" s="1">
         <v>1</v>
@@ -6119,7 +6119,7 @@
         <v>352</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D210" s="1">
         <v>1</v>
@@ -6130,10 +6130,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D211" s="1">
         <v>0</v>
@@ -6147,7 +6147,7 @@
         <v>353</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D212" s="1">
         <v>1</v>
@@ -6186,7 +6186,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>358</v>
@@ -6245,7 +6245,7 @@
         <v>363</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D219" s="1">
         <v>1</v>
@@ -6259,7 +6259,7 @@
         <v>364</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D220" s="1">
         <v>0</v>
@@ -6301,7 +6301,7 @@
         <v>368</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D223" s="1">
         <v>2</v>
@@ -6315,7 +6315,7 @@
         <v>369</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D224" s="1">
         <v>1</v>
@@ -6329,7 +6329,7 @@
         <v>370</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D225" s="1">
         <v>1</v>
@@ -6357,7 +6357,7 @@
         <v>373</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D227" s="1">
         <v>2</v>
@@ -6385,7 +6385,7 @@
         <v>375</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D229" s="1">
         <v>2</v>
@@ -6399,7 +6399,7 @@
         <v>376</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D230" s="1">
         <v>0</v>
@@ -6427,7 +6427,7 @@
         <v>379</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D232" s="1">
         <v>1</v>
@@ -6469,7 +6469,7 @@
         <v>382</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D235" s="1">
         <v>1</v>
@@ -6497,7 +6497,7 @@
         <v>384</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D237" s="1">
         <v>0</v>
@@ -6511,7 +6511,7 @@
         <v>385</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D238" s="1">
         <v>0</v>
@@ -6567,7 +6567,7 @@
         <v>391</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D242" s="1">
         <v>2</v>
@@ -6637,7 +6637,7 @@
         <v>398</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D247" s="1">
         <v>1</v>
@@ -6693,7 +6693,7 @@
         <v>405</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D251" s="1">
         <v>1</v>
@@ -6721,7 +6721,7 @@
         <v>407</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D253" s="1">
         <v>1</v>
@@ -6735,7 +6735,7 @@
         <v>408</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D254" s="1">
         <v>1</v>
@@ -6791,7 +6791,7 @@
         <v>414</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D258" s="1">
         <v>1</v>
@@ -6903,7 +6903,7 @@
         <v>428</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D266" s="1">
         <v>1</v>
@@ -6931,7 +6931,7 @@
         <v>431</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D268" s="1">
         <v>2</v>
@@ -6945,7 +6945,7 @@
         <v>432</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D269" s="1">
         <v>0</v>
@@ -6973,7 +6973,7 @@
         <v>435</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D271" s="1">
         <v>0</v>
@@ -6987,7 +6987,7 @@
         <v>436</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D272" s="1">
         <v>0</v>
@@ -7001,7 +7001,7 @@
         <v>437</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D273" s="1">
         <v>0</v>
@@ -7015,7 +7015,7 @@
         <v>438</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>553</v>
+        <v>665</v>
       </c>
       <c r="D274" s="1">
         <v>0</v>
@@ -7085,7 +7085,7 @@
         <v>446</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D279" s="1">
         <v>0</v>
@@ -7099,7 +7099,7 @@
         <v>447</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D280" s="1">
         <v>0</v>
@@ -7183,7 +7183,7 @@
         <v>457</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D286" s="1">
         <v>0</v>
@@ -7197,7 +7197,7 @@
         <v>458</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D287" s="1">
         <v>0</v>
@@ -7225,7 +7225,7 @@
         <v>461</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D289" s="1">
         <v>0</v>
@@ -7239,7 +7239,7 @@
         <v>462</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D290" s="1">
         <v>0</v>
@@ -7267,7 +7267,7 @@
         <v>465</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D292" s="1">
         <v>0</v>
@@ -7295,7 +7295,7 @@
         <v>468</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D294" s="1">
         <v>0</v>
@@ -7309,7 +7309,7 @@
         <v>469</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D295" s="1">
         <v>0</v>
@@ -7351,7 +7351,7 @@
         <v>473</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D298" s="1">
         <v>0</v>
@@ -7365,7 +7365,7 @@
         <v>474</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D299" s="1">
         <v>0</v>
@@ -7393,7 +7393,7 @@
         <v>476</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D301" s="1">
         <v>0</v>
@@ -7421,7 +7421,7 @@
         <v>478</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D303" s="1">
         <v>0</v>
@@ -7435,7 +7435,7 @@
         <v>479</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D304" s="1">
         <v>0</v>
@@ -7449,7 +7449,7 @@
         <v>480</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D305" s="1">
         <v>0</v>
@@ -7505,7 +7505,7 @@
         <v>487</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D309" s="1">
         <v>2</v>
@@ -7533,7 +7533,7 @@
         <v>490</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D311" s="1">
         <v>1</v>
@@ -7561,7 +7561,7 @@
         <v>493</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D313" s="1">
         <v>1</v>
@@ -7575,7 +7575,7 @@
         <v>494</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D314" s="1">
         <v>1</v>
@@ -7589,7 +7589,7 @@
         <v>495</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D315" s="1">
         <v>0</v>
@@ -7603,7 +7603,7 @@
         <v>496</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D316" s="1">
         <v>2</v>
@@ -7617,7 +7617,7 @@
         <v>497</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D317" s="1">
         <v>1</v>
@@ -7631,7 +7631,7 @@
         <v>498</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D318" s="1">
         <v>0</v>
@@ -7673,7 +7673,7 @@
         <v>503</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D321" s="1">
         <v>0</v>
@@ -7757,7 +7757,7 @@
         <v>512</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D327" s="1">
         <v>1</v>
@@ -7771,7 +7771,7 @@
         <v>513</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D328" s="1"/>
     </row>
@@ -7780,10 +7780,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D329" s="1"/>
     </row>
@@ -7792,10 +7792,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C330" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="C330" s="2" t="s">
-        <v>592</v>
       </c>
       <c r="D330" s="1"/>
     </row>
@@ -7804,10 +7804,10 @@
         <v>330</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D331" s="1"/>
     </row>
@@ -7816,10 +7816,10 @@
         <v>331</v>
       </c>
       <c r="B332" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C332" s="2" t="s">
         <v>663</v>
-      </c>
-      <c r="C332" s="2" t="s">
-        <v>664</v>
       </c>
       <c r="D332" s="1"/>
     </row>

--- a/Quiz 3/bin/Debug/net9.0/Quiz3.xlsx
+++ b/Quiz 3/bin/Debug/net9.0/Quiz3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\Quiz 3\Quiz 3\bin\Debug\net9.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EB06D5-6D53-4BEE-BC86-8E2195ADC691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C391E273-BEEB-411D-979A-0BBC5D9E2484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A52166B1-4494-480B-A027-66F199F0B402}"/>
   </bookViews>
@@ -530,10 +530,6 @@
     <t>API</t>
   </si>
   <si>
-    <t xml:space="preserve">(Simple Object Access Protocol) — это протокол для обмена структурированными сообщениями в распределенных системах, 
-использующий XML для кодирования </t>
-  </si>
-  <si>
     <t>SOAP</t>
   </si>
   <si>
@@ -2774,6 +2770,10 @@
 2. Сглаживания пиковых нагрузок 
 3.  система может автоматически восстановиться без ручного вмешательства
 4. позволяют избегать лавинообразного роста запросов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Simple Object Access Protocol) — это протокол для обмена структурированными сообщениями в распределенных системах, 
+использующий формат XML </t>
   </si>
 </sst>
 </file>
@@ -3175,8 +3175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C34F926-ACF9-49CF-9B6A-0D737BBB828A}">
   <dimension ref="A1:D344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A267" workbookViewId="0">
-      <selection activeCell="C274" sqref="C274"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3375,7 +3375,7 @@
         <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -3459,7 +3459,7 @@
         <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
@@ -3515,7 +3515,7 @@
         <v>44</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D24" s="1">
         <v>2</v>
@@ -3557,7 +3557,7 @@
         <v>48</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
@@ -3585,7 +3585,7 @@
         <v>51</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
@@ -3697,7 +3697,7 @@
         <v>67</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>68</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D38" s="1">
         <v>2</v>
@@ -3753,7 +3753,7 @@
         <v>75</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D41" s="1">
         <v>2</v>
@@ -3767,7 +3767,7 @@
         <v>76</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D42" s="1">
         <v>2</v>
@@ -3792,7 +3792,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>79</v>
@@ -3907,7 +3907,7 @@
         <v>94</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>99</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
@@ -4044,10 +4044,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D62" s="1">
         <v>2</v>
@@ -4061,7 +4061,7 @@
         <v>112</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D63" s="1">
         <v>2</v>
@@ -4072,10 +4072,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>113</v>
+        <v>665</v>
       </c>
       <c r="D64" s="1">
         <v>1</v>
@@ -4086,10 +4086,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="D65" s="1">
         <v>2</v>
@@ -4100,10 +4100,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>
@@ -4114,10 +4114,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="D67" s="1">
         <v>0</v>
@@ -4128,10 +4128,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D68" s="1">
         <v>2</v>
@@ -4142,10 +4142,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="D69" s="1">
         <v>2</v>
@@ -4156,10 +4156,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D70" s="1">
         <v>2</v>
@@ -4170,10 +4170,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="D71" s="1">
         <v>1</v>
@@ -4184,10 +4184,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D72" s="1">
         <v>2</v>
@@ -4198,10 +4198,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D73" s="1">
         <v>1</v>
@@ -4212,10 +4212,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D74" s="1">
         <v>2</v>
@@ -4226,10 +4226,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D75" s="1">
         <v>1</v>
@@ -4240,10 +4240,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="D76" s="1">
         <v>2</v>
@@ -4254,10 +4254,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D77" s="1">
         <v>1</v>
@@ -4268,10 +4268,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D78" s="1">
         <v>2</v>
@@ -4282,10 +4282,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D79" s="1">
         <v>1</v>
@@ -4296,10 +4296,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D80" s="1">
         <v>2</v>
@@ -4310,10 +4310,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D81" s="1">
         <v>2</v>
@@ -4324,10 +4324,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="D82" s="1">
         <v>1</v>
@@ -4338,10 +4338,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D83" s="1">
         <v>2</v>
@@ -4352,10 +4352,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="D84" s="1">
         <v>0</v>
@@ -4366,10 +4366,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="D85" s="1">
         <v>2</v>
@@ -4380,10 +4380,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D86" s="1">
         <v>2</v>
@@ -4394,10 +4394,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="D87" s="1">
         <v>2</v>
@@ -4408,10 +4408,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D88" s="1">
         <v>2</v>
@@ -4422,10 +4422,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D89" s="1">
         <v>2</v>
@@ -4436,10 +4436,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="D90" s="1">
         <v>1</v>
@@ -4450,10 +4450,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="D91" s="1">
         <v>0</v>
@@ -4464,10 +4464,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="D92" s="1">
         <v>1</v>
@@ -4478,10 +4478,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D93" s="1">
         <v>0</v>
@@ -4492,10 +4492,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D94" s="1">
         <v>2</v>
@@ -4506,10 +4506,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D95" s="1">
         <v>2</v>
@@ -4520,10 +4520,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="D96" s="1">
         <v>2</v>
@@ -4534,10 +4534,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D97" s="1">
         <v>1</v>
@@ -4548,10 +4548,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D98" s="1">
         <v>2</v>
@@ -4562,10 +4562,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D99" s="1">
         <v>2</v>
@@ -4576,10 +4576,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D100" s="1">
         <v>0</v>
@@ -4590,10 +4590,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="D101" s="1">
         <v>2</v>
@@ -4604,10 +4604,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="D102" s="1">
         <v>0</v>
@@ -4618,10 +4618,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D103" s="1">
         <v>0</v>
@@ -4632,10 +4632,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="D104" s="1">
         <v>2</v>
@@ -4646,10 +4646,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D105" s="1">
         <v>2</v>
@@ -4660,10 +4660,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="D106" s="1">
         <v>0</v>
@@ -4674,10 +4674,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="D107" s="1">
         <v>0</v>
@@ -4688,10 +4688,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D108" s="1">
         <v>0</v>
@@ -4702,10 +4702,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="D109" s="1">
         <v>0</v>
@@ -4716,10 +4716,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D110" s="1">
         <v>0</v>
@@ -4730,10 +4730,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D111" s="1">
         <v>0</v>
@@ -4744,10 +4744,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="D112" s="1">
         <v>0</v>
@@ -4758,10 +4758,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="D113" s="1">
         <v>2</v>
@@ -4772,10 +4772,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D114" s="1">
         <v>0</v>
@@ -4786,10 +4786,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D115" s="1">
         <v>2</v>
@@ -4800,10 +4800,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D116" s="1">
         <v>2</v>
@@ -4814,10 +4814,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D117" s="1">
         <v>2</v>
@@ -4828,10 +4828,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D118" s="1">
         <v>2</v>
@@ -4842,10 +4842,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="D119" s="1">
         <v>2</v>
@@ -4856,10 +4856,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D120" s="1">
         <v>2</v>
@@ -4870,10 +4870,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="D121" s="1">
         <v>2</v>
@@ -4884,10 +4884,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D122" s="1">
         <v>2</v>
@@ -4898,10 +4898,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D123" s="1">
         <v>2</v>
@@ -4912,10 +4912,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C124" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="D124" s="1">
         <v>2</v>
@@ -4926,10 +4926,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C125" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="D125" s="1">
         <v>2</v>
@@ -4940,10 +4940,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D126" s="1">
         <v>2</v>
@@ -4954,10 +4954,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C127" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="D127" s="1">
         <v>2</v>
@@ -4968,10 +4968,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D128" s="1">
         <v>2</v>
@@ -4982,10 +4982,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D129" s="1">
         <v>2</v>
@@ -4996,10 +4996,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D130" s="1">
         <v>2</v>
@@ -5010,10 +5010,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C131" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="D131" s="1">
         <v>2</v>
@@ -5024,10 +5024,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D132" s="1">
         <v>2</v>
@@ -5038,10 +5038,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D133" s="1">
         <v>2</v>
@@ -5052,10 +5052,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="D134" s="1">
         <v>2</v>
@@ -5066,10 +5066,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C135" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="D135" s="1">
         <v>2</v>
@@ -5080,10 +5080,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D136" s="1">
         <v>2</v>
@@ -5094,10 +5094,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D137" s="1">
         <v>2</v>
@@ -5108,10 +5108,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D138" s="1">
         <v>2</v>
@@ -5122,10 +5122,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D139" s="1">
         <v>2</v>
@@ -5136,10 +5136,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D140" s="1">
         <v>2</v>
@@ -5150,10 +5150,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D141" s="1">
         <v>2</v>
@@ -5164,10 +5164,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D142" s="1">
         <v>2</v>
@@ -5178,10 +5178,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D143" s="1">
         <v>2</v>
@@ -5192,10 +5192,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="D144" s="1">
         <v>0</v>
@@ -5206,10 +5206,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="D145" s="1">
         <v>2</v>
@@ -5220,10 +5220,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C146" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="D146" s="1">
         <v>1</v>
@@ -5234,10 +5234,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D147" s="1">
         <v>1</v>
@@ -5248,10 +5248,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="D148" s="1">
         <v>1</v>
@@ -5262,10 +5262,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D149" s="1">
         <v>2</v>
@@ -5276,10 +5276,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="D150" s="1">
         <v>0</v>
@@ -5290,10 +5290,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C151" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>260</v>
       </c>
       <c r="D151" s="1">
         <v>1</v>
@@ -5304,10 +5304,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D152" s="1">
         <v>2</v>
@@ -5318,10 +5318,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D153" s="1">
         <v>0</v>
@@ -5332,10 +5332,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D154" s="1">
         <v>0</v>
@@ -5346,10 +5346,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D155" s="1">
         <v>0</v>
@@ -5360,10 +5360,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D156" s="1">
         <v>2</v>
@@ -5374,10 +5374,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C157" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>267</v>
       </c>
       <c r="D157" s="1">
         <v>2</v>
@@ -5388,10 +5388,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C158" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>269</v>
       </c>
       <c r="D158" s="1">
         <v>2</v>
@@ -5402,10 +5402,10 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C159" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>271</v>
       </c>
       <c r="D159" s="1">
         <v>2</v>
@@ -5416,10 +5416,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="D160" s="1">
         <v>1</v>
@@ -5430,10 +5430,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="D161" s="1">
         <v>0</v>
@@ -5444,10 +5444,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D162" s="1">
         <v>0</v>
@@ -5458,10 +5458,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D163" s="1">
         <v>1</v>
@@ -5472,10 +5472,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D164" s="1">
         <v>0</v>
@@ -5486,10 +5486,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D165" s="1">
         <v>1</v>
@@ -5500,10 +5500,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D166" s="1">
         <v>1</v>
@@ -5514,10 +5514,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C167" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="D167" s="1">
         <v>1</v>
@@ -5528,10 +5528,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D168" s="1">
         <v>0</v>
@@ -5542,10 +5542,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D169" s="1">
         <v>0</v>
@@ -5556,10 +5556,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C170" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>289</v>
       </c>
       <c r="D170" s="1">
         <v>1</v>
@@ -5570,10 +5570,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C171" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>291</v>
       </c>
       <c r="D171" s="1">
         <v>1</v>
@@ -5584,10 +5584,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D172" s="1">
         <v>1</v>
@@ -5598,10 +5598,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C173" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>295</v>
       </c>
       <c r="D173" s="1">
         <v>0</v>
@@ -5612,10 +5612,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D174" s="1">
         <v>0</v>
@@ -5626,10 +5626,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D175" s="1">
         <v>0</v>
@@ -5640,10 +5640,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C176" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>301</v>
       </c>
       <c r="D176" s="1">
         <v>2</v>
@@ -5654,10 +5654,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D177" s="1">
         <v>0</v>
@@ -5668,10 +5668,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C178" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="D178" s="1">
         <v>0</v>
@@ -5682,10 +5682,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D179" s="1">
         <v>0</v>
@@ -5696,10 +5696,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D180" s="1">
         <v>2</v>
@@ -5710,10 +5710,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D181" s="1">
         <v>2</v>
@@ -5724,10 +5724,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C182" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>310</v>
       </c>
       <c r="D182" s="1">
         <v>2</v>
@@ -5738,10 +5738,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D183" s="1">
         <v>1</v>
@@ -5752,10 +5752,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D184" s="1">
         <v>0</v>
@@ -5766,10 +5766,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D185" s="1">
         <v>2</v>
@@ -5780,10 +5780,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C186" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="D186" s="1">
         <v>0</v>
@@ -5794,10 +5794,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C187" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>320</v>
       </c>
       <c r="D187" s="1">
         <v>2</v>
@@ -5808,10 +5808,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D188" s="1">
         <v>2</v>
@@ -5822,10 +5822,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C189" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="D189" s="1">
         <v>0</v>
@@ -5836,10 +5836,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C190" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>325</v>
       </c>
       <c r="D190" s="1">
         <v>1</v>
@@ -5850,10 +5850,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D191" s="1">
         <v>1</v>
@@ -5864,10 +5864,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D192" s="1">
         <v>0</v>
@@ -5878,10 +5878,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C193" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>329</v>
       </c>
       <c r="D193" s="1">
         <v>2</v>
@@ -5892,10 +5892,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D194" s="1">
         <v>1</v>
@@ -5906,10 +5906,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D195" s="1">
         <v>1</v>
@@ -5920,10 +5920,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D196" s="1">
         <v>2</v>
@@ -5934,10 +5934,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C197" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>334</v>
       </c>
       <c r="D197" s="1">
         <v>0</v>
@@ -5948,10 +5948,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C198" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="D198" s="1">
         <v>2</v>
@@ -5962,10 +5962,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D199" s="1">
         <v>1</v>
@@ -5976,10 +5976,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D200" s="1">
         <v>0</v>
@@ -5990,10 +5990,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C201" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="D201" s="1">
         <v>0</v>
@@ -6004,10 +6004,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D202" s="1">
         <v>2</v>
@@ -6018,10 +6018,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D203" s="1">
         <v>1</v>
@@ -6032,10 +6032,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D204" s="1">
         <v>2</v>
@@ -6046,10 +6046,10 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D205" s="1">
         <v>1</v>
@@ -6060,10 +6060,10 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D206" s="1">
         <v>0</v>
@@ -6074,10 +6074,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D207" s="1">
         <v>0</v>
@@ -6088,10 +6088,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C208" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>350</v>
       </c>
       <c r="D208" s="1">
         <v>1</v>
@@ -6102,10 +6102,10 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D209" s="1">
         <v>1</v>
@@ -6116,10 +6116,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D210" s="1">
         <v>1</v>
@@ -6130,10 +6130,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D211" s="1">
         <v>0</v>
@@ -6144,10 +6144,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D212" s="1">
         <v>1</v>
@@ -6158,10 +6158,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C213" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>355</v>
       </c>
       <c r="D213" s="1">
         <v>1</v>
@@ -6172,10 +6172,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C214" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>357</v>
       </c>
       <c r="D214" s="1">
         <v>0</v>
@@ -6186,10 +6186,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D215" s="1">
         <v>1</v>
@@ -6200,10 +6200,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D216" s="1">
         <v>1</v>
@@ -6214,10 +6214,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D217" s="1">
         <v>1</v>
@@ -6228,10 +6228,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C218" s="2" t="s">
         <v>361</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>362</v>
       </c>
       <c r="D218" s="1">
         <v>2</v>
@@ -6242,10 +6242,10 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D219" s="1">
         <v>1</v>
@@ -6256,10 +6256,10 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D220" s="1">
         <v>0</v>
@@ -6270,10 +6270,10 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D221" s="1">
         <v>1</v>
@@ -6284,10 +6284,10 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D222" s="1">
         <v>1</v>
@@ -6298,10 +6298,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D223" s="1">
         <v>2</v>
@@ -6312,10 +6312,10 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D224" s="1">
         <v>1</v>
@@ -6326,10 +6326,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D225" s="1">
         <v>1</v>
@@ -6340,10 +6340,10 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D226" s="1">
         <v>1</v>
@@ -6354,10 +6354,10 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D227" s="1">
         <v>2</v>
@@ -6368,10 +6368,10 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D228" s="1">
         <v>2</v>
@@ -6382,10 +6382,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D229" s="1">
         <v>2</v>
@@ -6396,10 +6396,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D230" s="1">
         <v>0</v>
@@ -6410,10 +6410,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C231" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="D231" s="1">
         <v>0</v>
@@ -6424,10 +6424,10 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D232" s="1">
         <v>1</v>
@@ -6438,10 +6438,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D233" s="1">
         <v>1</v>
@@ -6452,10 +6452,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D234" s="1">
         <v>1</v>
@@ -6466,10 +6466,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D235" s="1">
         <v>1</v>
@@ -6480,10 +6480,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D236" s="1">
         <v>1</v>
@@ -6494,10 +6494,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D237" s="1">
         <v>0</v>
@@ -6508,10 +6508,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D238" s="1">
         <v>0</v>
@@ -6522,10 +6522,10 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D239" s="1">
         <v>2</v>
@@ -6536,10 +6536,10 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D240" s="1">
         <v>2</v>
@@ -6550,10 +6550,10 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D241" s="1">
         <v>2</v>
@@ -6564,10 +6564,10 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D242" s="1">
         <v>2</v>
@@ -6578,10 +6578,10 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D243" s="1">
         <v>1</v>
@@ -6592,10 +6592,10 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C244" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>394</v>
       </c>
       <c r="D244" s="1">
         <v>1</v>
@@ -6606,10 +6606,10 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D245" s="1">
         <v>0</v>
@@ -6620,10 +6620,10 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C246" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>397</v>
       </c>
       <c r="D246" s="1">
         <v>2</v>
@@ -6634,10 +6634,10 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D247" s="1">
         <v>1</v>
@@ -6648,10 +6648,10 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D248" s="1">
         <v>1</v>
@@ -6662,10 +6662,10 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C249" s="2" t="s">
         <v>401</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>402</v>
       </c>
       <c r="D249" s="1">
         <v>0</v>
@@ -6676,10 +6676,10 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C250" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="D250" s="1">
         <v>1</v>
@@ -6690,10 +6690,10 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D251" s="1">
         <v>1</v>
@@ -6704,10 +6704,10 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D252" s="1">
         <v>1</v>
@@ -6718,10 +6718,10 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D253" s="1">
         <v>1</v>
@@ -6732,10 +6732,10 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D254" s="1">
         <v>1</v>
@@ -6746,10 +6746,10 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D255" s="1">
         <v>2</v>
@@ -6760,10 +6760,10 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D256" s="1">
         <v>1</v>
@@ -6774,10 +6774,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C257" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>413</v>
       </c>
       <c r="D257" s="1">
         <v>1</v>
@@ -6788,10 +6788,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D258" s="1">
         <v>1</v>
@@ -6802,10 +6802,10 @@
         <v>258</v>
       </c>
       <c r="B259" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C259" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="D259" s="1">
         <v>1</v>
@@ -6816,10 +6816,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C260" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>418</v>
       </c>
       <c r="D260" s="1">
         <v>1</v>
@@ -6830,10 +6830,10 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D261" s="1">
         <v>1</v>
@@ -6844,10 +6844,10 @@
         <v>261</v>
       </c>
       <c r="B262" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C262" s="1" t="s">
         <v>420</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>421</v>
       </c>
       <c r="D262" s="1">
         <v>1</v>
@@ -6858,10 +6858,10 @@
         <v>262</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D263" s="1">
         <v>0</v>
@@ -6872,10 +6872,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D264" s="1">
         <v>0</v>
@@ -6886,10 +6886,10 @@
         <v>264</v>
       </c>
       <c r="B265" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C265" s="2" t="s">
         <v>426</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>427</v>
       </c>
       <c r="D265" s="1">
         <v>1</v>
@@ -6900,10 +6900,10 @@
         <v>265</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D266" s="1">
         <v>1</v>
@@ -6914,10 +6914,10 @@
         <v>266</v>
       </c>
       <c r="B267" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C267" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>430</v>
       </c>
       <c r="D267" s="1">
         <v>0</v>
@@ -6928,10 +6928,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D268" s="1">
         <v>2</v>
@@ -6942,10 +6942,10 @@
         <v>268</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D269" s="1">
         <v>0</v>
@@ -6956,10 +6956,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D270" s="1">
         <v>0</v>
@@ -6970,10 +6970,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D271" s="1">
         <v>0</v>
@@ -6984,10 +6984,10 @@
         <v>271</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D272" s="1">
         <v>0</v>
@@ -6998,10 +6998,10 @@
         <v>272</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D273" s="1">
         <v>0</v>
@@ -7012,10 +7012,10 @@
         <v>273</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D274" s="1">
         <v>0</v>
@@ -7026,10 +7026,10 @@
         <v>274</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D275" s="1">
         <v>0</v>
@@ -7040,10 +7040,10 @@
         <v>275</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D276" s="1">
         <v>0</v>
@@ -7054,10 +7054,10 @@
         <v>276</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D277" s="1">
         <v>0</v>
@@ -7068,10 +7068,10 @@
         <v>277</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D278" s="1">
         <v>0</v>
@@ -7082,10 +7082,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D279" s="1">
         <v>0</v>
@@ -7096,10 +7096,10 @@
         <v>279</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D280" s="1">
         <v>0</v>
@@ -7110,10 +7110,10 @@
         <v>280</v>
       </c>
       <c r="B281" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C281" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>449</v>
       </c>
       <c r="D281" s="1">
         <v>0</v>
@@ -7124,10 +7124,10 @@
         <v>281</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D282" s="1">
         <v>0</v>
@@ -7138,10 +7138,10 @@
         <v>282</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D283" s="1">
         <v>0</v>
@@ -7152,10 +7152,10 @@
         <v>283</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D284" s="1">
         <v>0</v>
@@ -7166,10 +7166,10 @@
         <v>284</v>
       </c>
       <c r="B285" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C285" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>456</v>
       </c>
       <c r="D285" s="1">
         <v>0</v>
@@ -7180,10 +7180,10 @@
         <v>285</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D286" s="1">
         <v>0</v>
@@ -7194,10 +7194,10 @@
         <v>286</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D287" s="1">
         <v>0</v>
@@ -7208,10 +7208,10 @@
         <v>287</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D288" s="1">
         <v>1</v>
@@ -7222,10 +7222,10 @@
         <v>288</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D289" s="1">
         <v>0</v>
@@ -7236,10 +7236,10 @@
         <v>289</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D290" s="1">
         <v>0</v>
@@ -7250,10 +7250,10 @@
         <v>290</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D291" s="1">
         <v>0</v>
@@ -7264,10 +7264,10 @@
         <v>291</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D292" s="1">
         <v>0</v>
@@ -7278,10 +7278,10 @@
         <v>292</v>
       </c>
       <c r="B293" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C293" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="C293" s="1" t="s">
-        <v>467</v>
       </c>
       <c r="D293" s="1">
         <v>0</v>
@@ -7292,10 +7292,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D294" s="1">
         <v>0</v>
@@ -7306,10 +7306,10 @@
         <v>294</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D295" s="1">
         <v>0</v>
@@ -7320,10 +7320,10 @@
         <v>295</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D296" s="1">
         <v>0</v>
@@ -7334,10 +7334,10 @@
         <v>296</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D297" s="1">
         <v>0</v>
@@ -7348,10 +7348,10 @@
         <v>297</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D298" s="1">
         <v>0</v>
@@ -7362,10 +7362,10 @@
         <v>298</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D299" s="1">
         <v>0</v>
@@ -7376,10 +7376,10 @@
         <v>299</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D300" s="1">
         <v>0</v>
@@ -7390,10 +7390,10 @@
         <v>300</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D301" s="1">
         <v>0</v>
@@ -7404,10 +7404,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D302" s="1">
         <v>0</v>
@@ -7418,10 +7418,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D303" s="1">
         <v>0</v>
@@ -7432,10 +7432,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D304" s="1">
         <v>0</v>
@@ -7446,10 +7446,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D305" s="1">
         <v>0</v>
@@ -7460,10 +7460,10 @@
         <v>305</v>
       </c>
       <c r="B306" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C306" s="2" t="s">
         <v>481</v>
-      </c>
-      <c r="C306" s="2" t="s">
-        <v>482</v>
       </c>
       <c r="D306" s="1">
         <v>2</v>
@@ -7474,10 +7474,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C307" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="C307" s="2" t="s">
-        <v>484</v>
       </c>
       <c r="D307" s="1">
         <v>0</v>
@@ -7488,10 +7488,10 @@
         <v>307</v>
       </c>
       <c r="B308" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C308" s="2" t="s">
         <v>485</v>
-      </c>
-      <c r="C308" s="2" t="s">
-        <v>486</v>
       </c>
       <c r="D308" s="1">
         <v>1</v>
@@ -7502,10 +7502,10 @@
         <v>308</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D309" s="1">
         <v>2</v>
@@ -7516,10 +7516,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C310" s="1" t="s">
         <v>488</v>
-      </c>
-      <c r="C310" s="1" t="s">
-        <v>489</v>
       </c>
       <c r="D310" s="1">
         <v>1</v>
@@ -7530,10 +7530,10 @@
         <v>310</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D311" s="1">
         <v>1</v>
@@ -7544,10 +7544,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D312" s="1">
         <v>1</v>
@@ -7558,10 +7558,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D313" s="1">
         <v>1</v>
@@ -7572,10 +7572,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D314" s="1">
         <v>1</v>
@@ -7586,10 +7586,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D315" s="1">
         <v>0</v>
@@ -7600,10 +7600,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D316" s="1">
         <v>2</v>
@@ -7614,10 +7614,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D317" s="1">
         <v>1</v>
@@ -7628,10 +7628,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D318" s="1">
         <v>0</v>
@@ -7642,10 +7642,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D319" s="1">
         <v>1</v>
@@ -7656,10 +7656,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C320" s="1" t="s">
         <v>501</v>
-      </c>
-      <c r="C320" s="1" t="s">
-        <v>502</v>
       </c>
       <c r="D320" s="1">
         <v>0</v>
@@ -7670,10 +7670,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D321" s="1">
         <v>0</v>
@@ -7684,10 +7684,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D322" s="1">
         <v>0</v>
@@ -7698,10 +7698,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D323" s="1">
         <v>0</v>
@@ -7712,10 +7712,10 @@
         <v>323</v>
       </c>
       <c r="B324" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C324" s="1" t="s">
         <v>507</v>
-      </c>
-      <c r="C324" s="1" t="s">
-        <v>508</v>
       </c>
       <c r="D324" s="1">
         <v>0</v>
@@ -7726,10 +7726,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D325" s="1">
         <v>2</v>
@@ -7740,10 +7740,10 @@
         <v>325</v>
       </c>
       <c r="B326" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C326" s="2" t="s">
         <v>510</v>
-      </c>
-      <c r="C326" s="2" t="s">
-        <v>511</v>
       </c>
       <c r="D326" s="1">
         <v>1</v>
@@ -7754,10 +7754,10 @@
         <v>326</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D327" s="1">
         <v>1</v>
@@ -7768,10 +7768,10 @@
         <v>327</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D328" s="1"/>
     </row>
@@ -7780,10 +7780,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D329" s="1"/>
     </row>
@@ -7792,10 +7792,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C330" s="2" t="s">
         <v>590</v>
-      </c>
-      <c r="C330" s="2" t="s">
-        <v>591</v>
       </c>
       <c r="D330" s="1"/>
     </row>
@@ -7804,10 +7804,10 @@
         <v>330</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D331" s="1"/>
     </row>
@@ -7816,10 +7816,10 @@
         <v>331</v>
       </c>
       <c r="B332" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="C332" s="2" t="s">
         <v>662</v>
-      </c>
-      <c r="C332" s="2" t="s">
-        <v>663</v>
       </c>
       <c r="D332" s="1"/>
     </row>

--- a/Quiz 3/bin/Debug/net9.0/Quiz3.xlsx
+++ b/Quiz 3/bin/Debug/net9.0/Quiz3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\Quiz 3\Quiz 3\bin\Debug\net9.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C391E273-BEEB-411D-979A-0BBC5D9E2484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EAE2DD-02BF-4C3C-AEC9-147927DAB85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A52166B1-4494-480B-A027-66F199F0B402}"/>
   </bookViews>
@@ -838,20 +838,6 @@
     <t>SOLID</t>
   </si>
   <si>
-    <t xml:space="preserve"> SOLID - это набор из 5 принципов объектно-ориентированного программирования,
- которые делают код более понятным, гибким и поддерживаемым.
-1. S - Single Responsibility Principle (Принцип единственной ответственности)
-Каждый класс должен иметь только одну причину для изменения.
-2. O - Open/Closed Principle (Принцип открытости/закрытости)
-Классы должны быть открыты для расширения, но закрыты для модификации.
-3. L - Liskov Substitution Principle (Принцип подстановки Лисков)
-Наследующие классы должны быть способны заменить свои базовые классы.
-4. I - Interface Segregation Principle (Принцип разделения интерфейсов)
-Много специализированных интерфейсов лучше, чем один универсальный.
-5. D - Dependency Inversion Principle (Принцип инверсии зависимостей)
-Зависимости должны строиться на абстракциях, а не на конкретных реализациях.</t>
-  </si>
-  <si>
     <t xml:space="preserve">DbC Design by contract </t>
   </si>
   <si>
@@ -2774,6 +2760,20 @@
   <si>
     <t xml:space="preserve">(Simple Object Access Protocol) — это протокол для обмена структурированными сообщениями в распределенных системах, 
 использующий формат XML </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SOLID - это набор из 5 принципов объектно-ориентированного программирования,
+ которые делают код более понятным, гибким и поддерживаемым.
+1. S - Single Responsibility Principle (Принцип единственной ответственности)
+Каждый класс должен иметь только одну причину для изменения.
+2. O - Open/Closed Principle (Принцип открытости/закрытости)
+Классы должны быть открыты для расширения, но закрыты для модификации.
+3. L - Liskov Substitution Principle (Принцип подстановки Лисков)
+ Классы наследники должны быть способны заменить свои базовые классы.
+4. I - Interface Segregation Principle (Принцип разделения интерфейсов)
+Много специализированных интерфейсов лучше, чем один универсальный.
+5. D - Dependency Inversion Principle (Принцип инверсии зависимостей)
+Зависимости должны строиться на абстракциях, а не на конкретных реализациях.</t>
   </si>
 </sst>
 </file>
@@ -3175,8 +3175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C34F926-ACF9-49CF-9B6A-0D737BBB828A}">
   <dimension ref="A1:D344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3375,7 +3375,7 @@
         <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -3459,7 +3459,7 @@
         <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
@@ -3585,7 +3585,7 @@
         <v>51</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
@@ -3711,7 +3711,7 @@
         <v>68</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D38" s="1">
         <v>2</v>
@@ -3753,7 +3753,7 @@
         <v>75</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D41" s="1">
         <v>2</v>
@@ -3767,7 +3767,7 @@
         <v>76</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D42" s="1">
         <v>2</v>
@@ -3792,7 +3792,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>79</v>
@@ -3907,7 +3907,7 @@
         <v>94</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>99</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
@@ -4047,7 +4047,7 @@
         <v>118</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D62" s="1">
         <v>2</v>
@@ -4061,7 +4061,7 @@
         <v>112</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D63" s="1">
         <v>2</v>
@@ -4075,7 +4075,7 @@
         <v>113</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D64" s="1">
         <v>1</v>
@@ -4159,7 +4159,7 @@
         <v>124</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D70" s="1">
         <v>2</v>
@@ -4271,7 +4271,7 @@
         <v>139</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D78" s="1">
         <v>2</v>
@@ -4313,7 +4313,7 @@
         <v>143</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D81" s="1">
         <v>2</v>
@@ -4341,7 +4341,7 @@
         <v>146</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D83" s="1">
         <v>2</v>
@@ -4411,7 +4411,7 @@
         <v>157</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D88" s="1">
         <v>2</v>
@@ -4425,7 +4425,7 @@
         <v>158</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D89" s="1">
         <v>2</v>
@@ -4481,7 +4481,7 @@
         <v>165</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D93" s="1">
         <v>0</v>
@@ -4495,7 +4495,7 @@
         <v>169</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D94" s="1">
         <v>2</v>
@@ -4509,7 +4509,7 @@
         <v>170</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D95" s="1">
         <v>2</v>
@@ -4551,7 +4551,7 @@
         <v>174</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D98" s="1">
         <v>2</v>
@@ -4565,7 +4565,7 @@
         <v>175</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D99" s="1">
         <v>2</v>
@@ -4579,7 +4579,7 @@
         <v>177</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D100" s="1">
         <v>0</v>
@@ -4621,7 +4621,7 @@
         <v>182</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D103" s="1">
         <v>0</v>
@@ -4649,7 +4649,7 @@
         <v>185</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D105" s="1">
         <v>2</v>
@@ -4761,7 +4761,7 @@
         <v>200</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>201</v>
+        <v>665</v>
       </c>
       <c r="D113" s="1">
         <v>2</v>
@@ -4772,10 +4772,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D114" s="1">
         <v>0</v>
@@ -4786,10 +4786,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D115" s="1">
         <v>2</v>
@@ -4800,10 +4800,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D116" s="1">
         <v>2</v>
@@ -4814,10 +4814,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D117" s="1">
         <v>2</v>
@@ -4828,10 +4828,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D118" s="1">
         <v>2</v>
@@ -4842,10 +4842,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="D119" s="1">
         <v>2</v>
@@ -4856,10 +4856,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D120" s="1">
         <v>2</v>
@@ -4870,10 +4870,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="D121" s="1">
         <v>2</v>
@@ -4884,10 +4884,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D122" s="1">
         <v>2</v>
@@ -4898,10 +4898,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D123" s="1">
         <v>2</v>
@@ -4912,10 +4912,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C124" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="D124" s="1">
         <v>2</v>
@@ -4926,10 +4926,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C125" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="D125" s="1">
         <v>2</v>
@@ -4940,10 +4940,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D126" s="1">
         <v>2</v>
@@ -4954,10 +4954,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C127" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="D127" s="1">
         <v>2</v>
@@ -4968,10 +4968,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D128" s="1">
         <v>2</v>
@@ -4982,10 +4982,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D129" s="1">
         <v>2</v>
@@ -4996,10 +4996,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D130" s="1">
         <v>2</v>
@@ -5010,10 +5010,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C131" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="D131" s="1">
         <v>2</v>
@@ -5024,10 +5024,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D132" s="1">
         <v>2</v>
@@ -5038,10 +5038,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D133" s="1">
         <v>2</v>
@@ -5052,10 +5052,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="D134" s="1">
         <v>2</v>
@@ -5066,10 +5066,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C135" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="D135" s="1">
         <v>2</v>
@@ -5080,10 +5080,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D136" s="1">
         <v>2</v>
@@ -5094,10 +5094,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D137" s="1">
         <v>2</v>
@@ -5108,10 +5108,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D138" s="1">
         <v>2</v>
@@ -5122,10 +5122,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D139" s="1">
         <v>2</v>
@@ -5136,10 +5136,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D140" s="1">
         <v>2</v>
@@ -5150,10 +5150,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D141" s="1">
         <v>2</v>
@@ -5164,10 +5164,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D142" s="1">
         <v>2</v>
@@ -5178,10 +5178,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D143" s="1">
         <v>2</v>
@@ -5192,10 +5192,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="D144" s="1">
         <v>0</v>
@@ -5206,10 +5206,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="D145" s="1">
         <v>2</v>
@@ -5220,10 +5220,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C146" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="D146" s="1">
         <v>1</v>
@@ -5234,10 +5234,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D147" s="1">
         <v>1</v>
@@ -5248,10 +5248,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="D148" s="1">
         <v>1</v>
@@ -5262,10 +5262,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D149" s="1">
         <v>2</v>
@@ -5276,10 +5276,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="D150" s="1">
         <v>0</v>
@@ -5290,10 +5290,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C151" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="D151" s="1">
         <v>1</v>
@@ -5304,10 +5304,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D152" s="1">
         <v>2</v>
@@ -5318,10 +5318,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D153" s="1">
         <v>0</v>
@@ -5332,10 +5332,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D154" s="1">
         <v>0</v>
@@ -5346,10 +5346,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D155" s="1">
         <v>0</v>
@@ -5360,10 +5360,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D156" s="1">
         <v>2</v>
@@ -5374,10 +5374,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C157" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="D157" s="1">
         <v>2</v>
@@ -5388,10 +5388,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C158" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="D158" s="1">
         <v>2</v>
@@ -5402,10 +5402,10 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C159" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="D159" s="1">
         <v>2</v>
@@ -5416,10 +5416,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="D160" s="1">
         <v>1</v>
@@ -5430,10 +5430,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="D161" s="1">
         <v>0</v>
@@ -5444,10 +5444,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D162" s="1">
         <v>0</v>
@@ -5458,10 +5458,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D163" s="1">
         <v>1</v>
@@ -5472,10 +5472,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D164" s="1">
         <v>0</v>
@@ -5486,10 +5486,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D165" s="1">
         <v>1</v>
@@ -5500,10 +5500,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D166" s="1">
         <v>1</v>
@@ -5514,10 +5514,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C167" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="D167" s="1">
         <v>1</v>
@@ -5528,10 +5528,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D168" s="1">
         <v>0</v>
@@ -5542,10 +5542,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D169" s="1">
         <v>0</v>
@@ -5556,10 +5556,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C170" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>288</v>
       </c>
       <c r="D170" s="1">
         <v>1</v>
@@ -5570,10 +5570,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C171" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>290</v>
       </c>
       <c r="D171" s="1">
         <v>1</v>
@@ -5584,10 +5584,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D172" s="1">
         <v>1</v>
@@ -5598,10 +5598,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C173" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>294</v>
       </c>
       <c r="D173" s="1">
         <v>0</v>
@@ -5612,10 +5612,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D174" s="1">
         <v>0</v>
@@ -5626,10 +5626,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D175" s="1">
         <v>0</v>
@@ -5640,10 +5640,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C176" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>300</v>
       </c>
       <c r="D176" s="1">
         <v>2</v>
@@ -5654,10 +5654,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D177" s="1">
         <v>0</v>
@@ -5668,10 +5668,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C178" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>303</v>
       </c>
       <c r="D178" s="1">
         <v>0</v>
@@ -5682,10 +5682,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D179" s="1">
         <v>0</v>
@@ -5696,10 +5696,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D180" s="1">
         <v>2</v>
@@ -5710,10 +5710,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D181" s="1">
         <v>2</v>
@@ -5724,10 +5724,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C182" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>309</v>
       </c>
       <c r="D182" s="1">
         <v>2</v>
@@ -5738,10 +5738,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D183" s="1">
         <v>1</v>
@@ -5752,10 +5752,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D184" s="1">
         <v>0</v>
@@ -5766,10 +5766,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D185" s="1">
         <v>2</v>
@@ -5780,10 +5780,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C186" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>317</v>
       </c>
       <c r="D186" s="1">
         <v>0</v>
@@ -5794,10 +5794,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C187" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>319</v>
       </c>
       <c r="D187" s="1">
         <v>2</v>
@@ -5808,10 +5808,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D188" s="1">
         <v>2</v>
@@ -5822,10 +5822,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C189" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="D189" s="1">
         <v>0</v>
@@ -5836,10 +5836,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C190" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="D190" s="1">
         <v>1</v>
@@ -5850,10 +5850,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D191" s="1">
         <v>1</v>
@@ -5864,10 +5864,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D192" s="1">
         <v>0</v>
@@ -5878,10 +5878,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C193" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>328</v>
       </c>
       <c r="D193" s="1">
         <v>2</v>
@@ -5892,10 +5892,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D194" s="1">
         <v>1</v>
@@ -5906,10 +5906,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D195" s="1">
         <v>1</v>
@@ -5920,10 +5920,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D196" s="1">
         <v>2</v>
@@ -5934,10 +5934,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C197" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="D197" s="1">
         <v>0</v>
@@ -5948,10 +5948,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C198" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>335</v>
       </c>
       <c r="D198" s="1">
         <v>2</v>
@@ -5962,10 +5962,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D199" s="1">
         <v>1</v>
@@ -5976,10 +5976,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D200" s="1">
         <v>0</v>
@@ -5990,10 +5990,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C201" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="D201" s="1">
         <v>0</v>
@@ -6004,10 +6004,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D202" s="1">
         <v>2</v>
@@ -6018,10 +6018,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D203" s="1">
         <v>1</v>
@@ -6032,10 +6032,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D204" s="1">
         <v>2</v>
@@ -6046,10 +6046,10 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D205" s="1">
         <v>1</v>
@@ -6060,10 +6060,10 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D206" s="1">
         <v>0</v>
@@ -6074,10 +6074,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D207" s="1">
         <v>0</v>
@@ -6088,10 +6088,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C208" s="2" t="s">
         <v>348</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>349</v>
       </c>
       <c r="D208" s="1">
         <v>1</v>
@@ -6102,10 +6102,10 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D209" s="1">
         <v>1</v>
@@ -6116,10 +6116,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D210" s="1">
         <v>1</v>
@@ -6130,10 +6130,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D211" s="1">
         <v>0</v>
@@ -6144,10 +6144,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D212" s="1">
         <v>1</v>
@@ -6158,10 +6158,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C213" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="D213" s="1">
         <v>1</v>
@@ -6172,10 +6172,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C214" s="2" t="s">
         <v>355</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>356</v>
       </c>
       <c r="D214" s="1">
         <v>0</v>
@@ -6186,10 +6186,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D215" s="1">
         <v>1</v>
@@ -6200,10 +6200,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D216" s="1">
         <v>1</v>
@@ -6214,10 +6214,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D217" s="1">
         <v>1</v>
@@ -6228,10 +6228,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C218" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>361</v>
       </c>
       <c r="D218" s="1">
         <v>2</v>
@@ -6242,10 +6242,10 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D219" s="1">
         <v>1</v>
@@ -6256,10 +6256,10 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D220" s="1">
         <v>0</v>
@@ -6270,10 +6270,10 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D221" s="1">
         <v>1</v>
@@ -6284,10 +6284,10 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D222" s="1">
         <v>1</v>
@@ -6298,10 +6298,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D223" s="1">
         <v>2</v>
@@ -6312,10 +6312,10 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D224" s="1">
         <v>1</v>
@@ -6326,10 +6326,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D225" s="1">
         <v>1</v>
@@ -6340,10 +6340,10 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D226" s="1">
         <v>1</v>
@@ -6354,10 +6354,10 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D227" s="1">
         <v>2</v>
@@ -6368,10 +6368,10 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D228" s="1">
         <v>2</v>
@@ -6382,10 +6382,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D229" s="1">
         <v>2</v>
@@ -6396,10 +6396,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D230" s="1">
         <v>0</v>
@@ -6410,10 +6410,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C231" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>377</v>
       </c>
       <c r="D231" s="1">
         <v>0</v>
@@ -6424,10 +6424,10 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D232" s="1">
         <v>1</v>
@@ -6438,10 +6438,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D233" s="1">
         <v>1</v>
@@ -6452,10 +6452,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D234" s="1">
         <v>1</v>
@@ -6466,10 +6466,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D235" s="1">
         <v>1</v>
@@ -6480,10 +6480,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D236" s="1">
         <v>1</v>
@@ -6494,10 +6494,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D237" s="1">
         <v>0</v>
@@ -6508,10 +6508,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D238" s="1">
         <v>0</v>
@@ -6522,10 +6522,10 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D239" s="1">
         <v>2</v>
@@ -6536,10 +6536,10 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D240" s="1">
         <v>2</v>
@@ -6550,10 +6550,10 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D241" s="1">
         <v>2</v>
@@ -6564,10 +6564,10 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D242" s="1">
         <v>2</v>
@@ -6578,10 +6578,10 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D243" s="1">
         <v>1</v>
@@ -6592,10 +6592,10 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C244" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>393</v>
       </c>
       <c r="D244" s="1">
         <v>1</v>
@@ -6606,10 +6606,10 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D245" s="1">
         <v>0</v>
@@ -6620,10 +6620,10 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C246" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>396</v>
       </c>
       <c r="D246" s="1">
         <v>2</v>
@@ -6634,10 +6634,10 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D247" s="1">
         <v>1</v>
@@ -6648,10 +6648,10 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D248" s="1">
         <v>1</v>
@@ -6662,10 +6662,10 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C249" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="D249" s="1">
         <v>0</v>
@@ -6676,10 +6676,10 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C250" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>403</v>
       </c>
       <c r="D250" s="1">
         <v>1</v>
@@ -6690,10 +6690,10 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D251" s="1">
         <v>1</v>
@@ -6704,10 +6704,10 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D252" s="1">
         <v>1</v>
@@ -6718,10 +6718,10 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D253" s="1">
         <v>1</v>
@@ -6732,10 +6732,10 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D254" s="1">
         <v>1</v>
@@ -6746,10 +6746,10 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D255" s="1">
         <v>2</v>
@@ -6760,10 +6760,10 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D256" s="1">
         <v>1</v>
@@ -6774,10 +6774,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C257" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>412</v>
       </c>
       <c r="D257" s="1">
         <v>1</v>
@@ -6788,10 +6788,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D258" s="1">
         <v>1</v>
@@ -6802,10 +6802,10 @@
         <v>258</v>
       </c>
       <c r="B259" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C259" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>415</v>
       </c>
       <c r="D259" s="1">
         <v>1</v>
@@ -6816,10 +6816,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C260" s="2" t="s">
         <v>416</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>417</v>
       </c>
       <c r="D260" s="1">
         <v>1</v>
@@ -6830,10 +6830,10 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D261" s="1">
         <v>1</v>
@@ -6844,10 +6844,10 @@
         <v>261</v>
       </c>
       <c r="B262" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C262" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>420</v>
       </c>
       <c r="D262" s="1">
         <v>1</v>
@@ -6858,10 +6858,10 @@
         <v>262</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D263" s="1">
         <v>0</v>
@@ -6872,10 +6872,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D264" s="1">
         <v>0</v>
@@ -6886,10 +6886,10 @@
         <v>264</v>
       </c>
       <c r="B265" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C265" s="2" t="s">
         <v>425</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>426</v>
       </c>
       <c r="D265" s="1">
         <v>1</v>
@@ -6900,10 +6900,10 @@
         <v>265</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D266" s="1">
         <v>1</v>
@@ -6914,10 +6914,10 @@
         <v>266</v>
       </c>
       <c r="B267" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C267" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>429</v>
       </c>
       <c r="D267" s="1">
         <v>0</v>
@@ -6928,10 +6928,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D268" s="1">
         <v>2</v>
@@ -6942,10 +6942,10 @@
         <v>268</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D269" s="1">
         <v>0</v>
@@ -6956,10 +6956,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D270" s="1">
         <v>0</v>
@@ -6970,10 +6970,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D271" s="1">
         <v>0</v>
@@ -6984,10 +6984,10 @@
         <v>271</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D272" s="1">
         <v>0</v>
@@ -6998,10 +6998,10 @@
         <v>272</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D273" s="1">
         <v>0</v>
@@ -7012,10 +7012,10 @@
         <v>273</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D274" s="1">
         <v>0</v>
@@ -7026,10 +7026,10 @@
         <v>274</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D275" s="1">
         <v>0</v>
@@ -7040,10 +7040,10 @@
         <v>275</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D276" s="1">
         <v>0</v>
@@ -7054,10 +7054,10 @@
         <v>276</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D277" s="1">
         <v>0</v>
@@ -7068,10 +7068,10 @@
         <v>277</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D278" s="1">
         <v>0</v>
@@ -7082,10 +7082,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D279" s="1">
         <v>0</v>
@@ -7096,10 +7096,10 @@
         <v>279</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D280" s="1">
         <v>0</v>
@@ -7110,10 +7110,10 @@
         <v>280</v>
       </c>
       <c r="B281" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C281" s="2" t="s">
         <v>447</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>448</v>
       </c>
       <c r="D281" s="1">
         <v>0</v>
@@ -7124,10 +7124,10 @@
         <v>281</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D282" s="1">
         <v>0</v>
@@ -7138,10 +7138,10 @@
         <v>282</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D283" s="1">
         <v>0</v>
@@ -7152,10 +7152,10 @@
         <v>283</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D284" s="1">
         <v>0</v>
@@ -7166,10 +7166,10 @@
         <v>284</v>
       </c>
       <c r="B285" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C285" s="2" t="s">
         <v>454</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>455</v>
       </c>
       <c r="D285" s="1">
         <v>0</v>
@@ -7180,10 +7180,10 @@
         <v>285</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D286" s="1">
         <v>0</v>
@@ -7194,10 +7194,10 @@
         <v>286</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D287" s="1">
         <v>0</v>
@@ -7208,10 +7208,10 @@
         <v>287</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D288" s="1">
         <v>1</v>
@@ -7222,10 +7222,10 @@
         <v>288</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D289" s="1">
         <v>0</v>
@@ -7236,10 +7236,10 @@
         <v>289</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D290" s="1">
         <v>0</v>
@@ -7250,10 +7250,10 @@
         <v>290</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D291" s="1">
         <v>0</v>
@@ -7264,10 +7264,10 @@
         <v>291</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D292" s="1">
         <v>0</v>
@@ -7278,10 +7278,10 @@
         <v>292</v>
       </c>
       <c r="B293" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C293" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="C293" s="1" t="s">
-        <v>466</v>
       </c>
       <c r="D293" s="1">
         <v>0</v>
@@ -7292,10 +7292,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D294" s="1">
         <v>0</v>
@@ -7306,10 +7306,10 @@
         <v>294</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D295" s="1">
         <v>0</v>
@@ -7320,10 +7320,10 @@
         <v>295</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D296" s="1">
         <v>0</v>
@@ -7334,10 +7334,10 @@
         <v>296</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D297" s="1">
         <v>0</v>
@@ -7348,10 +7348,10 @@
         <v>297</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D298" s="1">
         <v>0</v>
@@ -7362,10 +7362,10 @@
         <v>298</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D299" s="1">
         <v>0</v>
@@ -7376,10 +7376,10 @@
         <v>299</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D300" s="1">
         <v>0</v>
@@ -7390,10 +7390,10 @@
         <v>300</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D301" s="1">
         <v>0</v>
@@ -7404,10 +7404,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D302" s="1">
         <v>0</v>
@@ -7418,10 +7418,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D303" s="1">
         <v>0</v>
@@ -7432,10 +7432,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D304" s="1">
         <v>0</v>
@@ -7446,10 +7446,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D305" s="1">
         <v>0</v>
@@ -7460,10 +7460,10 @@
         <v>305</v>
       </c>
       <c r="B306" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C306" s="2" t="s">
         <v>480</v>
-      </c>
-      <c r="C306" s="2" t="s">
-        <v>481</v>
       </c>
       <c r="D306" s="1">
         <v>2</v>
@@ -7474,10 +7474,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C307" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="C307" s="2" t="s">
-        <v>483</v>
       </c>
       <c r="D307" s="1">
         <v>0</v>
@@ -7488,10 +7488,10 @@
         <v>307</v>
       </c>
       <c r="B308" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C308" s="2" t="s">
         <v>484</v>
-      </c>
-      <c r="C308" s="2" t="s">
-        <v>485</v>
       </c>
       <c r="D308" s="1">
         <v>1</v>
@@ -7502,10 +7502,10 @@
         <v>308</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D309" s="1">
         <v>2</v>
@@ -7516,10 +7516,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C310" s="1" t="s">
         <v>487</v>
-      </c>
-      <c r="C310" s="1" t="s">
-        <v>488</v>
       </c>
       <c r="D310" s="1">
         <v>1</v>
@@ -7530,10 +7530,10 @@
         <v>310</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D311" s="1">
         <v>1</v>
@@ -7544,10 +7544,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D312" s="1">
         <v>1</v>
@@ -7558,10 +7558,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D313" s="1">
         <v>1</v>
@@ -7572,10 +7572,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D314" s="1">
         <v>1</v>
@@ -7586,10 +7586,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D315" s="1">
         <v>0</v>
@@ -7600,10 +7600,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D316" s="1">
         <v>2</v>
@@ -7614,10 +7614,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D317" s="1">
         <v>1</v>
@@ -7628,10 +7628,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D318" s="1">
         <v>0</v>
@@ -7642,10 +7642,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D319" s="1">
         <v>1</v>
@@ -7656,10 +7656,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C320" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="C320" s="1" t="s">
-        <v>501</v>
       </c>
       <c r="D320" s="1">
         <v>0</v>
@@ -7670,10 +7670,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D321" s="1">
         <v>0</v>
@@ -7684,10 +7684,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D322" s="1">
         <v>0</v>
@@ -7698,10 +7698,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D323" s="1">
         <v>0</v>
@@ -7712,10 +7712,10 @@
         <v>323</v>
       </c>
       <c r="B324" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C324" s="1" t="s">
         <v>506</v>
-      </c>
-      <c r="C324" s="1" t="s">
-        <v>507</v>
       </c>
       <c r="D324" s="1">
         <v>0</v>
@@ -7726,10 +7726,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D325" s="1">
         <v>2</v>
@@ -7740,10 +7740,10 @@
         <v>325</v>
       </c>
       <c r="B326" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C326" s="2" t="s">
         <v>509</v>
-      </c>
-      <c r="C326" s="2" t="s">
-        <v>510</v>
       </c>
       <c r="D326" s="1">
         <v>1</v>
@@ -7754,10 +7754,10 @@
         <v>326</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D327" s="1">
         <v>1</v>
@@ -7768,10 +7768,10 @@
         <v>327</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D328" s="1"/>
     </row>
@@ -7780,10 +7780,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D329" s="1"/>
     </row>
@@ -7792,10 +7792,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C330" s="2" t="s">
         <v>589</v>
-      </c>
-      <c r="C330" s="2" t="s">
-        <v>590</v>
       </c>
       <c r="D330" s="1"/>
     </row>
@@ -7804,10 +7804,10 @@
         <v>330</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D331" s="1"/>
     </row>
@@ -7816,10 +7816,10 @@
         <v>331</v>
       </c>
       <c r="B332" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="C332" s="2" t="s">
         <v>661</v>
-      </c>
-      <c r="C332" s="2" t="s">
-        <v>662</v>
       </c>
       <c r="D332" s="1"/>
     </row>

--- a/Quiz 3/bin/Debug/net9.0/Quiz3.xlsx
+++ b/Quiz 3/bin/Debug/net9.0/Quiz3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\Quiz 3\Quiz 3\bin\Debug\net9.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EAE2DD-02BF-4C3C-AEC9-147927DAB85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A378AF-8A18-490C-AA90-4DF57B590BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A52166B1-4494-480B-A027-66F199F0B402}"/>
   </bookViews>
@@ -2386,10 +2386,6 @@
 Он использует стандартные HTTP-методы (GET, POST, PUT, DELETE) для работы с ресурсами, которые представлены в формате JSON или XML.</t>
   </si>
   <si>
-    <t>это интерфейс программирования приложений, который следует принципам архитектурного стиля REST.
-Это способ организации веб-сервиса, где всё строится вокруг ресурсов и стандартных HTTP-действий над ними.</t>
-  </si>
-  <si>
     <t>Паттерн предлагает разбивать монолитную систему на микросервисы, ориентируясь на  бизнес-возможности.
  Каждая бизнес-возможность становится отдельным микросервисом.</t>
   </si>
@@ -2774,6 +2770,10 @@
 Много специализированных интерфейсов лучше, чем один универсальный.
 5. D - Dependency Inversion Principle (Принцип инверсии зависимостей)
 Зависимости должны строиться на абстракциях, а не на конкретных реализациях.</t>
+  </si>
+  <si>
+    <t>это программный интерфейс, который следует принципам архитектурного стиля REST.
+Это способ организации веб-сервиса, где всё строится вокруг ресурсов и стандартных HTTP-действий над ними.</t>
   </si>
 </sst>
 </file>
@@ -3175,8 +3175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C34F926-ACF9-49CF-9B6A-0D737BBB828A}">
   <dimension ref="A1:D344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="C113" sqref="C113"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3375,7 +3375,7 @@
         <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -3711,7 +3711,7 @@
         <v>68</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D38" s="1">
         <v>2</v>
@@ -3753,7 +3753,7 @@
         <v>75</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>584</v>
+        <v>665</v>
       </c>
       <c r="D41" s="1">
         <v>2</v>
@@ -3792,7 +3792,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>79</v>
@@ -3907,7 +3907,7 @@
         <v>94</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>99</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
@@ -4047,7 +4047,7 @@
         <v>118</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D62" s="1">
         <v>2</v>
@@ -4075,7 +4075,7 @@
         <v>113</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D64" s="1">
         <v>1</v>
@@ -4159,7 +4159,7 @@
         <v>124</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D70" s="1">
         <v>2</v>
@@ -4313,7 +4313,7 @@
         <v>143</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D81" s="1">
         <v>2</v>
@@ -4341,7 +4341,7 @@
         <v>146</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D83" s="1">
         <v>2</v>
@@ -4411,7 +4411,7 @@
         <v>157</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D88" s="1">
         <v>2</v>
@@ -4481,7 +4481,7 @@
         <v>165</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D93" s="1">
         <v>0</v>
@@ -4551,7 +4551,7 @@
         <v>174</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D98" s="1">
         <v>2</v>
@@ -4565,7 +4565,7 @@
         <v>175</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D99" s="1">
         <v>2</v>
@@ -4761,7 +4761,7 @@
         <v>200</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D113" s="1">
         <v>2</v>
@@ -4775,7 +4775,7 @@
         <v>201</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D114" s="1">
         <v>0</v>
@@ -4803,7 +4803,7 @@
         <v>203</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D116" s="1">
         <v>2</v>
@@ -4817,7 +4817,7 @@
         <v>204</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D117" s="1">
         <v>2</v>
@@ -4831,7 +4831,7 @@
         <v>205</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D118" s="1">
         <v>2</v>
@@ -4887,7 +4887,7 @@
         <v>212</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D122" s="1">
         <v>2</v>
@@ -4943,7 +4943,7 @@
         <v>219</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D126" s="1">
         <v>2</v>
@@ -4985,7 +4985,7 @@
         <v>223</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D129" s="1">
         <v>2</v>
@@ -5125,7 +5125,7 @@
         <v>239</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D139" s="1">
         <v>2</v>
@@ -5153,7 +5153,7 @@
         <v>241</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D141" s="1">
         <v>2</v>
@@ -5181,7 +5181,7 @@
         <v>244</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D143" s="1">
         <v>2</v>
@@ -5307,7 +5307,7 @@
         <v>259</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D152" s="1">
         <v>2</v>
@@ -5349,7 +5349,7 @@
         <v>262</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D155" s="1">
         <v>0</v>
@@ -5363,7 +5363,7 @@
         <v>263</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D156" s="1">
         <v>2</v>
@@ -5461,7 +5461,7 @@
         <v>276</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D163" s="1">
         <v>1</v>
@@ -5489,7 +5489,7 @@
         <v>279</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D165" s="1">
         <v>1</v>
@@ -5503,7 +5503,7 @@
         <v>280</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D166" s="1">
         <v>1</v>
@@ -5657,7 +5657,7 @@
         <v>300</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D177" s="1">
         <v>0</v>
@@ -5699,7 +5699,7 @@
         <v>305</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D180" s="1">
         <v>2</v>
@@ -5811,7 +5811,7 @@
         <v>319</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D188" s="1">
         <v>2</v>
@@ -5867,7 +5867,7 @@
         <v>325</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D192" s="1">
         <v>0</v>
@@ -5979,7 +5979,7 @@
         <v>336</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D200" s="1">
         <v>0</v>
@@ -6007,7 +6007,7 @@
         <v>339</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D202" s="1">
         <v>2</v>
@@ -6021,7 +6021,7 @@
         <v>340</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D203" s="1">
         <v>1</v>
@@ -6119,7 +6119,7 @@
         <v>350</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D210" s="1">
         <v>1</v>
@@ -6130,10 +6130,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D211" s="1">
         <v>0</v>
@@ -6147,7 +6147,7 @@
         <v>351</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D212" s="1">
         <v>1</v>
@@ -6186,7 +6186,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>356</v>
@@ -6245,7 +6245,7 @@
         <v>361</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D219" s="1">
         <v>1</v>
@@ -6259,7 +6259,7 @@
         <v>362</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D220" s="1">
         <v>0</v>
@@ -6301,7 +6301,7 @@
         <v>366</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D223" s="1">
         <v>2</v>
@@ -6315,7 +6315,7 @@
         <v>367</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D224" s="1">
         <v>1</v>
@@ -6329,7 +6329,7 @@
         <v>368</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D225" s="1">
         <v>1</v>
@@ -6357,7 +6357,7 @@
         <v>371</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D227" s="1">
         <v>2</v>
@@ -6427,7 +6427,7 @@
         <v>377</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D232" s="1">
         <v>1</v>
@@ -6469,7 +6469,7 @@
         <v>380</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D235" s="1">
         <v>1</v>
@@ -6497,7 +6497,7 @@
         <v>382</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D237" s="1">
         <v>0</v>
@@ -6511,7 +6511,7 @@
         <v>383</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D238" s="1">
         <v>0</v>
@@ -6567,7 +6567,7 @@
         <v>389</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D242" s="1">
         <v>2</v>
@@ -6637,7 +6637,7 @@
         <v>396</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D247" s="1">
         <v>1</v>
@@ -6693,7 +6693,7 @@
         <v>403</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D251" s="1">
         <v>1</v>
@@ -6721,7 +6721,7 @@
         <v>405</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D253" s="1">
         <v>1</v>
@@ -6735,7 +6735,7 @@
         <v>406</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D254" s="1">
         <v>1</v>
@@ -6791,7 +6791,7 @@
         <v>412</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D258" s="1">
         <v>1</v>
@@ -6903,7 +6903,7 @@
         <v>426</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D266" s="1">
         <v>1</v>
@@ -7015,7 +7015,7 @@
         <v>436</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D274" s="1">
         <v>0</v>
@@ -7183,7 +7183,7 @@
         <v>455</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D286" s="1">
         <v>0</v>
@@ -7197,7 +7197,7 @@
         <v>456</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D287" s="1">
         <v>0</v>
@@ -7239,7 +7239,7 @@
         <v>460</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D290" s="1">
         <v>0</v>
@@ -7267,7 +7267,7 @@
         <v>463</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D292" s="1">
         <v>0</v>
@@ -7351,7 +7351,7 @@
         <v>471</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D298" s="1">
         <v>0</v>
@@ -7393,7 +7393,7 @@
         <v>474</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D301" s="1">
         <v>0</v>
@@ -7421,7 +7421,7 @@
         <v>476</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D303" s="1">
         <v>0</v>
@@ -7435,7 +7435,7 @@
         <v>477</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D304" s="1">
         <v>0</v>
@@ -7505,7 +7505,7 @@
         <v>485</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D309" s="1">
         <v>2</v>
@@ -7533,7 +7533,7 @@
         <v>488</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D311" s="1">
         <v>1</v>
@@ -7561,7 +7561,7 @@
         <v>491</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D313" s="1">
         <v>1</v>
@@ -7589,7 +7589,7 @@
         <v>493</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D315" s="1">
         <v>0</v>
@@ -7757,7 +7757,7 @@
         <v>510</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D327" s="1">
         <v>1</v>
@@ -7783,7 +7783,7 @@
         <v>582</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D329" s="1"/>
     </row>
@@ -7792,10 +7792,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C330" s="2" t="s">
         <v>588</v>
-      </c>
-      <c r="C330" s="2" t="s">
-        <v>589</v>
       </c>
       <c r="D330" s="1"/>
     </row>
@@ -7804,10 +7804,10 @@
         <v>330</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D331" s="1"/>
     </row>
@@ -7816,10 +7816,10 @@
         <v>331</v>
       </c>
       <c r="B332" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="C332" s="2" t="s">
         <v>660</v>
-      </c>
-      <c r="C332" s="2" t="s">
-        <v>661</v>
       </c>
       <c r="D332" s="1"/>
     </row>

--- a/Quiz 3/bin/Debug/net9.0/Quiz3.xlsx
+++ b/Quiz 3/bin/Debug/net9.0/Quiz3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\Quiz 3\Quiz 3\bin\Debug\net9.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A378AF-8A18-490C-AA90-4DF57B590BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B09B88-F0D8-4315-BD18-F04D5ABE2F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A52166B1-4494-480B-A027-66F199F0B402}"/>
   </bookViews>
@@ -2576,12 +2576,6 @@
     <t>Тонкая сага содержит только логику оркестрации процесса: переходы между состояниями, корреляцию сообщений и планирование компенсирующих действий. Вся бизнес-логика и вызовы к другим сервисам выносятся наружу, в отдельные обработчики.</t>
   </si>
   <si>
-    <t>1. Единообразие интерфейса: Стандартное использование HTTP-методов (GET, POST, PUT, DELETE) .
-2. Отсутствие состояния: Сервер не хранит состояние клиента между запросами. Каждый запрос самодостаточен.
-3.Кэшируемость: Ответы должны помечаться как кэшируемые или нет, чтобы повысить производительность.
-4.Слоистая архитектура: Клиент не знает, общается он напрямую с сервером или через прокси.</t>
-  </si>
-  <si>
     <t>(Remote Procedure Call)  RPC — это концепция, в рамках которой программа на одном сервере 
 может вызвать функцию на другом сервере .</t>
   </si>
@@ -2774,6 +2768,12 @@
   <si>
     <t>это программный интерфейс, который следует принципам архитектурного стиля REST.
 Это способ организации веб-сервиса, где всё строится вокруг ресурсов и стандартных HTTP-действий над ними.</t>
+  </si>
+  <si>
+    <t>1.  Стандартное использование HTTP-методов (GET, POST, PUT, DELETE) .
+2.  Сервер не хранит состояние клиента между запросами. Каждый запрос самодостаточен.
+3. Ответы должны помечаться как кэшируемые или нет, чтобы повысить производительность.
+4. Клиент не знает, общается он напрямую с сервером или через прокси.</t>
   </si>
 </sst>
 </file>
@@ -3175,8 +3175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C34F926-ACF9-49CF-9B6A-0D737BBB828A}">
   <dimension ref="A1:D344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C309" sqref="C309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3375,7 +3375,7 @@
         <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -3753,7 +3753,7 @@
         <v>75</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D41" s="1">
         <v>2</v>
@@ -3792,7 +3792,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>79</v>
@@ -4075,7 +4075,7 @@
         <v>113</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D64" s="1">
         <v>1</v>
@@ -4159,7 +4159,7 @@
         <v>124</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D70" s="1">
         <v>2</v>
@@ -4341,7 +4341,7 @@
         <v>146</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D83" s="1">
         <v>2</v>
@@ -4411,7 +4411,7 @@
         <v>157</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D88" s="1">
         <v>2</v>
@@ -4481,7 +4481,7 @@
         <v>165</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D93" s="1">
         <v>0</v>
@@ -4565,7 +4565,7 @@
         <v>175</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D99" s="1">
         <v>2</v>
@@ -4761,7 +4761,7 @@
         <v>200</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D113" s="1">
         <v>2</v>
@@ -4817,7 +4817,7 @@
         <v>204</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D117" s="1">
         <v>2</v>
@@ -4887,7 +4887,7 @@
         <v>212</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D122" s="1">
         <v>2</v>
@@ -4985,7 +4985,7 @@
         <v>223</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D129" s="1">
         <v>2</v>
@@ -5125,7 +5125,7 @@
         <v>239</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D139" s="1">
         <v>2</v>
@@ -5181,7 +5181,7 @@
         <v>244</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D143" s="1">
         <v>2</v>
@@ -5307,7 +5307,7 @@
         <v>259</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D152" s="1">
         <v>2</v>
@@ -5461,7 +5461,7 @@
         <v>276</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D163" s="1">
         <v>1</v>
@@ -5489,7 +5489,7 @@
         <v>279</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D165" s="1">
         <v>1</v>
@@ -5503,7 +5503,7 @@
         <v>280</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D166" s="1">
         <v>1</v>
@@ -5657,7 +5657,7 @@
         <v>300</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D177" s="1">
         <v>0</v>
@@ -5811,7 +5811,7 @@
         <v>319</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D188" s="1">
         <v>2</v>
@@ -5979,7 +5979,7 @@
         <v>336</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D200" s="1">
         <v>0</v>
@@ -6007,7 +6007,7 @@
         <v>339</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D202" s="1">
         <v>2</v>
@@ -6119,7 +6119,7 @@
         <v>350</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D210" s="1">
         <v>1</v>
@@ -6130,10 +6130,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D211" s="1">
         <v>0</v>
@@ -6147,7 +6147,7 @@
         <v>351</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D212" s="1">
         <v>1</v>
@@ -6301,7 +6301,7 @@
         <v>366</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D223" s="1">
         <v>2</v>
@@ -6427,7 +6427,7 @@
         <v>377</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D232" s="1">
         <v>1</v>
@@ -6469,7 +6469,7 @@
         <v>380</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D235" s="1">
         <v>1</v>
@@ -6497,7 +6497,7 @@
         <v>382</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D237" s="1">
         <v>0</v>
@@ -6637,7 +6637,7 @@
         <v>396</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D247" s="1">
         <v>1</v>
@@ -6903,7 +6903,7 @@
         <v>426</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D266" s="1">
         <v>1</v>
@@ -7015,7 +7015,7 @@
         <v>436</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D274" s="1">
         <v>0</v>
@@ -7239,7 +7239,7 @@
         <v>460</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D290" s="1">
         <v>0</v>
@@ -7393,7 +7393,7 @@
         <v>474</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D301" s="1">
         <v>0</v>
@@ -7421,7 +7421,7 @@
         <v>476</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D303" s="1">
         <v>0</v>
@@ -7505,7 +7505,7 @@
         <v>485</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>622</v>
+        <v>665</v>
       </c>
       <c r="D309" s="1">
         <v>2</v>
@@ -7533,7 +7533,7 @@
         <v>488</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D311" s="1">
         <v>1</v>
@@ -7561,7 +7561,7 @@
         <v>491</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D313" s="1">
         <v>1</v>
@@ -7757,7 +7757,7 @@
         <v>510</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D327" s="1">
         <v>1</v>
@@ -7783,7 +7783,7 @@
         <v>582</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D329" s="1"/>
     </row>
@@ -7816,10 +7816,10 @@
         <v>331</v>
       </c>
       <c r="B332" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C332" s="2" t="s">
         <v>659</v>
-      </c>
-      <c r="C332" s="2" t="s">
-        <v>660</v>
       </c>
       <c r="D332" s="1"/>
     </row>

--- a/Quiz 3/bin/Debug/net9.0/Quiz3.xlsx
+++ b/Quiz 3/bin/Debug/net9.0/Quiz3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\Quiz 3\Quiz 3\bin\Debug\net9.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B09B88-F0D8-4315-BD18-F04D5ABE2F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB9CA86-32ED-4B1B-8094-5983C8B76D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A52166B1-4494-480B-A027-66F199F0B402}"/>
   </bookViews>
@@ -1758,11 +1758,6 @@
     <t>Какие недостатки у пессимистической блокировки?</t>
   </si>
   <si>
-    <t>1. Снижение производительности — блокировки создают очереди из ожидающих потоков
-2. Риск взаимоблокировок (deadlocks) — особенно при одновременном обновлении связанных данных
-3. Сложность масштабирования — тяжело распределять блокировки в кластере</t>
-  </si>
-  <si>
     <t>Что остаётся внутри тонкой Саги, а что выносится?</t>
   </si>
   <si>
@@ -2774,6 +2769,11 @@
 2.  Сервер не хранит состояние клиента между запросами. Каждый запрос самодостаточен.
 3. Ответы должны помечаться как кэшируемые или нет, чтобы повысить производительность.
 4. Клиент не знает, общается он напрямую с сервером или через прокси.</t>
+  </si>
+  <si>
+    <t>1.  Блокировки создают очереди из ожидающих потоков
+2. Риск взаимоблокировок (deadlocks) 
+3. Сложность масштабирования — тяжело распределять блокировки в кластере</t>
   </si>
 </sst>
 </file>
@@ -3175,8 +3175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C34F926-ACF9-49CF-9B6A-0D737BBB828A}">
   <dimension ref="A1:D344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C309" sqref="C309"/>
+    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
+      <selection activeCell="C285" sqref="C285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3375,7 +3375,7 @@
         <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -3459,7 +3459,7 @@
         <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
@@ -3585,7 +3585,7 @@
         <v>51</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
@@ -3711,7 +3711,7 @@
         <v>68</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D38" s="1">
         <v>2</v>
@@ -3753,7 +3753,7 @@
         <v>75</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D41" s="1">
         <v>2</v>
@@ -3767,7 +3767,7 @@
         <v>76</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D42" s="1">
         <v>2</v>
@@ -3792,7 +3792,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>79</v>
@@ -3907,7 +3907,7 @@
         <v>94</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>99</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
@@ -4047,7 +4047,7 @@
         <v>118</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D62" s="1">
         <v>2</v>
@@ -4075,7 +4075,7 @@
         <v>113</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D64" s="1">
         <v>1</v>
@@ -4159,7 +4159,7 @@
         <v>124</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D70" s="1">
         <v>2</v>
@@ -4271,7 +4271,7 @@
         <v>139</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D78" s="1">
         <v>2</v>
@@ -4313,7 +4313,7 @@
         <v>143</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D81" s="1">
         <v>2</v>
@@ -4341,7 +4341,7 @@
         <v>146</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D83" s="1">
         <v>2</v>
@@ -4411,7 +4411,7 @@
         <v>157</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D88" s="1">
         <v>2</v>
@@ -4425,7 +4425,7 @@
         <v>158</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D89" s="1">
         <v>2</v>
@@ -4481,7 +4481,7 @@
         <v>165</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D93" s="1">
         <v>0</v>
@@ -4495,7 +4495,7 @@
         <v>169</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D94" s="1">
         <v>2</v>
@@ -4509,7 +4509,7 @@
         <v>170</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D95" s="1">
         <v>2</v>
@@ -4551,7 +4551,7 @@
         <v>174</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D98" s="1">
         <v>2</v>
@@ -4565,7 +4565,7 @@
         <v>175</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D99" s="1">
         <v>2</v>
@@ -4579,7 +4579,7 @@
         <v>177</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D100" s="1">
         <v>0</v>
@@ -4621,7 +4621,7 @@
         <v>182</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D103" s="1">
         <v>0</v>
@@ -4649,7 +4649,7 @@
         <v>185</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D105" s="1">
         <v>2</v>
@@ -4761,7 +4761,7 @@
         <v>200</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D113" s="1">
         <v>2</v>
@@ -4775,7 +4775,7 @@
         <v>201</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D114" s="1">
         <v>0</v>
@@ -4789,7 +4789,7 @@
         <v>202</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D115" s="1">
         <v>2</v>
@@ -4803,7 +4803,7 @@
         <v>203</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D116" s="1">
         <v>2</v>
@@ -4817,7 +4817,7 @@
         <v>204</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D117" s="1">
         <v>2</v>
@@ -4831,7 +4831,7 @@
         <v>205</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D118" s="1">
         <v>2</v>
@@ -4887,7 +4887,7 @@
         <v>212</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D122" s="1">
         <v>2</v>
@@ -4943,7 +4943,7 @@
         <v>219</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D126" s="1">
         <v>2</v>
@@ -4971,7 +4971,7 @@
         <v>222</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D128" s="1">
         <v>2</v>
@@ -4985,7 +4985,7 @@
         <v>223</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D129" s="1">
         <v>2</v>
@@ -5027,7 +5027,7 @@
         <v>228</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D132" s="1">
         <v>2</v>
@@ -5041,7 +5041,7 @@
         <v>229</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D133" s="1">
         <v>2</v>
@@ -5111,7 +5111,7 @@
         <v>238</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D138" s="1">
         <v>2</v>
@@ -5125,7 +5125,7 @@
         <v>239</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D139" s="1">
         <v>2</v>
@@ -5139,7 +5139,7 @@
         <v>240</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D140" s="1">
         <v>2</v>
@@ -5153,7 +5153,7 @@
         <v>241</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D141" s="1">
         <v>2</v>
@@ -5167,7 +5167,7 @@
         <v>242</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D142" s="1">
         <v>2</v>
@@ -5181,7 +5181,7 @@
         <v>244</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D143" s="1">
         <v>2</v>
@@ -5237,7 +5237,7 @@
         <v>251</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D147" s="1">
         <v>1</v>
@@ -5265,7 +5265,7 @@
         <v>254</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D149" s="1">
         <v>2</v>
@@ -5307,7 +5307,7 @@
         <v>259</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D152" s="1">
         <v>2</v>
@@ -5321,7 +5321,7 @@
         <v>260</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D153" s="1">
         <v>0</v>
@@ -5335,7 +5335,7 @@
         <v>261</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D154" s="1">
         <v>0</v>
@@ -5349,7 +5349,7 @@
         <v>262</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D155" s="1">
         <v>0</v>
@@ -5363,7 +5363,7 @@
         <v>263</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D156" s="1">
         <v>2</v>
@@ -5461,7 +5461,7 @@
         <v>276</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D163" s="1">
         <v>1</v>
@@ -5489,7 +5489,7 @@
         <v>279</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D165" s="1">
         <v>1</v>
@@ -5503,7 +5503,7 @@
         <v>280</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D166" s="1">
         <v>1</v>
@@ -5531,7 +5531,7 @@
         <v>283</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D168" s="1">
         <v>0</v>
@@ -5657,7 +5657,7 @@
         <v>300</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D177" s="1">
         <v>0</v>
@@ -5699,7 +5699,7 @@
         <v>305</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D180" s="1">
         <v>2</v>
@@ -5713,7 +5713,7 @@
         <v>306</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D181" s="1">
         <v>2</v>
@@ -5811,7 +5811,7 @@
         <v>319</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D188" s="1">
         <v>2</v>
@@ -5853,7 +5853,7 @@
         <v>324</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D191" s="1">
         <v>1</v>
@@ -5867,7 +5867,7 @@
         <v>325</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D192" s="1">
         <v>0</v>
@@ -5895,7 +5895,7 @@
         <v>328</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D194" s="1">
         <v>1</v>
@@ -5909,7 +5909,7 @@
         <v>329</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D195" s="1">
         <v>1</v>
@@ -5923,7 +5923,7 @@
         <v>330</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D196" s="1">
         <v>2</v>
@@ -5965,7 +5965,7 @@
         <v>335</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D199" s="1">
         <v>1</v>
@@ -5979,7 +5979,7 @@
         <v>336</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D200" s="1">
         <v>0</v>
@@ -6007,7 +6007,7 @@
         <v>339</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D202" s="1">
         <v>2</v>
@@ -6021,7 +6021,7 @@
         <v>340</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D203" s="1">
         <v>1</v>
@@ -6035,7 +6035,7 @@
         <v>341</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D204" s="1">
         <v>2</v>
@@ -6049,7 +6049,7 @@
         <v>342</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D205" s="1">
         <v>1</v>
@@ -6105,7 +6105,7 @@
         <v>349</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D209" s="1">
         <v>1</v>
@@ -6119,7 +6119,7 @@
         <v>350</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D210" s="1">
         <v>1</v>
@@ -6130,10 +6130,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D211" s="1">
         <v>0</v>
@@ -6147,7 +6147,7 @@
         <v>351</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D212" s="1">
         <v>1</v>
@@ -6186,7 +6186,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>356</v>
@@ -6203,7 +6203,7 @@
         <v>357</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D216" s="1">
         <v>1</v>
@@ -6217,7 +6217,7 @@
         <v>358</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D217" s="1">
         <v>1</v>
@@ -6245,7 +6245,7 @@
         <v>361</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D219" s="1">
         <v>1</v>
@@ -6259,7 +6259,7 @@
         <v>362</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D220" s="1">
         <v>0</v>
@@ -6287,7 +6287,7 @@
         <v>365</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D222" s="1">
         <v>1</v>
@@ -6301,7 +6301,7 @@
         <v>366</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D223" s="1">
         <v>2</v>
@@ -6315,7 +6315,7 @@
         <v>367</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D224" s="1">
         <v>1</v>
@@ -6329,7 +6329,7 @@
         <v>368</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D225" s="1">
         <v>1</v>
@@ -6357,7 +6357,7 @@
         <v>371</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D227" s="1">
         <v>2</v>
@@ -6371,7 +6371,7 @@
         <v>372</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D228" s="1">
         <v>2</v>
@@ -6385,7 +6385,7 @@
         <v>373</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D229" s="1">
         <v>2</v>
@@ -6399,7 +6399,7 @@
         <v>374</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D230" s="1">
         <v>0</v>
@@ -6427,7 +6427,7 @@
         <v>377</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D232" s="1">
         <v>1</v>
@@ -6441,7 +6441,7 @@
         <v>378</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D233" s="1">
         <v>1</v>
@@ -6455,7 +6455,7 @@
         <v>379</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D234" s="1">
         <v>1</v>
@@ -6469,7 +6469,7 @@
         <v>380</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D235" s="1">
         <v>1</v>
@@ -6483,7 +6483,7 @@
         <v>381</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D236" s="1">
         <v>1</v>
@@ -6497,7 +6497,7 @@
         <v>382</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D237" s="1">
         <v>0</v>
@@ -6511,7 +6511,7 @@
         <v>383</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D238" s="1">
         <v>0</v>
@@ -6539,7 +6539,7 @@
         <v>386</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D240" s="1">
         <v>2</v>
@@ -6567,7 +6567,7 @@
         <v>389</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D242" s="1">
         <v>2</v>
@@ -6581,7 +6581,7 @@
         <v>390</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D243" s="1">
         <v>1</v>
@@ -6609,7 +6609,7 @@
         <v>393</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D245" s="1">
         <v>0</v>
@@ -6637,7 +6637,7 @@
         <v>396</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D247" s="1">
         <v>1</v>
@@ -6693,7 +6693,7 @@
         <v>403</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D251" s="1">
         <v>1</v>
@@ -6707,7 +6707,7 @@
         <v>404</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D252" s="1">
         <v>1</v>
@@ -6721,7 +6721,7 @@
         <v>405</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D253" s="1">
         <v>1</v>
@@ -6735,7 +6735,7 @@
         <v>406</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D254" s="1">
         <v>1</v>
@@ -6749,7 +6749,7 @@
         <v>407</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D255" s="1">
         <v>2</v>
@@ -6791,7 +6791,7 @@
         <v>412</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D258" s="1">
         <v>1</v>
@@ -6833,7 +6833,7 @@
         <v>417</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D261" s="1">
         <v>1</v>
@@ -6903,7 +6903,7 @@
         <v>426</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D266" s="1">
         <v>1</v>
@@ -6931,7 +6931,7 @@
         <v>429</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D268" s="1">
         <v>2</v>
@@ -6945,7 +6945,7 @@
         <v>430</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D269" s="1">
         <v>0</v>
@@ -6973,7 +6973,7 @@
         <v>433</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D271" s="1">
         <v>0</v>
@@ -6987,7 +6987,7 @@
         <v>434</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D272" s="1">
         <v>0</v>
@@ -7001,7 +7001,7 @@
         <v>435</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D273" s="1">
         <v>0</v>
@@ -7015,7 +7015,7 @@
         <v>436</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D274" s="1">
         <v>0</v>
@@ -7029,7 +7029,7 @@
         <v>437</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D275" s="1">
         <v>0</v>
@@ -7085,7 +7085,7 @@
         <v>444</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D279" s="1">
         <v>0</v>
@@ -7099,7 +7099,7 @@
         <v>445</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D280" s="1">
         <v>0</v>
@@ -7155,7 +7155,7 @@
         <v>452</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D284" s="1">
         <v>0</v>
@@ -7169,7 +7169,7 @@
         <v>453</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>454</v>
+        <v>665</v>
       </c>
       <c r="D285" s="1">
         <v>0</v>
@@ -7180,10 +7180,10 @@
         <v>285</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D286" s="1">
         <v>0</v>
@@ -7194,10 +7194,10 @@
         <v>286</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D287" s="1">
         <v>0</v>
@@ -7208,10 +7208,10 @@
         <v>287</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D288" s="1">
         <v>1</v>
@@ -7222,10 +7222,10 @@
         <v>288</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D289" s="1">
         <v>0</v>
@@ -7236,10 +7236,10 @@
         <v>289</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D290" s="1">
         <v>0</v>
@@ -7250,10 +7250,10 @@
         <v>290</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D291" s="1">
         <v>0</v>
@@ -7264,10 +7264,10 @@
         <v>291</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D292" s="1">
         <v>0</v>
@@ -7278,10 +7278,10 @@
         <v>292</v>
       </c>
       <c r="B293" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C293" s="1" t="s">
         <v>464</v>
-      </c>
-      <c r="C293" s="1" t="s">
-        <v>465</v>
       </c>
       <c r="D293" s="1">
         <v>0</v>
@@ -7292,10 +7292,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D294" s="1">
         <v>0</v>
@@ -7306,10 +7306,10 @@
         <v>294</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D295" s="1">
         <v>0</v>
@@ -7320,10 +7320,10 @@
         <v>295</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D296" s="1">
         <v>0</v>
@@ -7334,10 +7334,10 @@
         <v>296</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D297" s="1">
         <v>0</v>
@@ -7348,10 +7348,10 @@
         <v>297</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D298" s="1">
         <v>0</v>
@@ -7362,10 +7362,10 @@
         <v>298</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D299" s="1">
         <v>0</v>
@@ -7376,10 +7376,10 @@
         <v>299</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D300" s="1">
         <v>0</v>
@@ -7390,10 +7390,10 @@
         <v>300</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D301" s="1">
         <v>0</v>
@@ -7404,10 +7404,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D302" s="1">
         <v>0</v>
@@ -7418,10 +7418,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D303" s="1">
         <v>0</v>
@@ -7432,10 +7432,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D304" s="1">
         <v>0</v>
@@ -7446,10 +7446,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D305" s="1">
         <v>0</v>
@@ -7460,10 +7460,10 @@
         <v>305</v>
       </c>
       <c r="B306" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C306" s="2" t="s">
         <v>479</v>
-      </c>
-      <c r="C306" s="2" t="s">
-        <v>480</v>
       </c>
       <c r="D306" s="1">
         <v>2</v>
@@ -7474,10 +7474,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C307" s="2" t="s">
         <v>481</v>
-      </c>
-      <c r="C307" s="2" t="s">
-        <v>482</v>
       </c>
       <c r="D307" s="1">
         <v>0</v>
@@ -7488,10 +7488,10 @@
         <v>307</v>
       </c>
       <c r="B308" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C308" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="C308" s="2" t="s">
-        <v>484</v>
       </c>
       <c r="D308" s="1">
         <v>1</v>
@@ -7502,10 +7502,10 @@
         <v>308</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D309" s="1">
         <v>2</v>
@@ -7516,10 +7516,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C310" s="1" t="s">
         <v>486</v>
-      </c>
-      <c r="C310" s="1" t="s">
-        <v>487</v>
       </c>
       <c r="D310" s="1">
         <v>1</v>
@@ -7530,10 +7530,10 @@
         <v>310</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D311" s="1">
         <v>1</v>
@@ -7544,10 +7544,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D312" s="1">
         <v>1</v>
@@ -7558,10 +7558,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D313" s="1">
         <v>1</v>
@@ -7572,10 +7572,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D314" s="1">
         <v>1</v>
@@ -7586,10 +7586,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D315" s="1">
         <v>0</v>
@@ -7600,10 +7600,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D316" s="1">
         <v>2</v>
@@ -7614,10 +7614,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D317" s="1">
         <v>1</v>
@@ -7628,10 +7628,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D318" s="1">
         <v>0</v>
@@ -7642,10 +7642,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D319" s="1">
         <v>1</v>
@@ -7656,10 +7656,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C320" s="1" t="s">
         <v>499</v>
-      </c>
-      <c r="C320" s="1" t="s">
-        <v>500</v>
       </c>
       <c r="D320" s="1">
         <v>0</v>
@@ -7670,10 +7670,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D321" s="1">
         <v>0</v>
@@ -7684,10 +7684,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D322" s="1">
         <v>0</v>
@@ -7698,10 +7698,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D323" s="1">
         <v>0</v>
@@ -7712,10 +7712,10 @@
         <v>323</v>
       </c>
       <c r="B324" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C324" s="1" t="s">
         <v>505</v>
-      </c>
-      <c r="C324" s="1" t="s">
-        <v>506</v>
       </c>
       <c r="D324" s="1">
         <v>0</v>
@@ -7726,10 +7726,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D325" s="1">
         <v>2</v>
@@ -7740,10 +7740,10 @@
         <v>325</v>
       </c>
       <c r="B326" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C326" s="2" t="s">
         <v>508</v>
-      </c>
-      <c r="C326" s="2" t="s">
-        <v>509</v>
       </c>
       <c r="D326" s="1">
         <v>1</v>
@@ -7754,10 +7754,10 @@
         <v>326</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D327" s="1">
         <v>1</v>
@@ -7768,10 +7768,10 @@
         <v>327</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D328" s="1"/>
     </row>
@@ -7780,10 +7780,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D329" s="1"/>
     </row>
@@ -7792,10 +7792,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C330" s="2" t="s">
         <v>587</v>
-      </c>
-      <c r="C330" s="2" t="s">
-        <v>588</v>
       </c>
       <c r="D330" s="1"/>
     </row>
@@ -7804,10 +7804,10 @@
         <v>330</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D331" s="1"/>
     </row>
@@ -7816,10 +7816,10 @@
         <v>331</v>
       </c>
       <c r="B332" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="C332" s="2" t="s">
         <v>658</v>
-      </c>
-      <c r="C332" s="2" t="s">
-        <v>659</v>
       </c>
       <c r="D332" s="1"/>
     </row>

--- a/Quiz 3/bin/Debug/net9.0/Quiz3.xlsx
+++ b/Quiz 3/bin/Debug/net9.0/Quiz3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\Quiz 3\Quiz 3\bin\Debug\net9.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB9CA86-32ED-4B1B-8094-5983C8B76D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E15A5E0-7879-498A-9FE1-694ADF782E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A52166B1-4494-480B-A027-66F199F0B402}"/>
   </bookViews>
@@ -2336,11 +2336,6 @@
 5. Старый код игнорирует неизвестные поля - это ключевое поведение</t>
   </si>
   <si>
-    <t>FluentValidation, 
-ручная валидация,
-Schema-first подходы - это методология, при которой схема данных (контракт) определяется до написания кода реализации:  JSON Schema .proto файлы</t>
-  </si>
-  <si>
     <t>это условие или бизнес-правило, которое должно всегда соблюдаться на протяжении всего времени жизни объекта или агрегата.</t>
   </si>
   <si>
@@ -2774,6 +2769,10 @@
     <t>1.  Блокировки создают очереди из ожидающих потоков
 2. Риск взаимоблокировок (deadlocks) 
 3. Сложность масштабирования — тяжело распределять блокировки в кластере</t>
+  </si>
+  <si>
+    <t>1. Явное описание в конфигурации Swagger - через MapType&lt;T&gt;() или SchemaFilter, где вручную прописываются все свойства схемы.
+2. Schema-first подход - когда сначала пишется OpenAPI-спецификация в YAML/JSON, а затем из неё генерируются DTO-классы.</t>
   </si>
 </sst>
 </file>
@@ -3175,8 +3174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C34F926-ACF9-49CF-9B6A-0D737BBB828A}">
   <dimension ref="A1:D344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
-      <selection activeCell="C285" sqref="C285"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="C168" sqref="C168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3375,7 +3374,7 @@
         <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -3711,7 +3710,7 @@
         <v>68</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D38" s="1">
         <v>2</v>
@@ -3753,7 +3752,7 @@
         <v>75</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D41" s="1">
         <v>2</v>
@@ -3767,7 +3766,7 @@
         <v>76</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D42" s="1">
         <v>2</v>
@@ -3792,7 +3791,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>79</v>
@@ -3907,7 +3906,7 @@
         <v>94</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
@@ -3949,7 +3948,7 @@
         <v>99</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
@@ -4047,7 +4046,7 @@
         <v>118</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D62" s="1">
         <v>2</v>
@@ -4075,7 +4074,7 @@
         <v>113</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D64" s="1">
         <v>1</v>
@@ -4159,7 +4158,7 @@
         <v>124</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D70" s="1">
         <v>2</v>
@@ -4313,7 +4312,7 @@
         <v>143</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D81" s="1">
         <v>2</v>
@@ -4341,7 +4340,7 @@
         <v>146</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D83" s="1">
         <v>2</v>
@@ -4411,7 +4410,7 @@
         <v>157</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D88" s="1">
         <v>2</v>
@@ -4481,7 +4480,7 @@
         <v>165</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D93" s="1">
         <v>0</v>
@@ -4551,7 +4550,7 @@
         <v>174</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D98" s="1">
         <v>2</v>
@@ -4565,7 +4564,7 @@
         <v>175</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D99" s="1">
         <v>2</v>
@@ -4761,7 +4760,7 @@
         <v>200</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D113" s="1">
         <v>2</v>
@@ -4775,7 +4774,7 @@
         <v>201</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D114" s="1">
         <v>0</v>
@@ -4803,7 +4802,7 @@
         <v>203</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D116" s="1">
         <v>2</v>
@@ -4817,7 +4816,7 @@
         <v>204</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D117" s="1">
         <v>2</v>
@@ -4831,7 +4830,7 @@
         <v>205</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D118" s="1">
         <v>2</v>
@@ -4887,7 +4886,7 @@
         <v>212</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D122" s="1">
         <v>2</v>
@@ -4943,7 +4942,7 @@
         <v>219</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D126" s="1">
         <v>2</v>
@@ -4985,7 +4984,7 @@
         <v>223</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D129" s="1">
         <v>2</v>
@@ -5125,7 +5124,7 @@
         <v>239</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D139" s="1">
         <v>2</v>
@@ -5153,7 +5152,7 @@
         <v>241</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D141" s="1">
         <v>2</v>
@@ -5167,7 +5166,7 @@
         <v>242</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D142" s="1">
         <v>2</v>
@@ -5181,7 +5180,7 @@
         <v>244</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D143" s="1">
         <v>2</v>
@@ -5307,7 +5306,7 @@
         <v>259</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D152" s="1">
         <v>2</v>
@@ -5349,7 +5348,7 @@
         <v>262</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D155" s="1">
         <v>0</v>
@@ -5363,7 +5362,7 @@
         <v>263</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D156" s="1">
         <v>2</v>
@@ -5461,7 +5460,7 @@
         <v>276</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D163" s="1">
         <v>1</v>
@@ -5489,7 +5488,7 @@
         <v>279</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D165" s="1">
         <v>1</v>
@@ -5503,7 +5502,7 @@
         <v>280</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D166" s="1">
         <v>1</v>
@@ -5523,7 +5522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -5531,7 +5530,7 @@
         <v>283</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>574</v>
+        <v>665</v>
       </c>
       <c r="D168" s="1">
         <v>0</v>
@@ -5657,7 +5656,7 @@
         <v>300</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D177" s="1">
         <v>0</v>
@@ -5699,7 +5698,7 @@
         <v>305</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D180" s="1">
         <v>2</v>
@@ -5811,7 +5810,7 @@
         <v>319</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D188" s="1">
         <v>2</v>
@@ -5853,7 +5852,7 @@
         <v>324</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D191" s="1">
         <v>1</v>
@@ -5867,7 +5866,7 @@
         <v>325</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D192" s="1">
         <v>0</v>
@@ -5979,7 +5978,7 @@
         <v>336</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D200" s="1">
         <v>0</v>
@@ -6007,7 +6006,7 @@
         <v>339</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D202" s="1">
         <v>2</v>
@@ -6021,7 +6020,7 @@
         <v>340</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D203" s="1">
         <v>1</v>
@@ -6119,7 +6118,7 @@
         <v>350</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D210" s="1">
         <v>1</v>
@@ -6130,10 +6129,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D211" s="1">
         <v>0</v>
@@ -6147,7 +6146,7 @@
         <v>351</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D212" s="1">
         <v>1</v>
@@ -6186,7 +6185,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>356</v>
@@ -6245,7 +6244,7 @@
         <v>361</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D219" s="1">
         <v>1</v>
@@ -6259,7 +6258,7 @@
         <v>362</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D220" s="1">
         <v>0</v>
@@ -6301,7 +6300,7 @@
         <v>366</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D223" s="1">
         <v>2</v>
@@ -6315,7 +6314,7 @@
         <v>367</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D224" s="1">
         <v>1</v>
@@ -6329,7 +6328,7 @@
         <v>368</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D225" s="1">
         <v>1</v>
@@ -6357,7 +6356,7 @@
         <v>371</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D227" s="1">
         <v>2</v>
@@ -6427,7 +6426,7 @@
         <v>377</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D232" s="1">
         <v>1</v>
@@ -6469,7 +6468,7 @@
         <v>380</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D235" s="1">
         <v>1</v>
@@ -6497,7 +6496,7 @@
         <v>382</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D237" s="1">
         <v>0</v>
@@ -6511,7 +6510,7 @@
         <v>383</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D238" s="1">
         <v>0</v>
@@ -6567,7 +6566,7 @@
         <v>389</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D242" s="1">
         <v>2</v>
@@ -6637,7 +6636,7 @@
         <v>396</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D247" s="1">
         <v>1</v>
@@ -6693,7 +6692,7 @@
         <v>403</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D251" s="1">
         <v>1</v>
@@ -6721,7 +6720,7 @@
         <v>405</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D253" s="1">
         <v>1</v>
@@ -6735,7 +6734,7 @@
         <v>406</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D254" s="1">
         <v>1</v>
@@ -6791,7 +6790,7 @@
         <v>412</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D258" s="1">
         <v>1</v>
@@ -6903,7 +6902,7 @@
         <v>426</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D266" s="1">
         <v>1</v>
@@ -6931,7 +6930,7 @@
         <v>429</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D268" s="1">
         <v>2</v>
@@ -6945,7 +6944,7 @@
         <v>430</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D269" s="1">
         <v>0</v>
@@ -7015,7 +7014,7 @@
         <v>436</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D274" s="1">
         <v>0</v>
@@ -7085,7 +7084,7 @@
         <v>444</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D279" s="1">
         <v>0</v>
@@ -7169,7 +7168,7 @@
         <v>453</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D285" s="1">
         <v>0</v>
@@ -7183,7 +7182,7 @@
         <v>454</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D286" s="1">
         <v>0</v>
@@ -7197,7 +7196,7 @@
         <v>455</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D287" s="1">
         <v>0</v>
@@ -7239,7 +7238,7 @@
         <v>459</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D290" s="1">
         <v>0</v>
@@ -7267,7 +7266,7 @@
         <v>462</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D292" s="1">
         <v>0</v>
@@ -7351,7 +7350,7 @@
         <v>470</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D298" s="1">
         <v>0</v>
@@ -7365,7 +7364,7 @@
         <v>471</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D299" s="1">
         <v>0</v>
@@ -7393,7 +7392,7 @@
         <v>473</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D301" s="1">
         <v>0</v>
@@ -7421,7 +7420,7 @@
         <v>475</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D303" s="1">
         <v>0</v>
@@ -7435,7 +7434,7 @@
         <v>476</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D304" s="1">
         <v>0</v>
@@ -7505,7 +7504,7 @@
         <v>484</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D309" s="1">
         <v>2</v>
@@ -7533,7 +7532,7 @@
         <v>487</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D311" s="1">
         <v>1</v>
@@ -7561,7 +7560,7 @@
         <v>490</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D313" s="1">
         <v>1</v>
@@ -7589,7 +7588,7 @@
         <v>492</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D315" s="1">
         <v>0</v>
@@ -7757,7 +7756,7 @@
         <v>509</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D327" s="1">
         <v>1</v>
@@ -7780,10 +7779,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D329" s="1"/>
     </row>
@@ -7792,10 +7791,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C330" s="2" t="s">
         <v>586</v>
-      </c>
-      <c r="C330" s="2" t="s">
-        <v>587</v>
       </c>
       <c r="D330" s="1"/>
     </row>
@@ -7804,10 +7803,10 @@
         <v>330</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D331" s="1"/>
     </row>
@@ -7816,10 +7815,10 @@
         <v>331</v>
       </c>
       <c r="B332" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="C332" s="2" t="s">
         <v>657</v>
-      </c>
-      <c r="C332" s="2" t="s">
-        <v>658</v>
       </c>
       <c r="D332" s="1"/>
     </row>

--- a/Quiz 3/bin/Debug/net9.0/Quiz3.xlsx
+++ b/Quiz 3/bin/Debug/net9.0/Quiz3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\Quiz 3\Quiz 3\bin\Debug\net9.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E15A5E0-7879-498A-9FE1-694ADF782E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB912F7-D4ED-4EEA-B1E3-0B834B42853D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A52166B1-4494-480B-A027-66F199F0B402}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="670">
   <si>
     <t>Id</t>
   </si>
@@ -2773,6 +2773,18 @@
   <si>
     <t>1. Явное описание в конфигурации Swagger - через MapType&lt;T&gt;() или SchemaFilter, где вручную прописываются все свойства схемы.
 2. Schema-first подход - когда сначала пишется OpenAPI-спецификация в YAML/JSON, а затем из неё генерируются DTO-классы.</t>
+  </si>
+  <si>
+    <t>CommandHandler что такое?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> выполняет команды на изменение данных (Create, Update, Delete). Не возвращает данные, только подтверждение выполнения.</t>
+  </si>
+  <si>
+    <t>QueryHandler что такое?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> выполняет запросы на чтение данных. Возвращает DTO или результаты выборки без изменения состояния системы.</t>
   </si>
 </sst>
 </file>
@@ -3174,8 +3186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C34F926-ACF9-49CF-9B6A-0D737BBB828A}">
   <dimension ref="A1:D344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="C168" sqref="C168"/>
+    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
+      <selection activeCell="B208" sqref="B208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7826,16 +7838,24 @@
       <c r="A333" s="1">
         <v>332</v>
       </c>
-      <c r="B333" s="1"/>
-      <c r="C333" s="1"/>
+      <c r="B333" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>667</v>
+      </c>
       <c r="D333" s="1"/>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>333</v>
       </c>
-      <c r="B334" s="1"/>
-      <c r="C334" s="1"/>
+      <c r="B334" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>669</v>
+      </c>
       <c r="D334" s="1"/>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">

--- a/Quiz 3/bin/Debug/net9.0/Quiz3.xlsx
+++ b/Quiz 3/bin/Debug/net9.0/Quiz3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\Quiz 3\Quiz 3\bin\Debug\net9.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB912F7-D4ED-4EEA-B1E3-0B834B42853D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40518E8-9189-4178-B097-F35CB8EDFD1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A52166B1-4494-480B-A027-66F199F0B402}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="706">
   <si>
     <t>Id</t>
   </si>
@@ -400,10 +400,6 @@
     <t>JsonPatchDocument</t>
   </si>
   <si>
-    <t xml:space="preserve"> — это программные компоненты, которые объединяются в конвейер для обработки HTTP-запросов и ответов.
-</t>
-  </si>
-  <si>
     <t>REST API что это такое?</t>
   </si>
   <si>
@@ -829,10 +825,6 @@
   </si>
   <si>
     <t>MediatR</t>
-  </si>
-  <si>
-    <t>небольшая библиотека, помогающая реализовать паттерн Mediator, 
-который нам позволит производить обмен сообщениями между контроллером и запросами/командами без зависимостей.</t>
   </si>
   <si>
     <t>SOLID</t>
@@ -1294,12 +1286,6 @@
   </si>
   <si>
     <t>Пример Value Object в e-commerce?</t>
-  </si>
-  <si>
-    <t>public record Money
-{
-    public decimal Amount { get; init; }
-    public string Currency { get; init; }</t>
   </si>
   <si>
     <t>Как сравнивать Value Objects?</t>
@@ -2785,6 +2771,165 @@
   </si>
   <si>
     <t xml:space="preserve"> выполняет запросы на чтение данных. Возвращает DTO или результаты выборки без изменения состояния системы.</t>
+  </si>
+  <si>
+    <t>Tcp и Udp отличия</t>
+  </si>
+  <si>
+    <t>TCP — надежный, с установкой соединения, гарантирует доставку и порядок пакетов, но медленнее. Подходит для веба и почты. UDP — быстрый, без соединения, без гарантий доставки, но с минимальной задержкой. Идеален для стриминга и онлайн-игр.</t>
+  </si>
+  <si>
+    <t>Раньше стандартный ответ был "нет", потому что классический HTTP/1.x и HTTP/2 работают поверх TCP, который обеспечивает надежность. 
+Однако с появлением HTTP/3 ситуация изменилась.</t>
+  </si>
+  <si>
+    <t>можно ли HTTP поверх UDP</t>
+  </si>
+  <si>
+    <t>1. Версионирование в URI (URL-based)
+2. Версионирование через заголовки
+3. через параметры запроса Версия передается как параметр
+4. Версионирование через медиа-типы  Версия указывается в заголовке Accept</t>
+  </si>
+  <si>
+    <t>Варианты версионирования</t>
+  </si>
+  <si>
+    <t>что используется вместо фильтров</t>
+  </si>
+  <si>
+    <t>В ASP.NET Core вместо глобальных фильтров используются Middleware, а вместо MVC-фильтров — встроенные Filter pipeline, 
+но с измененным подходом к регистрации и более гибкой архитектурой.
+Middleware - app.UseAuthentication();
+builder.Services.AddControllers(options =&gt;
+{
+    options.Filters.Add&lt;GlobalExceptionFilter&gt;();
+});</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> — это конвейер компонентов, которые последовательно обрабатывают HTTP-запрос. Каждый middleware получает запрос, выполняет свою логику, и передает управление следующему через RequestDelegate. Порядок регистрации middleware критически важен, так как определяет последовательность обработки. Middleware может обрабатывать запрос до и после следующего компонента в цепочке, а также полностью прерывать обработку.
+</t>
+  </si>
+  <si>
+    <t>как ускорить Api</t>
+  </si>
+  <si>
+    <t>Latency (задержка) — это время между отправкой запроса и получением ответа. Измеряется в миллисекундах (ms) и
+ является ключевой метрикой производительности любых распределенных систем.</t>
+  </si>
+  <si>
+    <t>что такое latency</t>
+  </si>
+  <si>
+    <t>Примеры агрегата</t>
+  </si>
+  <si>
+    <t>Пример 1: Интернет-магазин — Заказ (Order)
+Пример 2: Банковский счет — BankAccount
+Пример 3: Социальная сеть — Post</t>
+  </si>
+  <si>
+    <t>Пример 1: Money (Денежная сумма)
+Пример 2: Address (Адрес доставки)
+Пример 3: Product Dimensions (Габариты товара)
+Пример 4: Product Rating (Рейтинг товара)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">как масштабировать чтение в CQRS </t>
+  </si>
+  <si>
+    <t>какие базы для Query и Command</t>
+  </si>
+  <si>
+    <t>Как ускорить запись</t>
+  </si>
+  <si>
+    <t>MediatR — это реализация паттерна Mediator для .NET, которая позволяет разделить отправку запросов от их обработки. Она поддерживает команды (IRequest), запросы (IRequest&lt;TResponse&gt;) и события (INotification) с множественными обработчиками. Ключевые преимущества: уменьшение связанности, легкость тестирования и поддержка CQRS</t>
+  </si>
+  <si>
+    <t>Ускорение API требует комплексного подхода: оптимизация запросов к БД, кэширование на разных уровнях, сжатие данных
+ и горизонтальное масштабирование</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Репликация БД </t>
+  </si>
+  <si>
+    <t>это процесс автоматического копирования данных с основного сервера (master) на один или несколько вторичных серверов (replicas)
+ для обеспечения отказоустойчивости, масштабирования чтения и географического распределения.</t>
+  </si>
+  <si>
+    <t>Чтение в CQRS масштабируем через репликацию БД, кэширование Redis, материализованные представления и специализированные хранилища типа Elasticsearch</t>
+  </si>
+  <si>
+    <t>Ускоряем запись в CQRS через асинхронную обработку команд, Event Sourcing, шардинг и оптимизированные write-модели.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Для Command стороны используем транзакционные БД (PostgreSQL/SQL Server) для гарантии согласованности.
+ Для Query стороны — специализированные БД под конкретные сценарии: Redis для кэширования, Elasticsearch для поиска, ClickHouse для аналитики. 
+</t>
+  </si>
+  <si>
+    <t>POEAA</t>
+  </si>
+  <si>
+    <t>паттерны POEAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POEAA — это каталог паттернов Мартина Фаулера для разработки enterprise-приложений. В DDD мы используем эти паттерны для реализации доменной модели, работы с данными и организации кода. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Domain Model Pattern - Представление бизнес-логики через объекты домена с поведением.
+2. Repository Pattern - Абстракция для доступа к доменным объектам, как к коллекции в памяти.
+3. Unit of Work Pattern - Сохранение целостности транзакций при работе с несколькими репозиториями.
+4. Service Layer Pattern -  Определение границы приложения и координация бизнес-операций.
+5. Data Mapper Pattern - Отделение объектов домена от логики сохранения в БД.
+6. Table Gateway &amp; Row Data Gateway - Паттерны доступа к данным, которые в DDD заменяются на Repository.
+7. Lazy Load Pattern - Отложенная загрузка связанных объектов.
+8. Identity Map Pattern - Гарантирует, что каждый объект загружается только один раз за сессию.
+ 9. Specification Pattern - Инкапсуляция бизнес-правил для фильтрации и проверки.
+10. </t>
+  </si>
+  <si>
+    <t>Inbox решает проблему дублирующей обработки сообщений. При получении события сохраняем его ID в таблицу Inbox в той же транзакции, 
+что и бизнес-данные. При повторном получении проверяем эту таблицу и игнорируем дубликат. Это обеспечивает идемпотентность обработки</t>
+  </si>
+  <si>
+    <t>паттерн Inbox</t>
+  </si>
+  <si>
+    <t>Доменный слой абсолютно независим — он не связан ни с какими другими слоями. Все остальные слои (Application, Infrastructure) 
+зависят от доменного слоя, но сам доменный слой не зависит ни от кого. Это ядро системы, содержащее только бизнес-логику.</t>
+  </si>
+  <si>
+    <t>В DDD что в каждом слое происходит?</t>
+  </si>
+  <si>
+    <t>Domain Layer — бизнес-логика: сущности, value objects, агрегаты, доменные сервисы и правила предметной области.
+Application Layer — координация: оркестрирует workflow, использует доменные объекты, не содержит бизнес-логики.
+Infrastructure Layer — техническая реализация: БД, внешние API, файловая система, реализует интерфейсы домена.
+Presentation Layer — взаимодействие с пользователем: UI, API controllers, преобразует DTO.</t>
+  </si>
+  <si>
+    <t>как можно указывать роутинг для эндпоинтов MVC minimal Api</t>
+  </si>
+  <si>
+    <t>Minimal API — быстрая настройка маршрутов прямо в Program.cs через Map-методы.
+MVC — атрибутная маршрутизация в контроллерах через [Route], [HttpGet] etc.
+Группировка — MapGroup() для общего префикса и политик роутинга.</t>
+  </si>
+  <si>
+    <t>где мы создаем события и ловим события</t>
+  </si>
+  <si>
+    <t>Domain Layer — агрегаты генерируют доменные события при бизнес-операциях
+Application Layer — может создавать integration events для других сервисов
+Обработка событий:
+Application Layer — обработчики доменных событий (отправка email, уведомлений)
+Infrastructure Layer — обработчики integration events (коммуникация между сервисами)</t>
+  </si>
+  <si>
+    <t>как доменный слой связан с остальными</t>
   </si>
 </sst>
 </file>
@@ -2829,7 +2974,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2852,11 +2997,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2870,6 +3026,14 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3184,10 +3348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C34F926-ACF9-49CF-9B6A-0D737BBB828A}">
-  <dimension ref="A1:D344"/>
+  <dimension ref="A1:D352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
-      <selection activeCell="B208" sqref="B208"/>
+    <sheetView tabSelected="1" topLeftCell="A344" workbookViewId="0">
+      <selection activeCell="B349" sqref="B349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3386,7 +3550,7 @@
         <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -3470,7 +3634,7 @@
         <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
@@ -3526,7 +3690,7 @@
         <v>44</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D24" s="1">
         <v>2</v>
@@ -3546,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3554,7 +3718,7 @@
         <v>47</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>74</v>
+        <v>675</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
@@ -3568,7 +3732,7 @@
         <v>48</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
@@ -3596,7 +3760,7 @@
         <v>51</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
@@ -3708,7 +3872,7 @@
         <v>67</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -3722,7 +3886,7 @@
         <v>68</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D38" s="1">
         <v>2</v>
@@ -3761,10 +3925,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D41" s="1">
         <v>2</v>
@@ -3775,10 +3939,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D42" s="1">
         <v>2</v>
@@ -3789,10 +3953,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
@@ -3803,10 +3967,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
@@ -3817,10 +3981,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
@@ -3831,10 +3995,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
@@ -3845,10 +4009,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="D47" s="1">
         <v>2</v>
@@ -3859,10 +4023,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
@@ -3873,10 +4037,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D49" s="1">
         <v>2</v>
@@ -3887,10 +4051,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="D50" s="1">
         <v>2</v>
@@ -3901,10 +4065,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="D51" s="1">
         <v>0</v>
@@ -3915,10 +4079,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
@@ -3929,10 +4093,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="D53" s="1">
         <v>0</v>
@@ -3943,10 +4107,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D54" s="1">
         <v>1</v>
@@ -3957,10 +4121,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
@@ -3971,10 +4135,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="D56" s="1">
         <v>1</v>
@@ -3985,10 +4149,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D57" s="1">
         <v>1</v>
@@ -3999,10 +4163,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="D58" s="1">
         <v>1</v>
@@ -4013,10 +4177,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
@@ -4027,10 +4191,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="D60" s="1">
         <v>0</v>
@@ -4041,10 +4205,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
@@ -4055,10 +4219,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="D62" s="1">
         <v>2</v>
@@ -4069,10 +4233,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D63" s="1">
         <v>2</v>
@@ -4083,10 +4247,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D64" s="1">
         <v>1</v>
@@ -4097,10 +4261,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="D65" s="1">
         <v>2</v>
@@ -4111,10 +4275,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>
@@ -4125,10 +4289,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="D67" s="1">
         <v>0</v>
@@ -4139,10 +4303,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D68" s="1">
         <v>2</v>
@@ -4153,10 +4317,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="D69" s="1">
         <v>2</v>
@@ -4167,10 +4331,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D70" s="1">
         <v>2</v>
@@ -4181,10 +4345,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="D71" s="1">
         <v>1</v>
@@ -4195,10 +4359,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D72" s="1">
         <v>2</v>
@@ -4209,10 +4373,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D73" s="1">
         <v>1</v>
@@ -4223,10 +4387,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D74" s="1">
         <v>2</v>
@@ -4237,10 +4401,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D75" s="1">
         <v>1</v>
@@ -4251,10 +4415,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="D76" s="1">
         <v>2</v>
@@ -4265,10 +4429,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D77" s="1">
         <v>1</v>
@@ -4279,10 +4443,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D78" s="1">
         <v>2</v>
@@ -4293,10 +4457,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D79" s="1">
         <v>1</v>
@@ -4307,10 +4471,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D80" s="1">
         <v>2</v>
@@ -4321,10 +4485,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D81" s="1">
         <v>2</v>
@@ -4335,10 +4499,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="D82" s="1">
         <v>1</v>
@@ -4349,10 +4513,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D83" s="1">
         <v>2</v>
@@ -4363,10 +4527,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="D84" s="1">
         <v>0</v>
@@ -4377,10 +4541,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="D85" s="1">
         <v>2</v>
@@ -4391,10 +4555,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D86" s="1">
         <v>2</v>
@@ -4405,10 +4569,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="D87" s="1">
         <v>2</v>
@@ -4419,10 +4583,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D88" s="1">
         <v>2</v>
@@ -4433,10 +4597,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D89" s="1">
         <v>2</v>
@@ -4447,10 +4611,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="D90" s="1">
         <v>1</v>
@@ -4461,10 +4625,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="D91" s="1">
         <v>0</v>
@@ -4475,10 +4639,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="D92" s="1">
         <v>1</v>
@@ -4489,10 +4653,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D93" s="1">
         <v>0</v>
@@ -4503,10 +4667,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D94" s="1">
         <v>2</v>
@@ -4517,10 +4681,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D95" s="1">
         <v>2</v>
@@ -4531,10 +4695,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="D96" s="1">
         <v>2</v>
@@ -4545,10 +4709,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D97" s="1">
         <v>1</v>
@@ -4559,10 +4723,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D98" s="1">
         <v>2</v>
@@ -4573,10 +4737,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D99" s="1">
         <v>2</v>
@@ -4587,10 +4751,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D100" s="1">
         <v>0</v>
@@ -4601,10 +4765,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="D101" s="1">
         <v>2</v>
@@ -4615,10 +4779,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="D102" s="1">
         <v>0</v>
@@ -4629,10 +4793,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D103" s="1">
         <v>0</v>
@@ -4643,10 +4807,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="D104" s="1">
         <v>2</v>
@@ -4657,10 +4821,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D105" s="1">
         <v>2</v>
@@ -4671,10 +4835,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="D106" s="1">
         <v>0</v>
@@ -4685,10 +4849,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="D107" s="1">
         <v>0</v>
@@ -4699,10 +4863,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D108" s="1">
         <v>0</v>
@@ -4713,10 +4877,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="D109" s="1">
         <v>0</v>
@@ -4727,10 +4891,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D110" s="1">
         <v>0</v>
@@ -4741,24 +4905,24 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D111" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>199</v>
+        <v>685</v>
       </c>
       <c r="D112" s="1">
         <v>0</v>
@@ -4769,10 +4933,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D113" s="1">
         <v>2</v>
@@ -4783,10 +4947,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D114" s="1">
         <v>0</v>
@@ -4797,10 +4961,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D115" s="1">
         <v>2</v>
@@ -4811,10 +4975,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D116" s="1">
         <v>2</v>
@@ -4825,10 +4989,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D117" s="1">
         <v>2</v>
@@ -4839,10 +5003,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D118" s="1">
         <v>2</v>
@@ -4853,10 +5017,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D119" s="1">
         <v>2</v>
@@ -4867,10 +5031,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D120" s="1">
         <v>2</v>
@@ -4881,10 +5045,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D121" s="1">
         <v>2</v>
@@ -4895,10 +5059,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="D122" s="1">
         <v>2</v>
@@ -4909,10 +5073,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D123" s="1">
         <v>2</v>
@@ -4923,10 +5087,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D124" s="1">
         <v>2</v>
@@ -4937,10 +5101,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D125" s="1">
         <v>2</v>
@@ -4951,10 +5115,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D126" s="1">
         <v>2</v>
@@ -4965,10 +5129,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D127" s="1">
         <v>2</v>
@@ -4979,10 +5143,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D128" s="1">
         <v>2</v>
@@ -4993,10 +5157,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D129" s="1">
         <v>2</v>
@@ -5007,10 +5171,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D130" s="1">
         <v>2</v>
@@ -5021,10 +5185,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D131" s="1">
         <v>2</v>
@@ -5035,10 +5199,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D132" s="1">
         <v>2</v>
@@ -5049,10 +5213,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D133" s="1">
         <v>2</v>
@@ -5063,10 +5227,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D134" s="1">
         <v>2</v>
@@ -5077,10 +5241,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D135" s="1">
         <v>2</v>
@@ -5091,10 +5255,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D136" s="1">
         <v>2</v>
@@ -5105,10 +5269,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D137" s="1">
         <v>2</v>
@@ -5119,10 +5283,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D138" s="1">
         <v>2</v>
@@ -5133,10 +5297,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D139" s="1">
         <v>2</v>
@@ -5147,10 +5311,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D140" s="1">
         <v>2</v>
@@ -5161,10 +5325,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D141" s="1">
         <v>2</v>
@@ -5175,10 +5339,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D142" s="1">
         <v>2</v>
@@ -5189,10 +5353,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D143" s="1">
         <v>2</v>
@@ -5203,10 +5367,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D144" s="1">
         <v>0</v>
@@ -5217,10 +5381,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D145" s="1">
         <v>2</v>
@@ -5231,10 +5395,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D146" s="1">
         <v>1</v>
@@ -5245,10 +5409,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D147" s="1">
         <v>1</v>
@@ -5259,10 +5423,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D148" s="1">
         <v>1</v>
@@ -5273,10 +5437,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D149" s="1">
         <v>2</v>
@@ -5287,10 +5451,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D150" s="1">
         <v>0</v>
@@ -5301,10 +5465,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D151" s="1">
         <v>1</v>
@@ -5315,10 +5479,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D152" s="1">
         <v>2</v>
@@ -5329,10 +5493,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D153" s="1">
         <v>0</v>
@@ -5343,10 +5507,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D154" s="1">
         <v>0</v>
@@ -5357,10 +5521,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D155" s="1">
         <v>0</v>
@@ -5371,10 +5535,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D156" s="1">
         <v>2</v>
@@ -5385,10 +5549,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D157" s="1">
         <v>2</v>
@@ -5399,10 +5563,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D158" s="1">
         <v>2</v>
@@ -5413,10 +5577,10 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D159" s="1">
         <v>2</v>
@@ -5427,10 +5591,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D160" s="1">
         <v>1</v>
@@ -5441,10 +5605,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D161" s="1">
         <v>0</v>
@@ -5455,10 +5619,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D162" s="1">
         <v>0</v>
@@ -5469,10 +5633,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D163" s="1">
         <v>1</v>
@@ -5483,10 +5647,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D164" s="1">
         <v>0</v>
@@ -5497,10 +5661,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D165" s="1">
         <v>1</v>
@@ -5511,10 +5675,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D166" s="1">
         <v>1</v>
@@ -5525,10 +5689,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D167" s="1">
         <v>1</v>
@@ -5539,10 +5703,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D168" s="1">
         <v>0</v>
@@ -5553,10 +5717,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D169" s="1">
         <v>0</v>
@@ -5567,10 +5731,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D170" s="1">
         <v>1</v>
@@ -5581,10 +5745,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D171" s="1">
         <v>1</v>
@@ -5595,10 +5759,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D172" s="1">
         <v>1</v>
@@ -5609,10 +5773,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D173" s="1">
         <v>0</v>
@@ -5623,10 +5787,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D174" s="1">
         <v>0</v>
@@ -5637,10 +5801,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D175" s="1">
         <v>0</v>
@@ -5651,10 +5815,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D176" s="1">
         <v>2</v>
@@ -5665,10 +5829,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D177" s="1">
         <v>0</v>
@@ -5679,10 +5843,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D178" s="1">
         <v>0</v>
@@ -5693,10 +5857,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D179" s="1">
         <v>0</v>
@@ -5707,10 +5871,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D180" s="1">
         <v>2</v>
@@ -5721,10 +5885,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D181" s="1">
         <v>2</v>
@@ -5735,10 +5899,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D182" s="1">
         <v>2</v>
@@ -5749,10 +5913,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D183" s="1">
         <v>1</v>
@@ -5763,10 +5927,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D184" s="1">
         <v>0</v>
@@ -5777,10 +5941,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D185" s="1">
         <v>2</v>
@@ -5791,10 +5955,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D186" s="1">
         <v>0</v>
@@ -5805,10 +5969,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D187" s="1">
         <v>2</v>
@@ -5819,10 +5983,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D188" s="1">
         <v>2</v>
@@ -5833,10 +5997,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>321</v>
+        <v>681</v>
       </c>
       <c r="D189" s="1">
         <v>0</v>
@@ -5847,10 +6011,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D190" s="1">
         <v>1</v>
@@ -5861,10 +6025,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D191" s="1">
         <v>1</v>
@@ -5875,10 +6039,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D192" s="1">
         <v>0</v>
@@ -5889,10 +6053,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D193" s="1">
         <v>2</v>
@@ -5903,10 +6067,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D194" s="1">
         <v>1</v>
@@ -5917,10 +6081,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D195" s="1">
         <v>1</v>
@@ -5931,10 +6095,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D196" s="1">
         <v>2</v>
@@ -5945,10 +6109,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D197" s="1">
         <v>0</v>
@@ -5959,10 +6123,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D198" s="1">
         <v>2</v>
@@ -5973,10 +6137,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D199" s="1">
         <v>1</v>
@@ -5987,10 +6151,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D200" s="1">
         <v>0</v>
@@ -6001,10 +6165,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D201" s="1">
         <v>0</v>
@@ -6015,10 +6179,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D202" s="1">
         <v>2</v>
@@ -6029,10 +6193,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D203" s="1">
         <v>1</v>
@@ -6043,10 +6207,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D204" s="1">
         <v>2</v>
@@ -6057,10 +6221,10 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D205" s="1">
         <v>1</v>
@@ -6071,10 +6235,10 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D206" s="1">
         <v>0</v>
@@ -6085,10 +6249,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D207" s="1">
         <v>0</v>
@@ -6099,10 +6263,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D208" s="1">
         <v>1</v>
@@ -6113,10 +6277,10 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D209" s="1">
         <v>1</v>
@@ -6127,10 +6291,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D210" s="1">
         <v>1</v>
@@ -6141,10 +6305,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D211" s="1">
         <v>0</v>
@@ -6155,10 +6319,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D212" s="1">
         <v>1</v>
@@ -6169,10 +6333,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D213" s="1">
         <v>1</v>
@@ -6183,10 +6347,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D214" s="1">
         <v>0</v>
@@ -6197,10 +6361,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D215" s="1">
         <v>1</v>
@@ -6211,10 +6375,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D216" s="1">
         <v>1</v>
@@ -6225,10 +6389,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D217" s="1">
         <v>1</v>
@@ -6239,10 +6403,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D218" s="1">
         <v>2</v>
@@ -6253,10 +6417,10 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D219" s="1">
         <v>1</v>
@@ -6267,10 +6431,10 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D220" s="1">
         <v>0</v>
@@ -6281,10 +6445,10 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D221" s="1">
         <v>1</v>
@@ -6295,10 +6459,10 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D222" s="1">
         <v>1</v>
@@ -6309,10 +6473,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D223" s="1">
         <v>2</v>
@@ -6323,10 +6487,10 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D224" s="1">
         <v>1</v>
@@ -6337,10 +6501,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D225" s="1">
         <v>1</v>
@@ -6351,10 +6515,10 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D226" s="1">
         <v>1</v>
@@ -6365,10 +6529,10 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D227" s="1">
         <v>2</v>
@@ -6379,10 +6543,10 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D228" s="1">
         <v>2</v>
@@ -6393,10 +6557,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D229" s="1">
         <v>2</v>
@@ -6407,10 +6571,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D230" s="1">
         <v>0</v>
@@ -6421,10 +6585,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D231" s="1">
         <v>0</v>
@@ -6435,10 +6599,10 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D232" s="1">
         <v>1</v>
@@ -6449,10 +6613,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D233" s="1">
         <v>1</v>
@@ -6463,10 +6627,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D234" s="1">
         <v>1</v>
@@ -6477,10 +6641,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D235" s="1">
         <v>1</v>
@@ -6491,10 +6655,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D236" s="1">
         <v>1</v>
@@ -6505,10 +6669,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D237" s="1">
         <v>0</v>
@@ -6519,10 +6683,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D238" s="1">
         <v>0</v>
@@ -6533,10 +6697,10 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D239" s="1">
         <v>2</v>
@@ -6547,10 +6711,10 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D240" s="1">
         <v>2</v>
@@ -6561,10 +6725,10 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D241" s="1">
         <v>2</v>
@@ -6575,10 +6739,10 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D242" s="1">
         <v>2</v>
@@ -6589,10 +6753,10 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D243" s="1">
         <v>1</v>
@@ -6603,10 +6767,10 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D244" s="1">
         <v>1</v>
@@ -6617,10 +6781,10 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D245" s="1">
         <v>0</v>
@@ -6631,10 +6795,10 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D246" s="1">
         <v>2</v>
@@ -6645,10 +6809,10 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D247" s="1">
         <v>1</v>
@@ -6659,10 +6823,10 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D248" s="1">
         <v>1</v>
@@ -6673,10 +6837,10 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D249" s="1">
         <v>0</v>
@@ -6687,10 +6851,10 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D250" s="1">
         <v>1</v>
@@ -6701,10 +6865,10 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D251" s="1">
         <v>1</v>
@@ -6715,10 +6879,10 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D252" s="1">
         <v>1</v>
@@ -6729,10 +6893,10 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D253" s="1">
         <v>1</v>
@@ -6743,10 +6907,10 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D254" s="1">
         <v>1</v>
@@ -6757,10 +6921,10 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D255" s="1">
         <v>2</v>
@@ -6771,10 +6935,10 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D256" s="1">
         <v>1</v>
@@ -6785,10 +6949,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D257" s="1">
         <v>1</v>
@@ -6799,10 +6963,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D258" s="1">
         <v>1</v>
@@ -6813,10 +6977,10 @@
         <v>258</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D259" s="1">
         <v>1</v>
@@ -6827,10 +6991,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D260" s="1">
         <v>1</v>
@@ -6841,10 +7005,10 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D261" s="1">
         <v>1</v>
@@ -6855,10 +7019,10 @@
         <v>261</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D262" s="1">
         <v>1</v>
@@ -6869,10 +7033,10 @@
         <v>262</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D263" s="1">
         <v>0</v>
@@ -6883,10 +7047,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D264" s="1">
         <v>0</v>
@@ -6897,10 +7061,10 @@
         <v>264</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D265" s="1">
         <v>1</v>
@@ -6911,10 +7075,10 @@
         <v>265</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D266" s="1">
         <v>1</v>
@@ -6925,10 +7089,10 @@
         <v>266</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D267" s="1">
         <v>0</v>
@@ -6939,10 +7103,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D268" s="1">
         <v>2</v>
@@ -6953,10 +7117,10 @@
         <v>268</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D269" s="1">
         <v>0</v>
@@ -6967,10 +7131,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D270" s="1">
         <v>0</v>
@@ -6981,10 +7145,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D271" s="1">
         <v>0</v>
@@ -6995,10 +7159,10 @@
         <v>271</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D272" s="1">
         <v>0</v>
@@ -7009,10 +7173,10 @@
         <v>272</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D273" s="1">
         <v>0</v>
@@ -7023,10 +7187,10 @@
         <v>273</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D274" s="1">
         <v>0</v>
@@ -7037,10 +7201,10 @@
         <v>274</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D275" s="1">
         <v>0</v>
@@ -7051,10 +7215,10 @@
         <v>275</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D276" s="1">
         <v>0</v>
@@ -7065,10 +7229,10 @@
         <v>276</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D277" s="1">
         <v>0</v>
@@ -7079,10 +7243,10 @@
         <v>277</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D278" s="1">
         <v>0</v>
@@ -7093,10 +7257,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D279" s="1">
         <v>0</v>
@@ -7107,10 +7271,10 @@
         <v>279</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D280" s="1">
         <v>0</v>
@@ -7121,10 +7285,10 @@
         <v>280</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D281" s="1">
         <v>0</v>
@@ -7135,10 +7299,10 @@
         <v>281</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D282" s="1">
         <v>0</v>
@@ -7149,10 +7313,10 @@
         <v>282</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D283" s="1">
         <v>0</v>
@@ -7163,10 +7327,10 @@
         <v>283</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D284" s="1">
         <v>0</v>
@@ -7177,10 +7341,10 @@
         <v>284</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D285" s="1">
         <v>0</v>
@@ -7191,10 +7355,10 @@
         <v>285</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D286" s="1">
         <v>0</v>
@@ -7205,10 +7369,10 @@
         <v>286</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D287" s="1">
         <v>0</v>
@@ -7219,10 +7383,10 @@
         <v>287</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D288" s="1">
         <v>1</v>
@@ -7233,10 +7397,10 @@
         <v>288</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D289" s="1">
         <v>0</v>
@@ -7247,10 +7411,10 @@
         <v>289</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D290" s="1">
         <v>0</v>
@@ -7261,10 +7425,10 @@
         <v>290</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D291" s="1">
         <v>0</v>
@@ -7275,10 +7439,10 @@
         <v>291</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D292" s="1">
         <v>0</v>
@@ -7289,10 +7453,10 @@
         <v>292</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D293" s="1">
         <v>0</v>
@@ -7303,10 +7467,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D294" s="1">
         <v>0</v>
@@ -7317,10 +7481,10 @@
         <v>294</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D295" s="1">
         <v>0</v>
@@ -7331,10 +7495,10 @@
         <v>295</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D296" s="1">
         <v>0</v>
@@ -7345,10 +7509,10 @@
         <v>296</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D297" s="1">
         <v>0</v>
@@ -7359,10 +7523,10 @@
         <v>297</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D298" s="1">
         <v>0</v>
@@ -7373,10 +7537,10 @@
         <v>298</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D299" s="1">
         <v>0</v>
@@ -7387,10 +7551,10 @@
         <v>299</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D300" s="1">
         <v>0</v>
@@ -7401,10 +7565,10 @@
         <v>300</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D301" s="1">
         <v>0</v>
@@ -7415,10 +7579,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D302" s="1">
         <v>0</v>
@@ -7429,10 +7593,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D303" s="1">
         <v>0</v>
@@ -7443,10 +7607,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D304" s="1">
         <v>0</v>
@@ -7457,10 +7621,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D305" s="1">
         <v>0</v>
@@ -7471,10 +7635,10 @@
         <v>305</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D306" s="1">
         <v>2</v>
@@ -7485,10 +7649,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D307" s="1">
         <v>0</v>
@@ -7499,10 +7663,10 @@
         <v>307</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D308" s="1">
         <v>1</v>
@@ -7513,10 +7677,10 @@
         <v>308</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D309" s="1">
         <v>2</v>
@@ -7527,10 +7691,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D310" s="1">
         <v>1</v>
@@ -7541,10 +7705,10 @@
         <v>310</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D311" s="1">
         <v>1</v>
@@ -7555,10 +7719,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D312" s="1">
         <v>1</v>
@@ -7569,10 +7733,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D313" s="1">
         <v>1</v>
@@ -7583,10 +7747,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D314" s="1">
         <v>1</v>
@@ -7597,10 +7761,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D315" s="1">
         <v>0</v>
@@ -7611,10 +7775,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D316" s="1">
         <v>2</v>
@@ -7625,10 +7789,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D317" s="1">
         <v>1</v>
@@ -7639,10 +7803,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D318" s="1">
         <v>0</v>
@@ -7653,10 +7817,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D319" s="1">
         <v>1</v>
@@ -7667,10 +7831,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D320" s="1">
         <v>0</v>
@@ -7681,10 +7845,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D321" s="1">
         <v>0</v>
@@ -7695,10 +7859,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D322" s="1">
         <v>0</v>
@@ -7709,10 +7873,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D323" s="1">
         <v>0</v>
@@ -7723,10 +7887,10 @@
         <v>323</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D324" s="1">
         <v>0</v>
@@ -7737,10 +7901,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D325" s="1">
         <v>2</v>
@@ -7751,10 +7915,10 @@
         <v>325</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D326" s="1">
         <v>1</v>
@@ -7765,10 +7929,10 @@
         <v>326</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D327" s="1">
         <v>1</v>
@@ -7779,130 +7943,350 @@
         <v>327</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="D328" s="1"/>
+        <v>568</v>
+      </c>
+      <c r="D328" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="329" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>328</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="D329" s="1"/>
+        <v>632</v>
+      </c>
+      <c r="D329" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="330" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>329</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="D330" s="1"/>
+        <v>583</v>
+      </c>
+      <c r="D330" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="331" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>330</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="D331" s="1"/>
+        <v>608</v>
+      </c>
+      <c r="D331" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="332" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>331</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="D332" s="1"/>
+        <v>654</v>
+      </c>
+      <c r="D332" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>332</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="D333" s="1"/>
+        <v>664</v>
+      </c>
+      <c r="D333" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>333</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="D334" s="1"/>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+        <v>666</v>
+      </c>
+      <c r="D334" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>334</v>
       </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B335" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="D335" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>335</v>
       </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B336" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="D336" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>336</v>
       </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B337" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="D337" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>337</v>
       </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B338" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="D338" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>338</v>
       </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B339" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="D339" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>339</v>
       </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B340" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="D340" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>340</v>
       </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B341" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="D341" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>341</v>
       </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" s="1"/>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" s="1"/>
+      <c r="B342" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="D342" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A343" s="1">
+        <v>342</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="D343" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344" s="1">
+        <v>343</v>
+      </c>
+      <c r="B344" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="D344" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A345" s="1">
+        <v>344</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="D345" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A346" s="8">
+        <v>345</v>
+      </c>
+      <c r="B346" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="C346" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="D346" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A347" s="1">
+        <v>346</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="D347" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A348" s="1">
+        <v>347</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="D348" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A349" s="1">
+        <v>348</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="D349" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A350" s="1">
+        <v>349</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="D350" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A351" s="1">
+        <v>350</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="D351" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A352" s="7">
+        <v>351</v>
+      </c>
+      <c r="B352" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="C352" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="D352" s="7">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Quiz 3/bin/Debug/net9.0/Quiz3.xlsx
+++ b/Quiz 3/bin/Debug/net9.0/Quiz3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\Quiz 3\Quiz 3\bin\Debug\net9.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40518E8-9189-4178-B097-F35CB8EDFD1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9400A7-3FE9-448E-BF7A-6AD03EB7A3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A52166B1-4494-480B-A027-66F199F0B402}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="722">
   <si>
     <t>Id</t>
   </si>
@@ -746,9 +746,6 @@
     <t>Границы агрегата</t>
   </si>
   <si>
-    <t>это события, которые происходят в доменной области и представляют важные факты, случившиеся в системе.</t>
-  </si>
-  <si>
     <t>Репозитории (Repositories) в DDD</t>
   </si>
   <si>
@@ -847,12 +844,6 @@
   </si>
   <si>
     <t>Шаблон «Уровень защиты от повреждений» (Anti-Corruption Layer)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> паттерн нужный при интеграции систем и миграции с монолита на микросервисы. 
-Его главная цель — защитить вашу новую, чистую архитектуру от "повреждающего" влияния устаревших или внешних систем.
-Сценарий 1: Миграция с монолита (в паре со "душителем")
-Сценарий 2: Интеграция с внешней системой</t>
   </si>
   <si>
     <t>Паттерн предписывает, что каждый микросервис должен владеть своей собственной базой данных (или схемой), 
@@ -1326,9 +1317,6 @@
     <t>Пример доменного сервиса в e-commerce?</t>
   </si>
   <si>
-    <t>Сервис расчета цены с учетом скидок</t>
-  </si>
-  <si>
     <t>Почему доменные сервисы должны быть чистыми и без состояния?</t>
   </si>
   <si>
@@ -1562,10 +1550,6 @@
   </si>
   <si>
     <t>Что такое MassTransit?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> это популярный open-source фреймворк для .NET, который реализует паттерны распределённых систем и облегчает работу с 
-сообщениями в брокерах (RabbitMQ, Azure Service Bus и др.).</t>
   </si>
   <si>
     <t xml:space="preserve">Как в MassTransit реализуются Saga? </t>
@@ -2017,10 +2001,6 @@
 2. Критичные финансовые операции 
 3.  последующий шаг критически зависит от результата предыдущего
 4. Невозможность идемпотентности </t>
-  </si>
-  <si>
-    <t>Клиент обнаруживает сервисы самостоятельно, запрашивая их адреса из центрального реестра.
-Схема, при которой клиент напрямую обращается к реестру за актуальным списком экземпляров сервиса и сам выбирает, куда направить запрос.</t>
   </si>
   <si>
     <t xml:space="preserve"> клиент отправляет уникальный ключ с запросом.
@@ -2844,9 +2824,6 @@
     <t>Как ускорить запись</t>
   </si>
   <si>
-    <t>MediatR — это реализация паттерна Mediator для .NET, которая позволяет разделить отправку запросов от их обработки. Она поддерживает команды (IRequest), запросы (IRequest&lt;TResponse&gt;) и события (INotification) с множественными обработчиками. Ключевые преимущества: уменьшение связанности, легкость тестирования и поддержка CQRS</t>
-  </si>
-  <si>
     <t>Ускорение API требует комплексного подхода: оптимизация запросов к БД, кэширование на разных уровнях, сжатие данных
  и горизонтальное масштабирование</t>
   </si>
@@ -2905,12 +2882,6 @@
     <t>В DDD что в каждом слое происходит?</t>
   </si>
   <si>
-    <t>Domain Layer — бизнес-логика: сущности, value objects, агрегаты, доменные сервисы и правила предметной области.
-Application Layer — координация: оркестрирует workflow, использует доменные объекты, не содержит бизнес-логики.
-Infrastructure Layer — техническая реализация: БД, внешние API, файловая система, реализует интерфейсы домена.
-Presentation Layer — взаимодействие с пользователем: UI, API controllers, преобразует DTO.</t>
-  </si>
-  <si>
     <t>как можно указывать роутинг для эндпоинтов MVC minimal Api</t>
   </si>
   <si>
@@ -2922,14 +2893,153 @@
     <t>где мы создаем события и ловим события</t>
   </si>
   <si>
-    <t>Domain Layer — агрегаты генерируют доменные события при бизнес-операциях
-Application Layer — может создавать integration events для других сервисов
+    <t>как доменный слой связан с остальными</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Пример 1: Взаимодействие нескольких Агрегатов
+Сценарий: Перевод денег с одного счета BankAccount на другой.
+Пример 2: Использование внешней системы для доменного правила
+Сценарий: Проверка кредитного рейтинга клиента при оформлении заказа выше определенной суммы. Система скоринга — внешняя.</t>
+  </si>
+  <si>
+    <t>Domain Layer(Доменный Слой ) — агрегаты генерируют доменные события при бизнес-операциях
+Application Layer(Прикладной Слой) — может создавать integration events для других сервисов
 Обработка событий:
 Application Layer — обработчики доменных событий (отправка email, уведомлений)
 Infrastructure Layer — обработчики integration events (коммуникация между сервисами)</t>
   </si>
   <si>
-    <t>как доменный слой связан с остальными</t>
+    <t>Domain Layer (Доменный Слой ) — бизнес-логика: сущности, value objects, агрегаты, доменные сервисы, интерфейсы для репозиториев и правила предметной области.
+Application Layer (Прикладной Слой)— координация: оркестрирует workflow( координирует задачи приложения),обработка доменных событий, работа с агргатами, использует доменные объекты, не содержит бизнес-логики.
+Infrastructure Layer (Слой Инфраструктуры)  — техническая реализация: БД, внешние API, файловая система, реализует интерфейсы домена, реализация репозиториев.
+Presentation Layer (Слой Представления) — взаимодействие с пользователем: UI, API controllers, преобразует DTO.</t>
+  </si>
+  <si>
+    <t>это события, которые происходят в доменной области и представляют важные факты, случившиеся в системе.
+Жизненный цикл:
+1. Определение События (в Доменном Слое)
+2. Событие генерируется внутри Агрегата, когда происходит значимое изменение его состояния.
+3. Публикация Событий (в Прикладном Слое)
+4. Обработка Событий (в Прикладном Слое или отдельном проекте)</t>
+  </si>
+  <si>
+    <t>MediatR решает проблему сильной связанности, заставляя компоненты общаться не напрямую, а через "посредника". Это делает код чище, тестируемее (легко подменить обработчик) и лучше соответствует принципу единственной ответственности. Его два основных механизма — это Send для команд/запросов (1 обработчик) и Publish для событий (N обработчиков), что идеально ложится на архитектуру CQRS и событийно-ориентированного дизайна</t>
+  </si>
+  <si>
+    <t>MassTransit — это популярная библиотека для .NET, которая реализует паттерны обмена сообщениями и значительно упрощает создание распределенных приложений, в том числе и Saga.
+MassTransit предоставляет два основных подхода к созданию саг:
+1. Автомат состояний (State Machine)
+Вы описываете сагу как конечный автомат.
+Определяете состояния (States) вашей бизнес-процедуры
+Определяете события (Events), которые переводят сагу из одного состояния в другое
+MassTransit берет на себя всю рутину: отслеживание текущего состояния для каждого экземпляра саги, маршрутизацию событий в нужный экземпляр и вызов соответствующей логики.
+2. Рутинг-слип (Routing Slip): Более декларативный подход, где вы описываете весь маршрут обработки как последовательность шагов, а MassTransit гарантирует его прохождение.
+Проще говоря, MassTransit избавляет вас от необходимости вручную писать код для:
+Хранения состояния саги.
+Поиска нужной саги при приходе нового события.
+Управления компенсирующими транзакциями на низком уровне.</t>
+  </si>
+  <si>
+    <t>для чего нужен CorrelationId</t>
+  </si>
+  <si>
+    <t>MassTransit использует CorrelationId для:
+Нахождения нужного экземпляра саги в своем хранилище состояний.
+Применения события к правильному экземпляру, чтобы перевести его в следующее состояние и выполнить нужную бизнес-логику.
+Без CorrelationId сага не смогла бы работать — она не отличала бы один запущенный процесс от другого.</t>
+  </si>
+  <si>
+    <t>Как в .NET можно реализовать политику повторных попыток (retry policy)
+ для такого вызова, не используя ручной try/catch и циклы в коде?</t>
+  </si>
+  <si>
+    <t>Для реализации повторных попыток без ручного try/catch я бы использовал библиотеку Polly. 
+Она позволяет декларативно настроить политику повторов (например, с экспоненциальной задержкой)
+ и зарегистрировать её для конкретного HttpClient через IHttpClientFactory. Таким образом, вся логика повторов инкапсулирована в политике, 
+и мой бизнес-код не загроможден обработкой временных сбоев.</t>
+  </si>
+  <si>
+    <t>Чем "RESTful" API отличается от RPC-стиля или просто HTTP+JSON API?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPC-стиль (Remote Procedure Call):
+Фокус на действиях. URI представляют собой действия (/api/createUser, /api/getOrders, /api/calculateTax).
+Использует в основном POST или GET .Это просто вызов удаленных функций по HTTP.
+HTTP+JSON API (часто ошибочно называют REST)
+Использует HTTP-методы (GET, POST, PUT, DELETE) и JSON, но URI часто все еще RPC-подобные
+RESTful API:
+Фокус на ресурсах (существительных). URI идентифицируют ресурсы (/users, /users/123).
+Использует семантику HTTP-методов: GET (получить), POST (создать), PUT/PATCH (заменить/обновить), DELETE (удалить).
+Использует коды состояний HTTP: 200 (OK), 201 (Created), 404 (Not Found), 409 (Conflict)
+Ответ для /users/123 может содержать ссылки на связанные ресурсы:
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> паттерн нужный при интеграции систем и миграции с монолита на микросервисы. 
+Его главная цель — защитить вашу новую, чистую архитектуру от "повреждающего" влияния устаревших или внешних систем.
+Сценарий 1: Миграция с монолита (в паре со "душителем")
+Сценарий 2: Интеграция с внешней системой
+Обычно состоит из трех компонентов. Адаптер, Маппер, Фасад</t>
+  </si>
+  <si>
+    <t>Представьте, что вы проектируете REST API endpoint для получения списка товаров
+ (GET /api/products). Какие стандартные подходы и параметры запроса вы бы использовали для реализации пагинации, 
+фильтрации и сортировки? Почему именно такие?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">общепринято использовать следующие query-параметры:
+1. Пагинация. Устанавливаем с какой позиции или страницы начать через offset или page. Сколько записей вернуть limit или size.
+2. Сортировка. Sort - устанавливаем по какому полю сортировать order или direction направление сортировки ASC или DESC
+3. Фильтрация - Выборка данных по критериям. 
+Простой подход использовать имя и значение.
+Сложный\гибкий подход через специальные операторы(gt, lt, like)
+</t>
+  </si>
+  <si>
+    <t>Как настроить аутентификацию (например, JWT Bearer Token)
+в Swagger UI для ASP.NET Core, чтобы можно было авторизоваться прямо 
+в интерфейсе документации и отправлять авторизованные запросы 
+к защищенным эндпоинтам?</t>
+  </si>
+  <si>
+    <t>builder.Services.AddSwaggerGen(options=&gt; 
+options.AddSecurityDefinition("Bearer", new OpenApiSecurityScheme)
+options.AddSecurityRequirement(new OpenApiSecurityRequirement)
+Чтобы добавить JWT-аутентификацию в Swagger UI, нужно в методе AddSwaggerGen определить схему безопасности с помощью AddSecurityDefinition, указав тип Http и схему bearer, а затем применить это требование глобально через AddSecurityRequirement. После этого в интерфейсе Swagger появится кнопка "Authorize" для ввода токена, и все исходящие запросы будут автоматически включать его в заголовок Authorization</t>
+  </si>
+  <si>
+    <t>Какую цель преследуют доменные события</t>
+  </si>
+  <si>
+    <t>1. Снижение связанности между агрегатами
+2.  Они позволяют реализовать реакции на изменения в системе. Например, "при оформлении заказа (OrderPlaced) -&gt; списать товары со склада"
+3. Согласованность в конечном счете (Eventual Consistency):</t>
+  </si>
+  <si>
+    <t>Жизненный цикл: Генерация и Публикация доменных событий</t>
+  </si>
+  <si>
+    <t>1. События генерируются внутри методов Aggregate Root в ответ на вызов команды.
+2. Агрегат не публикует события сразу. 
+ чтоб событие не было "потеряно" оно будет обработано в той же транзакции, что и изменение агрегата.
+3. События публикуются сразу после того, как агрегат успешно сохранен в базу данных в рамках текущей транзакции.</t>
+  </si>
+  <si>
+    <t>В ASP.NET Core есть несколько механизмов для сквозной 
+функциональности: Middleware, Фильтры и Endpoint Filters. 
+Объясните, в чём их ключевые различия?
+ В каком сценарии вы бы выбрали каждый из этих механизмов?</t>
+  </si>
+  <si>
+    <t>Middleware -обрабатывает каждый запрос. Глобальная, не связанная с бизнес-логикой функциональность: аутентификация,
+кеширование на уровне ответа,   кастомная обработка ошибок на уровне протокола
+Фильтры - Уровень MVC работают на уровне контоллера или метода. Логика, тесно связанная с MVC: авторизация , валидация модели,   логирование входных/выходных параметров конкретного действия.
+Endpoint Filters - Работают в контексте отдельного Endpoint'a, Логика для Minimal API и отдельных эндпоинтов: простая валидация входящих данных, обработка ошибок для конкретного API, легковесная пред-/пост-обработка.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Схема, при которой клиент напрямую обращается к центральному реестру за актуальным списком экземпляров сервиса и сам выбирает, куда направить запрос.</t>
   </si>
 </sst>
 </file>
@@ -3348,10 +3458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C34F926-ACF9-49CF-9B6A-0D737BBB828A}">
-  <dimension ref="A1:D352"/>
+  <dimension ref="A1:D361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A344" workbookViewId="0">
-      <selection activeCell="B349" sqref="B349"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3550,7 +3660,7 @@
         <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -3634,7 +3744,7 @@
         <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
@@ -3718,7 +3828,7 @@
         <v>47</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
@@ -3760,7 +3870,7 @@
         <v>51</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
@@ -3886,7 +3996,7 @@
         <v>68</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="D38" s="1">
         <v>2</v>
@@ -3928,7 +4038,7 @@
         <v>74</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="D41" s="1">
         <v>2</v>
@@ -3942,7 +4052,7 @@
         <v>75</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="D42" s="1">
         <v>2</v>
@@ -3967,7 +4077,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>78</v>
@@ -4082,7 +4192,7 @@
         <v>93</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
@@ -4124,7 +4234,7 @@
         <v>98</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
@@ -4222,7 +4332,7 @@
         <v>117</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="D62" s="1">
         <v>2</v>
@@ -4236,7 +4346,7 @@
         <v>111</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D63" s="1">
         <v>2</v>
@@ -4250,7 +4360,7 @@
         <v>112</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="D64" s="1">
         <v>1</v>
@@ -4334,7 +4444,7 @@
         <v>123</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="D70" s="1">
         <v>2</v>
@@ -4446,7 +4556,7 @@
         <v>138</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D78" s="1">
         <v>2</v>
@@ -4488,7 +4598,7 @@
         <v>142</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="D81" s="1">
         <v>2</v>
@@ -4516,7 +4626,7 @@
         <v>145</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="D83" s="1">
         <v>2</v>
@@ -4586,7 +4696,7 @@
         <v>156</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="D88" s="1">
         <v>2</v>
@@ -4600,7 +4710,7 @@
         <v>157</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="D89" s="1">
         <v>2</v>
@@ -4656,7 +4766,7 @@
         <v>164</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="D93" s="1">
         <v>0</v>
@@ -4670,7 +4780,7 @@
         <v>168</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D94" s="1">
         <v>2</v>
@@ -4684,7 +4794,7 @@
         <v>169</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D95" s="1">
         <v>2</v>
@@ -4704,15 +4814,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>175</v>
+      <c r="C97" s="2" t="s">
+        <v>701</v>
       </c>
       <c r="D97" s="1">
         <v>1</v>
@@ -4726,7 +4836,7 @@
         <v>173</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="D98" s="1">
         <v>2</v>
@@ -4740,7 +4850,7 @@
         <v>174</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="D99" s="1">
         <v>2</v>
@@ -4751,10 +4861,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D100" s="1">
         <v>0</v>
@@ -4765,10 +4875,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="D101" s="1">
         <v>2</v>
@@ -4779,10 +4889,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="D102" s="1">
         <v>0</v>
@@ -4793,10 +4903,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D103" s="1">
         <v>0</v>
@@ -4807,10 +4917,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="D104" s="1">
         <v>2</v>
@@ -4821,10 +4931,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="D105" s="1">
         <v>2</v>
@@ -4835,10 +4945,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="D106" s="1">
         <v>0</v>
@@ -4849,10 +4959,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="D107" s="1">
         <v>0</v>
@@ -4863,10 +4973,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D108" s="1">
         <v>0</v>
@@ -4877,10 +4987,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="D109" s="1">
         <v>0</v>
@@ -4891,10 +5001,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D110" s="1">
         <v>0</v>
@@ -4905,24 +5015,24 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D111" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>685</v>
+        <v>702</v>
       </c>
       <c r="D112" s="1">
         <v>0</v>
@@ -4933,10 +5043,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="D113" s="1">
         <v>2</v>
@@ -4947,10 +5057,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="D114" s="1">
         <v>0</v>
@@ -4961,10 +5071,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="D115" s="1">
         <v>2</v>
@@ -4975,10 +5085,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="D116" s="1">
         <v>2</v>
@@ -4989,10 +5099,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="D117" s="1">
         <v>2</v>
@@ -5003,24 +5113,24 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="D118" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>205</v>
+        <v>710</v>
       </c>
       <c r="D119" s="1">
         <v>2</v>
@@ -5031,10 +5141,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D120" s="1">
         <v>2</v>
@@ -5045,10 +5155,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D121" s="1">
         <v>2</v>
@@ -5059,10 +5169,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="D122" s="1">
         <v>2</v>
@@ -5073,10 +5183,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D123" s="1">
         <v>2</v>
@@ -5087,10 +5197,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D124" s="1">
         <v>2</v>
@@ -5101,10 +5211,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D125" s="1">
         <v>2</v>
@@ -5115,10 +5225,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="D126" s="1">
         <v>2</v>
@@ -5129,24 +5239,24 @@
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D127" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>524</v>
+        <v>721</v>
       </c>
       <c r="D128" s="1">
         <v>2</v>
@@ -5157,10 +5267,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="D129" s="1">
         <v>2</v>
@@ -5171,10 +5281,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D130" s="1">
         <v>2</v>
@@ -5185,10 +5295,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D131" s="1">
         <v>2</v>
@@ -5199,10 +5309,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="D132" s="1">
         <v>2</v>
@@ -5213,10 +5323,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D133" s="1">
         <v>2</v>
@@ -5227,10 +5337,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D134" s="1">
         <v>2</v>
@@ -5241,10 +5351,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D135" s="1">
         <v>2</v>
@@ -5255,10 +5365,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D136" s="1">
         <v>2</v>
@@ -5269,10 +5379,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D137" s="1">
         <v>2</v>
@@ -5283,10 +5393,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D138" s="1">
         <v>2</v>
@@ -5297,10 +5407,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="D139" s="1">
         <v>2</v>
@@ -5311,10 +5421,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D140" s="1">
         <v>2</v>
@@ -5325,10 +5435,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="D141" s="1">
         <v>2</v>
@@ -5339,10 +5449,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D142" s="1">
         <v>2</v>
@@ -5353,10 +5463,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="D143" s="1">
         <v>2</v>
@@ -5367,10 +5477,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D144" s="1">
         <v>0</v>
@@ -5381,10 +5491,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D145" s="1">
         <v>2</v>
@@ -5395,10 +5505,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D146" s="1">
         <v>1</v>
@@ -5409,10 +5519,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="D147" s="1">
         <v>1</v>
@@ -5423,10 +5533,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D148" s="1">
         <v>1</v>
@@ -5437,10 +5547,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="D149" s="1">
         <v>2</v>
@@ -5451,10 +5561,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D150" s="1">
         <v>0</v>
@@ -5465,10 +5575,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D151" s="1">
         <v>1</v>
@@ -5479,10 +5589,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="D152" s="1">
         <v>2</v>
@@ -5493,10 +5603,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D153" s="1">
         <v>0</v>
@@ -5507,10 +5617,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="D154" s="1">
         <v>0</v>
@@ -5521,10 +5631,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="D155" s="1">
         <v>0</v>
@@ -5535,10 +5645,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="D156" s="1">
         <v>2</v>
@@ -5549,10 +5659,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D157" s="1">
         <v>2</v>
@@ -5563,10 +5673,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D158" s="1">
         <v>2</v>
@@ -5577,10 +5687,10 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D159" s="1">
         <v>2</v>
@@ -5591,10 +5701,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D160" s="1">
         <v>1</v>
@@ -5605,10 +5715,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D161" s="1">
         <v>0</v>
@@ -5619,10 +5729,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D162" s="1">
         <v>0</v>
@@ -5633,10 +5743,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="D163" s="1">
         <v>1</v>
@@ -5647,10 +5757,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D164" s="1">
         <v>0</v>
@@ -5661,10 +5771,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="D165" s="1">
         <v>1</v>
@@ -5675,10 +5785,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="D166" s="1">
         <v>1</v>
@@ -5689,10 +5799,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D167" s="1">
         <v>1</v>
@@ -5703,10 +5813,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="D168" s="1">
         <v>0</v>
@@ -5717,10 +5827,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D169" s="1">
         <v>0</v>
@@ -5731,10 +5841,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D170" s="1">
         <v>1</v>
@@ -5745,10 +5855,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D171" s="1">
         <v>1</v>
@@ -5759,10 +5869,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D172" s="1">
         <v>1</v>
@@ -5773,10 +5883,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D173" s="1">
         <v>0</v>
@@ -5787,10 +5897,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D174" s="1">
         <v>0</v>
@@ -5801,10 +5911,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D175" s="1">
         <v>0</v>
@@ -5815,10 +5925,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D176" s="1">
         <v>2</v>
@@ -5829,10 +5939,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="D177" s="1">
         <v>0</v>
@@ -5843,10 +5953,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D178" s="1">
         <v>0</v>
@@ -5857,10 +5967,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D179" s="1">
         <v>0</v>
@@ -5871,10 +5981,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="D180" s="1">
         <v>2</v>
@@ -5885,10 +5995,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="D181" s="1">
         <v>2</v>
@@ -5899,10 +6009,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D182" s="1">
         <v>2</v>
@@ -5913,10 +6023,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D183" s="1">
         <v>1</v>
@@ -5927,10 +6037,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D184" s="1">
         <v>0</v>
@@ -5941,10 +6051,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D185" s="1">
         <v>2</v>
@@ -5955,10 +6065,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D186" s="1">
         <v>0</v>
@@ -5969,10 +6079,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D187" s="1">
         <v>2</v>
@@ -5983,10 +6093,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="D188" s="1">
         <v>2</v>
@@ -5997,10 +6107,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="D189" s="1">
         <v>0</v>
@@ -6011,10 +6121,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D190" s="1">
         <v>1</v>
@@ -6025,10 +6135,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="D191" s="1">
         <v>1</v>
@@ -6039,10 +6149,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="D192" s="1">
         <v>0</v>
@@ -6053,10 +6163,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D193" s="1">
         <v>2</v>
@@ -6067,10 +6177,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="D194" s="1">
         <v>1</v>
@@ -6081,10 +6191,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="D195" s="1">
         <v>1</v>
@@ -6095,24 +6205,24 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D196" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>698</v>
       </c>
       <c r="D197" s="1">
         <v>0</v>
@@ -6123,10 +6233,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D198" s="1">
         <v>2</v>
@@ -6137,10 +6247,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="D199" s="1">
         <v>1</v>
@@ -6151,10 +6261,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="D200" s="1">
         <v>0</v>
@@ -6165,10 +6275,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D201" s="1">
         <v>0</v>
@@ -6179,10 +6289,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="D202" s="1">
         <v>2</v>
@@ -6193,10 +6303,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D203" s="1">
         <v>1</v>
@@ -6207,10 +6317,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="D204" s="1">
         <v>2</v>
@@ -6221,10 +6331,10 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="D205" s="1">
         <v>1</v>
@@ -6235,10 +6345,10 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D206" s="1">
         <v>0</v>
@@ -6249,10 +6359,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D207" s="1">
         <v>0</v>
@@ -6263,10 +6373,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D208" s="1">
         <v>1</v>
@@ -6277,10 +6387,10 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="D209" s="1">
         <v>1</v>
@@ -6291,10 +6401,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="D210" s="1">
         <v>1</v>
@@ -6305,10 +6415,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="D211" s="1">
         <v>0</v>
@@ -6319,10 +6429,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="D212" s="1">
         <v>1</v>
@@ -6333,10 +6443,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D213" s="1">
         <v>1</v>
@@ -6347,10 +6457,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D214" s="1">
         <v>0</v>
@@ -6361,10 +6471,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D215" s="1">
         <v>1</v>
@@ -6375,10 +6485,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D216" s="1">
         <v>1</v>
@@ -6389,10 +6499,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D217" s="1">
         <v>1</v>
@@ -6403,10 +6513,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D218" s="1">
         <v>2</v>
@@ -6417,10 +6527,10 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="D219" s="1">
         <v>1</v>
@@ -6431,10 +6541,10 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D220" s="1">
         <v>0</v>
@@ -6445,10 +6555,10 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D221" s="1">
         <v>1</v>
@@ -6459,10 +6569,10 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D222" s="1">
         <v>1</v>
@@ -6473,10 +6583,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="D223" s="1">
         <v>2</v>
@@ -6487,10 +6597,10 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="D224" s="1">
         <v>1</v>
@@ -6501,10 +6611,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="D225" s="1">
         <v>1</v>
@@ -6515,10 +6625,10 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D226" s="1">
         <v>1</v>
@@ -6529,10 +6639,10 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="D227" s="1">
         <v>2</v>
@@ -6543,10 +6653,10 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="D228" s="1">
         <v>2</v>
@@ -6557,10 +6667,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="D229" s="1">
         <v>2</v>
@@ -6571,10 +6681,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="D230" s="1">
         <v>0</v>
@@ -6585,10 +6695,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D231" s="1">
         <v>0</v>
@@ -6599,10 +6709,10 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="D232" s="1">
         <v>1</v>
@@ -6613,10 +6723,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D233" s="1">
         <v>1</v>
@@ -6627,10 +6737,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="D234" s="1">
         <v>1</v>
@@ -6641,10 +6751,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="D235" s="1">
         <v>1</v>
@@ -6655,10 +6765,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D236" s="1">
         <v>1</v>
@@ -6669,10 +6779,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="D237" s="1">
         <v>0</v>
@@ -6683,10 +6793,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="D238" s="1">
         <v>0</v>
@@ -6697,10 +6807,10 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D239" s="1">
         <v>2</v>
@@ -6711,10 +6821,10 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="D240" s="1">
         <v>2</v>
@@ -6725,10 +6835,10 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D241" s="1">
         <v>2</v>
@@ -6739,10 +6849,10 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="D242" s="1">
         <v>2</v>
@@ -6753,10 +6863,10 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="D243" s="1">
         <v>1</v>
@@ -6767,10 +6877,10 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D244" s="1">
         <v>1</v>
@@ -6781,10 +6891,10 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D245" s="1">
         <v>0</v>
@@ -6795,10 +6905,10 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D246" s="1">
         <v>2</v>
@@ -6809,10 +6919,10 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="D247" s="1">
         <v>1</v>
@@ -6823,10 +6933,10 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D248" s="1">
         <v>1</v>
@@ -6837,24 +6947,24 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D249" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" ht="225" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>399</v>
+        <v>703</v>
       </c>
       <c r="D250" s="1">
         <v>1</v>
@@ -6865,10 +6975,10 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="D251" s="1">
         <v>1</v>
@@ -6879,10 +6989,10 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="D252" s="1">
         <v>1</v>
@@ -6893,10 +7003,10 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="D253" s="1">
         <v>1</v>
@@ -6907,10 +7017,10 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="D254" s="1">
         <v>1</v>
@@ -6921,10 +7031,10 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D255" s="1">
         <v>2</v>
@@ -6935,10 +7045,10 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D256" s="1">
         <v>1</v>
@@ -6949,10 +7059,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D257" s="1">
         <v>1</v>
@@ -6963,10 +7073,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="D258" s="1">
         <v>1</v>
@@ -6977,10 +7087,10 @@
         <v>258</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D259" s="1">
         <v>1</v>
@@ -6991,10 +7101,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D260" s="1">
         <v>1</v>
@@ -7005,10 +7115,10 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D261" s="1">
         <v>1</v>
@@ -7019,10 +7129,10 @@
         <v>261</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D262" s="1">
         <v>1</v>
@@ -7033,10 +7143,10 @@
         <v>262</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D263" s="1">
         <v>0</v>
@@ -7047,10 +7157,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D264" s="1">
         <v>0</v>
@@ -7061,10 +7171,10 @@
         <v>264</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D265" s="1">
         <v>1</v>
@@ -7075,10 +7185,10 @@
         <v>265</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="D266" s="1">
         <v>1</v>
@@ -7089,10 +7199,10 @@
         <v>266</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D267" s="1">
         <v>0</v>
@@ -7103,10 +7213,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="D268" s="1">
         <v>2</v>
@@ -7117,10 +7227,10 @@
         <v>268</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="D269" s="1">
         <v>0</v>
@@ -7131,10 +7241,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D270" s="1">
         <v>0</v>
@@ -7145,10 +7255,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D271" s="1">
         <v>0</v>
@@ -7159,10 +7269,10 @@
         <v>271</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="D272" s="1">
         <v>0</v>
@@ -7173,10 +7283,10 @@
         <v>272</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="D273" s="1">
         <v>0</v>
@@ -7187,10 +7297,10 @@
         <v>273</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="D274" s="1">
         <v>0</v>
@@ -7201,10 +7311,10 @@
         <v>274</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="D275" s="1">
         <v>0</v>
@@ -7215,10 +7325,10 @@
         <v>275</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D276" s="1">
         <v>0</v>
@@ -7229,10 +7339,10 @@
         <v>276</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D277" s="1">
         <v>0</v>
@@ -7243,10 +7353,10 @@
         <v>277</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D278" s="1">
         <v>0</v>
@@ -7257,10 +7367,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="D279" s="1">
         <v>0</v>
@@ -7271,10 +7381,10 @@
         <v>279</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D280" s="1">
         <v>0</v>
@@ -7285,10 +7395,10 @@
         <v>280</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D281" s="1">
         <v>0</v>
@@ -7299,10 +7409,10 @@
         <v>281</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D282" s="1">
         <v>0</v>
@@ -7313,10 +7423,10 @@
         <v>282</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D283" s="1">
         <v>0</v>
@@ -7327,10 +7437,10 @@
         <v>283</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D284" s="1">
         <v>0</v>
@@ -7341,10 +7451,10 @@
         <v>284</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="D285" s="1">
         <v>0</v>
@@ -7355,10 +7465,10 @@
         <v>285</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="D286" s="1">
         <v>0</v>
@@ -7369,10 +7479,10 @@
         <v>286</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="D287" s="1">
         <v>0</v>
@@ -7383,10 +7493,10 @@
         <v>287</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D288" s="1">
         <v>1</v>
@@ -7397,10 +7507,10 @@
         <v>288</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D289" s="1">
         <v>0</v>
@@ -7411,10 +7521,10 @@
         <v>289</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="D290" s="1">
         <v>0</v>
@@ -7425,10 +7535,10 @@
         <v>290</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D291" s="1">
         <v>0</v>
@@ -7439,10 +7549,10 @@
         <v>291</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="D292" s="1">
         <v>0</v>
@@ -7453,10 +7563,10 @@
         <v>292</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D293" s="1">
         <v>0</v>
@@ -7467,10 +7577,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="D294" s="1">
         <v>0</v>
@@ -7481,10 +7591,10 @@
         <v>294</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="D295" s="1">
         <v>0</v>
@@ -7495,10 +7605,10 @@
         <v>295</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D296" s="1">
         <v>0</v>
@@ -7509,10 +7619,10 @@
         <v>296</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="D297" s="1">
         <v>0</v>
@@ -7523,10 +7633,10 @@
         <v>297</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="D298" s="1">
         <v>0</v>
@@ -7537,10 +7647,10 @@
         <v>298</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="D299" s="1">
         <v>0</v>
@@ -7551,10 +7661,10 @@
         <v>299</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D300" s="1">
         <v>0</v>
@@ -7565,10 +7675,10 @@
         <v>300</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="D301" s="1">
         <v>0</v>
@@ -7579,10 +7689,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D302" s="1">
         <v>0</v>
@@ -7593,10 +7703,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="D303" s="1">
         <v>0</v>
@@ -7607,10 +7717,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="D304" s="1">
         <v>0</v>
@@ -7621,10 +7731,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="D305" s="1">
         <v>0</v>
@@ -7635,10 +7745,10 @@
         <v>305</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D306" s="1">
         <v>2</v>
@@ -7649,10 +7759,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D307" s="1">
         <v>0</v>
@@ -7663,10 +7773,10 @@
         <v>307</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D308" s="1">
         <v>1</v>
@@ -7677,10 +7787,10 @@
         <v>308</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D309" s="1">
         <v>2</v>
@@ -7691,10 +7801,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D310" s="1">
         <v>1</v>
@@ -7705,10 +7815,10 @@
         <v>310</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="D311" s="1">
         <v>1</v>
@@ -7719,10 +7829,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D312" s="1">
         <v>1</v>
@@ -7733,10 +7843,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="D313" s="1">
         <v>1</v>
@@ -7747,10 +7857,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="D314" s="1">
         <v>1</v>
@@ -7761,10 +7871,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="D315" s="1">
         <v>0</v>
@@ -7775,10 +7885,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="D316" s="1">
         <v>2</v>
@@ -7789,10 +7899,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="D317" s="1">
         <v>1</v>
@@ -7803,10 +7913,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="D318" s="1">
         <v>0</v>
@@ -7817,10 +7927,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D319" s="1">
         <v>1</v>
@@ -7831,10 +7941,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D320" s="1">
         <v>0</v>
@@ -7845,10 +7955,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="D321" s="1">
         <v>0</v>
@@ -7859,10 +7969,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="D322" s="1">
         <v>0</v>
@@ -7873,10 +7983,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D323" s="1">
         <v>0</v>
@@ -7887,10 +7997,10 @@
         <v>323</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D324" s="1">
         <v>0</v>
@@ -7901,10 +8011,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D325" s="1">
         <v>2</v>
@@ -7915,10 +8025,10 @@
         <v>325</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D326" s="1">
         <v>1</v>
@@ -7929,10 +8039,10 @@
         <v>326</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="D327" s="1">
         <v>1</v>
@@ -7943,10 +8053,10 @@
         <v>327</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="D328" s="1">
         <v>2</v>
@@ -7957,10 +8067,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="D329" s="1">
         <v>2</v>
@@ -7971,10 +8081,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="D330" s="1">
         <v>2</v>
@@ -7985,10 +8095,10 @@
         <v>330</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="D331" s="1">
         <v>2</v>
@@ -7999,10 +8109,10 @@
         <v>331</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="D332" s="1">
         <v>2</v>
@@ -8013,10 +8123,10 @@
         <v>332</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="D333" s="1">
         <v>2</v>
@@ -8027,10 +8137,10 @@
         <v>333</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="D334" s="1">
         <v>2</v>
@@ -8041,10 +8151,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="D335" s="1">
         <v>2</v>
@@ -8055,10 +8165,10 @@
         <v>335</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="D336" s="1">
         <v>2</v>
@@ -8069,10 +8179,10 @@
         <v>336</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="D337" s="1">
         <v>2</v>
@@ -8083,10 +8193,10 @@
         <v>337</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="D338" s="1">
         <v>2</v>
@@ -8097,10 +8207,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="D339" s="1">
         <v>2</v>
@@ -8111,10 +8221,10 @@
         <v>339</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="D340" s="1">
         <v>2</v>
@@ -8125,10 +8235,10 @@
         <v>340</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="D341" s="1">
         <v>2</v>
@@ -8139,10 +8249,10 @@
         <v>341</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="D342" s="1">
         <v>2</v>
@@ -8153,10 +8263,10 @@
         <v>342</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="D343" s="1">
         <v>2</v>
@@ -8167,10 +8277,10 @@
         <v>343</v>
       </c>
       <c r="B344" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="C344" s="2" t="s">
         <v>684</v>
-      </c>
-      <c r="C344" s="2" t="s">
-        <v>690</v>
       </c>
       <c r="D344" s="1">
         <v>2</v>
@@ -8181,10 +8291,10 @@
         <v>344</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="D345" s="1">
         <v>2</v>
@@ -8195,10 +8305,10 @@
         <v>345</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="C346" s="9" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="D346" s="1">
         <v>2</v>
@@ -8209,10 +8319,10 @@
         <v>346</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="D347" s="1">
         <v>2</v>
@@ -8223,10 +8333,10 @@
         <v>347</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="D348" s="1">
         <v>2</v>
@@ -8237,21 +8347,21 @@
         <v>348</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="D349" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>349</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>700</v>
@@ -8265,10 +8375,10 @@
         <v>350</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="D351" s="1">
         <v>2</v>
@@ -8279,14 +8389,118 @@
         <v>351</v>
       </c>
       <c r="B352" s="7" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="C352" s="10" t="s">
+        <v>699</v>
+      </c>
+      <c r="D352" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A353" s="8">
+        <v>352</v>
+      </c>
+      <c r="B353" s="8" t="s">
         <v>704</v>
       </c>
-      <c r="D352" s="7">
-        <v>2</v>
-      </c>
+      <c r="C353" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="D353" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A354" s="1">
+        <v>353</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="D354" s="1"/>
+    </row>
+    <row r="355" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A355" s="1">
+        <v>354</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="D355" s="1"/>
+    </row>
+    <row r="356" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A356" s="1">
+        <v>355</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="D356" s="1"/>
+    </row>
+    <row r="357" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A357" s="1">
+        <v>356</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="D357" s="1"/>
+    </row>
+    <row r="358" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A358" s="1">
+        <v>357</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="D358" s="1"/>
+    </row>
+    <row r="359" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A359" s="1">
+        <v>358</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="D359" s="1"/>
+    </row>
+    <row r="360" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A360" s="1">
+        <v>359</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="D360" s="1"/>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361" s="1"/>
+      <c r="B361" s="1"/>
+      <c r="C361" s="1"/>
+      <c r="D361" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Quiz 3/bin/Debug/net9.0/Quiz3.xlsx
+++ b/Quiz 3/bin/Debug/net9.0/Quiz3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\Quiz 3\Quiz 3\bin\Debug\net9.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9400A7-3FE9-448E-BF7A-6AD03EB7A3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414BCD0C-FD8D-42D5-A682-6EBF7722F3B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A52166B1-4494-480B-A027-66F199F0B402}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="735">
   <si>
     <t>Id</t>
   </si>
@@ -830,9 +830,6 @@
     <t xml:space="preserve">DbC Design by contract </t>
   </si>
   <si>
-    <t>26 основных паттернов микросервисной разработки</t>
-  </si>
-  <si>
     <t>Шаблон «Разбиение по бизнес-возможностям»
  (Decompose By Business Capability)</t>
   </si>
@@ -2067,6 +2064,988 @@
     Task&lt;Order&gt; GetByIdAsync(Guid orderId);
     Task AddAsync(Order order);    
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MediatR в CQRS архитектуре выступает в роли посредника между клиентом и обработчиками команд/запросов . Позволяет убрать прямую зависимость клиента от обработчика
+</t>
+  </si>
+  <si>
+    <t>Eventual consistency важно в CQRS потому что:
+1.  Read и Write модели  невозможно мгновенно синхронизировать
+2. асинхронное обновление Read модели не блокирует Write операций
+3. Read и Write модели можно масштабировать независимо
+4. проблемы в Read модели не ломают Write операции
+5. позволяет использовать разные БД и технологии
+Без eventual consistency CQRS теряет свои основные преимущества.</t>
+  </si>
+  <si>
+    <t>1. неявные связи между моделями
+2. Потеря производительности 
+3. Сложность отладки - непонятные ошибки маппинга
+4. Нарушение инкапсуляции - маппинг приватных полей
+5.  изменения в одной модели ломают другую</t>
+  </si>
+  <si>
+    <t>это уникальный идентификатор, который связывает все сообщения и события в рамках одного бизнес-процесса или экземпляра саги. Он автоматически передаётся по цепочке обработки, позволяя отслеживать полный путь выполнения операции.</t>
+  </si>
+  <si>
+    <t>1.  связывание событий по Correlation ID
+2. отслеживание цепочек событий 
+3.  версионирование событий
+4.  изоляция проблемных событий в Dead Letter Queue (DLQ) -
+5.  агрегация логов всех сервисов</t>
+  </si>
+  <si>
+    <t>1. Разные модели для чтения и записи
+2. Оптимизация каждого сценария отдельно
+3. Можно масштабировать чтение независимо от записи</t>
+  </si>
+  <si>
+    <t>Напрямую gRPC не работает через HTTP/1.1. Для этой цели используется специальное расширение — gRPC-Web, которое работает через прокси, преобразующий бинарные сообщения gRPC в текстовый формат, совместимый с HTTP/1.1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Query Handler — это компонент в паттерне CQRS, отвечающий за обработку запросов на чтение данных. Его главная задача — эффективно и безопасно возвращать данные, не изменяя состояние системы. Его основные обязанности: Выполнение запросов, Оптимизация чтения, Пагинация и сортировка, 
+фильтрация и агрегация данных
+</t>
+  </si>
+  <si>
+    <t>1. Идемпотентность операций
+2. использовать уникальные идентификаторы
+3. перед выполнением операции проверять, не была ли она уже выполнена
+4.  Хранение истории выполненных операций</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Во-первых, он значительно усложняет архитектуру - появляются дополнительные таблицы в БД, нужны фоновые воркеры для обработки сообщений, что увеличивает сложность системы.
+  Во-вторых, возникает задержка доставки событий - сообщения отправляются не мгновенно, а обрабатываются фоново, что может быть критично для систем реального времени.
+  В-третьих, сохраняется риск дублирования сообщений при сбоях во время отправки, что требует дополнительных механизмов дедупликации.
+ Также появляется дополнительная нагрузка на базу данных из-за постоянных операций чтения и удаления записей из outbox-таблицы."</t>
+  </si>
+  <si>
+    <t>Тонкая Сага положительно влияет на тестируемость благодаря разделению ответственности:
+ Во-первых, сага фокусируется только на оркестрации процесса, что позволяет тестировать переходы между состояниями изолированно от бизнес-логики.
+ Во-вторых, бизнес-логика тестируется отдельно в соответствующих сервисах, что соответствует принципу единой ответственности.
+ В-третьих, поскольку сага не зависит от деталей реализации доменных сервисов, их легко подменять моками и стабами в тестах, что упрощает написание unit-тестов.
+ Таким образом, мы получаем чистые, сфокусированные тесты для каждой части системы без сложных зависимостей."</t>
+  </si>
+  <si>
+    <t>HTTP 202 Accepted - "запрос принят, но еще обрабатывается"
+возврат доступных данных с пометкой "обновляется"</t>
+  </si>
+  <si>
+    <t>обеспечивают низкоуровневое соединение по TCP. По сути это  соединение для передачи байтовых массивов.</t>
+  </si>
+  <si>
+    <t>Только RESTful API — не поддерживает gRPC, GraphQL, WebSockets
+не подходит для  описания сложных бизнес-правил</t>
+  </si>
+  <si>
+    <t>Domain Service отвечает за бизнес логику, зависит только от доменных объектов, без состояния и не управляет транзакциями
+Application Service Координирует бизнес процесс приложения
+Управляет транзакциями
+Работает с внешними сервисами</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Идемпотентность 
+2. игнорирование потребителем сообщения с уже обработанным ID
+</t>
+  </si>
+  <si>
+    <t>"Контракт в Protocol Buffers задается через .proto файлы, которые содержат строго типизированное описание данных и сервисов.</t>
+  </si>
+  <si>
+    <t>1. Создавать читаемую цепочку методов, которая описывает бизнес-процесс.
+2. Выделение шагов саги в отдельные классы
+3. Атрибуты для метаданных шагов
+4. Разделение саг по бизнес-контекстам</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> что вызывает переход
+что происходит в доменной области
+ однозначное понимание условия</t>
+  </si>
+  <si>
+    <t>паттерн для построения отказоустойчивых распределенных систем, который предотвращает каскадные сбои.
+это паттерн, который отслеживает количество неудачных вызовов удаленного сервиса и при превышении порога автоматически "разрывает цепь",
+ перенаправляя все последующие вызовы в обход проблемного сервиса, пока он не восстановится.
+1. ЗАКРЫТО (CLOSED) - Нормальная работа
+Запросы свободно проходят к удаленному сервису
+Ведутся счетчики успешных и неудачных вызовов
+При превышении порога ошибок переходит в состояние OPEN
+2. ОТКРЫТО (OPEN) - Защитный режим
+Все запросы немедленно отклоняются без обращения к проблемному сервису
+Возвращается заранее заданное значение (fallback) или ошибка
+После таймаута переходит в состояние HALF-OPEN
+3. ПОЛУОТКРЫТО (HALF-OPEN) - Тестовый режим
+Пропускается ограниченное количество пробных запросов
+Если они успешны — переходит в CLOSED
+Если есть ошибки — возвращается в OPEN</t>
+  </si>
+  <si>
+    <t>предоставляет способ связи по протоколу UDP.  Протокол UDP более эффективен для быстрой передачи данных, 
+так как вы недостаточно заботитесь о том, чтобы они были надежными и безошибочными. 
+Вот некоторые примеры: потоковое видео, прямые трансляции и передача голоса по IP (VoIP).</t>
+  </si>
+  <si>
+    <t>1. Клиентское приложение может быть "легким", так как вся сложная логика обработки и хранения данных вынесена на сервер.
+2.  Сервер обрабатывает каждый запрос независимо, не опираясь на данные из предыдущих запросов этого же клиента.
+3. Редко изменяемые данные нужно временно хранить локально у клиента или на сервере.
+4.  API должен быть универсальными интерфейсом, определяющимся 4 HTTP-глаголами: GET , POST , PUT  и DELETE.
+5. Многослойная архитектура предполагает, что ни клиент, ни сервер не должны быть осведомлены о том, как осуществляется цепочка вызовов за пределами их непосредственных соседей.
+6.   Сервер может отправлять исполняемый код клиенту</t>
+  </si>
+  <si>
+    <t xml:space="preserve">это механизм сериализации структурированных данных от Google, альтернатива XML и JSON.
+1. Язык-независимый 
+2. Бинарный формат 
+3.  структуры данных описываются в .proto-файлах
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Малое количество (2-3 попытки):
+1.Пользовательские операции ,
+2. Высоконагруженные системы ,
+3. системы  где задержки критичны
+    Среднее количество (3-5 попыток):
+1. Фоновые задачи 
+2. Внешние API 
+     Большое количество (5+ попыток):
+1. Критичные бизнес-процессы 
+2. Системы с нестабильным сетью
+</t>
+  </si>
+  <si>
+    <t>Наиболее распространенный и надежный способ - использование заголовка Idempotency-Key с кешированием ответов на стороне сервера.</t>
+  </si>
+  <si>
+    <t>четкая граница, внутри которой определенная модель и единый язык имеют конкретное значение.
+ Сложная система разбивается на такие автономные модули</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Асинхронные изменения через события вместо синхронных транзакций.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exponential retry (экспоненциальный):
+Пауза между попытками увеличивается по экспоненте (удваивается или растёт по степени).
+Incremental retry (инкрементальный):
+Пауза между попытками увеличивается на фиксированную величину.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тело запроса содержит данные, которые клиент отправляет серверу для обработки. Передаётся в виде текста в различных форматах:JSON, XML, Protocol Buffers
+Тело запроса используется в методах POST, PUT, PATCH для создания или обновления ресурсов.
+</t>
+  </si>
+  <si>
+    <t>Сценарий:
+Если оплата не поступила в течение 30 минут то автоматическая отмена заказа.
+Реализация в MassTransit:
+При создании заказа сага планирует таймаут на 30 минут
+При получении оплаты таймаут отменяется
+Если таймаут срабатывает то запускается компенсация (разбронирование товара)</t>
+  </si>
+  <si>
+    <t>Producer отправляет сообщение в Exchange и указывает routing key.
+Exchange, получив сообщение, смотрит на свой тип  и routing key.
+На основе типа Exchange и привязок (Bindings), сообщение попадает в одну или несколько очередей.
+Сообщение лежит в очереди, пока не придет Consumer.
+Consumer "подписывается" на очередь и забирает сообщение. RabbitMQ может подтвердить доставку .
+Тип Exchange определяет логику маршрутизации. Основные типы:
+   Direct (Прямой):
+ Сообщение идет в очередь, у которой routing key точно совпадает с ключом в сообщении.
+    Fanout (Широковещательный):
+ Exchange игнорирует routing key и рассылает копию сообщения во все очереди, которые к нему привязаны.
+    Topic (Тематический):
+ routing key — это строка, разделенная точками (например, "logs.error.application1"). А привязка к очереди использует шаблон с wildcards (* - одно слово, # - ноль или несколько слов).
+    Headers (Заголовочный):
+ Игнорирует routing key и смотрит на заголовки сообщения. Привязка указывает, какие заголовки и с какими значениями должны совпасть.</t>
+  </si>
+  <si>
+    <t>Keep-Alive только переиспользует соединение, а мультиплексирование позволяет настоящую параллельную обработку.</t>
+  </si>
+  <si>
+    <t>1. Не менять номера тегов существующих полей
+2. Не изменять типы существующих полей
+3. Новые поля добавлять с новыми номерами тегов
+4. Устаревшие поля помечать как reserved вместо удаления
+5. Старый код игнорирует неизвестные поля - это ключевое поведение</t>
+  </si>
+  <si>
+    <t>это условие или бизнес-правило, которое должно всегда соблюдаться на протяжении всего времени жизни объекта или агрегата.</t>
+  </si>
+  <si>
+    <t>На уровне транспорта надо обрабатывать технические сбои:
+На уровне домена надо обрабатывать бизнес-сбои:</t>
+  </si>
+  <si>
+    <t>1. Каждый микросервис решает одну бизнес-задачу и делает это хорошо.
+2. Можно обновить один сервис, не трогая остальные.
+3.Проблемы в одном сервисе не должны "убивать" всю систему.
+4. У каждого сервиса своя база данных.
+5. Сервисы общаются только через API, не зная внутренней реализации друг друга.
+6. Сервисы четко определяют, какой API они предоставляют.
+7. Разные сервисы могут использовать разные технологии.
+ 8. Всё автоматизировано: сборка, тестирование, развертывание.
+9. Можно понять что происходит в системе без дебага.
+10. Архитектура отражает бизнес-домен, а не технические решения.</t>
+  </si>
+  <si>
+    <t>delayed message становится видимым потребителю только после истечения заданного таймаута</t>
+  </si>
+  <si>
+    <t>1. В одной транзакции с бизнес-операцией записываем событие в таблицу Outbox
+2. Фоновая служба периодически опрашивает таблицу на новые сообщения
+3. При нахождении сообщений - отправляет их в брокер (Kafka/RabbitMQ)
+4. После успешной отправки помечает сообщения как обработанные
+5. Реализует retry-логику на случай временных сбоев</t>
+  </si>
+  <si>
+    <t>Outbox-паттерн решает проблему согласованности данных при отправке событий в микросервисной архитектуре. Без него мы сталкиваемся с ситуацией, когда бизнес-данные сохраняются в БД, но событие не отправляется в брокер сообщений, или наоборот.
+"Суть паттерна в том, что мы сначала сохраняем событие в специальную таблицу Outbox в той же транзакции, что и бизнес-данные, а затем фоновая задача гарантированно доставляет эти события в брокер сообщений."</t>
+  </si>
+  <si>
+    <t>что такое Redis</t>
+  </si>
+  <si>
+    <t>REST (Representational State Transfer) — это архитектурный стиль для построения веб-сервисов. 
+Он использует стандартные HTTP-методы (GET, POST, PUT, DELETE) для работы с ресурсами, которые представлены в формате JSON или XML.</t>
+  </si>
+  <si>
+    <t>Паттерн предлагает разбивать монолитную систему на микросервисы, ориентируясь на  бизнес-возможности.
+ Каждая бизнес-возможность становится отдельным микросервисом.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MediatR упрощает обработку событий через медиатор-паттерн. Вместо прямых зависимостей между компонентами, мы просто публикуем событие через IMediator, а библиотека автоматически находит и запускает все подписанные обработчики. Это дает:
+1. Слабую связанность 
+2. Автоматическую диспетчеризацию 
+3. Параллельное выполнение 
+4. Простое тестирование </t>
+  </si>
+  <si>
+    <t>это сущность, которая выступает единственной точкой входа для работы со всем агрегатом.
+Его ключевые задачи:
+1.  Он гарантирует, что всё состояние агрегата (все внутренние сущности и value objects) всегда будет согласованным и будет соответствовать бизнес-правилам.
+2. Внешний код не может напрямую менять внутренние объекты агрегата. Все изменения — только через методы Aggregate Root.
+3.Весь агрегат сохраняется в базу как единое целое.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pipeline (пайплайн/конвейер) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> это цепочка обработки, где запрос последовательно проходит через несколько компонентов (middleware), каждый из которых выполняет свою конкретную задачу.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Атрибут [ResponseCache] —  на уровне контроллеров и методов
+2.  UseResponseCaching —  на уровне pipeline
+3. Ручная работа с заголовками — через HttpContext.Response.Headers
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Для идентификаторов сущностей используем [Entity]Id в PascalCase для типов и camelCase для параметров. 
+Для CorrelationId — стандартное название CorrelationId </t>
+  </si>
+  <si>
+    <t>Eventual Consistency — это модель, где данные в распределенной системе не гарантируют мгновенной согласованности, но обещают стать согласованными через некоторое время. Это плата за высокую производительность и доступность в распределенных системах.</t>
+  </si>
+  <si>
+    <t>Design by Contract(контрактное программирование.) — это подход, где каждый компонент системы имеет четкий контракт:
+Предусловия — что должно быть истинно до вызова метода
+Постусловия — что будет гарантировано после выполнения
+Инварианты — что должно быть неизменным во время работы</t>
+  </si>
+  <si>
+    <t>Слишком большая транзакция опасна тем, что она надолго захватывает ресурсы , что приводит к четырем основным проблемам:
+Блокировкам и даже взаимоблокировкам (deadlocks) .
+Падению производительности всей системы .
+Росту логов и потреблению памяти, что может "положить" базу данных.
+Таймаутам и отказам .</t>
+  </si>
+  <si>
+    <t>При зависании шага саги:
+1. Срабатывает таймаут (предварительно настроенный)
+2. Сага переходит в статус Fault
+3. Запускаются компенсирующие операции для отката выполненных шагов
+4. Система уведомляет о проблеме для ручного вмешательства</t>
+  </si>
+  <si>
+    <t>Fluent API что это</t>
+  </si>
+  <si>
+    <t>В MassTransit саги реализуются через наследование от MassTransitStateMachine&lt;T&gt;, где T — класс состояния. Мы определяем состояния, события и переходы между ними через fluent-конфигурацию</t>
+  </si>
+  <si>
+    <t>Value Objects идеально подходят для инкапсуляции инвариантов, потому что они:
+Централизуют валидацию — правила проверки в одном месте
+Гарантируют валидность — невозможно создать объект в невалидном состоянии
+Упрощают бизнес-логику — сущности работают уже с гарантированно корректными данными</t>
+  </si>
+  <si>
+    <t>1. При сохранении одного агрегата - чтобы гарантировать его целостность
+2. В паттерне Outbox - когда в одной транзакции сохраняем и агрегат, и его события
+3. Для  операций в рамках одного контекста, где нужно изменить 2-3 агрегата атомарно</t>
+  </si>
+  <si>
+    <t>Мы сохраняем Domain Events в ту же транзакцию, что и агрегат, который их породил. Обычно для этого используется отдельная таблица domain_events в той же базе данных. Это гарантирует, что событие не будет потеряно и будет обработано.</t>
+  </si>
+  <si>
+    <t>Saga — это паттерн для управления распределенными транзакциями в микросервисной архитектуре,
+ где традиционные ACID-транзакции невозможны.
+ Паттерн обеспечивает конечную согласованность данных через последовательность локальных транзакций с компенсирующими действиями.
+Типы координации Saga:
+1. Хореография (Choreography) - Децентрализованная
+Каждый сервис самостоятельно решает, что делать дальше на основе событий.
+2. Оркестрация (Orchestration) - Централизованная
+Есть центральный координатор (Orchestrator), который управляет процессом.
+Логика реализации Saga
+1. Разбиваем большую транзакцию на последовательность локальных
+2. Для каждого шага определяем компенсацию для отката
+3. Выбираем тип координации в зависимости от сложности
+4. Обеспечиваем идемпотентность и устойчивость к сбоям
+5. Сохраняем состояние для восстановления
+фреймворк NServiceBus/MassTransit (.NET ecosystem)</t>
+  </si>
+  <si>
+    <t>gRPC — высокопроизводительный RPC-фреймворк, который  применяется для межсервисного взаимодействия, использующий контракты на основе Protobuf и HTTP/2 .
+ Для взаимодйствия создаем  proto-файл, а потом gRPC автоматически генерирует код для клиента и сервера.
+Бывает 4 типа взаимодействия в gRPC:
+Унарный (запрос-ответ)
+Серверные/клиентские потоки
+Двунаправленные потоки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Это подход для построения фронтенда в микросервисной архитектуре, где каждый микросервис отвечает за свой независимый фрагмент UI на странице. Эти фрагменты (виджеты, компоненты) собираются и управляются прямо в браузере, что позволяет им развиваться и развертываться автономно. </t>
+  </si>
+  <si>
+    <t>Это стратегия поэтапного рефакторинга «Монолита в сторону Микросервисов» .  Вместо рискованного полного переписывания, мы постепенно «выделяем» по одной бизнес-возможности из монолита в микросервис. После этого  трафик на  направляется в новый сервис через API-шлюз, а старый код в монолите со временем удаляется. Таким образом, монолит медленно «усыхает».</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.  специализированные БД (EventStoreDB) оптимизированные для потоков событий
+2.  SQL  с версионированием и индексами
+3. Outbox Pattern - временное хранилище в той же транзакции что и агрегат
+4. брокеры сообщений
+5. MongoDB
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В хореографии нет центрального координатора. Сервисы взаимодействуют через события. Каждый сервис публикует события и подписывается на интересующие его события от других сервисов. Сервисы сами принимают решения о дальнейших действиях.</t>
+  </si>
+  <si>
+    <t>Как можно оптимизировать работу с Read Model?</t>
+  </si>
+  <si>
+    <t>При временных сбоях система выполняет автоматические ретраи, а в случае неудачи — запускает компенсирующие события для отката изменений, переводя сагу в статус ошибки.</t>
+  </si>
+  <si>
+    <t>Из-за избыточности синтаксиса и большого объема, что мешает быстро понять суть API</t>
+  </si>
+  <si>
+    <t>Потому что система переходит в неконсистентное состояние, а разработчик теряет возможность диагностировать проблему. Ошибка не исправляется, а маскируется, создавая скрытые проблемы, которые проявятся позже</t>
+  </si>
+  <si>
+    <t>это старая технология связи между процессами, основанная на SOAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. имена существительные 
+2.множественная форма
+3. не включать в маршрут лишние глобальные маршруты
+4. Возвращать json по умолчанию
+5. Всегда добавлять название типа для верхнеуровнего массива.
+6. Вместо map структур возвращайте массив обьектов
+7. возвращать идентификаторы как строки
+8. Аккуратная обработка ошибок и возврат стандартных кодов ошибок
+9. Реализововать по возможности идемпотентные механизмы там, где их можно реализовать.
+10. Используйте ISO8601 для даты
+11. Версионирование </t>
+  </si>
+  <si>
+    <t>Fluent API — это подход к проектированию API, который позволяет выстраивать вызовы методов в цепочку,
+ делая код более читаемым.</t>
+  </si>
+  <si>
+    <t>В ASP.NET Core для этого используются атрибуты фильтров, такие как [Authorize]</t>
+  </si>
+  <si>
+    <t>Retry-механизм безопасно применять только к идемпотентным операциям. Идемпотентность гарантирует, что при повторных вызовах не произойдет дублирующихся побочных эффектов, таких как двойное списание денег или создание двух заказов вместо одного</t>
+  </si>
+  <si>
+    <t>Состояние экземпляра Saga хранится в базе данных. MassTransit для этого предоставляет готовые библиотеки для разных СУБД, например, PostgreSQL, Redis или MongoDB.</t>
+  </si>
+  <si>
+    <t>это метод для создания отдельной цепочки обработки запросов, которые начинаются с определенного пути.</t>
+  </si>
+  <si>
+    <t>Толстая сага нарушает принцип единственной ответственности (SRP), 
+так как начинает сама содержать бизнес-логику, а не просто оркестрировать вызовы сервисов. 
+Это приводит к сильной связности и сложности тестирования.</t>
+  </si>
+  <si>
+    <t>Это атрибут, который ограничивает доступ к контроллеру или методу, проверяя, что пользователь аутентифицирован и, 
+опционально, имеет нужные права (роли или политики).</t>
+  </si>
+  <si>
+    <t>Они создают сильную временную связность между сервисами. Все участники транзакции должны быть доступны одновременно и удерживать блокировки на протяжении всего процесса, что убивает доступность и производительность.</t>
+  </si>
+  <si>
+    <t>Тонкая сага содержит только логику оркестрации процесса: переходы между состояниями, корреляцию сообщений и планирование компенсирующих действий. Вся бизнес-логика и вызовы к другим сервисам выносятся наружу, в отдельные обработчики.</t>
+  </si>
+  <si>
+    <t>(Remote Procedure Call)  RPC — это концепция, в рамках которой программа на одном сервере 
+может вызвать функцию на другом сервере .</t>
+  </si>
+  <si>
+    <t>Границы агрегата — это четко очерченная область, внутри которой данные и бизнес-правила образуют единое целое. Внешние системы могут ссылаться только на корень агрегата, а не на его внутренние объекты</t>
+  </si>
+  <si>
+    <t>это подход, при котором клиент (сервис-потребитель) делает запрос к стабильному endpoint'у 
+(например, балансировщику нагрузки или DNS-имени), 
+а инфраструктура автоматически перенаправляет этот запрос на один из доступных экземпляров сервиса.</t>
+  </si>
+  <si>
+    <t>Паттерн предлагает разбивать систему на микросервисы, ориентируясь на  поддомены. 
+Каждый поддомен  становится кандидатом в отдельный микросервис.</t>
+  </si>
+  <si>
+    <t>Проблема решается не на уровне протокола, а с помощью инструментов. Основные из них — это gRPC-Gateway для автоматического создания REST API из .proto файлов и gRPC-Web для подключения браузерных клиентов.</t>
+  </si>
+  <si>
+    <t>Да, есть несколько способов
+Для событий (INotification) 
+Для команд (IRequest)</t>
+  </si>
+  <si>
+    <t>Можно ли объединять несколько обработчиков в один? MediatR</t>
+  </si>
+  <si>
+    <t>Это метод в ASP.NET Core для присвоения имени маршруту, чтобы ссылаться на него по имени, а не по URL</t>
+  </si>
+  <si>
+    <t>Endpoint Filters работают на уровне эндпоинтов в Minimal API . Action Filters — это часть MVC и работают на уровне контроллеров и действий.</t>
+  </si>
+  <si>
+    <t>Создаем единый класс-обертку для всех ошибок, который возвращает стандартный JSON с полями: 
+HTTP статус, код ошибки, сообщение для пользователя и технические детали для разработки.</t>
+  </si>
+  <si>
+    <t>это подход, при котором потребители сервиса (consumers) определяют свои ожидания от провайдера в виде "контрактов", 
+а провайдер проверяет, что его реализация соответствует этим контрактам .</t>
+  </si>
+  <si>
+    <t>В Minimal API сервисы внедряются в делегат как параметры. DI контейнер автоматически разрешит зависимости при вызове эндпоинта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Event Sourcing — это архитектурный паттерн, при котором мы храним не текущее состояние сущности, а всю последовательность событий, которые с ней произошли.
+Все изменения фиксируются как последовательность неизменяемых событий
+Каждое событие — это факт, который уже произошел в системе
+Текущее состояние вычисляется путем применения всех предыдущих событий
+События хранятся постоянно </t>
+  </si>
+  <si>
+    <t xml:space="preserve">это фундаментальный механизм в CQRS для асинхронной синхронизации  Read Model на основе фактов, произошедших в домене.
+</t>
+  </si>
+  <si>
+    <t>Для включения авторизации на эндпоинте используется метод .RequireAuthorization(), которому можно передать название политики. Для группы эндпоинтов этот метод вызывается на группе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redis — это высокопроизводительная база данных типа «ключ-значение» в оперативной памяти, которая часто используется как кэш . 
+</t>
+  </si>
+  <si>
+    <t>1. Выявляем поддомены, на которые влияют новые требования, чтобы понять границы изменений.
+2. Определяем тип каждого поддомена (ядро, поддерживающий, общий) — это помогает расставить приоритеты в разработке.
+3. Формируем ограниченные контексты (Bounded Contexts) — это четкие границы, где применяются единые модели и язык (Ubiquitous Language).
+4. Внутри каждого контекста выявляем агрегаты (Aggregates) — кластеры сущностей, которые являются точками внесения изменений и гарантируют целостность данных.
+5.  Конечная цель — отобразить эти агрегаты на физические микросервисы, чтобы каждый сервис был автономен и отвечал за свою бизнес-способность.</t>
+  </si>
+  <si>
+    <t>Создаем класс команды или запроса, реализующий IRequest или IRequest&lt;T&gt;, и класс обработчика, реализующий IRequestHandler&lt;T&gt;, где T это команда. Регистрируем MediatR в DI, указав сборку с обработчиками.</t>
+  </si>
+  <si>
+    <t>1. Позволяют разным частям системы (особенно в разных ограниченных контекстах) реагировать на изменения, не вызывая друг друга напрямую. Это делает архитектуру чище и гибче.
+2.  События домена делают важные бизнес-факты (например, ЗаказПодтверждён или ПлатежПрошел) явной частью модели, а не скрытой логикой в коде.
+3.  Дают возможность обрабатывать побочные эффекты асинхронно, что повышает отзывчивость и устойчивость системы.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Создаем класс, реализующий IEndpointFilter
+Регистрируем в конкретном эндпоинте через .AddEndpointFilter&lt;T&gt;():</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> это компоненты в ASP.NET Core, которые выполняют проверку прав доступа к ресурсам до выполнения действия контроллера </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OpenAPI даёт три ключевые выгоды: во-первых, он служит формальным контрактом между фронтендом и бэкендом, устраняя недопонимание. Во-вторых, автоматически генерирует всегда актуальную документацию. И в-третьих, позволяет автоматизировать тестирование и кодогенерацию.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чтобы протестировать идемпотентность команды, нужно выполнить её несколько раз с одинаковыми данными и ключом идемпотентности, и убедиться, что:
+Результат не изменился после повторов
+Не возникло дублирующих действий или записей в БД
+Система ведёт себя корректно </t>
+  </si>
+  <si>
+    <t>Для отслеживания состояния саги используется три ключевых элемента:
+Хранилище состояний — обычно это база данных, где для каждой саги хранится её текущий статус (например, "Выполняется", "Успешно", "Отменена").
+Корреляционный идентификатор — это уникальный ID, который связывает все шаги и события одной саги.
+События саги — каждое значимое действие (шаг выполнен, шаг не удался) порождает событие, которое обновляет состояние саги в хранилище</t>
+  </si>
+  <si>
+    <t>хранит данные, необходимые для выполнения бизнес-логики и обеспечения консистентности.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Оборачиваем функцию, которая может упасть, в компонент, который автоматически перезапускает её по заданным правилам.</t>
+  </si>
+  <si>
+    <t>1. Бизнес-логические исключения
+2. Ошибки аутентификации/авторизации 
+3. Ошибки "Not Found"
+4. Ошибки формата данных
+5. Ошибки "Not Supported"/"Not Implemented"     
+6. Ошибки лимитов</t>
+  </si>
+  <si>
+    <t>это стандартная спецификация для описания RESTful API в  формате (YAML/JSON).</t>
+  </si>
+  <si>
+    <t>Корректное сравнение по значению, Потокобезопасность, при работе с  ссылками нет побочных эффектов</t>
+  </si>
+  <si>
+    <t>Специфичные - рядом с агрегатами, общие - в Domain/Services. Главное - сохранять их в доменном слое.</t>
+  </si>
+  <si>
+    <t>Command Handler тестируется на нескольких уровнях с фокусом на изоляцию бизнес-логики и проверку взаимодействий.
+1. Unit-тесты
+2. Тестирование доменных событий
+3. Валидация бизнес-правил
+4. Интеграционные тесты</t>
+  </si>
+  <si>
+    <t>Так как тонкая сага не содержит  бизнес логику то  переносимость саги между брокерами возможна без изменений её кода.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Централизованное управление позволяет полный контроль над процессом
+Простота отслеживания  так как оркестратор логирует все шаги
+ проще управлять откатами
+ явная бизнес-логика
+Минусы оркестрации:
+ выход из строя оркестратора ломает весь процесс
+ сервисы зависят от оркестратора
+Сложность масштабирования 
+</t>
+  </si>
+  <si>
+    <t>Это не просто модель данных для базы. Это модель бизнес-логики. Её задача — не просто хранить данные, а реализовывать операции и правила предметной области.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">это язык запросов для API, разработанный Facebook. Он позволяет клиенту запрашивать именно те данные, которые ему нужны с сервера.  
+Таким образом, вы можете создать только одну конечную точку на сервере, которая будет чрезвычайно гибкой
+ и будет возвращать только те данные, которые нужны клиенту. </t>
+  </si>
+  <si>
+    <t>ORM-маппинг — это преобразование между объектами в коде и данными в реляционной БД .
+Маппинг между моделями — это преобразование между разными представлениями данных внутри приложения</t>
+  </si>
+  <si>
+    <t>builder.Services.AddSingleton()</t>
+  </si>
+  <si>
+    <t>это метод регистрации сервиса в DI-контейнере ASP.NET Core с Singleton временем жизни.
+Singleton означает, что ОДИН экземпляр сервиса создается на ВСЕ время работы приложения и используется для всех запросов и всех потребителей</t>
+  </si>
+  <si>
+    <t>app.MapMethods("/api/orders", new[] { "GET", "POST" }, async context =&gt;)</t>
+  </si>
+  <si>
+    <t>1. Устойчивость к временным сбоям 
+2. Сглаживания пиковых нагрузок 
+3.  система может автоматически восстановиться без ручного вмешательства
+4. позволяют избегать лавинообразного роста запросов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Simple Object Access Protocol) — это протокол для обмена структурированными сообщениями в распределенных системах, 
+использующий формат XML </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SOLID - это набор из 5 принципов объектно-ориентированного программирования,
+ которые делают код более понятным, гибким и поддерживаемым.
+1. S - Single Responsibility Principle (Принцип единственной ответственности)
+Каждый класс должен иметь только одну причину для изменения.
+2. O - Open/Closed Principle (Принцип открытости/закрытости)
+Классы должны быть открыты для расширения, но закрыты для модификации.
+3. L - Liskov Substitution Principle (Принцип подстановки Лисков)
+ Классы наследники должны быть способны заменить свои базовые классы.
+4. I - Interface Segregation Principle (Принцип разделения интерфейсов)
+Много специализированных интерфейсов лучше, чем один универсальный.
+5. D - Dependency Inversion Principle (Принцип инверсии зависимостей)
+Зависимости должны строиться на абстракциях, а не на конкретных реализациях.</t>
+  </si>
+  <si>
+    <t>это программный интерфейс, который следует принципам архитектурного стиля REST.
+Это способ организации веб-сервиса, где всё строится вокруг ресурсов и стандартных HTTP-действий над ними.</t>
+  </si>
+  <si>
+    <t>1.  Стандартное использование HTTP-методов (GET, POST, PUT, DELETE) .
+2.  Сервер не хранит состояние клиента между запросами. Каждый запрос самодостаточен.
+3. Ответы должны помечаться как кэшируемые или нет, чтобы повысить производительность.
+4. Клиент не знает, общается он напрямую с сервером или через прокси.</t>
+  </si>
+  <si>
+    <t>1.  Блокировки создают очереди из ожидающих потоков
+2. Риск взаимоблокировок (deadlocks) 
+3. Сложность масштабирования — тяжело распределять блокировки в кластере</t>
+  </si>
+  <si>
+    <t>1. Явное описание в конфигурации Swagger - через MapType&lt;T&gt;() или SchemaFilter, где вручную прописываются все свойства схемы.
+2. Schema-first подход - когда сначала пишется OpenAPI-спецификация в YAML/JSON, а затем из неё генерируются DTO-классы.</t>
+  </si>
+  <si>
+    <t>CommandHandler что такое?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> выполняет команды на изменение данных (Create, Update, Delete). Не возвращает данные, только подтверждение выполнения.</t>
+  </si>
+  <si>
+    <t>QueryHandler что такое?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> выполняет запросы на чтение данных. Возвращает DTO или результаты выборки без изменения состояния системы.</t>
+  </si>
+  <si>
+    <t>Tcp и Udp отличия</t>
+  </si>
+  <si>
+    <t>TCP — надежный, с установкой соединения, гарантирует доставку и порядок пакетов, но медленнее. Подходит для веба и почты. UDP — быстрый, без соединения, без гарантий доставки, но с минимальной задержкой. Идеален для стриминга и онлайн-игр.</t>
+  </si>
+  <si>
+    <t>Раньше стандартный ответ был "нет", потому что классический HTTP/1.x и HTTP/2 работают поверх TCP, который обеспечивает надежность. 
+Однако с появлением HTTP/3 ситуация изменилась.</t>
+  </si>
+  <si>
+    <t>можно ли HTTP поверх UDP</t>
+  </si>
+  <si>
+    <t>1. Версионирование в URI (URL-based)
+2. Версионирование через заголовки
+3. через параметры запроса Версия передается как параметр
+4. Версионирование через медиа-типы  Версия указывается в заголовке Accept</t>
+  </si>
+  <si>
+    <t>Варианты версионирования</t>
+  </si>
+  <si>
+    <t>что используется вместо фильтров</t>
+  </si>
+  <si>
+    <t>В ASP.NET Core вместо глобальных фильтров используются Middleware, а вместо MVC-фильтров — встроенные Filter pipeline, 
+но с измененным подходом к регистрации и более гибкой архитектурой.
+Middleware - app.UseAuthentication();
+builder.Services.AddControllers(options =&gt;
+{
+    options.Filters.Add&lt;GlobalExceptionFilter&gt;();
+});</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> — это конвейер компонентов, которые последовательно обрабатывают HTTP-запрос. Каждый middleware получает запрос, выполняет свою логику, и передает управление следующему через RequestDelegate. Порядок регистрации middleware критически важен, так как определяет последовательность обработки. Middleware может обрабатывать запрос до и после следующего компонента в цепочке, а также полностью прерывать обработку.
+</t>
+  </si>
+  <si>
+    <t>как ускорить Api</t>
+  </si>
+  <si>
+    <t>Latency (задержка) — это время между отправкой запроса и получением ответа. Измеряется в миллисекундах (ms) и
+ является ключевой метрикой производительности любых распределенных систем.</t>
+  </si>
+  <si>
+    <t>что такое latency</t>
+  </si>
+  <si>
+    <t>Примеры агрегата</t>
+  </si>
+  <si>
+    <t>Пример 1: Интернет-магазин — Заказ (Order)
+Пример 2: Банковский счет — BankAccount
+Пример 3: Социальная сеть — Post</t>
+  </si>
+  <si>
+    <t>Пример 1: Money (Денежная сумма)
+Пример 2: Address (Адрес доставки)
+Пример 3: Product Dimensions (Габариты товара)
+Пример 4: Product Rating (Рейтинг товара)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">как масштабировать чтение в CQRS </t>
+  </si>
+  <si>
+    <t>какие базы для Query и Command</t>
+  </si>
+  <si>
+    <t>Как ускорить запись</t>
+  </si>
+  <si>
+    <t>Ускорение API требует комплексного подхода: оптимизация запросов к БД, кэширование на разных уровнях, сжатие данных
+ и горизонтальное масштабирование</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Репликация БД </t>
+  </si>
+  <si>
+    <t>это процесс автоматического копирования данных с основного сервера (master) на один или несколько вторичных серверов (replicas)
+ для обеспечения отказоустойчивости, масштабирования чтения и географического распределения.</t>
+  </si>
+  <si>
+    <t>Чтение в CQRS масштабируем через репликацию БД, кэширование Redis, материализованные представления и специализированные хранилища типа Elasticsearch</t>
+  </si>
+  <si>
+    <t>Ускоряем запись в CQRS через асинхронную обработку команд, Event Sourcing, шардинг и оптимизированные write-модели.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Для Command стороны используем транзакционные БД (PostgreSQL/SQL Server) для гарантии согласованности.
+ Для Query стороны — специализированные БД под конкретные сценарии: Redis для кэширования, Elasticsearch для поиска, ClickHouse для аналитики. 
+</t>
+  </si>
+  <si>
+    <t>POEAA</t>
+  </si>
+  <si>
+    <t>паттерны POEAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POEAA — это каталог паттернов Мартина Фаулера для разработки enterprise-приложений. В DDD мы используем эти паттерны для реализации доменной модели, работы с данными и организации кода. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Domain Model Pattern - Представление бизнес-логики через объекты домена с поведением.
+2. Repository Pattern - Абстракция для доступа к доменным объектам, как к коллекции в памяти.
+3. Unit of Work Pattern - Сохранение целостности транзакций при работе с несколькими репозиториями.
+4. Service Layer Pattern -  Определение границы приложения и координация бизнес-операций.
+5. Data Mapper Pattern - Отделение объектов домена от логики сохранения в БД.
+6. Table Gateway &amp; Row Data Gateway - Паттерны доступа к данным, которые в DDD заменяются на Repository.
+7. Lazy Load Pattern - Отложенная загрузка связанных объектов.
+8. Identity Map Pattern - Гарантирует, что каждый объект загружается только один раз за сессию.
+ 9. Specification Pattern - Инкапсуляция бизнес-правил для фильтрации и проверки.
+10. </t>
+  </si>
+  <si>
+    <t>Inbox решает проблему дублирующей обработки сообщений. При получении события сохраняем его ID в таблицу Inbox в той же транзакции, 
+что и бизнес-данные. При повторном получении проверяем эту таблицу и игнорируем дубликат. Это обеспечивает идемпотентность обработки</t>
+  </si>
+  <si>
+    <t>паттерн Inbox</t>
+  </si>
+  <si>
+    <t>Доменный слой абсолютно независим — он не связан ни с какими другими слоями. Все остальные слои (Application, Infrastructure) 
+зависят от доменного слоя, но сам доменный слой не зависит ни от кого. Это ядро системы, содержащее только бизнес-логику.</t>
+  </si>
+  <si>
+    <t>В DDD что в каждом слое происходит?</t>
+  </si>
+  <si>
+    <t>как можно указывать роутинг для эндпоинтов MVC minimal Api</t>
+  </si>
+  <si>
+    <t>Minimal API — быстрая настройка маршрутов прямо в Program.cs через Map-методы.
+MVC — атрибутная маршрутизация в контроллерах через [Route], [HttpGet] etc.
+Группировка — MapGroup() для общего префикса и политик роутинга.</t>
+  </si>
+  <si>
+    <t>где мы создаем события и ловим события</t>
+  </si>
+  <si>
+    <t>как доменный слой связан с остальными</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Пример 1: Взаимодействие нескольких Агрегатов
+Сценарий: Перевод денег с одного счета BankAccount на другой.
+Пример 2: Использование внешней системы для доменного правила
+Сценарий: Проверка кредитного рейтинга клиента при оформлении заказа выше определенной суммы. Система скоринга — внешняя.</t>
+  </si>
+  <si>
+    <t>Domain Layer(Доменный Слой ) — агрегаты генерируют доменные события при бизнес-операциях
+Application Layer(Прикладной Слой) — может создавать integration events для других сервисов
+Обработка событий:
+Application Layer — обработчики доменных событий (отправка email, уведомлений)
+Infrastructure Layer — обработчики integration events (коммуникация между сервисами)</t>
+  </si>
+  <si>
+    <t>Domain Layer (Доменный Слой ) — бизнес-логика: сущности, value objects, агрегаты, доменные сервисы, интерфейсы для репозиториев и правила предметной области.
+Application Layer (Прикладной Слой)— координация: оркестрирует workflow( координирует задачи приложения),обработка доменных событий, работа с агргатами, использует доменные объекты, не содержит бизнес-логики.
+Infrastructure Layer (Слой Инфраструктуры)  — техническая реализация: БД, внешние API, файловая система, реализует интерфейсы домена, реализация репозиториев.
+Presentation Layer (Слой Представления) — взаимодействие с пользователем: UI, API controllers, преобразует DTO.</t>
+  </si>
+  <si>
+    <t>это события, которые происходят в доменной области и представляют важные факты, случившиеся в системе.
+Жизненный цикл:
+1. Определение События (в Доменном Слое)
+2. Событие генерируется внутри Агрегата, когда происходит значимое изменение его состояния.
+3. Публикация Событий (в Прикладном Слое)
+4. Обработка Событий (в Прикладном Слое или отдельном проекте)</t>
+  </si>
+  <si>
+    <t>MediatR решает проблему сильной связанности, заставляя компоненты общаться не напрямую, а через "посредника". Это делает код чище, тестируемее (легко подменить обработчик) и лучше соответствует принципу единственной ответственности. Его два основных механизма — это Send для команд/запросов (1 обработчик) и Publish для событий (N обработчиков), что идеально ложится на архитектуру CQRS и событийно-ориентированного дизайна</t>
+  </si>
+  <si>
+    <t>MassTransit — это популярная библиотека для .NET, которая реализует паттерны обмена сообщениями и значительно упрощает создание распределенных приложений, в том числе и Saga.
+MassTransit предоставляет два основных подхода к созданию саг:
+1. Автомат состояний (State Machine)
+Вы описываете сагу как конечный автомат.
+Определяете состояния (States) вашей бизнес-процедуры
+Определяете события (Events), которые переводят сагу из одного состояния в другое
+MassTransit берет на себя всю рутину: отслеживание текущего состояния для каждого экземпляра саги, маршрутизацию событий в нужный экземпляр и вызов соответствующей логики.
+2. Рутинг-слип (Routing Slip): Более декларативный подход, где вы описываете весь маршрут обработки как последовательность шагов, а MassTransit гарантирует его прохождение.
+Проще говоря, MassTransit избавляет вас от необходимости вручную писать код для:
+Хранения состояния саги.
+Поиска нужной саги при приходе нового события.
+Управления компенсирующими транзакциями на низком уровне.</t>
+  </si>
+  <si>
+    <t>для чего нужен CorrelationId</t>
+  </si>
+  <si>
+    <t>MassTransit использует CorrelationId для:
+Нахождения нужного экземпляра саги в своем хранилище состояний.
+Применения события к правильному экземпляру, чтобы перевести его в следующее состояние и выполнить нужную бизнес-логику.
+Без CorrelationId сага не смогла бы работать — она не отличала бы один запущенный процесс от другого.</t>
+  </si>
+  <si>
+    <t>Как в .NET можно реализовать политику повторных попыток (retry policy)
+ для такого вызова, не используя ручной try/catch и циклы в коде?</t>
+  </si>
+  <si>
+    <t>Для реализации повторных попыток без ручного try/catch я бы использовал библиотеку Polly. 
+Она позволяет декларативно настроить политику повторов (например, с экспоненциальной задержкой)
+ и зарегистрировать её для конкретного HttpClient через IHttpClientFactory. Таким образом, вся логика повторов инкапсулирована в политике, 
+и мой бизнес-код не загроможден обработкой временных сбоев.</t>
+  </si>
+  <si>
+    <t>Чем "RESTful" API отличается от RPC-стиля или просто HTTP+JSON API?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPC-стиль (Remote Procedure Call):
+Фокус на действиях. URI представляют собой действия (/api/createUser, /api/getOrders, /api/calculateTax).
+Использует в основном POST или GET .Это просто вызов удаленных функций по HTTP.
+HTTP+JSON API (часто ошибочно называют REST)
+Использует HTTP-методы (GET, POST, PUT, DELETE) и JSON, но URI часто все еще RPC-подобные
+RESTful API:
+Фокус на ресурсах (существительных). URI идентифицируют ресурсы (/users, /users/123).
+Использует семантику HTTP-методов: GET (получить), POST (создать), PUT/PATCH (заменить/обновить), DELETE (удалить).
+Использует коды состояний HTTP: 200 (OK), 201 (Created), 404 (Not Found), 409 (Conflict)
+Ответ для /users/123 может содержать ссылки на связанные ресурсы:
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> паттерн нужный при интеграции систем и миграции с монолита на микросервисы. 
+Его главная цель — защитить вашу новую, чистую архитектуру от "повреждающего" влияния устаревших или внешних систем.
+Сценарий 1: Миграция с монолита (в паре со "душителем")
+Сценарий 2: Интеграция с внешней системой
+Обычно состоит из трех компонентов. Адаптер, Маппер, Фасад</t>
+  </si>
+  <si>
+    <t>Представьте, что вы проектируете REST API endpoint для получения списка товаров
+ (GET /api/products). Какие стандартные подходы и параметры запроса вы бы использовали для реализации пагинации, 
+фильтрации и сортировки? Почему именно такие?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">общепринято использовать следующие query-параметры:
+1. Пагинация. Устанавливаем с какой позиции или страницы начать через offset или page. Сколько записей вернуть limit или size.
+2. Сортировка. Sort - устанавливаем по какому полю сортировать order или direction направление сортировки ASC или DESC
+3. Фильтрация - Выборка данных по критериям. 
+Простой подход использовать имя и значение.
+Сложный\гибкий подход через специальные операторы(gt, lt, like)
+</t>
+  </si>
+  <si>
+    <t>Как настроить аутентификацию (например, JWT Bearer Token)
+в Swagger UI для ASP.NET Core, чтобы можно было авторизоваться прямо 
+в интерфейсе документации и отправлять авторизованные запросы 
+к защищенным эндпоинтам?</t>
+  </si>
+  <si>
+    <t>builder.Services.AddSwaggerGen(options=&gt; 
+options.AddSecurityDefinition("Bearer", new OpenApiSecurityScheme)
+options.AddSecurityRequirement(new OpenApiSecurityRequirement)
+Чтобы добавить JWT-аутентификацию в Swagger UI, нужно в методе AddSwaggerGen определить схему безопасности с помощью AddSecurityDefinition, указав тип Http и схему bearer, а затем применить это требование глобально через AddSecurityRequirement. После этого в интерфейсе Swagger появится кнопка "Authorize" для ввода токена, и все исходящие запросы будут автоматически включать его в заголовок Authorization</t>
+  </si>
+  <si>
+    <t>Какую цель преследуют доменные события</t>
+  </si>
+  <si>
+    <t>1. Снижение связанности между агрегатами
+2.  Они позволяют реализовать реакции на изменения в системе. Например, "при оформлении заказа (OrderPlaced) -&gt; списать товары со склада"
+3. Согласованность в конечном счете (Eventual Consistency):</t>
+  </si>
+  <si>
+    <t>Жизненный цикл: Генерация и Публикация доменных событий</t>
+  </si>
+  <si>
+    <t>1. События генерируются внутри методов Aggregate Root в ответ на вызов команды.
+2. Агрегат не публикует события сразу. 
+ чтоб событие не было "потеряно" оно будет обработано в той же транзакции, что и изменение агрегата.
+3. События публикуются сразу после того, как агрегат успешно сохранен в базу данных в рамках текущей транзакции.</t>
+  </si>
+  <si>
+    <t>В ASP.NET Core есть несколько механизмов для сквозной 
+функциональности: Middleware, Фильтры и Endpoint Filters. 
+Объясните, в чём их ключевые различия?
+ В каком сценарии вы бы выбрали каждый из этих механизмов?</t>
+  </si>
+  <si>
+    <t>Middleware -обрабатывает каждый запрос. Глобальная, не связанная с бизнес-логикой функциональность: аутентификация,
+кеширование на уровне ответа,   кастомная обработка ошибок на уровне протокола
+Фильтры - Уровень MVC работают на уровне контоллера или метода. Логика, тесно связанная с MVC: авторизация , валидация модели,   логирование входных/выходных параметров конкретного действия.
+Endpoint Filters - Работают в контексте отдельного Endpoint'a, Логика для Minimal API и отдельных эндпоинтов: простая валидация входящих данных, обработка ошибок для конкретного API, легковесная пред-/пост-обработка.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Схема, при которой клиент напрямую обращается к центральному реестру за актуальным списком экземпляров сервиса и сам выбирает, куда направить запрос.</t>
+  </si>
+  <si>
+    <t>Политика повторных попыток (Retry Policy)</t>
+  </si>
+  <si>
+    <t>Политика повторных попыток (Retry Policy) — это механизм, который автоматически повторяет выполнение операции 
+(например, вызов другого сервиса или запрос к базе данных) в случае её сбоя, предполагая, 
+что этот сбой носит временный характер (network glitch, timeout, temporary overload).
+Ключевые параметры для настройки:
+1. Максимальное количество попыток (Max Retry Count)
+2. Стратегия задержки
+3. Обрабатываемые ошибки 
+Стратегии задержки:
+Постоянная
+Экспоненциальная 
+Линейная</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Основные механизмы аутентификации и их сценарии</t>
+  </si>
+  <si>
+    <t>1. JWT-токены (JSON Web Tokens): Сервер генерирует подписанный токен, содержащий claims (утверждения о пользователе). 
+Клиент отправляет этот токен в заголовке Authorization: Bearer &lt;token&gt;. Подходит для мобильных приложений и микросервисных архитектур
+2. Аутентификация на основе кук (Cookie Authentication):Сервер после проверки логина/пароля устанавливает в ответе браузеру защищенную (httpOnly, secure) куку. Браузер автоматически отправляет её с каждым последующим запросом . Классические веб-приложения под браузер
+3. OAuth 2.0 / OpenID Connect: Делегирование аутентификации внешнему провайдеру (Google, Microsoft, Facebook). 
+Ваше приложение получает токен доступа или ID-токен.</t>
+  </si>
+  <si>
+    <t>Какие основные типы ошибок встречаются в распределённых системах?
+ Приведите примеры.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Временные (Transient) ошибки: Сетевой таймаут, временная недоступность базы данных, занятость сервиса. Повтор запроса (Retry) 
+2. Постоянные (Persistent) ошибки: Ошибка в коде (HTTP 500 из-за NullReferenceException), неверные данные запроса (HTTP 400), 
+отсутствие прав доступа (HTTP 403).  НЕ повторять бесконечно. Залогировать ошибку и вернуть понятный ответ клиенту.
+3. Частичные отказы (Partial Failures): Отказ одного компонента системы, в то время как остальные работают.
+Сервис корзины падает, а сервис каталога товаров продолжает работать.
+ Использование резервных решений (Fallbacks) и автоматических выключателей (Circuit Breaker).
+</t>
+  </si>
+  <si>
+    <t>Стратегия "Log and Continue" (Зарегистрировать и продолжить):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">При возникновении ошибки, которая не является критической для выполнения основной операции, система регистрирует её в лог (например, не удалось отправить метрику или оповещение в телеграм), но продолжает обрабатывать основной запрос.
+</t>
+  </si>
+  <si>
+    <t>29 основных паттернов микросервисной разработки</t>
   </si>
   <si>
     <t>1.  «Разбиение по бизнес-возможностям»
@@ -2094,357 +3073,14 @@
 23. Шаблон «Посредник» («Посол», Ambassador)
 24. Шаблон «Коляска» («Прицеп», Sidecar)
 25. Шаблон «Тестирование контрактов, ориентированных на потребителя»
-26. Шаблон «Внешняя конфигурация»</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MediatR в CQRS архитектуре выступает в роли посредника между клиентом и обработчиками команд/запросов . Позволяет убрать прямую зависимость клиента от обработчика
-</t>
-  </si>
-  <si>
-    <t>Eventual consistency важно в CQRS потому что:
-1.  Read и Write модели  невозможно мгновенно синхронизировать
-2. асинхронное обновление Read модели не блокирует Write операций
-3. Read и Write модели можно масштабировать независимо
-4. проблемы в Read модели не ломают Write операции
-5. позволяет использовать разные БД и технологии
-Без eventual consistency CQRS теряет свои основные преимущества.</t>
-  </si>
-  <si>
-    <t>1. неявные связи между моделями
-2. Потеря производительности 
-3. Сложность отладки - непонятные ошибки маппинга
-4. Нарушение инкапсуляции - маппинг приватных полей
-5.  изменения в одной модели ломают другую</t>
-  </si>
-  <si>
-    <t>это уникальный идентификатор, который связывает все сообщения и события в рамках одного бизнес-процесса или экземпляра саги. Он автоматически передаётся по цепочке обработки, позволяя отслеживать полный путь выполнения операции.</t>
-  </si>
-  <si>
-    <t>1.  связывание событий по Correlation ID
-2. отслеживание цепочек событий 
-3.  версионирование событий
-4.  изоляция проблемных событий в Dead Letter Queue (DLQ) -
-5.  агрегация логов всех сервисов</t>
-  </si>
-  <si>
-    <t>1. Разные модели для чтения и записи
-2. Оптимизация каждого сценария отдельно
-3. Можно масштабировать чтение независимо от записи</t>
-  </si>
-  <si>
-    <t>Напрямую gRPC не работает через HTTP/1.1. Для этой цели используется специальное расширение — gRPC-Web, которое работает через прокси, преобразующий бинарные сообщения gRPC в текстовый формат, совместимый с HTTP/1.1.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Query Handler — это компонент в паттерне CQRS, отвечающий за обработку запросов на чтение данных. Его главная задача — эффективно и безопасно возвращать данные, не изменяя состояние системы. Его основные обязанности: Выполнение запросов, Оптимизация чтения, Пагинация и сортировка, 
-фильтрация и агрегация данных
-</t>
-  </si>
-  <si>
-    <t>1. Идемпотентность операций
-2. использовать уникальные идентификаторы
-3. перед выполнением операции проверять, не была ли она уже выполнена
-4.  Хранение истории выполненных операций</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Во-первых, он значительно усложняет архитектуру - появляются дополнительные таблицы в БД, нужны фоновые воркеры для обработки сообщений, что увеличивает сложность системы.
-  Во-вторых, возникает задержка доставки событий - сообщения отправляются не мгновенно, а обрабатываются фоново, что может быть критично для систем реального времени.
-  В-третьих, сохраняется риск дублирования сообщений при сбоях во время отправки, что требует дополнительных механизмов дедупликации.
- Также появляется дополнительная нагрузка на базу данных из-за постоянных операций чтения и удаления записей из outbox-таблицы."</t>
-  </si>
-  <si>
-    <t>Тонкая Сага положительно влияет на тестируемость благодаря разделению ответственности:
- Во-первых, сага фокусируется только на оркестрации процесса, что позволяет тестировать переходы между состояниями изолированно от бизнес-логики.
- Во-вторых, бизнес-логика тестируется отдельно в соответствующих сервисах, что соответствует принципу единой ответственности.
- В-третьих, поскольку сага не зависит от деталей реализации доменных сервисов, их легко подменять моками и стабами в тестах, что упрощает написание unit-тестов.
- Таким образом, мы получаем чистые, сфокусированные тесты для каждой части системы без сложных зависимостей."</t>
-  </si>
-  <si>
-    <t>HTTP 202 Accepted - "запрос принят, но еще обрабатывается"
-возврат доступных данных с пометкой "обновляется"</t>
-  </si>
-  <si>
-    <t>обеспечивают низкоуровневое соединение по TCP. По сути это  соединение для передачи байтовых массивов.</t>
-  </si>
-  <si>
-    <t>Только RESTful API — не поддерживает gRPC, GraphQL, WebSockets
-не подходит для  описания сложных бизнес-правил</t>
-  </si>
-  <si>
-    <t>Domain Service отвечает за бизнес логику, зависит только от доменных объектов, без состояния и не управляет транзакциями
-Application Service Координирует бизнес процесс приложения
-Управляет транзакциями
-Работает с внешними сервисами</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Идемпотентность 
-2. игнорирование потребителем сообщения с уже обработанным ID
-</t>
-  </si>
-  <si>
-    <t>"Контракт в Protocol Buffers задается через .proto файлы, которые содержат строго типизированное описание данных и сервисов.</t>
-  </si>
-  <si>
-    <t>1. Создавать читаемую цепочку методов, которая описывает бизнес-процесс.
-2. Выделение шагов саги в отдельные классы
-3. Атрибуты для метаданных шагов
-4. Разделение саг по бизнес-контекстам</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> что вызывает переход
-что происходит в доменной области
- однозначное понимание условия</t>
-  </si>
-  <si>
-    <t>паттерн для построения отказоустойчивых распределенных систем, который предотвращает каскадные сбои.
-это паттерн, который отслеживает количество неудачных вызовов удаленного сервиса и при превышении порога автоматически "разрывает цепь",
- перенаправляя все последующие вызовы в обход проблемного сервиса, пока он не восстановится.
-1. ЗАКРЫТО (CLOSED) - Нормальная работа
-Запросы свободно проходят к удаленному сервису
-Ведутся счетчики успешных и неудачных вызовов
-При превышении порога ошибок переходит в состояние OPEN
-2. ОТКРЫТО (OPEN) - Защитный режим
-Все запросы немедленно отклоняются без обращения к проблемному сервису
-Возвращается заранее заданное значение (fallback) или ошибка
-После таймаута переходит в состояние HALF-OPEN
-3. ПОЛУОТКРЫТО (HALF-OPEN) - Тестовый режим
-Пропускается ограниченное количество пробных запросов
-Если они успешны — переходит в CLOSED
-Если есть ошибки — возвращается в OPEN</t>
-  </si>
-  <si>
-    <t>предоставляет способ связи по протоколу UDP.  Протокол UDP более эффективен для быстрой передачи данных, 
-так как вы недостаточно заботитесь о том, чтобы они были надежными и безошибочными. 
-Вот некоторые примеры: потоковое видео, прямые трансляции и передача голоса по IP (VoIP).</t>
-  </si>
-  <si>
-    <t>1. Клиентское приложение может быть "легким", так как вся сложная логика обработки и хранения данных вынесена на сервер.
-2.  Сервер обрабатывает каждый запрос независимо, не опираясь на данные из предыдущих запросов этого же клиента.
-3. Редко изменяемые данные нужно временно хранить локально у клиента или на сервере.
-4.  API должен быть универсальными интерфейсом, определяющимся 4 HTTP-глаголами: GET , POST , PUT  и DELETE.
-5. Многослойная архитектура предполагает, что ни клиент, ни сервер не должны быть осведомлены о том, как осуществляется цепочка вызовов за пределами их непосредственных соседей.
-6.   Сервер может отправлять исполняемый код клиенту</t>
-  </si>
-  <si>
-    <t xml:space="preserve">это механизм сериализации структурированных данных от Google, альтернатива XML и JSON.
-1. Язык-независимый 
-2. Бинарный формат 
-3.  структуры данных описываются в .proto-файлах
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Малое количество (2-3 попытки):
-1.Пользовательские операции ,
-2. Высоконагруженные системы ,
-3. системы  где задержки критичны
-    Среднее количество (3-5 попыток):
-1. Фоновые задачи 
-2. Внешние API 
-     Большое количество (5+ попыток):
-1. Критичные бизнес-процессы 
-2. Системы с нестабильным сетью
-</t>
-  </si>
-  <si>
-    <t>Наиболее распространенный и надежный способ - использование заголовка Idempotency-Key с кешированием ответов на стороне сервера.</t>
-  </si>
-  <si>
-    <t>четкая граница, внутри которой определенная модель и единый язык имеют конкретное значение.
- Сложная система разбивается на такие автономные модули</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Асинхронные изменения через события вместо синхронных транзакций.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exponential retry (экспоненциальный):
-Пауза между попытками увеличивается по экспоненте (удваивается или растёт по степени).
-Incremental retry (инкрементальный):
-Пауза между попытками увеличивается на фиксированную величину.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тело запроса содержит данные, которые клиент отправляет серверу для обработки. Передаётся в виде текста в различных форматах:JSON, XML, Protocol Buffers
-Тело запроса используется в методах POST, PUT, PATCH для создания или обновления ресурсов.
-</t>
-  </si>
-  <si>
-    <t>Сценарий:
-Если оплата не поступила в течение 30 минут то автоматическая отмена заказа.
-Реализация в MassTransit:
-При создании заказа сага планирует таймаут на 30 минут
-При получении оплаты таймаут отменяется
-Если таймаут срабатывает то запускается компенсация (разбронирование товара)</t>
-  </si>
-  <si>
-    <t>Producer отправляет сообщение в Exchange и указывает routing key.
-Exchange, получив сообщение, смотрит на свой тип  и routing key.
-На основе типа Exchange и привязок (Bindings), сообщение попадает в одну или несколько очередей.
-Сообщение лежит в очереди, пока не придет Consumer.
-Consumer "подписывается" на очередь и забирает сообщение. RabbitMQ может подтвердить доставку .
-Тип Exchange определяет логику маршрутизации. Основные типы:
-   Direct (Прямой):
- Сообщение идет в очередь, у которой routing key точно совпадает с ключом в сообщении.
-    Fanout (Широковещательный):
- Exchange игнорирует routing key и рассылает копию сообщения во все очереди, которые к нему привязаны.
-    Topic (Тематический):
- routing key — это строка, разделенная точками (например, "logs.error.application1"). А привязка к очереди использует шаблон с wildcards (* - одно слово, # - ноль или несколько слов).
-    Headers (Заголовочный):
- Игнорирует routing key и смотрит на заголовки сообщения. Привязка указывает, какие заголовки и с какими значениями должны совпасть.</t>
-  </si>
-  <si>
-    <t>Keep-Alive только переиспользует соединение, а мультиплексирование позволяет настоящую параллельную обработку.</t>
-  </si>
-  <si>
-    <t>1. Не менять номера тегов существующих полей
-2. Не изменять типы существующих полей
-3. Новые поля добавлять с новыми номерами тегов
-4. Устаревшие поля помечать как reserved вместо удаления
-5. Старый код игнорирует неизвестные поля - это ключевое поведение</t>
-  </si>
-  <si>
-    <t>это условие или бизнес-правило, которое должно всегда соблюдаться на протяжении всего времени жизни объекта или агрегата.</t>
-  </si>
-  <si>
-    <t>На уровне транспорта надо обрабатывать технические сбои:
-На уровне домена надо обрабатывать бизнес-сбои:</t>
-  </si>
-  <si>
-    <t>1. Каждый микросервис решает одну бизнес-задачу и делает это хорошо.
-2. Можно обновить один сервис, не трогая остальные.
-3.Проблемы в одном сервисе не должны "убивать" всю систему.
-4. У каждого сервиса своя база данных.
-5. Сервисы общаются только через API, не зная внутренней реализации друг друга.
-6. Сервисы четко определяют, какой API они предоставляют.
-7. Разные сервисы могут использовать разные технологии.
- 8. Всё автоматизировано: сборка, тестирование, развертывание.
-9. Можно понять что происходит в системе без дебага.
-10. Архитектура отражает бизнес-домен, а не технические решения.</t>
-  </si>
-  <si>
-    <t>delayed message становится видимым потребителю только после истечения заданного таймаута</t>
-  </si>
-  <si>
-    <t>1. В одной транзакции с бизнес-операцией записываем событие в таблицу Outbox
-2. Фоновая служба периодически опрашивает таблицу на новые сообщения
-3. При нахождении сообщений - отправляет их в брокер (Kafka/RabbitMQ)
-4. После успешной отправки помечает сообщения как обработанные
-5. Реализует retry-логику на случай временных сбоев</t>
-  </si>
-  <si>
-    <t>Outbox-паттерн решает проблему согласованности данных при отправке событий в микросервисной архитектуре. Без него мы сталкиваемся с ситуацией, когда бизнес-данные сохраняются в БД, но событие не отправляется в брокер сообщений, или наоборот.
-"Суть паттерна в том, что мы сначала сохраняем событие в специальную таблицу Outbox в той же транзакции, что и бизнес-данные, а затем фоновая задача гарантированно доставляет эти события в брокер сообщений."</t>
-  </si>
-  <si>
-    <t>что такое Redis</t>
-  </si>
-  <si>
-    <t>REST (Representational State Transfer) — это архитектурный стиль для построения веб-сервисов. 
-Он использует стандартные HTTP-методы (GET, POST, PUT, DELETE) для работы с ресурсами, которые представлены в формате JSON или XML.</t>
-  </si>
-  <si>
-    <t>Паттерн предлагает разбивать монолитную систему на микросервисы, ориентируясь на  бизнес-возможности.
- Каждая бизнес-возможность становится отдельным микросервисом.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MediatR упрощает обработку событий через медиатор-паттерн. Вместо прямых зависимостей между компонентами, мы просто публикуем событие через IMediator, а библиотека автоматически находит и запускает все подписанные обработчики. Это дает:
-1. Слабую связанность 
-2. Автоматическую диспетчеризацию 
-3. Параллельное выполнение 
-4. Простое тестирование </t>
-  </si>
-  <si>
-    <t>это сущность, которая выступает единственной точкой входа для работы со всем агрегатом.
-Его ключевые задачи:
-1.  Он гарантирует, что всё состояние агрегата (все внутренние сущности и value objects) всегда будет согласованным и будет соответствовать бизнес-правилам.
-2. Внешний код не может напрямую менять внутренние объекты агрегата. Все изменения — только через методы Aggregate Root.
-3.Весь агрегат сохраняется в базу как единое целое.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pipeline (пайплайн/конвейер) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> это цепочка обработки, где запрос последовательно проходит через несколько компонентов (middleware), каждый из которых выполняет свою конкретную задачу.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Атрибут [ResponseCache] —  на уровне контроллеров и методов
-2.  UseResponseCaching —  на уровне pipeline
-3. Ручная работа с заголовками — через HttpContext.Response.Headers
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Для идентификаторов сущностей используем [Entity]Id в PascalCase для типов и camelCase для параметров. 
-Для CorrelationId — стандартное название CorrelationId </t>
-  </si>
-  <si>
-    <t>Eventual Consistency — это модель, где данные в распределенной системе не гарантируют мгновенной согласованности, но обещают стать согласованными через некоторое время. Это плата за высокую производительность и доступность в распределенных системах.</t>
-  </si>
-  <si>
-    <t>Design by Contract(контрактное программирование.) — это подход, где каждый компонент системы имеет четкий контракт:
-Предусловия — что должно быть истинно до вызова метода
-Постусловия — что будет гарантировано после выполнения
-Инварианты — что должно быть неизменным во время работы</t>
-  </si>
-  <si>
-    <t>Слишком большая транзакция опасна тем, что она надолго захватывает ресурсы , что приводит к четырем основным проблемам:
-Блокировкам и даже взаимоблокировкам (deadlocks) .
-Падению производительности всей системы .
-Росту логов и потреблению памяти, что может "положить" базу данных.
-Таймаутам и отказам .</t>
-  </si>
-  <si>
-    <t>При зависании шага саги:
-1. Срабатывает таймаут (предварительно настроенный)
-2. Сага переходит в статус Fault
-3. Запускаются компенсирующие операции для отката выполненных шагов
-4. Система уведомляет о проблеме для ручного вмешательства</t>
-  </si>
-  <si>
-    <t>Fluent API что это</t>
-  </si>
-  <si>
-    <t>В MassTransit саги реализуются через наследование от MassTransitStateMachine&lt;T&gt;, где T — класс состояния. Мы определяем состояния, события и переходы между ними через fluent-конфигурацию</t>
-  </si>
-  <si>
-    <t>Value Objects идеально подходят для инкапсуляции инвариантов, потому что они:
-Централизуют валидацию — правила проверки в одном месте
-Гарантируют валидность — невозможно создать объект в невалидном состоянии
-Упрощают бизнес-логику — сущности работают уже с гарантированно корректными данными</t>
-  </si>
-  <si>
-    <t>1. При сохранении одного агрегата - чтобы гарантировать его целостность
-2. В паттерне Outbox - когда в одной транзакции сохраняем и агрегат, и его события
-3. Для  операций в рамках одного контекста, где нужно изменить 2-3 агрегата атомарно</t>
-  </si>
-  <si>
-    <t>Мы сохраняем Domain Events в ту же транзакцию, что и агрегат, который их породил. Обычно для этого используется отдельная таблица domain_events в той же базе данных. Это гарантирует, что событие не будет потеряно и будет обработано.</t>
-  </si>
-  <si>
-    <t>Saga — это паттерн для управления распределенными транзакциями в микросервисной архитектуре,
- где традиционные ACID-транзакции невозможны.
- Паттерн обеспечивает конечную согласованность данных через последовательность локальных транзакций с компенсирующими действиями.
-Типы координации Saga:
-1. Хореография (Choreography) - Децентрализованная
-Каждый сервис самостоятельно решает, что делать дальше на основе событий.
-2. Оркестрация (Orchestration) - Централизованная
-Есть центральный координатор (Orchestrator), который управляет процессом.
-Логика реализации Saga
-1. Разбиваем большую транзакцию на последовательность локальных
-2. Для каждого шага определяем компенсацию для отката
-3. Выбираем тип координации в зависимости от сложности
-4. Обеспечиваем идемпотентность и устойчивость к сбоям
-5. Сохраняем состояние для восстановления
-фреймворк NServiceBus/MassTransit (.NET ecosystem)</t>
-  </si>
-  <si>
-    <t>gRPC — высокопроизводительный RPC-фреймворк, который  применяется для межсервисного взаимодействия, использующий контракты на основе Protobuf и HTTP/2 .
- Для взаимодйствия создаем  proto-файл, а потом gRPC автоматически генерирует код для клиента и сервера.
-Бывает 4 типа взаимодействия в gRPC:
-Унарный (запрос-ответ)
-Серверные/клиентские потоки
-Двунаправленные потоки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Это подход для построения фронтенда в микросервисной архитектуре, где каждый микросервис отвечает за свой независимый фрагмент UI на странице. Эти фрагменты (виджеты, компоненты) собираются и управляются прямо в браузере, что позволяет им развиваться и развертываться автономно. </t>
+26. Шаблон «Внешняя конфигурация»
+27. Async Request-Reply
+28. Cache-Aside
+29. Query-based Load Leveling</t>
+  </si>
+  <si>
+    <t>Политика повторных попыток (Retry Policy) — это механизм обработки временных сбоев в распределенных системах, при котором неудачный вызов
+ автоматически повторяется через определенные интервалы.</t>
   </si>
   <si>
     <t>Ok-200
@@ -2456,590 +3092,21 @@
 Unauthorized()-401
 Forbidden()-403
 NotFound()-404
+429 Too Many Requests - превышен лимит запросов
 Problem-500</t>
   </si>
   <si>
-    <t>Это стратегия поэтапного рефакторинга «Монолита в сторону Микросервисов» .  Вместо рискованного полного переписывания, мы постепенно «выделяем» по одной бизнес-возможности из монолита в микросервис. После этого  трафик на  направляется в новый сервис через API-шлюз, а старый код в монолите со временем удаляется. Таким образом, монолит медленно «усыхает».</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.  специализированные БД (EventStoreDB) оптимизированные для потоков событий
-2.  SQL  с версионированием и индексами
-3. Outbox Pattern - временное хранилище в той же транзакции что и агрегат
-4. брокеры сообщений
-5. MongoDB
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> В хореографии нет центрального координатора. Сервисы взаимодействуют через события. Каждый сервис публикует события и подписывается на интересующие его события от других сервисов. Сервисы сами принимают решения о дальнейших действиях.</t>
-  </si>
-  <si>
-    <t>Как можно оптимизировать работу с Read Model?</t>
-  </si>
-  <si>
-    <t>При временных сбоях система выполняет автоматические ретраи, а в случае неудачи — запускает компенсирующие события для отката изменений, переводя сагу в статус ошибки.</t>
-  </si>
-  <si>
-    <t>Из-за избыточности синтаксиса и большого объема, что мешает быстро понять суть API</t>
-  </si>
-  <si>
-    <t>Потому что система переходит в неконсистентное состояние, а разработчик теряет возможность диагностировать проблему. Ошибка не исправляется, а маскируется, создавая скрытые проблемы, которые проявятся позже</t>
-  </si>
-  <si>
-    <t>это старая технология связи между процессами, основанная на SOAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. имена существительные 
-2.множественная форма
-3. не включать в маршрут лишние глобальные маршруты
-4. Возвращать json по умолчанию
-5. Всегда добавлять название типа для верхнеуровнего массива.
-6. Вместо map структур возвращайте массив обьектов
-7. возвращать идентификаторы как строки
-8. Аккуратная обработка ошибок и возврат стандартных кодов ошибок
-9. Реализововать по возможности идемпотентные механизмы там, где их можно реализовать.
-10. Используйте ISO8601 для даты
-11. Версионирование </t>
-  </si>
-  <si>
-    <t>Fluent API — это подход к проектированию API, который позволяет выстраивать вызовы методов в цепочку,
- делая код более читаемым.</t>
-  </si>
-  <si>
-    <t>В ASP.NET Core для этого используются атрибуты фильтров, такие как [Authorize]</t>
-  </si>
-  <si>
-    <t>Retry-механизм безопасно применять только к идемпотентным операциям. Идемпотентность гарантирует, что при повторных вызовах не произойдет дублирующихся побочных эффектов, таких как двойное списание денег или создание двух заказов вместо одного</t>
-  </si>
-  <si>
-    <t>Состояние экземпляра Saga хранится в базе данных. MassTransit для этого предоставляет готовые библиотеки для разных СУБД, например, PostgreSQL, Redis или MongoDB.</t>
-  </si>
-  <si>
-    <t>это метод для создания отдельной цепочки обработки запросов, которые начинаются с определенного пути.</t>
-  </si>
-  <si>
-    <t>Толстая сага нарушает принцип единственной ответственности (SRP), 
-так как начинает сама содержать бизнес-логику, а не просто оркестрировать вызовы сервисов. 
-Это приводит к сильной связности и сложности тестирования.</t>
-  </si>
-  <si>
-    <t>Это атрибут, который ограничивает доступ к контроллеру или методу, проверяя, что пользователь аутентифицирован и, 
-опционально, имеет нужные права (роли или политики).</t>
-  </si>
-  <si>
-    <t>Они создают сильную временную связность между сервисами. Все участники транзакции должны быть доступны одновременно и удерживать блокировки на протяжении всего процесса, что убивает доступность и производительность.</t>
-  </si>
-  <si>
-    <t>Тонкая сага содержит только логику оркестрации процесса: переходы между состояниями, корреляцию сообщений и планирование компенсирующих действий. Вся бизнес-логика и вызовы к другим сервисам выносятся наружу, в отдельные обработчики.</t>
-  </si>
-  <si>
-    <t>(Remote Procedure Call)  RPC — это концепция, в рамках которой программа на одном сервере 
-может вызвать функцию на другом сервере .</t>
-  </si>
-  <si>
-    <t>Границы агрегата — это четко очерченная область, внутри которой данные и бизнес-правила образуют единое целое. Внешние системы могут ссылаться только на корень агрегата, а не на его внутренние объекты</t>
-  </si>
-  <si>
-    <t>это подход, при котором клиент (сервис-потребитель) делает запрос к стабильному endpoint'у 
-(например, балансировщику нагрузки или DNS-имени), 
-а инфраструктура автоматически перенаправляет этот запрос на один из доступных экземпляров сервиса.</t>
-  </si>
-  <si>
-    <t>Паттерн предлагает разбивать систему на микросервисы, ориентируясь на  поддомены. 
-Каждый поддомен  становится кандидатом в отдельный микросервис.</t>
-  </si>
-  <si>
-    <t>Проблема решается не на уровне протокола, а с помощью инструментов. Основные из них — это gRPC-Gateway для автоматического создания REST API из .proto файлов и gRPC-Web для подключения браузерных клиентов.</t>
-  </si>
-  <si>
-    <t>Да, есть несколько способов
-Для событий (INotification) 
-Для команд (IRequest)</t>
-  </si>
-  <si>
-    <t>Можно ли объединять несколько обработчиков в один? MediatR</t>
-  </si>
-  <si>
-    <t>Это метод в ASP.NET Core для присвоения имени маршруту, чтобы ссылаться на него по имени, а не по URL</t>
-  </si>
-  <si>
-    <t>Endpoint Filters работают на уровне эндпоинтов в Minimal API . Action Filters — это часть MVC и работают на уровне контроллеров и действий.</t>
-  </si>
-  <si>
-    <t>Создаем единый класс-обертку для всех ошибок, который возвращает стандартный JSON с полями: 
-HTTP статус, код ошибки, сообщение для пользователя и технические детали для разработки.</t>
-  </si>
-  <si>
-    <t>это подход, при котором потребители сервиса (consumers) определяют свои ожидания от провайдера в виде "контрактов", 
-а провайдер проверяет, что его реализация соответствует этим контрактам .</t>
-  </si>
-  <si>
-    <t>В Minimal API сервисы внедряются в делегат как параметры. DI контейнер автоматически разрешит зависимости при вызове эндпоинта</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Event Sourcing — это архитектурный паттерн, при котором мы храним не текущее состояние сущности, а всю последовательность событий, которые с ней произошли.
-Все изменения фиксируются как последовательность неизменяемых событий
-Каждое событие — это факт, который уже произошел в системе
-Текущее состояние вычисляется путем применения всех предыдущих событий
-События хранятся постоянно </t>
-  </si>
-  <si>
-    <t xml:space="preserve">это фундаментальный механизм в CQRS для асинхронной синхронизации  Read Model на основе фактов, произошедших в домене.
-</t>
-  </si>
-  <si>
-    <t>Для включения авторизации на эндпоинте используется метод .RequireAuthorization(), которому можно передать название политики. Для группы эндпоинтов этот метод вызывается на группе</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Redis — это высокопроизводительная база данных типа «ключ-значение» в оперативной памяти, которая часто используется как кэш . 
-</t>
-  </si>
-  <si>
-    <t>1. Выявляем поддомены, на которые влияют новые требования, чтобы понять границы изменений.
-2. Определяем тип каждого поддомена (ядро, поддерживающий, общий) — это помогает расставить приоритеты в разработке.
-3. Формируем ограниченные контексты (Bounded Contexts) — это четкие границы, где применяются единые модели и язык (Ubiquitous Language).
-4. Внутри каждого контекста выявляем агрегаты (Aggregates) — кластеры сущностей, которые являются точками внесения изменений и гарантируют целостность данных.
-5.  Конечная цель — отобразить эти агрегаты на физические микросервисы, чтобы каждый сервис был автономен и отвечал за свою бизнес-способность.</t>
-  </si>
-  <si>
-    <t>Создаем класс команды или запроса, реализующий IRequest или IRequest&lt;T&gt;, и класс обработчика, реализующий IRequestHandler&lt;T&gt;, где T это команда. Регистрируем MediatR в DI, указав сборку с обработчиками.</t>
-  </si>
-  <si>
-    <t>1. Позволяют разным частям системы (особенно в разных ограниченных контекстах) реагировать на изменения, не вызывая друг друга напрямую. Это делает архитектуру чище и гибче.
-2.  События домена делают важные бизнес-факты (например, ЗаказПодтверждён или ПлатежПрошел) явной частью модели, а не скрытой логикой в коде.
-3.  Дают возможность обрабатывать побочные эффекты асинхронно, что повышает отзывчивость и устойчивость системы.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Создаем класс, реализующий IEndpointFilter
-Регистрируем в конкретном эндпоинте через .AddEndpointFilter&lt;T&gt;():</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> это компоненты в ASP.NET Core, которые выполняют проверку прав доступа к ресурсам до выполнения действия контроллера </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> OpenAPI даёт три ключевые выгоды: во-первых, он служит формальным контрактом между фронтендом и бэкендом, устраняя недопонимание. Во-вторых, автоматически генерирует всегда актуальную документацию. И в-третьих, позволяет автоматизировать тестирование и кодогенерацию.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Чтобы протестировать идемпотентность команды, нужно выполнить её несколько раз с одинаковыми данными и ключом идемпотентности, и убедиться, что:
-Результат не изменился после повторов
-Не возникло дублирующих действий или записей в БД
-Система ведёт себя корректно </t>
-  </si>
-  <si>
-    <t>Для отслеживания состояния саги используется три ключевых элемента:
-Хранилище состояний — обычно это база данных, где для каждой саги хранится её текущий статус (например, "Выполняется", "Успешно", "Отменена").
-Корреляционный идентификатор — это уникальный ID, который связывает все шаги и события одной саги.
-События саги — каждое значимое действие (шаг выполнен, шаг не удался) порождает событие, которое обновляет состояние саги в хранилище</t>
-  </si>
-  <si>
-    <t>хранит данные, необходимые для выполнения бизнес-логики и обеспечения консистентности.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Оборачиваем функцию, которая может упасть, в компонент, который автоматически перезапускает её по заданным правилам.</t>
-  </si>
-  <si>
-    <t>1. Бизнес-логические исключения
-2. Ошибки аутентификации/авторизации 
-3. Ошибки "Not Found"
-4. Ошибки формата данных
-5. Ошибки "Not Supported"/"Not Implemented"     
-6. Ошибки лимитов</t>
-  </si>
-  <si>
-    <t>это стандартная спецификация для описания RESTful API в  формате (YAML/JSON).</t>
-  </si>
-  <si>
-    <t>Корректное сравнение по значению, Потокобезопасность, при работе с  ссылками нет побочных эффектов</t>
-  </si>
-  <si>
-    <t>Специфичные - рядом с агрегатами, общие - в Domain/Services. Главное - сохранять их в доменном слое.</t>
-  </si>
-  <si>
-    <t>Command Handler тестируется на нескольких уровнях с фокусом на изоляцию бизнес-логики и проверку взаимодействий.
-1. Unit-тесты
-2. Тестирование доменных событий
-3. Валидация бизнес-правил
-4. Интеграционные тесты</t>
-  </si>
-  <si>
-    <t>Так как тонкая сага не содержит  бизнес логику то  переносимость саги между брокерами возможна без изменений её кода.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Централизованное управление позволяет полный контроль над процессом
-Простота отслеживания  так как оркестратор логирует все шаги
- проще управлять откатами
- явная бизнес-логика
-Минусы оркестрации:
- выход из строя оркестратора ломает весь процесс
- сервисы зависят от оркестратора
-Сложность масштабирования 
-</t>
-  </si>
-  <si>
-    <t>Это не просто модель данных для базы. Это модель бизнес-логики. Её задача — не просто хранить данные, а реализовывать операции и правила предметной области.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">это язык запросов для API, разработанный Facebook. Он позволяет клиенту запрашивать именно те данные, которые ему нужны с сервера.  
-Таким образом, вы можете создать только одну конечную точку на сервере, которая будет чрезвычайно гибкой
- и будет возвращать только те данные, которые нужны клиенту. </t>
-  </si>
-  <si>
-    <t>ORM-маппинг — это преобразование между объектами в коде и данными в реляционной БД .
-Маппинг между моделями — это преобразование между разными представлениями данных внутри приложения</t>
-  </si>
-  <si>
-    <t>builder.Services.AddSingleton()</t>
-  </si>
-  <si>
-    <t>это метод регистрации сервиса в DI-контейнере ASP.NET Core с Singleton временем жизни.
-Singleton означает, что ОДИН экземпляр сервиса создается на ВСЕ время работы приложения и используется для всех запросов и всех потребителей</t>
-  </si>
-  <si>
-    <t>app.MapMethods("/api/orders", new[] { "GET", "POST" }, async context =&gt;)</t>
-  </si>
-  <si>
-    <t>1. Устойчивость к временным сбоям 
-2. Сглаживания пиковых нагрузок 
-3.  система может автоматически восстановиться без ручного вмешательства
-4. позволяют избегать лавинообразного роста запросов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Simple Object Access Protocol) — это протокол для обмена структурированными сообщениями в распределенных системах, 
-использующий формат XML </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SOLID - это набор из 5 принципов объектно-ориентированного программирования,
- которые делают код более понятным, гибким и поддерживаемым.
-1. S - Single Responsibility Principle (Принцип единственной ответственности)
-Каждый класс должен иметь только одну причину для изменения.
-2. O - Open/Closed Principle (Принцип открытости/закрытости)
-Классы должны быть открыты для расширения, но закрыты для модификации.
-3. L - Liskov Substitution Principle (Принцип подстановки Лисков)
- Классы наследники должны быть способны заменить свои базовые классы.
-4. I - Interface Segregation Principle (Принцип разделения интерфейсов)
-Много специализированных интерфейсов лучше, чем один универсальный.
-5. D - Dependency Inversion Principle (Принцип инверсии зависимостей)
-Зависимости должны строиться на абстракциях, а не на конкретных реализациях.</t>
-  </si>
-  <si>
-    <t>это программный интерфейс, который следует принципам архитектурного стиля REST.
-Это способ организации веб-сервиса, где всё строится вокруг ресурсов и стандартных HTTP-действий над ними.</t>
-  </si>
-  <si>
-    <t>1.  Стандартное использование HTTP-методов (GET, POST, PUT, DELETE) .
-2.  Сервер не хранит состояние клиента между запросами. Каждый запрос самодостаточен.
-3. Ответы должны помечаться как кэшируемые или нет, чтобы повысить производительность.
-4. Клиент не знает, общается он напрямую с сервером или через прокси.</t>
-  </si>
-  <si>
-    <t>1.  Блокировки создают очереди из ожидающих потоков
-2. Риск взаимоблокировок (deadlocks) 
-3. Сложность масштабирования — тяжело распределять блокировки в кластере</t>
-  </si>
-  <si>
-    <t>1. Явное описание в конфигурации Swagger - через MapType&lt;T&gt;() или SchemaFilter, где вручную прописываются все свойства схемы.
-2. Schema-first подход - когда сначала пишется OpenAPI-спецификация в YAML/JSON, а затем из неё генерируются DTO-классы.</t>
-  </si>
-  <si>
-    <t>CommandHandler что такое?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> выполняет команды на изменение данных (Create, Update, Delete). Не возвращает данные, только подтверждение выполнения.</t>
-  </si>
-  <si>
-    <t>QueryHandler что такое?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> выполняет запросы на чтение данных. Возвращает DTO или результаты выборки без изменения состояния системы.</t>
-  </si>
-  <si>
-    <t>Tcp и Udp отличия</t>
-  </si>
-  <si>
-    <t>TCP — надежный, с установкой соединения, гарантирует доставку и порядок пакетов, но медленнее. Подходит для веба и почты. UDP — быстрый, без соединения, без гарантий доставки, но с минимальной задержкой. Идеален для стриминга и онлайн-игр.</t>
-  </si>
-  <si>
-    <t>Раньше стандартный ответ был "нет", потому что классический HTTP/1.x и HTTP/2 работают поверх TCP, который обеспечивает надежность. 
-Однако с появлением HTTP/3 ситуация изменилась.</t>
-  </si>
-  <si>
-    <t>можно ли HTTP поверх UDP</t>
-  </si>
-  <si>
-    <t>1. Версионирование в URI (URL-based)
-2. Версионирование через заголовки
-3. через параметры запроса Версия передается как параметр
-4. Версионирование через медиа-типы  Версия указывается в заголовке Accept</t>
-  </si>
-  <si>
-    <t>Варианты версионирования</t>
-  </si>
-  <si>
-    <t>что используется вместо фильтров</t>
-  </si>
-  <si>
-    <t>В ASP.NET Core вместо глобальных фильтров используются Middleware, а вместо MVC-фильтров — встроенные Filter pipeline, 
-но с измененным подходом к регистрации и более гибкой архитектурой.
-Middleware - app.UseAuthentication();
-builder.Services.AddControllers(options =&gt;
-{
-    options.Filters.Add&lt;GlobalExceptionFilter&gt;();
-});</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> — это конвейер компонентов, которые последовательно обрабатывают HTTP-запрос. Каждый middleware получает запрос, выполняет свою логику, и передает управление следующему через RequestDelegate. Порядок регистрации middleware критически важен, так как определяет последовательность обработки. Middleware может обрабатывать запрос до и после следующего компонента в цепочке, а также полностью прерывать обработку.
-</t>
-  </si>
-  <si>
-    <t>как ускорить Api</t>
-  </si>
-  <si>
-    <t>Latency (задержка) — это время между отправкой запроса и получением ответа. Измеряется в миллисекундах (ms) и
- является ключевой метрикой производительности любых распределенных систем.</t>
-  </si>
-  <si>
-    <t>что такое latency</t>
-  </si>
-  <si>
-    <t>Примеры агрегата</t>
-  </si>
-  <si>
-    <t>Пример 1: Интернет-магазин — Заказ (Order)
-Пример 2: Банковский счет — BankAccount
-Пример 3: Социальная сеть — Post</t>
-  </si>
-  <si>
-    <t>Пример 1: Money (Денежная сумма)
-Пример 2: Address (Адрес доставки)
-Пример 3: Product Dimensions (Габариты товара)
-Пример 4: Product Rating (Рейтинг товара)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">как масштабировать чтение в CQRS </t>
-  </si>
-  <si>
-    <t>какие базы для Query и Command</t>
-  </si>
-  <si>
-    <t>Как ускорить запись</t>
-  </si>
-  <si>
-    <t>Ускорение API требует комплексного подхода: оптимизация запросов к БД, кэширование на разных уровнях, сжатие данных
- и горизонтальное масштабирование</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Репликация БД </t>
-  </si>
-  <si>
-    <t>это процесс автоматического копирования данных с основного сервера (master) на один или несколько вторичных серверов (replicas)
- для обеспечения отказоустойчивости, масштабирования чтения и географического распределения.</t>
-  </si>
-  <si>
-    <t>Чтение в CQRS масштабируем через репликацию БД, кэширование Redis, материализованные представления и специализированные хранилища типа Elasticsearch</t>
-  </si>
-  <si>
-    <t>Ускоряем запись в CQRS через асинхронную обработку команд, Event Sourcing, шардинг и оптимизированные write-модели.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Для Command стороны используем транзакционные БД (PostgreSQL/SQL Server) для гарантии согласованности.
- Для Query стороны — специализированные БД под конкретные сценарии: Redis для кэширования, Elasticsearch для поиска, ClickHouse для аналитики. 
-</t>
-  </si>
-  <si>
-    <t>POEAA</t>
-  </si>
-  <si>
-    <t>паттерны POEAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POEAA — это каталог паттернов Мартина Фаулера для разработки enterprise-приложений. В DDD мы используем эти паттерны для реализации доменной модели, работы с данными и организации кода. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Domain Model Pattern - Представление бизнес-логики через объекты домена с поведением.
-2. Repository Pattern - Абстракция для доступа к доменным объектам, как к коллекции в памяти.
-3. Unit of Work Pattern - Сохранение целостности транзакций при работе с несколькими репозиториями.
-4. Service Layer Pattern -  Определение границы приложения и координация бизнес-операций.
-5. Data Mapper Pattern - Отделение объектов домена от логики сохранения в БД.
-6. Table Gateway &amp; Row Data Gateway - Паттерны доступа к данным, которые в DDD заменяются на Repository.
-7. Lazy Load Pattern - Отложенная загрузка связанных объектов.
-8. Identity Map Pattern - Гарантирует, что каждый объект загружается только один раз за сессию.
- 9. Specification Pattern - Инкапсуляция бизнес-правил для фильтрации и проверки.
-10. </t>
-  </si>
-  <si>
-    <t>Inbox решает проблему дублирующей обработки сообщений. При получении события сохраняем его ID в таблицу Inbox в той же транзакции, 
-что и бизнес-данные. При повторном получении проверяем эту таблицу и игнорируем дубликат. Это обеспечивает идемпотентность обработки</t>
-  </si>
-  <si>
-    <t>паттерн Inbox</t>
-  </si>
-  <si>
-    <t>Доменный слой абсолютно независим — он не связан ни с какими другими слоями. Все остальные слои (Application, Infrastructure) 
-зависят от доменного слоя, но сам доменный слой не зависит ни от кого. Это ядро системы, содержащее только бизнес-логику.</t>
-  </si>
-  <si>
-    <t>В DDD что в каждом слое происходит?</t>
-  </si>
-  <si>
-    <t>как можно указывать роутинг для эндпоинтов MVC minimal Api</t>
-  </si>
-  <si>
-    <t>Minimal API — быстрая настройка маршрутов прямо в Program.cs через Map-методы.
-MVC — атрибутная маршрутизация в контроллерах через [Route], [HttpGet] etc.
-Группировка — MapGroup() для общего префикса и политик роутинга.</t>
-  </si>
-  <si>
-    <t>где мы создаем события и ловим события</t>
-  </si>
-  <si>
-    <t>как доменный слой связан с остальными</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Пример 1: Взаимодействие нескольких Агрегатов
-Сценарий: Перевод денег с одного счета BankAccount на другой.
-Пример 2: Использование внешней системы для доменного правила
-Сценарий: Проверка кредитного рейтинга клиента при оформлении заказа выше определенной суммы. Система скоринга — внешняя.</t>
-  </si>
-  <si>
-    <t>Domain Layer(Доменный Слой ) — агрегаты генерируют доменные события при бизнес-операциях
-Application Layer(Прикладной Слой) — может создавать integration events для других сервисов
-Обработка событий:
-Application Layer — обработчики доменных событий (отправка email, уведомлений)
-Infrastructure Layer — обработчики integration events (коммуникация между сервисами)</t>
-  </si>
-  <si>
-    <t>Domain Layer (Доменный Слой ) — бизнес-логика: сущности, value objects, агрегаты, доменные сервисы, интерфейсы для репозиториев и правила предметной области.
-Application Layer (Прикладной Слой)— координация: оркестрирует workflow( координирует задачи приложения),обработка доменных событий, работа с агргатами, использует доменные объекты, не содержит бизнес-логики.
-Infrastructure Layer (Слой Инфраструктуры)  — техническая реализация: БД, внешние API, файловая система, реализует интерфейсы домена, реализация репозиториев.
-Presentation Layer (Слой Представления) — взаимодействие с пользователем: UI, API controllers, преобразует DTO.</t>
-  </si>
-  <si>
-    <t>это события, которые происходят в доменной области и представляют важные факты, случившиеся в системе.
-Жизненный цикл:
-1. Определение События (в Доменном Слое)
-2. Событие генерируется внутри Агрегата, когда происходит значимое изменение его состояния.
-3. Публикация Событий (в Прикладном Слое)
-4. Обработка Событий (в Прикладном Слое или отдельном проекте)</t>
-  </si>
-  <si>
-    <t>MediatR решает проблему сильной связанности, заставляя компоненты общаться не напрямую, а через "посредника". Это делает код чище, тестируемее (легко подменить обработчик) и лучше соответствует принципу единственной ответственности. Его два основных механизма — это Send для команд/запросов (1 обработчик) и Publish для событий (N обработчиков), что идеально ложится на архитектуру CQRS и событийно-ориентированного дизайна</t>
-  </si>
-  <si>
-    <t>MassTransit — это популярная библиотека для .NET, которая реализует паттерны обмена сообщениями и значительно упрощает создание распределенных приложений, в том числе и Saga.
-MassTransit предоставляет два основных подхода к созданию саг:
-1. Автомат состояний (State Machine)
-Вы описываете сагу как конечный автомат.
-Определяете состояния (States) вашей бизнес-процедуры
-Определяете события (Events), которые переводят сагу из одного состояния в другое
-MassTransit берет на себя всю рутину: отслеживание текущего состояния для каждого экземпляра саги, маршрутизацию событий в нужный экземпляр и вызов соответствующей логики.
-2. Рутинг-слип (Routing Slip): Более декларативный подход, где вы описываете весь маршрут обработки как последовательность шагов, а MassTransit гарантирует его прохождение.
-Проще говоря, MassTransit избавляет вас от необходимости вручную писать код для:
-Хранения состояния саги.
-Поиска нужной саги при приходе нового события.
-Управления компенсирующими транзакциями на низком уровне.</t>
-  </si>
-  <si>
-    <t>для чего нужен CorrelationId</t>
-  </si>
-  <si>
-    <t>MassTransit использует CorrelationId для:
-Нахождения нужного экземпляра саги в своем хранилище состояний.
-Применения события к правильному экземпляру, чтобы перевести его в следующее состояние и выполнить нужную бизнес-логику.
-Без CorrelationId сага не смогла бы работать — она не отличала бы один запущенный процесс от другого.</t>
-  </si>
-  <si>
-    <t>Как в .NET можно реализовать политику повторных попыток (retry policy)
- для такого вызова, не используя ручной try/catch и циклы в коде?</t>
-  </si>
-  <si>
-    <t>Для реализации повторных попыток без ручного try/catch я бы использовал библиотеку Polly. 
-Она позволяет декларативно настроить политику повторов (например, с экспоненциальной задержкой)
- и зарегистрировать её для конкретного HttpClient через IHttpClientFactory. Таким образом, вся логика повторов инкапсулирована в политике, 
-и мой бизнес-код не загроможден обработкой временных сбоев.</t>
-  </si>
-  <si>
-    <t>Чем "RESTful" API отличается от RPC-стиля или просто HTTP+JSON API?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPC-стиль (Remote Procedure Call):
-Фокус на действиях. URI представляют собой действия (/api/createUser, /api/getOrders, /api/calculateTax).
-Использует в основном POST или GET .Это просто вызов удаленных функций по HTTP.
-HTTP+JSON API (часто ошибочно называют REST)
-Использует HTTP-методы (GET, POST, PUT, DELETE) и JSON, но URI часто все еще RPC-подобные
-RESTful API:
-Фокус на ресурсах (существительных). URI идентифицируют ресурсы (/users, /users/123).
-Использует семантику HTTP-методов: GET (получить), POST (создать), PUT/PATCH (заменить/обновить), DELETE (удалить).
-Использует коды состояний HTTP: 200 (OK), 201 (Created), 404 (Not Found), 409 (Conflict)
-Ответ для /users/123 может содержать ссылки на связанные ресурсы:
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> паттерн нужный при интеграции систем и миграции с монолита на микросервисы. 
-Его главная цель — защитить вашу новую, чистую архитектуру от "повреждающего" влияния устаревших или внешних систем.
-Сценарий 1: Миграция с монолита (в паре со "душителем")
-Сценарий 2: Интеграция с внешней системой
-Обычно состоит из трех компонентов. Адаптер, Маппер, Фасад</t>
-  </si>
-  <si>
-    <t>Представьте, что вы проектируете REST API endpoint для получения списка товаров
- (GET /api/products). Какие стандартные подходы и параметры запроса вы бы использовали для реализации пагинации, 
-фильтрации и сортировки? Почему именно такие?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">общепринято использовать следующие query-параметры:
-1. Пагинация. Устанавливаем с какой позиции или страницы начать через offset или page. Сколько записей вернуть limit или size.
-2. Сортировка. Sort - устанавливаем по какому полю сортировать order или direction направление сортировки ASC или DESC
-3. Фильтрация - Выборка данных по критериям. 
-Простой подход использовать имя и значение.
-Сложный\гибкий подход через специальные операторы(gt, lt, like)
-</t>
-  </si>
-  <si>
-    <t>Как настроить аутентификацию (например, JWT Bearer Token)
-в Swagger UI для ASP.NET Core, чтобы можно было авторизоваться прямо 
-в интерфейсе документации и отправлять авторизованные запросы 
-к защищенным эндпоинтам?</t>
-  </si>
-  <si>
-    <t>builder.Services.AddSwaggerGen(options=&gt; 
-options.AddSecurityDefinition("Bearer", new OpenApiSecurityScheme)
-options.AddSecurityRequirement(new OpenApiSecurityRequirement)
-Чтобы добавить JWT-аутентификацию в Swagger UI, нужно в методе AddSwaggerGen определить схему безопасности с помощью AddSecurityDefinition, указав тип Http и схему bearer, а затем применить это требование глобально через AddSecurityRequirement. После этого в интерфейсе Swagger появится кнопка "Authorize" для ввода токена, и все исходящие запросы будут автоматически включать его в заголовок Authorization</t>
-  </si>
-  <si>
-    <t>Какую цель преследуют доменные события</t>
-  </si>
-  <si>
-    <t>1. Снижение связанности между агрегатами
-2.  Они позволяют реализовать реакции на изменения в системе. Например, "при оформлении заказа (OrderPlaced) -&gt; списать товары со склада"
-3. Согласованность в конечном счете (Eventual Consistency):</t>
-  </si>
-  <si>
-    <t>Жизненный цикл: Генерация и Публикация доменных событий</t>
-  </si>
-  <si>
-    <t>1. События генерируются внутри методов Aggregate Root в ответ на вызов команды.
-2. Агрегат не публикует события сразу. 
- чтоб событие не было "потеряно" оно будет обработано в той же транзакции, что и изменение агрегата.
-3. События публикуются сразу после того, как агрегат успешно сохранен в базу данных в рамках текущей транзакции.</t>
-  </si>
-  <si>
-    <t>В ASP.NET Core есть несколько механизмов для сквозной 
-функциональности: Middleware, Фильтры и Endpoint Filters. 
-Объясните, в чём их ключевые различия?
- В каком сценарии вы бы выбрали каждый из этих механизмов?</t>
-  </si>
-  <si>
-    <t>Middleware -обрабатывает каждый запрос. Глобальная, не связанная с бизнес-логикой функциональность: аутентификация,
-кеширование на уровне ответа,   кастомная обработка ошибок на уровне протокола
-Фильтры - Уровень MVC работают на уровне контоллера или метода. Логика, тесно связанная с MVC: авторизация , валидация модели,   логирование входных/выходных параметров конкретного действия.
-Endpoint Filters - Работают в контексте отдельного Endpoint'a, Логика для Minimal API и отдельных эндпоинтов: простая валидация входящих данных, обработка ошибок для конкретного API, легковесная пред-/пост-обработка.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Схема, при которой клиент напрямую обращается к центральному реестру за актуальным списком экземпляров сервиса и сам выбирает, куда направить запрос.</t>
+    <t>Cache-Aside (Lazy Loading)</t>
+  </si>
+  <si>
+    <t>Cache-Aside (Lazy Loading) — это стратегия кэширования, при которой приложение самостоятельно управляет загрузкой данных в кэш и 
+их извлечением по требованию.</t>
+  </si>
+  <si>
+    <t>Async Request-Reply</t>
+  </si>
+  <si>
+    <t>это паттерн, который позволяет отделить отправку запроса от получения ответа, когда операция выполняется длительное время.</t>
   </si>
 </sst>
 </file>
@@ -3458,10 +3525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C34F926-ACF9-49CF-9B6A-0D737BBB828A}">
-  <dimension ref="A1:D361"/>
+  <dimension ref="A1:D368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="C128" sqref="C128"/>
+    <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
+      <selection activeCell="C370" sqref="C370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3660,7 +3727,7 @@
         <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -3744,7 +3811,7 @@
         <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
@@ -3828,7 +3895,7 @@
         <v>47</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
@@ -3870,7 +3937,7 @@
         <v>51</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
@@ -3988,7 +4055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3996,7 +4063,7 @@
         <v>68</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>593</v>
+        <v>730</v>
       </c>
       <c r="D38" s="1">
         <v>2</v>
@@ -4038,7 +4105,7 @@
         <v>74</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D41" s="1">
         <v>2</v>
@@ -4052,7 +4119,7 @@
         <v>75</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D42" s="1">
         <v>2</v>
@@ -4077,7 +4144,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>78</v>
@@ -4192,7 +4259,7 @@
         <v>93</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
@@ -4234,7 +4301,7 @@
         <v>98</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
@@ -4332,7 +4399,7 @@
         <v>117</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D62" s="1">
         <v>2</v>
@@ -4346,7 +4413,7 @@
         <v>111</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D63" s="1">
         <v>2</v>
@@ -4360,7 +4427,7 @@
         <v>112</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D64" s="1">
         <v>1</v>
@@ -4444,7 +4511,7 @@
         <v>123</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="D70" s="1">
         <v>2</v>
@@ -4556,7 +4623,7 @@
         <v>138</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D78" s="1">
         <v>2</v>
@@ -4598,7 +4665,7 @@
         <v>142</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D81" s="1">
         <v>2</v>
@@ -4626,7 +4693,7 @@
         <v>145</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D83" s="1">
         <v>2</v>
@@ -4696,7 +4763,7 @@
         <v>156</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D88" s="1">
         <v>2</v>
@@ -4710,7 +4777,7 @@
         <v>157</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D89" s="1">
         <v>2</v>
@@ -4766,7 +4833,7 @@
         <v>164</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D93" s="1">
         <v>0</v>
@@ -4780,7 +4847,7 @@
         <v>168</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D94" s="1">
         <v>2</v>
@@ -4794,7 +4861,7 @@
         <v>169</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D95" s="1">
         <v>2</v>
@@ -4822,7 +4889,7 @@
         <v>172</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="D97" s="1">
         <v>1</v>
@@ -4836,7 +4903,7 @@
         <v>173</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D98" s="1">
         <v>2</v>
@@ -4850,7 +4917,7 @@
         <v>174</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D99" s="1">
         <v>2</v>
@@ -4864,7 +4931,7 @@
         <v>175</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D100" s="1">
         <v>0</v>
@@ -4906,7 +4973,7 @@
         <v>180</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D103" s="1">
         <v>0</v>
@@ -4934,7 +5001,7 @@
         <v>183</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D105" s="1">
         <v>2</v>
@@ -5032,7 +5099,7 @@
         <v>196</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="D112" s="1">
         <v>0</v>
@@ -5046,7 +5113,7 @@
         <v>197</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D113" s="1">
         <v>2</v>
@@ -5060,21 +5127,21 @@
         <v>198</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D114" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="390" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>199</v>
+        <v>727</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>532</v>
+        <v>728</v>
       </c>
       <c r="D115" s="1">
         <v>2</v>
@@ -5085,10 +5152,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D116" s="1">
         <v>2</v>
@@ -5099,10 +5166,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D117" s="1">
         <v>2</v>
@@ -5113,10 +5180,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D118" s="1">
         <v>2</v>
@@ -5127,10 +5194,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D119" s="1">
         <v>2</v>
@@ -5141,10 +5208,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D120" s="1">
         <v>2</v>
@@ -5155,10 +5222,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="D121" s="1">
         <v>2</v>
@@ -5169,10 +5236,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D122" s="1">
         <v>2</v>
@@ -5183,10 +5250,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D123" s="1">
         <v>2</v>
@@ -5197,10 +5264,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C124" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="D124" s="1">
         <v>2</v>
@@ -5211,10 +5278,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C125" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>214</v>
       </c>
       <c r="D125" s="1">
         <v>2</v>
@@ -5225,10 +5292,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D126" s="1">
         <v>2</v>
@@ -5239,10 +5306,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C127" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="D127" s="1">
         <v>2</v>
@@ -5253,10 +5320,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D128" s="1">
         <v>2</v>
@@ -5267,10 +5334,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D129" s="1">
         <v>2</v>
@@ -5281,10 +5348,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D130" s="1">
         <v>2</v>
@@ -5295,10 +5362,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C131" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="D131" s="1">
         <v>2</v>
@@ -5309,10 +5376,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D132" s="1">
         <v>2</v>
@@ -5323,10 +5390,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D133" s="1">
         <v>2</v>
@@ -5337,10 +5404,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>227</v>
       </c>
       <c r="D134" s="1">
         <v>2</v>
@@ -5351,10 +5418,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C135" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="D135" s="1">
         <v>2</v>
@@ -5365,10 +5432,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D136" s="1">
         <v>2</v>
@@ -5379,10 +5446,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D137" s="1">
         <v>2</v>
@@ -5393,10 +5460,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D138" s="1">
         <v>2</v>
@@ -5407,10 +5474,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D139" s="1">
         <v>2</v>
@@ -5421,10 +5488,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D140" s="1">
         <v>2</v>
@@ -5435,10 +5502,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D141" s="1">
         <v>2</v>
@@ -5449,10 +5516,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D142" s="1">
         <v>2</v>
@@ -5463,10 +5530,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D143" s="1">
         <v>2</v>
@@ -5477,10 +5544,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="D144" s="1">
         <v>0</v>
@@ -5491,10 +5558,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="D145" s="1">
         <v>2</v>
@@ -5505,10 +5572,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C146" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="D146" s="1">
         <v>1</v>
@@ -5519,10 +5586,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D147" s="1">
         <v>1</v>
@@ -5533,10 +5600,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="D148" s="1">
         <v>1</v>
@@ -5547,10 +5614,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D149" s="1">
         <v>2</v>
@@ -5561,10 +5628,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="D150" s="1">
         <v>0</v>
@@ -5575,10 +5642,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C151" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>254</v>
       </c>
       <c r="D151" s="1">
         <v>1</v>
@@ -5589,10 +5656,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D152" s="1">
         <v>2</v>
@@ -5603,10 +5670,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D153" s="1">
         <v>0</v>
@@ -5617,10 +5684,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D154" s="1">
         <v>0</v>
@@ -5631,10 +5698,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D155" s="1">
         <v>0</v>
@@ -5645,10 +5712,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D156" s="1">
         <v>2</v>
@@ -5659,10 +5726,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C157" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>261</v>
       </c>
       <c r="D157" s="1">
         <v>2</v>
@@ -5673,10 +5740,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C158" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="D158" s="1">
         <v>2</v>
@@ -5687,10 +5754,10 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C159" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>265</v>
       </c>
       <c r="D159" s="1">
         <v>2</v>
@@ -5701,10 +5768,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="D160" s="1">
         <v>1</v>
@@ -5715,10 +5782,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="D161" s="1">
         <v>0</v>
@@ -5729,10 +5796,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D162" s="1">
         <v>0</v>
@@ -5743,10 +5810,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D163" s="1">
         <v>1</v>
@@ -5757,10 +5824,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D164" s="1">
         <v>0</v>
@@ -5771,10 +5838,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D165" s="1">
         <v>1</v>
@@ -5785,10 +5852,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D166" s="1">
         <v>1</v>
@@ -5799,10 +5866,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C167" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="D167" s="1">
         <v>1</v>
@@ -5813,10 +5880,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D168" s="1">
         <v>0</v>
@@ -5827,10 +5894,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D169" s="1">
         <v>0</v>
@@ -5841,10 +5908,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C170" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="D170" s="1">
         <v>1</v>
@@ -5855,10 +5922,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C171" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>285</v>
       </c>
       <c r="D171" s="1">
         <v>1</v>
@@ -5869,10 +5936,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D172" s="1">
         <v>1</v>
@@ -5883,10 +5950,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C173" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>289</v>
       </c>
       <c r="D173" s="1">
         <v>0</v>
@@ -5897,10 +5964,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D174" s="1">
         <v>0</v>
@@ -5911,10 +5978,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D175" s="1">
         <v>0</v>
@@ -5925,10 +5992,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C176" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>295</v>
       </c>
       <c r="D176" s="1">
         <v>2</v>
@@ -5939,10 +6006,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D177" s="1">
         <v>0</v>
@@ -5953,10 +6020,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C178" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>298</v>
       </c>
       <c r="D178" s="1">
         <v>0</v>
@@ -5967,10 +6034,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D179" s="1">
         <v>0</v>
@@ -5981,10 +6048,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D180" s="1">
         <v>2</v>
@@ -5995,10 +6062,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D181" s="1">
         <v>2</v>
@@ -6009,10 +6076,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C182" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="D182" s="1">
         <v>2</v>
@@ -6023,10 +6090,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D183" s="1">
         <v>1</v>
@@ -6037,10 +6104,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D184" s="1">
         <v>0</v>
@@ -6051,10 +6118,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D185" s="1">
         <v>2</v>
@@ -6065,10 +6132,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C186" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="D186" s="1">
         <v>0</v>
@@ -6079,10 +6146,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C187" s="2" t="s">
         <v>313</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>314</v>
       </c>
       <c r="D187" s="1">
         <v>2</v>
@@ -6093,10 +6160,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D188" s="1">
         <v>2</v>
@@ -6107,10 +6174,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D189" s="1">
         <v>0</v>
@@ -6121,10 +6188,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C190" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>318</v>
       </c>
       <c r="D190" s="1">
         <v>1</v>
@@ -6135,10 +6202,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D191" s="1">
         <v>1</v>
@@ -6149,10 +6216,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D192" s="1">
         <v>0</v>
@@ -6163,10 +6230,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C193" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="D193" s="1">
         <v>2</v>
@@ -6177,10 +6244,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D194" s="1">
         <v>1</v>
@@ -6191,10 +6258,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D195" s="1">
         <v>1</v>
@@ -6205,10 +6272,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D196" s="1">
         <v>2</v>
@@ -6219,10 +6286,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="D197" s="1">
         <v>0</v>
@@ -6233,10 +6300,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C198" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>328</v>
       </c>
       <c r="D198" s="1">
         <v>2</v>
@@ -6247,10 +6314,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D199" s="1">
         <v>1</v>
@@ -6261,10 +6328,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D200" s="1">
         <v>0</v>
@@ -6275,10 +6342,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C201" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="D201" s="1">
         <v>0</v>
@@ -6289,10 +6356,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D202" s="1">
         <v>2</v>
@@ -6303,10 +6370,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D203" s="1">
         <v>1</v>
@@ -6317,10 +6384,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D204" s="1">
         <v>2</v>
@@ -6331,10 +6398,10 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D205" s="1">
         <v>1</v>
@@ -6345,10 +6412,10 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D206" s="1">
         <v>0</v>
@@ -6359,10 +6426,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D207" s="1">
         <v>0</v>
@@ -6373,10 +6440,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C208" s="2" t="s">
         <v>341</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>342</v>
       </c>
       <c r="D208" s="1">
         <v>1</v>
@@ -6387,10 +6454,10 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D209" s="1">
         <v>1</v>
@@ -6401,10 +6468,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D210" s="1">
         <v>1</v>
@@ -6415,10 +6482,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D211" s="1">
         <v>0</v>
@@ -6429,10 +6496,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D212" s="1">
         <v>1</v>
@@ -6443,10 +6510,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C213" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="D213" s="1">
         <v>1</v>
@@ -6457,10 +6524,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C214" s="2" t="s">
         <v>348</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>349</v>
       </c>
       <c r="D214" s="1">
         <v>0</v>
@@ -6471,10 +6538,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D215" s="1">
         <v>1</v>
@@ -6485,10 +6552,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D216" s="1">
         <v>1</v>
@@ -6499,10 +6566,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D217" s="1">
         <v>1</v>
@@ -6513,10 +6580,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C218" s="2" t="s">
         <v>353</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>354</v>
       </c>
       <c r="D218" s="1">
         <v>2</v>
@@ -6527,10 +6594,10 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D219" s="1">
         <v>1</v>
@@ -6541,10 +6608,10 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D220" s="1">
         <v>0</v>
@@ -6555,10 +6622,10 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D221" s="1">
         <v>1</v>
@@ -6569,10 +6636,10 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D222" s="1">
         <v>1</v>
@@ -6583,10 +6650,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D223" s="1">
         <v>2</v>
@@ -6597,10 +6664,10 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D224" s="1">
         <v>1</v>
@@ -6611,10 +6678,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D225" s="1">
         <v>1</v>
@@ -6625,10 +6692,10 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D226" s="1">
         <v>1</v>
@@ -6639,10 +6706,10 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D227" s="1">
         <v>2</v>
@@ -6653,10 +6720,10 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D228" s="1">
         <v>2</v>
@@ -6667,10 +6734,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D229" s="1">
         <v>2</v>
@@ -6681,10 +6748,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D230" s="1">
         <v>0</v>
@@ -6695,10 +6762,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C231" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="D231" s="1">
         <v>0</v>
@@ -6709,10 +6776,10 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D232" s="1">
         <v>1</v>
@@ -6723,10 +6790,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D233" s="1">
         <v>1</v>
@@ -6737,10 +6804,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D234" s="1">
         <v>1</v>
@@ -6751,10 +6818,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D235" s="1">
         <v>1</v>
@@ -6765,10 +6832,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D236" s="1">
         <v>1</v>
@@ -6779,10 +6846,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D237" s="1">
         <v>0</v>
@@ -6793,10 +6860,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="D238" s="1">
         <v>0</v>
@@ -6807,10 +6874,10 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D239" s="1">
         <v>2</v>
@@ -6821,10 +6888,10 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D240" s="1">
         <v>2</v>
@@ -6835,10 +6902,10 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D241" s="1">
         <v>2</v>
@@ -6849,10 +6916,10 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D242" s="1">
         <v>2</v>
@@ -6863,10 +6930,10 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D243" s="1">
         <v>1</v>
@@ -6877,10 +6944,10 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C244" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="D244" s="1">
         <v>1</v>
@@ -6891,10 +6958,10 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D245" s="1">
         <v>0</v>
@@ -6905,10 +6972,10 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C246" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>389</v>
       </c>
       <c r="D246" s="1">
         <v>2</v>
@@ -6919,10 +6986,10 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D247" s="1">
         <v>1</v>
@@ -6933,10 +7000,10 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D248" s="1">
         <v>1</v>
@@ -6947,10 +7014,10 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C249" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>394</v>
       </c>
       <c r="D249" s="1">
         <v>0</v>
@@ -6961,10 +7028,10 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="D250" s="1">
         <v>1</v>
@@ -6975,10 +7042,10 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D251" s="1">
         <v>1</v>
@@ -6989,10 +7056,10 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D252" s="1">
         <v>1</v>
@@ -7003,10 +7070,10 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D253" s="1">
         <v>1</v>
@@ -7017,10 +7084,10 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D254" s="1">
         <v>1</v>
@@ -7031,10 +7098,10 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D255" s="1">
         <v>2</v>
@@ -7045,10 +7112,10 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D256" s="1">
         <v>1</v>
@@ -7059,10 +7126,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C257" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>404</v>
       </c>
       <c r="D257" s="1">
         <v>1</v>
@@ -7073,10 +7140,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D258" s="1">
         <v>1</v>
@@ -7087,10 +7154,10 @@
         <v>258</v>
       </c>
       <c r="B259" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C259" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>407</v>
       </c>
       <c r="D259" s="1">
         <v>1</v>
@@ -7101,10 +7168,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C260" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>409</v>
       </c>
       <c r="D260" s="1">
         <v>1</v>
@@ -7115,10 +7182,10 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D261" s="1">
         <v>1</v>
@@ -7129,10 +7196,10 @@
         <v>261</v>
       </c>
       <c r="B262" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C262" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>412</v>
       </c>
       <c r="D262" s="1">
         <v>1</v>
@@ -7143,10 +7210,10 @@
         <v>262</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D263" s="1">
         <v>0</v>
@@ -7157,10 +7224,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D264" s="1">
         <v>0</v>
@@ -7171,10 +7238,10 @@
         <v>264</v>
       </c>
       <c r="B265" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C265" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>418</v>
       </c>
       <c r="D265" s="1">
         <v>1</v>
@@ -7185,10 +7252,10 @@
         <v>265</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D266" s="1">
         <v>1</v>
@@ -7199,10 +7266,10 @@
         <v>266</v>
       </c>
       <c r="B267" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C267" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>421</v>
       </c>
       <c r="D267" s="1">
         <v>0</v>
@@ -7213,10 +7280,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D268" s="1">
         <v>2</v>
@@ -7227,10 +7294,10 @@
         <v>268</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D269" s="1">
         <v>0</v>
@@ -7241,10 +7308,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D270" s="1">
         <v>0</v>
@@ -7255,10 +7322,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D271" s="1">
         <v>0</v>
@@ -7269,10 +7336,10 @@
         <v>271</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D272" s="1">
         <v>0</v>
@@ -7283,10 +7350,10 @@
         <v>272</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D273" s="1">
         <v>0</v>
@@ -7297,10 +7364,10 @@
         <v>273</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D274" s="1">
         <v>0</v>
@@ -7311,10 +7378,10 @@
         <v>274</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D275" s="1">
         <v>0</v>
@@ -7325,10 +7392,10 @@
         <v>275</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D276" s="1">
         <v>0</v>
@@ -7339,10 +7406,10 @@
         <v>276</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D277" s="1">
         <v>0</v>
@@ -7353,10 +7420,10 @@
         <v>277</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D278" s="1">
         <v>0</v>
@@ -7367,10 +7434,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D279" s="1">
         <v>0</v>
@@ -7381,10 +7448,10 @@
         <v>279</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D280" s="1">
         <v>0</v>
@@ -7395,10 +7462,10 @@
         <v>280</v>
       </c>
       <c r="B281" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C281" s="2" t="s">
         <v>439</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>440</v>
       </c>
       <c r="D281" s="1">
         <v>0</v>
@@ -7409,10 +7476,10 @@
         <v>281</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D282" s="1">
         <v>0</v>
@@ -7423,10 +7490,10 @@
         <v>282</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D283" s="1">
         <v>0</v>
@@ -7437,10 +7504,10 @@
         <v>283</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D284" s="1">
         <v>0</v>
@@ -7451,10 +7518,10 @@
         <v>284</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D285" s="1">
         <v>0</v>
@@ -7465,10 +7532,10 @@
         <v>285</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D286" s="1">
         <v>0</v>
@@ -7479,10 +7546,10 @@
         <v>286</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D287" s="1">
         <v>0</v>
@@ -7493,10 +7560,10 @@
         <v>287</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D288" s="1">
         <v>1</v>
@@ -7507,10 +7574,10 @@
         <v>288</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D289" s="1">
         <v>0</v>
@@ -7521,10 +7588,10 @@
         <v>289</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D290" s="1">
         <v>0</v>
@@ -7535,10 +7602,10 @@
         <v>290</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D291" s="1">
         <v>0</v>
@@ -7549,10 +7616,10 @@
         <v>291</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D292" s="1">
         <v>0</v>
@@ -7563,10 +7630,10 @@
         <v>292</v>
       </c>
       <c r="B293" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C293" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="C293" s="1" t="s">
-        <v>457</v>
       </c>
       <c r="D293" s="1">
         <v>0</v>
@@ -7577,10 +7644,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D294" s="1">
         <v>0</v>
@@ -7591,10 +7658,10 @@
         <v>294</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D295" s="1">
         <v>0</v>
@@ -7605,10 +7672,10 @@
         <v>295</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D296" s="1">
         <v>0</v>
@@ -7619,10 +7686,10 @@
         <v>296</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D297" s="1">
         <v>0</v>
@@ -7633,10 +7700,10 @@
         <v>297</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D298" s="1">
         <v>0</v>
@@ -7647,10 +7714,10 @@
         <v>298</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D299" s="1">
         <v>0</v>
@@ -7661,10 +7728,10 @@
         <v>299</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D300" s="1">
         <v>0</v>
@@ -7675,10 +7742,10 @@
         <v>300</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D301" s="1">
         <v>0</v>
@@ -7689,10 +7756,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D302" s="1">
         <v>0</v>
@@ -7703,10 +7770,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D303" s="1">
         <v>0</v>
@@ -7717,10 +7784,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D304" s="1">
         <v>0</v>
@@ -7731,10 +7798,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D305" s="1">
         <v>0</v>
@@ -7745,10 +7812,10 @@
         <v>305</v>
       </c>
       <c r="B306" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C306" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="C306" s="2" t="s">
-        <v>472</v>
       </c>
       <c r="D306" s="1">
         <v>2</v>
@@ -7759,10 +7826,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C307" s="2" t="s">
         <v>473</v>
-      </c>
-      <c r="C307" s="2" t="s">
-        <v>474</v>
       </c>
       <c r="D307" s="1">
         <v>0</v>
@@ -7773,10 +7840,10 @@
         <v>307</v>
       </c>
       <c r="B308" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C308" s="2" t="s">
         <v>475</v>
-      </c>
-      <c r="C308" s="2" t="s">
-        <v>476</v>
       </c>
       <c r="D308" s="1">
         <v>1</v>
@@ -7787,10 +7854,10 @@
         <v>308</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D309" s="1">
         <v>2</v>
@@ -7801,10 +7868,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C310" s="1" t="s">
         <v>478</v>
-      </c>
-      <c r="C310" s="1" t="s">
-        <v>479</v>
       </c>
       <c r="D310" s="1">
         <v>1</v>
@@ -7815,10 +7882,10 @@
         <v>310</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D311" s="1">
         <v>1</v>
@@ -7829,10 +7896,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D312" s="1">
         <v>1</v>
@@ -7843,10 +7910,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D313" s="1">
         <v>1</v>
@@ -7857,10 +7924,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D314" s="1">
         <v>1</v>
@@ -7871,10 +7938,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D315" s="1">
         <v>0</v>
@@ -7885,10 +7952,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D316" s="1">
         <v>2</v>
@@ -7899,10 +7966,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D317" s="1">
         <v>1</v>
@@ -7913,10 +7980,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D318" s="1">
         <v>0</v>
@@ -7927,10 +7994,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D319" s="1">
         <v>1</v>
@@ -7941,10 +8008,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C320" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="C320" s="1" t="s">
-        <v>492</v>
       </c>
       <c r="D320" s="1">
         <v>0</v>
@@ -7955,10 +8022,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D321" s="1">
         <v>0</v>
@@ -7969,10 +8036,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D322" s="1">
         <v>0</v>
@@ -7983,10 +8050,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D323" s="1">
         <v>0</v>
@@ -7997,10 +8064,10 @@
         <v>323</v>
       </c>
       <c r="B324" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C324" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="C324" s="1" t="s">
-        <v>498</v>
       </c>
       <c r="D324" s="1">
         <v>0</v>
@@ -8011,10 +8078,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D325" s="1">
         <v>2</v>
@@ -8025,10 +8092,10 @@
         <v>325</v>
       </c>
       <c r="B326" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C326" s="2" t="s">
         <v>500</v>
-      </c>
-      <c r="C326" s="2" t="s">
-        <v>501</v>
       </c>
       <c r="D326" s="1">
         <v>1</v>
@@ -8039,10 +8106,10 @@
         <v>326</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D327" s="1">
         <v>1</v>
@@ -8053,10 +8120,10 @@
         <v>327</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D328" s="1">
         <v>2</v>
@@ -8067,10 +8134,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D329" s="1">
         <v>2</v>
@@ -8081,10 +8148,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D330" s="1">
         <v>2</v>
@@ -8095,10 +8162,10 @@
         <v>330</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D331" s="1">
         <v>2</v>
@@ -8109,10 +8176,10 @@
         <v>331</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D332" s="1">
         <v>2</v>
@@ -8123,10 +8190,10 @@
         <v>332</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D333" s="1">
         <v>2</v>
@@ -8137,10 +8204,10 @@
         <v>333</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D334" s="1">
         <v>2</v>
@@ -8151,10 +8218,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D335" s="1">
         <v>2</v>
@@ -8165,10 +8232,10 @@
         <v>335</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D336" s="1">
         <v>2</v>
@@ -8179,10 +8246,10 @@
         <v>336</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D337" s="1">
         <v>2</v>
@@ -8193,10 +8260,10 @@
         <v>337</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D338" s="1">
         <v>2</v>
@@ -8207,10 +8274,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="D339" s="1">
         <v>2</v>
@@ -8221,10 +8288,10 @@
         <v>339</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D340" s="1">
         <v>2</v>
@@ -8235,10 +8302,10 @@
         <v>340</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="D341" s="1">
         <v>2</v>
@@ -8249,10 +8316,10 @@
         <v>341</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D342" s="1">
         <v>2</v>
@@ -8263,10 +8330,10 @@
         <v>342</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="D343" s="1">
         <v>2</v>
@@ -8277,10 +8344,10 @@
         <v>343</v>
       </c>
       <c r="B344" s="8" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D344" s="1">
         <v>2</v>
@@ -8291,10 +8358,10 @@
         <v>344</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D345" s="1">
         <v>2</v>
@@ -8305,10 +8372,10 @@
         <v>345</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C346" s="9" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D346" s="1">
         <v>2</v>
@@ -8319,10 +8386,10 @@
         <v>346</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="D347" s="1">
         <v>2</v>
@@ -8333,10 +8400,10 @@
         <v>347</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="D348" s="1">
         <v>2</v>
@@ -8347,10 +8414,10 @@
         <v>348</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="D349" s="1">
         <v>2</v>
@@ -8361,10 +8428,10 @@
         <v>349</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D350" s="1">
         <v>2</v>
@@ -8375,10 +8442,10 @@
         <v>350</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="D351" s="1">
         <v>2</v>
@@ -8389,10 +8456,10 @@
         <v>351</v>
       </c>
       <c r="B352" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="C352" s="10" t="s">
         <v>696</v>
-      </c>
-      <c r="C352" s="10" t="s">
-        <v>699</v>
       </c>
       <c r="D352" s="7">
         <v>2</v>
@@ -8403,10 +8470,10 @@
         <v>352</v>
       </c>
       <c r="B353" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="D353" s="1">
         <v>2</v>
@@ -8417,10 +8484,10 @@
         <v>353</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="D354" s="1"/>
     </row>
@@ -8429,10 +8496,10 @@
         <v>354</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="D355" s="1"/>
     </row>
@@ -8441,10 +8508,10 @@
         <v>355</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D356" s="1"/>
     </row>
@@ -8453,10 +8520,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="D357" s="1"/>
     </row>
@@ -8465,10 +8532,10 @@
         <v>357</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="D358" s="1"/>
     </row>
@@ -8477,10 +8544,10 @@
         <v>358</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="D359" s="1"/>
     </row>
@@ -8489,18 +8556,102 @@
         <v>359</v>
       </c>
       <c r="B360" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="D360" s="1"/>
+    </row>
+    <row r="361" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A361" s="1">
+        <v>360</v>
+      </c>
+      <c r="B361" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="C360" s="2" t="s">
+      <c r="C361" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="D360" s="1"/>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A361" s="1"/>
-      <c r="B361" s="1"/>
-      <c r="C361" s="1"/>
       <c r="D361" s="1"/>
+    </row>
+    <row r="362" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A362" s="1">
+        <v>361</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="D362" s="1"/>
+    </row>
+    <row r="363" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A363" s="1">
+        <v>362</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="D363" s="1"/>
+    </row>
+    <row r="364" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A364" s="1">
+        <v>363</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="D364" s="1"/>
+    </row>
+    <row r="365" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A365" s="1">
+        <v>364</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="D365" s="1"/>
+    </row>
+    <row r="366" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A366" s="1">
+        <v>365</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="D366" s="1"/>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367" s="1">
+        <v>366</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="D367" s="1"/>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368" s="1"/>
+      <c r="B368" s="1"/>
+      <c r="C368" s="1"/>
+      <c r="D368" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Quiz 3/bin/Debug/net9.0/Quiz3.xlsx
+++ b/Quiz 3/bin/Debug/net9.0/Quiz3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\Quiz 3\Quiz 3\bin\Debug\net9.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414BCD0C-FD8D-42D5-A682-6EBF7722F3B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB472DDC-8A65-4D74-BB3D-545B179F9BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A52166B1-4494-480B-A027-66F199F0B402}"/>
   </bookViews>
@@ -2533,13 +2533,6 @@
     <t>В Minimal API сервисы внедряются в делегат как параметры. DI контейнер автоматически разрешит зависимости при вызове эндпоинта</t>
   </si>
   <si>
-    <t xml:space="preserve">"Event Sourcing — это архитектурный паттерн, при котором мы храним не текущее состояние сущности, а всю последовательность событий, которые с ней произошли.
-Все изменения фиксируются как последовательность неизменяемых событий
-Каждое событие — это факт, который уже произошел в системе
-Текущее состояние вычисляется путем применения всех предыдущих событий
-События хранятся постоянно </t>
-  </si>
-  <si>
     <t xml:space="preserve">это фундаментальный механизм в CQRS для асинхронной синхронизации  Read Model на основе фактов, произошедших в домене.
 </t>
   </si>
@@ -3107,6 +3100,12 @@
   </si>
   <si>
     <t>это паттерн, который позволяет отделить отправку запроса от получения ответа, когда операция выполняется длительное время.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Event Sourcing — это архитектурный паттерн, при котором мы храним не текущее состояние сущности, а всю последовательность событий, которые с ней произошли.
+Каждое событие — это факт, который уже произошел в системе
+Текущее состояние вычисляется путем применения всех предыдущих событий
+События хранятся постоянно </t>
   </si>
 </sst>
 </file>
@@ -3527,8 +3526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C34F926-ACF9-49CF-9B6A-0D737BBB828A}">
   <dimension ref="A1:D368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
-      <selection activeCell="C370" sqref="C370"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3895,7 +3894,7 @@
         <v>47</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
@@ -4063,7 +4062,7 @@
         <v>68</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D38" s="1">
         <v>2</v>
@@ -4105,7 +4104,7 @@
         <v>74</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D41" s="1">
         <v>2</v>
@@ -4144,7 +4143,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>78</v>
@@ -4427,7 +4426,7 @@
         <v>112</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D64" s="1">
         <v>1</v>
@@ -4511,7 +4510,7 @@
         <v>123</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D70" s="1">
         <v>2</v>
@@ -4693,7 +4692,7 @@
         <v>145</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D83" s="1">
         <v>2</v>
@@ -4763,7 +4762,7 @@
         <v>156</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D88" s="1">
         <v>2</v>
@@ -4833,7 +4832,7 @@
         <v>164</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D93" s="1">
         <v>0</v>
@@ -4889,7 +4888,7 @@
         <v>172</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D97" s="1">
         <v>1</v>
@@ -5099,7 +5098,7 @@
         <v>196</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D112" s="1">
         <v>0</v>
@@ -5113,7 +5112,7 @@
         <v>197</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D113" s="1">
         <v>2</v>
@@ -5138,10 +5137,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="C115" s="2" t="s">
         <v>727</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>728</v>
       </c>
       <c r="D115" s="1">
         <v>2</v>
@@ -5197,7 +5196,7 @@
         <v>202</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D119" s="1">
         <v>2</v>
@@ -5231,7 +5230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -5239,7 +5238,7 @@
         <v>207</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>621</v>
+        <v>734</v>
       </c>
       <c r="D122" s="1">
         <v>2</v>
@@ -5323,7 +5322,7 @@
         <v>217</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D128" s="1">
         <v>2</v>
@@ -5659,7 +5658,7 @@
         <v>254</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D152" s="1">
         <v>2</v>
@@ -5855,7 +5854,7 @@
         <v>275</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D166" s="1">
         <v>1</v>
@@ -5883,7 +5882,7 @@
         <v>278</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D168" s="1">
         <v>0</v>
@@ -6163,7 +6162,7 @@
         <v>314</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D188" s="1">
         <v>2</v>
@@ -6177,7 +6176,7 @@
         <v>315</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D189" s="1">
         <v>0</v>
@@ -6289,7 +6288,7 @@
         <v>325</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D197" s="1">
         <v>0</v>
@@ -6331,7 +6330,7 @@
         <v>329</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D200" s="1">
         <v>0</v>
@@ -6359,7 +6358,7 @@
         <v>332</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D202" s="1">
         <v>2</v>
@@ -6471,7 +6470,7 @@
         <v>343</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D210" s="1">
         <v>1</v>
@@ -6499,7 +6498,7 @@
         <v>344</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D212" s="1">
         <v>1</v>
@@ -6653,7 +6652,7 @@
         <v>359</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D223" s="1">
         <v>2</v>
@@ -6779,7 +6778,7 @@
         <v>370</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D232" s="1">
         <v>1</v>
@@ -6821,7 +6820,7 @@
         <v>373</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D235" s="1">
         <v>1</v>
@@ -6849,7 +6848,7 @@
         <v>375</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D237" s="1">
         <v>0</v>
@@ -6989,7 +6988,7 @@
         <v>389</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D247" s="1">
         <v>1</v>
@@ -7031,7 +7030,7 @@
         <v>394</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D250" s="1">
         <v>1</v>
@@ -7255,7 +7254,7 @@
         <v>418</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D266" s="1">
         <v>1</v>
@@ -7367,7 +7366,7 @@
         <v>428</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D274" s="1">
         <v>0</v>
@@ -7521,7 +7520,7 @@
         <v>445</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D285" s="1">
         <v>0</v>
@@ -7591,7 +7590,7 @@
         <v>451</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D290" s="1">
         <v>0</v>
@@ -7745,7 +7744,7 @@
         <v>465</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D301" s="1">
         <v>0</v>
@@ -7773,7 +7772,7 @@
         <v>467</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D303" s="1">
         <v>0</v>
@@ -7857,7 +7856,7 @@
         <v>476</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D309" s="1">
         <v>2</v>
@@ -7885,7 +7884,7 @@
         <v>479</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D311" s="1">
         <v>1</v>
@@ -7913,7 +7912,7 @@
         <v>482</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D313" s="1">
         <v>1</v>
@@ -8137,7 +8136,7 @@
         <v>570</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D329" s="1">
         <v>2</v>
@@ -8176,10 +8175,10 @@
         <v>331</v>
       </c>
       <c r="B332" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="C332" s="2" t="s">
         <v>645</v>
-      </c>
-      <c r="C332" s="2" t="s">
-        <v>646</v>
       </c>
       <c r="D332" s="1">
         <v>2</v>
@@ -8190,10 +8189,10 @@
         <v>332</v>
       </c>
       <c r="B333" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C333" s="1" t="s">
         <v>655</v>
-      </c>
-      <c r="C333" s="1" t="s">
-        <v>656</v>
       </c>
       <c r="D333" s="1">
         <v>2</v>
@@ -8204,10 +8203,10 @@
         <v>333</v>
       </c>
       <c r="B334" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="C334" s="1" t="s">
         <v>657</v>
-      </c>
-      <c r="C334" s="1" t="s">
-        <v>658</v>
       </c>
       <c r="D334" s="1">
         <v>2</v>
@@ -8218,10 +8217,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C335" s="2" t="s">
         <v>659</v>
-      </c>
-      <c r="C335" s="2" t="s">
-        <v>660</v>
       </c>
       <c r="D335" s="1">
         <v>2</v>
@@ -8232,10 +8231,10 @@
         <v>335</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D336" s="1">
         <v>2</v>
@@ -8246,10 +8245,10 @@
         <v>336</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D337" s="1">
         <v>2</v>
@@ -8260,10 +8259,10 @@
         <v>337</v>
       </c>
       <c r="B338" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="C338" s="2" t="s">
         <v>665</v>
-      </c>
-      <c r="C338" s="2" t="s">
-        <v>666</v>
       </c>
       <c r="D338" s="1">
         <v>2</v>
@@ -8274,10 +8273,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D339" s="1">
         <v>2</v>
@@ -8288,10 +8287,10 @@
         <v>339</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D340" s="1">
         <v>2</v>
@@ -8302,10 +8301,10 @@
         <v>340</v>
       </c>
       <c r="B341" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="C341" s="2" t="s">
         <v>671</v>
-      </c>
-      <c r="C341" s="2" t="s">
-        <v>672</v>
       </c>
       <c r="D341" s="1">
         <v>2</v>
@@ -8316,10 +8315,10 @@
         <v>341</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D342" s="1">
         <v>2</v>
@@ -8330,10 +8329,10 @@
         <v>342</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D343" s="1">
         <v>2</v>
@@ -8344,10 +8343,10 @@
         <v>343</v>
       </c>
       <c r="B344" s="8" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D344" s="1">
         <v>2</v>
@@ -8358,10 +8357,10 @@
         <v>344</v>
       </c>
       <c r="B345" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C345" s="2" t="s">
         <v>678</v>
-      </c>
-      <c r="C345" s="2" t="s">
-        <v>679</v>
       </c>
       <c r="D345" s="1">
         <v>2</v>
@@ -8372,10 +8371,10 @@
         <v>345</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C346" s="9" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D346" s="1">
         <v>2</v>
@@ -8386,10 +8385,10 @@
         <v>346</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D347" s="1">
         <v>2</v>
@@ -8400,10 +8399,10 @@
         <v>347</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D348" s="1">
         <v>2</v>
@@ -8414,10 +8413,10 @@
         <v>348</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D349" s="1">
         <v>2</v>
@@ -8428,10 +8427,10 @@
         <v>349</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D350" s="1">
         <v>2</v>
@@ -8442,10 +8441,10 @@
         <v>350</v>
       </c>
       <c r="B351" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C351" s="2" t="s">
         <v>691</v>
-      </c>
-      <c r="C351" s="2" t="s">
-        <v>692</v>
       </c>
       <c r="D351" s="1">
         <v>2</v>
@@ -8456,10 +8455,10 @@
         <v>351</v>
       </c>
       <c r="B352" s="7" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C352" s="10" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D352" s="7">
         <v>2</v>
@@ -8470,10 +8469,10 @@
         <v>352</v>
       </c>
       <c r="B353" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="C353" s="2" t="s">
         <v>701</v>
-      </c>
-      <c r="C353" s="2" t="s">
-        <v>702</v>
       </c>
       <c r="D353" s="1">
         <v>2</v>
@@ -8484,10 +8483,10 @@
         <v>353</v>
       </c>
       <c r="B354" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="C354" s="2" t="s">
         <v>703</v>
-      </c>
-      <c r="C354" s="2" t="s">
-        <v>704</v>
       </c>
       <c r="D354" s="1"/>
     </row>
@@ -8496,10 +8495,10 @@
         <v>354</v>
       </c>
       <c r="B355" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="C355" s="2" t="s">
         <v>705</v>
-      </c>
-      <c r="C355" s="2" t="s">
-        <v>706</v>
       </c>
       <c r="D355" s="1"/>
     </row>
@@ -8508,10 +8507,10 @@
         <v>355</v>
       </c>
       <c r="B356" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="C356" s="2" t="s">
         <v>708</v>
-      </c>
-      <c r="C356" s="2" t="s">
-        <v>709</v>
       </c>
       <c r="D356" s="1"/>
     </row>
@@ -8520,10 +8519,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="C357" s="2" t="s">
         <v>710</v>
-      </c>
-      <c r="C357" s="2" t="s">
-        <v>711</v>
       </c>
       <c r="D357" s="1"/>
     </row>
@@ -8532,10 +8531,10 @@
         <v>357</v>
       </c>
       <c r="B358" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="C358" s="2" t="s">
         <v>712</v>
-      </c>
-      <c r="C358" s="2" t="s">
-        <v>713</v>
       </c>
       <c r="D358" s="1"/>
     </row>
@@ -8544,10 +8543,10 @@
         <v>358</v>
       </c>
       <c r="B359" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C359" s="2" t="s">
         <v>714</v>
-      </c>
-      <c r="C359" s="2" t="s">
-        <v>715</v>
       </c>
       <c r="D359" s="1"/>
     </row>
@@ -8556,10 +8555,10 @@
         <v>359</v>
       </c>
       <c r="B360" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="C360" s="2" t="s">
         <v>716</v>
-      </c>
-      <c r="C360" s="2" t="s">
-        <v>717</v>
       </c>
       <c r="D360" s="1"/>
     </row>
@@ -8568,10 +8567,10 @@
         <v>360</v>
       </c>
       <c r="B361" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="C361" s="2" t="s">
         <v>719</v>
-      </c>
-      <c r="C361" s="2" t="s">
-        <v>720</v>
       </c>
       <c r="D361" s="1"/>
     </row>
@@ -8580,10 +8579,10 @@
         <v>361</v>
       </c>
       <c r="B362" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="C362" s="2" t="s">
         <v>721</v>
-      </c>
-      <c r="C362" s="2" t="s">
-        <v>722</v>
       </c>
       <c r="D362" s="1"/>
     </row>
@@ -8592,10 +8591,10 @@
         <v>362</v>
       </c>
       <c r="B363" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="C363" s="2" t="s">
         <v>723</v>
-      </c>
-      <c r="C363" s="2" t="s">
-        <v>724</v>
       </c>
       <c r="D363" s="1"/>
     </row>
@@ -8604,10 +8603,10 @@
         <v>363</v>
       </c>
       <c r="B364" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C364" s="2" t="s">
         <v>725</v>
-      </c>
-      <c r="C364" s="2" t="s">
-        <v>726</v>
       </c>
       <c r="D364" s="1"/>
     </row>
@@ -8616,10 +8615,10 @@
         <v>364</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D365" s="1"/>
     </row>
@@ -8628,10 +8627,10 @@
         <v>365</v>
       </c>
       <c r="B366" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="C366" s="2" t="s">
         <v>731</v>
-      </c>
-      <c r="C366" s="2" t="s">
-        <v>732</v>
       </c>
       <c r="D366" s="1"/>
     </row>
@@ -8640,10 +8639,10 @@
         <v>366</v>
       </c>
       <c r="B367" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C367" s="1" t="s">
         <v>733</v>
-      </c>
-      <c r="C367" s="1" t="s">
-        <v>734</v>
       </c>
       <c r="D367" s="1"/>
     </row>
